--- a/combined_dataframes.xlsx
+++ b/combined_dataframes.xlsx
@@ -10,13 +10,15 @@
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Samples" sheetId="2" r:id="rId2"/>
     <sheet name="Standard Deviations" sheetId="3" r:id="rId3"/>
+    <sheet name="Absorbance Material" sheetId="4" r:id="rId4"/>
+    <sheet name="Absorbance Sample" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
   <si>
     <t>Wavelength</t>
   </si>
@@ -3996,4 +3998,2485 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1091032787514837</v>
+      </c>
+      <c r="C2">
+        <v>0.1101816761276027</v>
+      </c>
+      <c r="D2">
+        <v>0.02741273299404127</v>
+      </c>
+      <c r="E2">
+        <v>0.1180603826647182</v>
+      </c>
+      <c r="F2">
+        <v>0.1971650202481618</v>
+      </c>
+      <c r="G2">
+        <v>0.2568725770218377</v>
+      </c>
+      <c r="H2">
+        <v>0.1527637526862227</v>
+      </c>
+      <c r="I2">
+        <v>0.3310160310405767</v>
+      </c>
+      <c r="J2">
+        <v>0.4226856392910123</v>
+      </c>
+      <c r="K2">
+        <v>0.5406774829821425</v>
+      </c>
+      <c r="L2">
+        <v>0.6199774313573367</v>
+      </c>
+      <c r="M2">
+        <v>0.9667226091397561</v>
+      </c>
+      <c r="N2">
+        <v>1.071864830461241</v>
+      </c>
+      <c r="O2">
+        <v>0.6623277337807519</v>
+      </c>
+      <c r="P2">
+        <v>1.103874344692192</v>
+      </c>
+      <c r="Q2">
+        <v>1.08185466692754</v>
+      </c>
+      <c r="R2">
+        <v>1.132474218027037</v>
+      </c>
+      <c r="S2">
+        <v>0.6776275958351473</v>
+      </c>
+      <c r="T2">
+        <v>1.102915602939393</v>
+      </c>
+      <c r="U2">
+        <v>1.257876888228906</v>
+      </c>
+      <c r="V2">
+        <v>1.524035159648379</v>
+      </c>
+      <c r="W2">
+        <v>0.947323714538376</v>
+      </c>
+      <c r="X2">
+        <v>1.623776114922772</v>
+      </c>
+      <c r="Y2">
+        <v>1.673470685028914</v>
+      </c>
+      <c r="Z2">
+        <v>0.7745266666654831</v>
+      </c>
+      <c r="AA2">
+        <v>1.789368583984428</v>
+      </c>
+      <c r="AB2">
+        <v>1.868469770158993</v>
+      </c>
+      <c r="AC2">
+        <v>0.3496328657293818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.1065248613707963</v>
+      </c>
+      <c r="C3">
+        <v>0.1141159770063213</v>
+      </c>
+      <c r="D3">
+        <v>0.0262091357323121</v>
+      </c>
+      <c r="E3">
+        <v>0.1105868532978474</v>
+      </c>
+      <c r="F3">
+        <v>0.1842595514100371</v>
+      </c>
+      <c r="G3">
+        <v>0.2409665056731912</v>
+      </c>
+      <c r="H3">
+        <v>0.1559882252553818</v>
+      </c>
+      <c r="I3">
+        <v>0.3100647834838206</v>
+      </c>
+      <c r="J3">
+        <v>0.3967371912363383</v>
+      </c>
+      <c r="K3">
+        <v>0.5261091306312111</v>
+      </c>
+      <c r="L3">
+        <v>0.6086500885306875</v>
+      </c>
+      <c r="M3">
+        <v>0.9317318787692025</v>
+      </c>
+      <c r="N3">
+        <v>1.060054965353013</v>
+      </c>
+      <c r="O3">
+        <v>0.6428777725291057</v>
+      </c>
+      <c r="P3">
+        <v>1.063555030082388</v>
+      </c>
+      <c r="Q3">
+        <v>1.047930608081077</v>
+      </c>
+      <c r="R3">
+        <v>1.091167185846077</v>
+      </c>
+      <c r="S3">
+        <v>0.6580900111495951</v>
+      </c>
+      <c r="T3">
+        <v>1.062500997870782</v>
+      </c>
+      <c r="U3">
+        <v>1.231580949784416</v>
+      </c>
+      <c r="V3">
+        <v>1.471728759625167</v>
+      </c>
+      <c r="W3">
+        <v>0.9186556038780315</v>
+      </c>
+      <c r="X3">
+        <v>1.591855118739844</v>
+      </c>
+      <c r="Y3">
+        <v>1.633544391150927</v>
+      </c>
+      <c r="Z3">
+        <v>0.7552838139763814</v>
+      </c>
+      <c r="AA3">
+        <v>1.744549079472522</v>
+      </c>
+      <c r="AB3">
+        <v>1.825834434720153</v>
+      </c>
+      <c r="AC3">
+        <v>0.3280596922560227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.1020898253374901</v>
+      </c>
+      <c r="C4">
+        <v>0.1160811511517312</v>
+      </c>
+      <c r="D4">
+        <v>0.03309911453127855</v>
+      </c>
+      <c r="E4">
+        <v>0.1106021758022038</v>
+      </c>
+      <c r="F4">
+        <v>0.1856046420871866</v>
+      </c>
+      <c r="G4">
+        <v>0.2385857584304371</v>
+      </c>
+      <c r="H4">
+        <v>0.1701105787892694</v>
+      </c>
+      <c r="I4">
+        <v>0.3175301142925238</v>
+      </c>
+      <c r="J4">
+        <v>0.4127586454760483</v>
+      </c>
+      <c r="K4">
+        <v>0.5536811362301561</v>
+      </c>
+      <c r="L4">
+        <v>0.6262907492598118</v>
+      </c>
+      <c r="M4">
+        <v>0.9451956914934021</v>
+      </c>
+      <c r="N4">
+        <v>1.075420750105125</v>
+      </c>
+      <c r="O4">
+        <v>0.6764117477818518</v>
+      </c>
+      <c r="P4">
+        <v>1.119956499461221</v>
+      </c>
+      <c r="Q4">
+        <v>1.106178038515265</v>
+      </c>
+      <c r="R4">
+        <v>1.13245424365302</v>
+      </c>
+      <c r="S4">
+        <v>0.6788729504973916</v>
+      </c>
+      <c r="T4">
+        <v>1.115583639000869</v>
+      </c>
+      <c r="U4">
+        <v>1.289063642109349</v>
+      </c>
+      <c r="V4">
+        <v>1.556285665468272</v>
+      </c>
+      <c r="W4">
+        <v>0.9540318256533921</v>
+      </c>
+      <c r="X4">
+        <v>1.691181858761334</v>
+      </c>
+      <c r="Y4">
+        <v>1.749800362682512</v>
+      </c>
+      <c r="Z4">
+        <v>0.7769723148426648</v>
+      </c>
+      <c r="AA4">
+        <v>1.854703786777249</v>
+      </c>
+      <c r="AB4">
+        <v>1.953347187822582</v>
+      </c>
+      <c r="AC4">
+        <v>0.3536839970022914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.1599624977141008</v>
+      </c>
+      <c r="C5">
+        <v>0.1549443537356876</v>
+      </c>
+      <c r="D5">
+        <v>0.04228221841153366</v>
+      </c>
+      <c r="E5">
+        <v>0.1582341396406156</v>
+      </c>
+      <c r="F5">
+        <v>0.2417216944401548</v>
+      </c>
+      <c r="G5">
+        <v>0.3129857256943832</v>
+      </c>
+      <c r="H5">
+        <v>0.1623589290157654</v>
+      </c>
+      <c r="I5">
+        <v>0.3841300182971971</v>
+      </c>
+      <c r="J5">
+        <v>0.4637459682559456</v>
+      </c>
+      <c r="K5">
+        <v>0.5978837406411646</v>
+      </c>
+      <c r="L5">
+        <v>0.610313468099947</v>
+      </c>
+      <c r="M5">
+        <v>1.0250397916582</v>
+      </c>
+      <c r="N5">
+        <v>1.122005416909158</v>
+      </c>
+      <c r="O5">
+        <v>0.6694403468784057</v>
+      </c>
+      <c r="P5">
+        <v>1.172737239856142</v>
+      </c>
+      <c r="Q5">
+        <v>1.15173315119782</v>
+      </c>
+      <c r="R5">
+        <v>1.162216719192099</v>
+      </c>
+      <c r="S5">
+        <v>0.6756797871111998</v>
+      </c>
+      <c r="T5">
+        <v>1.15412976740858</v>
+      </c>
+      <c r="U5">
+        <v>1.301905632800824</v>
+      </c>
+      <c r="V5">
+        <v>1.596075283413903</v>
+      </c>
+      <c r="W5">
+        <v>1.015285035601363</v>
+      </c>
+      <c r="X5">
+        <v>1.709077309482693</v>
+      </c>
+      <c r="Y5">
+        <v>1.781046231835997</v>
+      </c>
+      <c r="Z5">
+        <v>0.8355139900344872</v>
+      </c>
+      <c r="AA5">
+        <v>1.909531034931402</v>
+      </c>
+      <c r="AB5">
+        <v>2.010729426263379</v>
+      </c>
+      <c r="AC5">
+        <v>0.3987581227923139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.09885921131259251</v>
+      </c>
+      <c r="C6">
+        <v>0.1078691868591891</v>
+      </c>
+      <c r="D6">
+        <v>0.04677974162968777</v>
+      </c>
+      <c r="E6">
+        <v>0.1203978287893512</v>
+      </c>
+      <c r="F6">
+        <v>0.1723363178817414</v>
+      </c>
+      <c r="G6">
+        <v>0.2395157272837175</v>
+      </c>
+      <c r="H6">
+        <v>0.1666955948467023</v>
+      </c>
+      <c r="I6">
+        <v>0.3228584220772007</v>
+      </c>
+      <c r="J6">
+        <v>0.3975796067863022</v>
+      </c>
+      <c r="K6">
+        <v>0.5518114607652178</v>
+      </c>
+      <c r="L6">
+        <v>0.6079345442989547</v>
+      </c>
+      <c r="M6">
+        <v>0.9057516722434528</v>
+      </c>
+      <c r="N6">
+        <v>0.9902980475907769</v>
+      </c>
+      <c r="O6">
+        <v>0.6390556885676887</v>
+      </c>
+      <c r="P6">
+        <v>1.02600371494347</v>
+      </c>
+      <c r="Q6">
+        <v>1.005215255941397</v>
+      </c>
+      <c r="R6">
+        <v>1.021519532261951</v>
+      </c>
+      <c r="S6">
+        <v>0.6531380872264289</v>
+      </c>
+      <c r="T6">
+        <v>1.031185390078135</v>
+      </c>
+      <c r="U6">
+        <v>1.168228170104673</v>
+      </c>
+      <c r="V6">
+        <v>1.462199316919897</v>
+      </c>
+      <c r="W6">
+        <v>0.9255202102402511</v>
+      </c>
+      <c r="X6">
+        <v>1.483586743380633</v>
+      </c>
+      <c r="Y6">
+        <v>1.622920436767506</v>
+      </c>
+      <c r="Z6">
+        <v>0.7517312001947793</v>
+      </c>
+      <c r="AA6">
+        <v>1.724830633510442</v>
+      </c>
+      <c r="AB6">
+        <v>1.74616002108639</v>
+      </c>
+      <c r="AC6">
+        <v>0.3449175146224282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.1461600070381094</v>
+      </c>
+      <c r="C7">
+        <v>0.1417556465953067</v>
+      </c>
+      <c r="D7">
+        <v>0.04642783725400321</v>
+      </c>
+      <c r="E7">
+        <v>0.1640492833022129</v>
+      </c>
+      <c r="F7">
+        <v>0.2478341141480356</v>
+      </c>
+      <c r="G7">
+        <v>0.2719387859520953</v>
+      </c>
+      <c r="H7">
+        <v>0.2087689465084316</v>
+      </c>
+      <c r="I7">
+        <v>0.4002275820371259</v>
+      </c>
+      <c r="J7">
+        <v>0.5091136356686438</v>
+      </c>
+      <c r="K7">
+        <v>0.6156866824518425</v>
+      </c>
+      <c r="L7">
+        <v>0.7799711349839066</v>
+      </c>
+      <c r="M7">
+        <v>1.179799416265034</v>
+      </c>
+      <c r="N7">
+        <v>1.452354802479325</v>
+      </c>
+      <c r="O7">
+        <v>0.8551849957880159</v>
+      </c>
+      <c r="P7">
+        <v>1.450847554321722</v>
+      </c>
+      <c r="Q7">
+        <v>1.450527234440926</v>
+      </c>
+      <c r="R7">
+        <v>1.428536083645852</v>
+      </c>
+      <c r="S7">
+        <v>0.8406045818969866</v>
+      </c>
+      <c r="T7">
+        <v>1.444643536698521</v>
+      </c>
+      <c r="U7">
+        <v>1.733011419134605</v>
+      </c>
+      <c r="V7">
+        <v>2.38870893597383</v>
+      </c>
+      <c r="W7">
+        <v>1.285816317118114</v>
+      </c>
+      <c r="X7">
+        <v>2.417209374242582</v>
+      </c>
+      <c r="Y7">
+        <v>2.740654052592297</v>
+      </c>
+      <c r="Z7">
+        <v>1.00776014472243</v>
+      </c>
+      <c r="AA7">
+        <v>3.21325846353809</v>
+      </c>
+      <c r="AB7">
+        <v>3.732407623899116</v>
+      </c>
+      <c r="AC7">
+        <v>0.4325244194631127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CI7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:87">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06795099732174277</v>
+      </c>
+      <c r="C2">
+        <v>0.08185805465480191</v>
+      </c>
+      <c r="D2">
+        <v>0.1545338928394538</v>
+      </c>
+      <c r="E2">
+        <v>0.1595285979578524</v>
+      </c>
+      <c r="F2">
+        <v>0.1611356300105169</v>
+      </c>
+      <c r="G2">
+        <v>0.1657440760914083</v>
+      </c>
+      <c r="H2">
+        <v>0.1522321958209901</v>
+      </c>
+      <c r="I2">
+        <v>0.1604916017349513</v>
+      </c>
+      <c r="J2">
+        <v>0.1120118472991535</v>
+      </c>
+      <c r="K2">
+        <v>0.1194300125897388</v>
+      </c>
+      <c r="L2">
+        <v>0.002974758985301182</v>
+      </c>
+      <c r="M2">
+        <v>0.1121004179217738</v>
+      </c>
+      <c r="N2">
+        <v>0.1913025001408202</v>
+      </c>
+      <c r="O2">
+        <v>0.2010557087478083</v>
+      </c>
+      <c r="P2">
+        <v>0.1945269807809258</v>
+      </c>
+      <c r="Q2">
+        <v>0.2779525147030378</v>
+      </c>
+      <c r="R2">
+        <v>0.2690071736811264</v>
+      </c>
+      <c r="S2">
+        <v>0.2716118830993711</v>
+      </c>
+      <c r="T2">
+        <v>0.3176560953365489</v>
+      </c>
+      <c r="U2">
+        <v>0.3301819559422958</v>
+      </c>
+      <c r="V2">
+        <v>0.3131392511907007</v>
+      </c>
+      <c r="W2">
+        <v>0.001330261400455145</v>
+      </c>
+      <c r="X2">
+        <v>0.3266598543948022</v>
+      </c>
+      <c r="Y2">
+        <v>0.3319231269399354</v>
+      </c>
+      <c r="Z2">
+        <v>0.33346493110568</v>
+      </c>
+      <c r="AA2">
+        <v>0.4829306993669014</v>
+      </c>
+      <c r="AB2">
+        <v>0.4898524009478926</v>
+      </c>
+      <c r="AC2">
+        <v>0.4896019436102285</v>
+      </c>
+      <c r="AD2">
+        <v>0.4373970654521983</v>
+      </c>
+      <c r="AE2">
+        <v>0.4306792180796415</v>
+      </c>
+      <c r="AF2">
+        <v>0.4277006167351722</v>
+      </c>
+      <c r="AG2">
+        <v>1.01899263158486</v>
+      </c>
+      <c r="AH2">
+        <v>0.1995119506017013</v>
+      </c>
+      <c r="AI2">
+        <v>1.026949115133777</v>
+      </c>
+      <c r="AJ2">
+        <v>1.024379418627245</v>
+      </c>
+      <c r="AK2">
+        <v>1.013984726349174</v>
+      </c>
+      <c r="AL2">
+        <v>1.016103755226842</v>
+      </c>
+      <c r="AM2">
+        <v>1.017959728441051</v>
+      </c>
+      <c r="AN2">
+        <v>1.12178981811764</v>
+      </c>
+      <c r="AO2">
+        <v>1.128846836013933</v>
+      </c>
+      <c r="AP2">
+        <v>1.112898153439635</v>
+      </c>
+      <c r="AQ2">
+        <v>1.108901319659735</v>
+      </c>
+      <c r="AR2">
+        <v>1.107784533644136</v>
+      </c>
+      <c r="AS2">
+        <v>0.2078434700802005</v>
+      </c>
+      <c r="AT2">
+        <v>1.126976540244029</v>
+      </c>
+      <c r="AU2">
+        <v>1.15642433072145</v>
+      </c>
+      <c r="AV2">
+        <v>1.176725201038425</v>
+      </c>
+      <c r="AW2">
+        <v>1.144612984295044</v>
+      </c>
+      <c r="AX2">
+        <v>1.131278282202457</v>
+      </c>
+      <c r="AY2">
+        <v>1.117729844113085</v>
+      </c>
+      <c r="AZ2">
+        <v>1.116643994309363</v>
+      </c>
+      <c r="BA2">
+        <v>1.212702435619046</v>
+      </c>
+      <c r="BB2">
+        <v>1.21928876747057</v>
+      </c>
+      <c r="BC2">
+        <v>1.210609183259514</v>
+      </c>
+      <c r="BD2">
+        <v>0.204715584709188</v>
+      </c>
+      <c r="BE2">
+        <v>1.086805281829825</v>
+      </c>
+      <c r="BF2">
+        <v>1.084310676819978</v>
+      </c>
+      <c r="BG2">
+        <v>1.076349440387174</v>
+      </c>
+      <c r="BH2">
+        <v>1.313627091948996</v>
+      </c>
+      <c r="BI2">
+        <v>1.306779881285925</v>
+      </c>
+      <c r="BJ2">
+        <v>1.313414825429418</v>
+      </c>
+      <c r="BK2">
+        <v>1.301348894529031</v>
+      </c>
+      <c r="BL2">
+        <v>1.3051761215023</v>
+      </c>
+      <c r="BM2">
+        <v>1.317076515764124</v>
+      </c>
+      <c r="BN2">
+        <v>2.488672286634736</v>
+      </c>
+      <c r="BO2">
+        <v>0.06283595561770416</v>
+      </c>
+      <c r="BP2">
+        <v>2.474974116374596</v>
+      </c>
+      <c r="BQ2">
+        <v>2.475548528763476</v>
+      </c>
+      <c r="BR2">
+        <v>1.677426607305108</v>
+      </c>
+      <c r="BS2">
+        <v>1.681449415043503</v>
+      </c>
+      <c r="BT2">
+        <v>1.660453162689851</v>
+      </c>
+      <c r="BU2">
+        <v>1.714476497547774</v>
+      </c>
+      <c r="BV2">
+        <v>1.765027021071516</v>
+      </c>
+      <c r="BW2">
+        <v>1.690234886541741</v>
+      </c>
+      <c r="BX2">
+        <v>1.701908530833132</v>
+      </c>
+      <c r="BY2">
+        <v>1.704198085567938</v>
+      </c>
+      <c r="BZ2">
+        <v>0.04918456893420017</v>
+      </c>
+      <c r="CA2">
+        <v>1.687194530989987</v>
+      </c>
+      <c r="CB2">
+        <v>1.919785367810857</v>
+      </c>
+      <c r="CC2">
+        <v>1.928167274677659</v>
+      </c>
+      <c r="CD2">
+        <v>1.907916940354473</v>
+      </c>
+      <c r="CE2">
+        <v>1.919215747486826</v>
+      </c>
+      <c r="CF2">
+        <v>1.926238552017087</v>
+      </c>
+      <c r="CG2">
+        <v>1.912777983247811</v>
+      </c>
+      <c r="CH2">
+        <v>0.0614402292893785</v>
+      </c>
+      <c r="CI2">
+        <v>0.07791362787603238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.06254309411229172</v>
+      </c>
+      <c r="C3">
+        <v>0.05785678103512904</v>
+      </c>
+      <c r="D3">
+        <v>0.1433899630497707</v>
+      </c>
+      <c r="E3">
+        <v>0.1483169813843757</v>
+      </c>
+      <c r="F3">
+        <v>0.1470527193014075</v>
+      </c>
+      <c r="G3">
+        <v>0.1496672710642195</v>
+      </c>
+      <c r="H3">
+        <v>0.1540524273499986</v>
+      </c>
+      <c r="I3">
+        <v>0.1578234254181533</v>
+      </c>
+      <c r="J3">
+        <v>0.1037213976898729</v>
+      </c>
+      <c r="K3">
+        <v>0.09495811317170584</v>
+      </c>
+      <c r="L3">
+        <v>0.002315853507733548</v>
+      </c>
+      <c r="M3">
+        <v>0.1011536916548215</v>
+      </c>
+      <c r="N3">
+        <v>0.1789797946206727</v>
+      </c>
+      <c r="O3">
+        <v>0.1726894573919343</v>
+      </c>
+      <c r="P3">
+        <v>0.1738728165946373</v>
+      </c>
+      <c r="Q3">
+        <v>0.2525142444596454</v>
+      </c>
+      <c r="R3">
+        <v>0.2475249976218991</v>
+      </c>
+      <c r="S3">
+        <v>0.255713639650946</v>
+      </c>
+      <c r="T3">
+        <v>0.2928322070710072</v>
+      </c>
+      <c r="U3">
+        <v>0.2940084387592624</v>
+      </c>
+      <c r="V3">
+        <v>0.3137637401213069</v>
+      </c>
+      <c r="W3">
+        <v>0.001869700701004347</v>
+      </c>
+      <c r="X3">
+        <v>0.3039233660583848</v>
+      </c>
+      <c r="Y3">
+        <v>0.3002289262914682</v>
+      </c>
+      <c r="Z3">
+        <v>0.3078415998742265</v>
+      </c>
+      <c r="AA3">
+        <v>0.4481233899072491</v>
+      </c>
+      <c r="AB3">
+        <v>0.4463180747955694</v>
+      </c>
+      <c r="AC3">
+        <v>0.4585852651378226</v>
+      </c>
+      <c r="AD3">
+        <v>0.4052696777173711</v>
+      </c>
+      <c r="AE3">
+        <v>0.4086558333297102</v>
+      </c>
+      <c r="AF3">
+        <v>0.4067019442358616</v>
+      </c>
+      <c r="AG3">
+        <v>0.985449928045534</v>
+      </c>
+      <c r="AH3">
+        <v>0.1928535557583117</v>
+      </c>
+      <c r="AI3">
+        <v>0.9940083474749077</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9835278215611972</v>
+      </c>
+      <c r="AK3">
+        <v>0.953755380326761</v>
+      </c>
+      <c r="AL3">
+        <v>0.9819740242282641</v>
+      </c>
+      <c r="AM3">
+        <v>0.9788849928641112</v>
+      </c>
+      <c r="AN3">
+        <v>1.10425467251388</v>
+      </c>
+      <c r="AO3">
+        <v>1.098594181794953</v>
+      </c>
+      <c r="AP3">
+        <v>1.096510620778534</v>
+      </c>
+      <c r="AQ3">
+        <v>1.065805080491945</v>
+      </c>
+      <c r="AR3">
+        <v>1.065646616280369</v>
+      </c>
+      <c r="AS3">
+        <v>0.1900194398218211</v>
+      </c>
+      <c r="AT3">
+        <v>1.074111195167979</v>
+      </c>
+      <c r="AU3">
+        <v>1.123957093707858</v>
+      </c>
+      <c r="AV3">
+        <v>1.11245921217335</v>
+      </c>
+      <c r="AW3">
+        <v>1.105008508231081</v>
+      </c>
+      <c r="AX3">
+        <v>1.075295965202646</v>
+      </c>
+      <c r="AY3">
+        <v>1.082903579075164</v>
+      </c>
+      <c r="AZ3">
+        <v>1.083910664160616</v>
+      </c>
+      <c r="BA3">
+        <v>1.156531424687362</v>
+      </c>
+      <c r="BB3">
+        <v>1.153948784082036</v>
+      </c>
+      <c r="BC3">
+        <v>1.174401777410012</v>
+      </c>
+      <c r="BD3">
+        <v>0.1833590955163211</v>
+      </c>
+      <c r="BE3">
+        <v>1.045432144962698</v>
+      </c>
+      <c r="BF3">
+        <v>1.029427607496673</v>
+      </c>
+      <c r="BG3">
+        <v>1.037962699501496</v>
+      </c>
+      <c r="BH3">
+        <v>1.255249383946394</v>
+      </c>
+      <c r="BI3">
+        <v>1.288895485521961</v>
+      </c>
+      <c r="BJ3">
+        <v>1.265233471629128</v>
+      </c>
+      <c r="BK3">
+        <v>1.260028518855096</v>
+      </c>
+      <c r="BL3">
+        <v>1.254994352563541</v>
+      </c>
+      <c r="BM3">
+        <v>1.245648968037489</v>
+      </c>
+      <c r="BN3">
+        <v>2.419851279703033</v>
+      </c>
+      <c r="BO3">
+        <v>0.0320701584753309</v>
+      </c>
+      <c r="BP3">
+        <v>2.389803366704771</v>
+      </c>
+      <c r="BQ3">
+        <v>2.402928895117701</v>
+      </c>
+      <c r="BR3">
+        <v>1.63023505717894</v>
+      </c>
+      <c r="BS3">
+        <v>1.651122404539787</v>
+      </c>
+      <c r="BT3">
+        <v>1.613737177433537</v>
+      </c>
+      <c r="BU3">
+        <v>1.660786902927901</v>
+      </c>
+      <c r="BV3">
+        <v>1.683014039654155</v>
+      </c>
+      <c r="BW3">
+        <v>1.676140434024832</v>
+      </c>
+      <c r="BX3">
+        <v>1.660140996320911</v>
+      </c>
+      <c r="BY3">
+        <v>1.634348831846555</v>
+      </c>
+      <c r="BZ3">
+        <v>0.03093495153954072</v>
+      </c>
+      <c r="CA3">
+        <v>1.628704209351442</v>
+      </c>
+      <c r="CB3">
+        <v>1.876055044353057</v>
+      </c>
+      <c r="CC3">
+        <v>1.868342932769132</v>
+      </c>
+      <c r="CD3">
+        <v>1.875966400268557</v>
+      </c>
+      <c r="CE3">
+        <v>1.860660744604795</v>
+      </c>
+      <c r="CF3">
+        <v>1.860135408236272</v>
+      </c>
+      <c r="CG3">
+        <v>1.8299393991325</v>
+      </c>
+      <c r="CH3">
+        <v>0.03044318140292155</v>
+      </c>
+      <c r="CI3">
+        <v>0.05513501163719099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.03833920716397395</v>
+      </c>
+      <c r="C4">
+        <v>0.04367385821915429</v>
+      </c>
+      <c r="D4">
+        <v>0.1297175473504567</v>
+      </c>
+      <c r="E4">
+        <v>0.1314549432236708</v>
+      </c>
+      <c r="F4">
+        <v>0.126546191620998</v>
+      </c>
+      <c r="G4">
+        <v>0.1408241820141943</v>
+      </c>
+      <c r="H4">
+        <v>0.14193599480132</v>
+      </c>
+      <c r="I4">
+        <v>0.1469368819771829</v>
+      </c>
+      <c r="J4">
+        <v>0.09187943693942219</v>
+      </c>
+      <c r="K4">
+        <v>0.09279983223092153</v>
+      </c>
+      <c r="L4">
+        <v>-0.001004910967455668</v>
+      </c>
+      <c r="M4">
+        <v>0.1031102377321041</v>
+      </c>
+      <c r="N4">
+        <v>0.1557520307000901</v>
+      </c>
+      <c r="O4">
+        <v>0.1553085342176607</v>
+      </c>
+      <c r="P4">
+        <v>0.1525362433194694</v>
+      </c>
+      <c r="Q4">
+        <v>0.2528441489259688</v>
+      </c>
+      <c r="R4">
+        <v>0.2357826949753737</v>
+      </c>
+      <c r="S4">
+        <v>0.2358582630510093</v>
+      </c>
+      <c r="T4">
+        <v>0.2796335062737026</v>
+      </c>
+      <c r="U4">
+        <v>0.2823934259153261</v>
+      </c>
+      <c r="V4">
+        <v>0.3132074683489514</v>
+      </c>
+      <c r="W4">
+        <v>0.01151183258022224</v>
+      </c>
+      <c r="X4">
+        <v>0.2966779126958042</v>
+      </c>
+      <c r="Y4">
+        <v>0.285126218778282</v>
+      </c>
+      <c r="Z4">
+        <v>0.3017339166970138</v>
+      </c>
+      <c r="AA4">
+        <v>0.4558772986221947</v>
+      </c>
+      <c r="AB4">
+        <v>0.4528359006649535</v>
+      </c>
+      <c r="AC4">
+        <v>0.4573808235033963</v>
+      </c>
+      <c r="AD4">
+        <v>0.4101833791173501</v>
+      </c>
+      <c r="AE4">
+        <v>0.4229486839812581</v>
+      </c>
+      <c r="AF4">
+        <v>0.4091607952057537</v>
+      </c>
+      <c r="AG4">
+        <v>1.024477842413456</v>
+      </c>
+      <c r="AH4">
+        <v>0.188325535155088</v>
+      </c>
+      <c r="AI4">
+        <v>1.004498740112759</v>
+      </c>
+      <c r="AJ4">
+        <v>1.00460740855161</v>
+      </c>
+      <c r="AK4">
+        <v>0.9748877903160449</v>
+      </c>
+      <c r="AL4">
+        <v>0.9741640868250526</v>
+      </c>
+      <c r="AM4">
+        <v>0.9679925760233756</v>
+      </c>
+      <c r="AN4">
+        <v>1.099505350093428</v>
+      </c>
+      <c r="AO4">
+        <v>1.122928633549595</v>
+      </c>
+      <c r="AP4">
+        <v>1.085626175492969</v>
+      </c>
+      <c r="AQ4">
+        <v>1.092988516261982</v>
+      </c>
+      <c r="AR4">
+        <v>1.103531673330121</v>
+      </c>
+      <c r="AS4">
+        <v>0.2014408876085131</v>
+      </c>
+      <c r="AT4">
+        <v>1.103110674663337</v>
+      </c>
+      <c r="AU4">
+        <v>1.172028554412571</v>
+      </c>
+      <c r="AV4">
+        <v>1.167673494442184</v>
+      </c>
+      <c r="AW4">
+        <v>1.168423750731289</v>
+      </c>
+      <c r="AX4">
+        <v>1.125860318784975</v>
+      </c>
+      <c r="AY4">
+        <v>1.106687745906473</v>
+      </c>
+      <c r="AZ4">
+        <v>1.117439128134247</v>
+      </c>
+      <c r="BA4">
+        <v>1.187103285661931</v>
+      </c>
+      <c r="BB4">
+        <v>1.17566789098289</v>
+      </c>
+      <c r="BC4">
+        <v>1.168209155089518</v>
+      </c>
+      <c r="BD4">
+        <v>0.1905223314708753</v>
+      </c>
+      <c r="BE4">
+        <v>1.068966952670205</v>
+      </c>
+      <c r="BF4">
+        <v>1.060162313290766</v>
+      </c>
+      <c r="BG4">
+        <v>1.084601906465271</v>
+      </c>
+      <c r="BH4">
+        <v>1.300468441429387</v>
+      </c>
+      <c r="BI4">
+        <v>1.318199809783778</v>
+      </c>
+      <c r="BJ4">
+        <v>1.31284049392728</v>
+      </c>
+      <c r="BK4">
+        <v>1.317602262333849</v>
+      </c>
+      <c r="BL4">
+        <v>1.282926373557593</v>
+      </c>
+      <c r="BM4">
+        <v>1.320491286496821</v>
+      </c>
+      <c r="BN4">
+        <v>2.636961302139714</v>
+      </c>
+      <c r="BO4">
+        <v>0.02138087320821584</v>
+      </c>
+      <c r="BP4">
+        <v>2.587155235745727</v>
+      </c>
+      <c r="BQ4">
+        <v>2.651770855926393</v>
+      </c>
+      <c r="BR4">
+        <v>1.720932236206869</v>
+      </c>
+      <c r="BS4">
+        <v>1.722383544002407</v>
+      </c>
+      <c r="BT4">
+        <v>1.711706377621188</v>
+      </c>
+      <c r="BU4">
+        <v>1.781260444724237</v>
+      </c>
+      <c r="BV4">
+        <v>1.785818006532374</v>
+      </c>
+      <c r="BW4">
+        <v>1.763899655059693</v>
+      </c>
+      <c r="BX4">
+        <v>1.719517875086779</v>
+      </c>
+      <c r="BY4">
+        <v>1.74203260405706</v>
+      </c>
+      <c r="BZ4">
+        <v>0.01194290195077402</v>
+      </c>
+      <c r="CA4">
+        <v>1.714476042920863</v>
+      </c>
+      <c r="CB4">
+        <v>1.953065676662382</v>
+      </c>
+      <c r="CC4">
+        <v>2.002280908260923</v>
+      </c>
+      <c r="CD4">
+        <v>2.009111662658423</v>
+      </c>
+      <c r="CE4">
+        <v>1.949364643123308</v>
+      </c>
+      <c r="CF4">
+        <v>1.983909284890204</v>
+      </c>
+      <c r="CG4">
+        <v>1.994716192448075</v>
+      </c>
+      <c r="CH4">
+        <v>0.03445170658732304</v>
+      </c>
+      <c r="CI4">
+        <v>0.05372631012837377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.1881966511082789</v>
+      </c>
+      <c r="C5">
+        <v>0.1750716187995824</v>
+      </c>
+      <c r="D5">
+        <v>0.2890848398746892</v>
+      </c>
+      <c r="E5">
+        <v>0.2744378742829458</v>
+      </c>
+      <c r="F5">
+        <v>0.2684965519858511</v>
+      </c>
+      <c r="G5">
+        <v>0.2684043977114589</v>
+      </c>
+      <c r="H5">
+        <v>0.288873363867502</v>
+      </c>
+      <c r="I5">
+        <v>0.2597976009690804</v>
+      </c>
+      <c r="J5">
+        <v>0.251693458605665</v>
+      </c>
+      <c r="K5">
+        <v>0.2344350474374066</v>
+      </c>
+      <c r="L5">
+        <v>0.01116511243619821</v>
+      </c>
+      <c r="M5">
+        <v>0.2396414284772545</v>
+      </c>
+      <c r="N5">
+        <v>0.290984635207768</v>
+      </c>
+      <c r="O5">
+        <v>0.2970974855986788</v>
+      </c>
+      <c r="P5">
+        <v>0.312706114360255</v>
+      </c>
+      <c r="Q5">
+        <v>0.3780815766488732</v>
+      </c>
+      <c r="R5">
+        <v>0.3880851187727803</v>
+      </c>
+      <c r="S5">
+        <v>0.3838628446330425</v>
+      </c>
+      <c r="T5">
+        <v>0.4585419539298044</v>
+      </c>
+      <c r="U5">
+        <v>0.4502600664085776</v>
+      </c>
+      <c r="V5">
+        <v>0.4242212189429646</v>
+      </c>
+      <c r="W5">
+        <v>0.01402748021711575</v>
+      </c>
+      <c r="X5">
+        <v>0.4657173727026709</v>
+      </c>
+      <c r="Y5">
+        <v>0.4383928731107648</v>
+      </c>
+      <c r="Z5">
+        <v>0.459513729384551</v>
+      </c>
+      <c r="AA5">
+        <v>0.615711562080528</v>
+      </c>
+      <c r="AB5">
+        <v>0.6186077384473645</v>
+      </c>
+      <c r="AC5">
+        <v>0.6116104683614789</v>
+      </c>
+      <c r="AD5">
+        <v>0.5163378661859894</v>
+      </c>
+      <c r="AE5">
+        <v>0.5576603121359391</v>
+      </c>
+      <c r="AF5">
+        <v>0.5445327039376731</v>
+      </c>
+      <c r="AG5">
+        <v>1.156490453635927</v>
+      </c>
+      <c r="AH5">
+        <v>0.2203103574328929</v>
+      </c>
+      <c r="AI5">
+        <v>1.131146284779263</v>
+      </c>
+      <c r="AJ5">
+        <v>1.126423594408779</v>
+      </c>
+      <c r="AK5">
+        <v>1.154344624684555</v>
+      </c>
+      <c r="AL5">
+        <v>1.133051205281654</v>
+      </c>
+      <c r="AM5">
+        <v>1.1398612996056</v>
+      </c>
+      <c r="AN5">
+        <v>1.217134182410509</v>
+      </c>
+      <c r="AO5">
+        <v>1.240710215406989</v>
+      </c>
+      <c r="AP5">
+        <v>1.260666619418507</v>
+      </c>
+      <c r="AQ5">
+        <v>1.256218792504037</v>
+      </c>
+      <c r="AR5">
+        <v>1.236803485493025</v>
+      </c>
+      <c r="AS5">
+        <v>0.2346015030006579</v>
+      </c>
+      <c r="AT5">
+        <v>1.262991623145054</v>
+      </c>
+      <c r="AU5">
+        <v>1.310891289812208</v>
+      </c>
+      <c r="AV5">
+        <v>1.296957326823001</v>
+      </c>
+      <c r="AW5">
+        <v>1.30972061749532</v>
+      </c>
+      <c r="AX5">
+        <v>1.250929662137866</v>
+      </c>
+      <c r="AY5">
+        <v>1.247777798863432</v>
+      </c>
+      <c r="AZ5">
+        <v>1.240194597507536</v>
+      </c>
+      <c r="BA5">
+        <v>1.319130365972271</v>
+      </c>
+      <c r="BB5">
+        <v>1.280903502793044</v>
+      </c>
+      <c r="BC5">
+        <v>1.296603695419857</v>
+      </c>
+      <c r="BD5">
+        <v>0.2429821024350673</v>
+      </c>
+      <c r="BE5">
+        <v>1.205024395054442</v>
+      </c>
+      <c r="BF5">
+        <v>1.215268634878065</v>
+      </c>
+      <c r="BG5">
+        <v>1.176498204519787</v>
+      </c>
+      <c r="BH5">
+        <v>1.442777376863091</v>
+      </c>
+      <c r="BI5">
+        <v>1.414179171950821</v>
+      </c>
+      <c r="BJ5">
+        <v>1.430777682913397</v>
+      </c>
+      <c r="BK5">
+        <v>1.4128790881607</v>
+      </c>
+      <c r="BL5">
+        <v>1.443968741246742</v>
+      </c>
+      <c r="BM5">
+        <v>1.420988286948955</v>
+      </c>
+      <c r="BN5">
+        <v>2.760139961080261</v>
+      </c>
+      <c r="BO5">
+        <v>0.1666897062290194</v>
+      </c>
+      <c r="BP5">
+        <v>2.813553185329114</v>
+      </c>
+      <c r="BQ5">
+        <v>2.811651848682326</v>
+      </c>
+      <c r="BR5">
+        <v>1.872951504573724</v>
+      </c>
+      <c r="BS5">
+        <v>1.803617547774103</v>
+      </c>
+      <c r="BT5">
+        <v>1.80425787564384</v>
+      </c>
+      <c r="BU5">
+        <v>1.873694755090048</v>
+      </c>
+      <c r="BV5">
+        <v>1.933464435466854</v>
+      </c>
+      <c r="BW5">
+        <v>1.888959187164408</v>
+      </c>
+      <c r="BX5">
+        <v>1.886639177835629</v>
+      </c>
+      <c r="BY5">
+        <v>1.887277238153974</v>
+      </c>
+      <c r="BZ5">
+        <v>0.1579967294129387</v>
+      </c>
+      <c r="CA5">
+        <v>1.858323361054042</v>
+      </c>
+      <c r="CB5">
+        <v>2.108191897831868</v>
+      </c>
+      <c r="CC5">
+        <v>2.138341436207218</v>
+      </c>
+      <c r="CD5">
+        <v>2.137896413905129</v>
+      </c>
+      <c r="CE5">
+        <v>2.08964915364912</v>
+      </c>
+      <c r="CF5">
+        <v>2.157898578671151</v>
+      </c>
+      <c r="CG5">
+        <v>2.093914529399436</v>
+      </c>
+      <c r="CH5">
+        <v>0.1788430909872715</v>
+      </c>
+      <c r="CI5">
+        <v>0.1850127532138407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.04618049010047671</v>
+      </c>
+      <c r="C6">
+        <v>0.05660105263717474</v>
+      </c>
+      <c r="D6">
+        <v>0.1404435861315483</v>
+      </c>
+      <c r="E6">
+        <v>0.1129972831565304</v>
+      </c>
+      <c r="F6">
+        <v>0.1453107775944028</v>
+      </c>
+      <c r="G6">
+        <v>0.1334810937770101</v>
+      </c>
+      <c r="H6">
+        <v>0.1566303143704205</v>
+      </c>
+      <c r="I6">
+        <v>0.1355295441204163</v>
+      </c>
+      <c r="J6">
+        <v>0.1241187209410544</v>
+      </c>
+      <c r="K6">
+        <v>0.1276196893336042</v>
+      </c>
+      <c r="L6">
+        <v>-0.003840402552067633</v>
+      </c>
+      <c r="M6">
+        <v>0.1004957451604708</v>
+      </c>
+      <c r="N6">
+        <v>0.1720559465402511</v>
+      </c>
+      <c r="O6">
+        <v>0.1928764199905353</v>
+      </c>
+      <c r="P6">
+        <v>0.1727895077115985</v>
+      </c>
+      <c r="Q6">
+        <v>0.2238226611154495</v>
+      </c>
+      <c r="R6">
+        <v>0.2231275742656919</v>
+      </c>
+      <c r="S6">
+        <v>0.2389180156830674</v>
+      </c>
+      <c r="T6">
+        <v>0.2865781466545998</v>
+      </c>
+      <c r="U6">
+        <v>0.295858746089077</v>
+      </c>
+      <c r="V6">
+        <v>0.3009615773636864</v>
+      </c>
+      <c r="W6">
+        <v>0.007001353599929366</v>
+      </c>
+      <c r="X6">
+        <v>0.326475918346098</v>
+      </c>
+      <c r="Y6">
+        <v>0.3104874623196898</v>
+      </c>
+      <c r="Z6">
+        <v>0.341622288261455</v>
+      </c>
+      <c r="AA6">
+        <v>0.4215945782691212</v>
+      </c>
+      <c r="AB6">
+        <v>0.4294688744584179</v>
+      </c>
+      <c r="AC6">
+        <v>0.4548608398447015</v>
+      </c>
+      <c r="AD6">
+        <v>0.4107678897983407</v>
+      </c>
+      <c r="AE6">
+        <v>0.4202462873998518</v>
+      </c>
+      <c r="AF6">
+        <v>0.4400534671698642</v>
+      </c>
+      <c r="AG6">
+        <v>0.9965589039232278</v>
+      </c>
+      <c r="AH6">
+        <v>0.2085729231489898</v>
+      </c>
+      <c r="AI6">
+        <v>0.9775627895942107</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9392526006422522</v>
+      </c>
+      <c r="AK6">
+        <v>0.9384632591771854</v>
+      </c>
+      <c r="AL6">
+        <v>0.9400950463767029</v>
+      </c>
+      <c r="AM6">
+        <v>0.9405674968129348</v>
+      </c>
+      <c r="AN6">
+        <v>1.011214820888098</v>
+      </c>
+      <c r="AO6">
+        <v>1.016319263455206</v>
+      </c>
+      <c r="AP6">
+        <v>1.045572195712293</v>
+      </c>
+      <c r="AQ6">
+        <v>1.016489194633488</v>
+      </c>
+      <c r="AR6">
+        <v>1.025402628562557</v>
+      </c>
+      <c r="AS6">
+        <v>0.2107291892734859</v>
+      </c>
+      <c r="AT6">
+        <v>1.015296954046005</v>
+      </c>
+      <c r="AU6">
+        <v>1.08998575457769</v>
+      </c>
+      <c r="AV6">
+        <v>1.076187666963908</v>
+      </c>
+      <c r="AW6">
+        <v>1.070350577039326</v>
+      </c>
+      <c r="AX6">
+        <v>1.01762947982831</v>
+      </c>
+      <c r="AY6">
+        <v>1.030289597858286</v>
+      </c>
+      <c r="AZ6">
+        <v>1.024942126674597</v>
+      </c>
+      <c r="BA6">
+        <v>1.050383162557839</v>
+      </c>
+      <c r="BB6">
+        <v>1.092254933154031</v>
+      </c>
+      <c r="BC6">
+        <v>1.09822167779114</v>
+      </c>
+      <c r="BD6">
+        <v>0.2359426421017406</v>
+      </c>
+      <c r="BE6">
+        <v>0.9523925047341975</v>
+      </c>
+      <c r="BF6">
+        <v>1.035088531458818</v>
+      </c>
+      <c r="BG6">
+        <v>0.9807408297827257</v>
+      </c>
+      <c r="BH6">
+        <v>1.191356993940401</v>
+      </c>
+      <c r="BI6">
+        <v>1.201910560472023</v>
+      </c>
+      <c r="BJ6">
+        <v>1.2184766318359</v>
+      </c>
+      <c r="BK6">
+        <v>1.186423776242012</v>
+      </c>
+      <c r="BL6">
+        <v>1.304553440054293</v>
+      </c>
+      <c r="BM6">
+        <v>1.222382950648558</v>
+      </c>
+      <c r="BN6">
+        <v>2.242925312456034</v>
+      </c>
+      <c r="BO6">
+        <v>0.07211756104950118</v>
+      </c>
+      <c r="BP6">
+        <v>2.173834750663177</v>
+      </c>
+      <c r="BQ6">
+        <v>2.252674025538894</v>
+      </c>
+      <c r="BR6">
+        <v>1.489589958837439</v>
+      </c>
+      <c r="BS6">
+        <v>1.512023919696251</v>
+      </c>
+      <c r="BT6">
+        <v>1.552012845938398</v>
+      </c>
+      <c r="BU6">
+        <v>1.670492050770646</v>
+      </c>
+      <c r="BV6">
+        <v>1.625057732931408</v>
+      </c>
+      <c r="BW6">
+        <v>1.675864123836584</v>
+      </c>
+      <c r="BX6">
+        <v>1.56561358516818</v>
+      </c>
+      <c r="BY6">
+        <v>1.649281507369268</v>
+      </c>
+      <c r="BZ6">
+        <v>0.03431128333213561</v>
+      </c>
+      <c r="CA6">
+        <v>1.612388089464998</v>
+      </c>
+      <c r="CB6">
+        <v>1.801793873707485</v>
+      </c>
+      <c r="CC6">
+        <v>1.881591187463184</v>
+      </c>
+      <c r="CD6">
+        <v>1.769034225942265</v>
+      </c>
+      <c r="CE6">
+        <v>1.820545299080496</v>
+      </c>
+      <c r="CF6">
+        <v>1.752036053586298</v>
+      </c>
+      <c r="CG6">
+        <v>1.790508605933244</v>
+      </c>
+      <c r="CH6">
+        <v>0.05008895685144273</v>
+      </c>
+      <c r="CI6">
+        <v>0.06627287461984564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.08139561075577238</v>
+      </c>
+      <c r="C7">
+        <v>0.08580789983117487</v>
+      </c>
+      <c r="D7">
+        <v>0.2188236736177796</v>
+      </c>
+      <c r="E7">
+        <v>0.2033783344532896</v>
+      </c>
+      <c r="F7">
+        <v>0.1814783696929212</v>
+      </c>
+      <c r="G7">
+        <v>0.1877154390448533</v>
+      </c>
+      <c r="H7">
+        <v>0.2104282265880995</v>
+      </c>
+      <c r="I7">
+        <v>0.1921159350891234</v>
+      </c>
+      <c r="J7">
+        <v>0.1624031750507396</v>
+      </c>
+      <c r="K7">
+        <v>0.1358949407699438</v>
+      </c>
+      <c r="L7">
+        <v>0.01233184694713855</v>
+      </c>
+      <c r="M7">
+        <v>0.1938904951474605</v>
+      </c>
+      <c r="N7">
+        <v>0.2463740684337486</v>
+      </c>
+      <c r="O7">
+        <v>0.2174215592437918</v>
+      </c>
+      <c r="P7">
+        <v>0.2132178736942696</v>
+      </c>
+      <c r="Q7">
+        <v>0.3349426784622033</v>
+      </c>
+      <c r="R7">
+        <v>0.3668434489370849</v>
+      </c>
+      <c r="S7">
+        <v>0.2760251502098539</v>
+      </c>
+      <c r="T7">
+        <v>0.3640708838821</v>
+      </c>
+      <c r="U7">
+        <v>0.342690909572162</v>
+      </c>
+      <c r="V7">
+        <v>0.4456181228603575</v>
+      </c>
+      <c r="W7">
+        <v>0.03589530866177911</v>
+      </c>
+      <c r="X7">
+        <v>0.3575320177480512</v>
+      </c>
+      <c r="Y7">
+        <v>0.3617844519202073</v>
+      </c>
+      <c r="Z7">
+        <v>0.4090053258879582</v>
+      </c>
+      <c r="AA7">
+        <v>0.6120020618939226</v>
+      </c>
+      <c r="AB7">
+        <v>0.614626782827309</v>
+      </c>
+      <c r="AC7">
+        <v>0.5791489688119996</v>
+      </c>
+      <c r="AD7">
+        <v>0.5017647710425769</v>
+      </c>
+      <c r="AE7">
+        <v>0.489678767677242</v>
+      </c>
+      <c r="AF7">
+        <v>0.4631440780117863</v>
+      </c>
+      <c r="AG7">
+        <v>1.23091731600297</v>
+      </c>
+      <c r="AH7">
+        <v>0.2217959432978147</v>
+      </c>
+      <c r="AI7">
+        <v>1.389517363312149</v>
+      </c>
+      <c r="AJ7">
+        <v>1.380500487476161</v>
+      </c>
+      <c r="AK7">
+        <v>1.292199369509935</v>
+      </c>
+      <c r="AL7">
+        <v>1.117573344985812</v>
+      </c>
+      <c r="AM7">
+        <v>1.305691723231708</v>
+      </c>
+      <c r="AN7">
+        <v>1.602930376760634</v>
+      </c>
+      <c r="AO7">
+        <v>1.403550978622442</v>
+      </c>
+      <c r="AP7">
+        <v>1.525600570811129</v>
+      </c>
+      <c r="AQ7">
+        <v>1.484894420512529</v>
+      </c>
+      <c r="AR7">
+        <v>1.525600570811129</v>
+      </c>
+      <c r="AS7">
+        <v>0.2699811624978711</v>
+      </c>
+      <c r="AT7">
+        <v>1.516983793421944</v>
+      </c>
+      <c r="AU7">
+        <v>1.601896105798979</v>
+      </c>
+      <c r="AV7">
+        <v>1.407989077527697</v>
+      </c>
+      <c r="AW7">
+        <v>1.596922238622056</v>
+      </c>
+      <c r="AX7">
+        <v>1.550518291839777</v>
+      </c>
+      <c r="AY7">
+        <v>1.38199278486653</v>
+      </c>
+      <c r="AZ7">
+        <v>1.382500478386768</v>
+      </c>
+      <c r="BA7">
+        <v>1.473513180848214</v>
+      </c>
+      <c r="BB7">
+        <v>1.607102640956338</v>
+      </c>
+      <c r="BC7">
+        <v>1.556055712444142</v>
+      </c>
+      <c r="BD7">
+        <v>0.2710764792454293</v>
+      </c>
+      <c r="BE7">
+        <v>1.37983795834449</v>
+      </c>
+      <c r="BF7">
+        <v>1.416399336047944</v>
+      </c>
+      <c r="BG7">
+        <v>1.44083032705779</v>
+      </c>
+      <c r="BH7">
+        <v>1.658911452186672</v>
+      </c>
+      <c r="BI7">
+        <v>1.773067063912149</v>
+      </c>
+      <c r="BJ7">
+        <v>1.926080660151839</v>
+      </c>
+      <c r="BK7">
+        <v>1.680002939679785</v>
+      </c>
+      <c r="BL7">
+        <v>1.888063179885118</v>
+      </c>
+      <c r="BM7">
+        <v>1.789964692695393</v>
+      </c>
+      <c r="BO7">
+        <v>0.1062020160298224</v>
+      </c>
+      <c r="BR7">
+        <v>2.684462882471138</v>
+      </c>
+      <c r="BS7">
+        <v>2.498777989999738</v>
+      </c>
+      <c r="BT7">
+        <v>2.275318400961112</v>
+      </c>
+      <c r="BU7">
+        <v>2.714938376468172</v>
+      </c>
+      <c r="BV7">
+        <v>2.790374078712237</v>
+      </c>
+      <c r="BW7">
+        <v>2.889090844672491</v>
+      </c>
+      <c r="BX7">
+        <v>3.031002863128569</v>
+      </c>
+      <c r="BY7">
+        <v>2.858717110926029</v>
+      </c>
+      <c r="BZ7">
+        <v>0.0715543656274555</v>
+      </c>
+      <c r="CA7">
+        <v>2.892091199905992</v>
+      </c>
+      <c r="CB7">
+        <v>3.346224959460505</v>
+      </c>
+      <c r="CC7">
+        <v>3.748771574773756</v>
+      </c>
+      <c r="CD7">
+        <v>3.826215663449488</v>
+      </c>
+      <c r="CE7">
+        <v>3.670235156945154</v>
+      </c>
+      <c r="CF7">
+        <v>3.877437932587533</v>
+      </c>
+      <c r="CG7">
+        <v>3.69005895255929</v>
+      </c>
+      <c r="CH7">
+        <v>0.1090431169904558</v>
+      </c>
+      <c r="CI7">
+        <v>0.08244096957791737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/combined_dataframes.xlsx
+++ b/combined_dataframes.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Materials" sheetId="1" r:id="rId1"/>
     <sheet name="Samples" sheetId="2" r:id="rId2"/>
     <sheet name="Standard Deviations" sheetId="3" r:id="rId3"/>
-    <sheet name="Absorbance Material" sheetId="4" r:id="rId4"/>
-    <sheet name="Absorbance Sample" sheetId="5" r:id="rId5"/>
+    <sheet name="Absorbance Sample" sheetId="4" r:id="rId4"/>
+    <sheet name="Absorbance Material" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3448,91 +3448,91 @@
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>1419.887194542227</v>
+        <v>0.04380160840378852</v>
       </c>
       <c r="C2">
-        <v>99.05847704765242</v>
+        <v>0.003442687054076699</v>
       </c>
       <c r="D2">
-        <v>195.7745563779936</v>
+        <v>0.006811475382995633</v>
       </c>
       <c r="E2">
-        <v>2070.413381785143</v>
+        <v>0.06519961898701958</v>
       </c>
       <c r="F2">
-        <v>1408.361502997367</v>
+        <v>0.04878718867337409</v>
       </c>
       <c r="G2">
-        <v>1220.732856719685</v>
+        <v>0.04580236160330386</v>
       </c>
       <c r="H2">
-        <v>770.4099195233662</v>
+        <v>0.0308421251356063</v>
       </c>
       <c r="I2">
-        <v>5301.100484434812</v>
+        <v>0.1840502634711886</v>
       </c>
       <c r="J2">
-        <v>1945.319110171901</v>
+        <v>0.08674260772758295</v>
       </c>
       <c r="K2">
-        <v>640.2927184694516</v>
+        <v>0.03021306079148173</v>
       </c>
       <c r="L2">
-        <v>5641.822046127917</v>
+        <v>0.3405260125651525</v>
       </c>
       <c r="M2">
-        <v>8957.658443523342</v>
+        <v>0.4769809927023454</v>
       </c>
       <c r="N2">
-        <v>24.25827023923989</v>
+        <v>0.001988951213859676</v>
       </c>
       <c r="O2">
-        <v>87.77881877195649</v>
+        <v>0.007991909223191256</v>
       </c>
       <c r="P2">
-        <v>9378.847055512741</v>
+        <v>0.5199039035226427</v>
       </c>
       <c r="Q2">
-        <v>266.544544448016</v>
+        <v>0.02501408586664908</v>
       </c>
       <c r="R2">
-        <v>146.108056502713</v>
+        <v>0.01344171170029101</v>
       </c>
       <c r="S2">
-        <v>603.0421972797592</v>
+        <v>0.05745513230834962</v>
       </c>
       <c r="T2">
-        <v>9693.111451395522</v>
+        <v>0.5485179382329738</v>
       </c>
       <c r="U2">
-        <v>1374.686445694072</v>
+        <v>0.1347529118200271</v>
       </c>
       <c r="V2">
-        <v>55.06540815248692</v>
+        <v>0.006042968219808958</v>
       </c>
       <c r="W2">
-        <v>3627.652272586224</v>
+        <v>0.6798825195807328</v>
       </c>
       <c r="X2">
-        <v>16628.01501992721</v>
+        <v>1.392814464621002</v>
       </c>
       <c r="Y2">
-        <v>70.64415120871634</v>
+        <v>0.01114393270727403</v>
       </c>
       <c r="Z2">
-        <v>228.0724046766727</v>
+        <v>0.0381594778969615</v>
       </c>
       <c r="AA2">
-        <v>14973.34164723009</v>
+        <v>0.9548622480525796</v>
       </c>
       <c r="AB2">
-        <v>759.0125262965033</v>
+        <v>0.1367702556211942</v>
       </c>
       <c r="AC2">
-        <v>45.80075081262309</v>
+        <v>0.009243594899532774</v>
       </c>
       <c r="AD2">
-        <v>15270.73806152473</v>
+        <v>1.064146767345145</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -3540,91 +3540,91 @@
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>1099.331746300907</v>
+        <v>0.03483534427164225</v>
       </c>
       <c r="C3">
-        <v>71.94060883812479</v>
+        <v>0.002558959803086337</v>
       </c>
       <c r="D3">
-        <v>113.8440719800559</v>
+        <v>0.004081929199245724</v>
       </c>
       <c r="E3">
-        <v>1736.869309987079</v>
+        <v>0.05618788099176582</v>
       </c>
       <c r="F3">
-        <v>1224.15532498944</v>
+        <v>0.04323161733596066</v>
       </c>
       <c r="G3">
-        <v>1158.699064392908</v>
+        <v>0.04403409764172868</v>
       </c>
       <c r="H3">
-        <v>538.2490216201052</v>
+        <v>0.02177790626241956</v>
       </c>
       <c r="I3">
-        <v>4955.343318005322</v>
+        <v>0.1772997187173177</v>
       </c>
       <c r="J3">
-        <v>1861.457320730186</v>
+        <v>0.0832763529682408</v>
       </c>
       <c r="K3">
-        <v>590.5938603854595</v>
+        <v>0.02792253189203511</v>
       </c>
       <c r="L3">
-        <v>5481.518246437296</v>
+        <v>0.3335776956336156</v>
       </c>
       <c r="M3">
-        <v>8498.114045608883</v>
+        <v>0.4595513457559852</v>
       </c>
       <c r="N3">
-        <v>191.3502014631812</v>
+        <v>0.01547757197089769</v>
       </c>
       <c r="O3">
-        <v>43.35752616328579</v>
+        <v>0.004007341574491936</v>
       </c>
       <c r="P3">
-        <v>9059.362543489195</v>
+        <v>0.5055893369240256</v>
       </c>
       <c r="Q3">
-        <v>283.2762250878102</v>
+        <v>0.02610040002654425</v>
       </c>
       <c r="R3">
-        <v>168.6101000088663</v>
+        <v>0.01543447923232249</v>
       </c>
       <c r="S3">
-        <v>437.4825471090245</v>
+        <v>0.04120231209957874</v>
       </c>
       <c r="T3">
-        <v>9455.209979884106</v>
+        <v>0.5388210441959386</v>
       </c>
       <c r="U3">
-        <v>1328.25525273759</v>
+        <v>0.127985562826109</v>
       </c>
       <c r="V3">
-        <v>139.7911567303171</v>
+        <v>0.01538551374611017</v>
       </c>
       <c r="W3">
-        <v>3708.400449213246</v>
+        <v>0.6752444082993834</v>
       </c>
       <c r="X3">
-        <v>16474.9364618145</v>
+        <v>1.365042692238199</v>
       </c>
       <c r="Y3">
-        <v>119.0632633308865</v>
+        <v>0.01873551227683343</v>
       </c>
       <c r="Z3">
-        <v>69.58191808940026</v>
+        <v>0.01137997494534088</v>
       </c>
       <c r="AA3">
-        <v>14589.05861003033</v>
+        <v>0.9332660967146171</v>
       </c>
       <c r="AB3">
-        <v>796.338581069635</v>
+        <v>0.1406346507813414</v>
       </c>
       <c r="AC3">
-        <v>45.15707115170318</v>
+        <v>0.008992213134374078</v>
       </c>
       <c r="AD3">
-        <v>14984.72196267669</v>
+        <v>1.03188556681252</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -3632,91 +3632,91 @@
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>517.9768438839717</v>
+        <v>0.02382491412922419</v>
       </c>
       <c r="C4">
-        <v>48.56834694531019</v>
+        <v>0.002489038766263462</v>
       </c>
       <c r="D4">
-        <v>62.57876396989686</v>
+        <v>0.003256022651867537</v>
       </c>
       <c r="E4">
-        <v>1143.315439642534</v>
+        <v>0.05389446332121701</v>
       </c>
       <c r="F4">
-        <v>590.38253380753</v>
+        <v>0.03026553929253614</v>
       </c>
       <c r="G4">
-        <v>975.8023503379167</v>
+        <v>0.05366988735372546</v>
       </c>
       <c r="H4">
-        <v>447.5254831012426</v>
+        <v>0.02610686518409367</v>
       </c>
       <c r="I4">
-        <v>3224.207520632009</v>
+        <v>0.1696138634764636</v>
       </c>
       <c r="J4">
-        <v>1439.813380207658</v>
+        <v>0.09415583632941925</v>
       </c>
       <c r="K4">
-        <v>374.9131151346941</v>
+        <v>0.0260368094389145</v>
       </c>
       <c r="L4">
-        <v>3854.661960639349</v>
+        <v>0.3513408845422157</v>
       </c>
       <c r="M4">
-        <v>5922.555016468821</v>
+        <v>0.4712491925962035</v>
       </c>
       <c r="N4">
-        <v>31.84458352687387</v>
+        <v>0.003789355100363839</v>
       </c>
       <c r="O4">
-        <v>138.6201828739236</v>
+        <v>0.01885362508256829</v>
       </c>
       <c r="P4">
-        <v>6204.105199388144</v>
+        <v>0.5178056453281826</v>
       </c>
       <c r="Q4">
-        <v>274.9621646245166</v>
+        <v>0.03859403752367153</v>
       </c>
       <c r="R4">
-        <v>224.5478507467841</v>
+        <v>0.03159791021982255</v>
       </c>
       <c r="S4">
-        <v>262.5247989714492</v>
+        <v>0.03735963043712377</v>
       </c>
       <c r="T4">
-        <v>6410.02173960237</v>
+        <v>0.5381117437132337</v>
       </c>
       <c r="U4">
-        <v>899.5069212212877</v>
+        <v>0.1322514586264388</v>
       </c>
       <c r="V4">
-        <v>17.49531080032566</v>
+        <v>0.002936941940250607</v>
       </c>
       <c r="W4">
-        <v>2572.489757574362</v>
+        <v>0.7711371486957126</v>
       </c>
       <c r="X4">
-        <v>11610.60755610037</v>
+        <v>1.50035133213359</v>
       </c>
       <c r="Y4">
-        <v>23.09273424694432</v>
+        <v>0.00579115191322902</v>
       </c>
       <c r="Z4">
-        <v>43.54516304941364</v>
+        <v>0.01156562808995899</v>
       </c>
       <c r="AA4">
-        <v>10393.1517719951</v>
+        <v>0.9924321621850073</v>
       </c>
       <c r="AB4">
-        <v>538.7827786084113</v>
+        <v>0.1539365631592119</v>
       </c>
       <c r="AC4">
-        <v>92.08353530897894</v>
+        <v>0.02999499531395346</v>
       </c>
       <c r="AD4">
-        <v>10521.80885319749</v>
+        <v>1.12623636418945</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -3724,91 +3724,91 @@
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>1617.237696869264</v>
+        <v>0.1050716562403819</v>
       </c>
       <c r="C5">
-        <v>134.9491873817697</v>
+        <v>0.01059646568340399</v>
       </c>
       <c r="D5">
-        <v>191.0223093646392</v>
+        <v>0.01493572626170266</v>
       </c>
       <c r="E5">
-        <v>1992.863283613555</v>
+        <v>0.1341648252104573</v>
       </c>
       <c r="F5">
-        <v>406.8421118505303</v>
+        <v>0.03155600924603286</v>
       </c>
       <c r="G5">
-        <v>486.5924956521623</v>
+        <v>0.04093901201930097</v>
       </c>
       <c r="H5">
-        <v>453.1896434441105</v>
+        <v>0.04093521321507429</v>
       </c>
       <c r="I5">
-        <v>3362.461336733107</v>
+        <v>0.2496679772018402</v>
       </c>
       <c r="J5">
-        <v>960.2326586171707</v>
+        <v>0.0968553655084167</v>
       </c>
       <c r="K5">
-        <v>546.5012838274034</v>
+        <v>0.05713282373309569</v>
       </c>
       <c r="L5">
-        <v>2545.484674119057</v>
+        <v>0.349585983672509</v>
       </c>
       <c r="M5">
-        <v>4655.392763505567</v>
+        <v>0.5245133599461783</v>
       </c>
       <c r="N5">
-        <v>58.31970057364849</v>
+        <v>0.0108746938647454</v>
       </c>
       <c r="O5">
-        <v>106.3481353856286</v>
+        <v>0.02179128443811644</v>
       </c>
       <c r="P5">
-        <v>4894.020681065826</v>
+        <v>0.5843069475983483</v>
       </c>
       <c r="Q5">
-        <v>114.7170149759836</v>
+        <v>0.02463805463690635</v>
       </c>
       <c r="R5">
-        <v>163.459649378677</v>
+        <v>0.03488844950697861</v>
       </c>
       <c r="S5">
-        <v>184.9770231677437</v>
+        <v>0.03947438743705833</v>
       </c>
       <c r="T5">
-        <v>4843.87549605427</v>
+        <v>0.5836709407202497</v>
       </c>
       <c r="U5">
-        <v>651.3537478014542</v>
+        <v>0.1438563934239109</v>
       </c>
       <c r="V5">
-        <v>40.53507092629809</v>
+        <v>0.009979649945074659</v>
       </c>
       <c r="W5">
-        <v>1706.367763108235</v>
+        <v>0.766611808275704</v>
       </c>
       <c r="X5">
-        <v>7645.620060431658</v>
+        <v>1.527618769364381</v>
       </c>
       <c r="Y5">
-        <v>106.7511907427736</v>
+        <v>0.0398464181594551</v>
       </c>
       <c r="Z5">
-        <v>77.81258397585832</v>
+        <v>0.03105407838314926</v>
       </c>
       <c r="AA5">
-        <v>6828.055048527729</v>
+        <v>0.9982164260587829</v>
       </c>
       <c r="AB5">
-        <v>354.0251785890376</v>
+        <v>0.1537061063351251</v>
       </c>
       <c r="AC5">
-        <v>70.79426247938447</v>
+        <v>0.03508529780733404</v>
       </c>
       <c r="AD5">
-        <v>6907.338253699829</v>
+        <v>1.103890292713196</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -3816,91 +3816,91 @@
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>210.6778496306622</v>
+        <v>0.03012447772476088</v>
       </c>
       <c r="C6">
-        <v>110.0603535565826</v>
+        <v>0.01742197378082713</v>
       </c>
       <c r="D6">
-        <v>79.57772159970415</v>
+        <v>0.01281486810983787</v>
       </c>
       <c r="E6">
-        <v>506.4813220642988</v>
+        <v>0.07490833267334479</v>
       </c>
       <c r="F6">
-        <v>301.4548240201174</v>
+        <v>0.04845710064628785</v>
       </c>
       <c r="G6">
-        <v>172.4240555288039</v>
+        <v>0.02926541427599602</v>
       </c>
       <c r="H6">
-        <v>168.2092126638729</v>
+        <v>0.03055013472217077</v>
       </c>
       <c r="I6">
-        <v>1089.44424607228</v>
+        <v>0.1775422918024317</v>
       </c>
       <c r="J6">
-        <v>284.7379709048301</v>
+        <v>0.05731453534385886</v>
       </c>
       <c r="K6">
-        <v>103.0589087609603</v>
+        <v>0.02213092473299724</v>
       </c>
       <c r="L6">
-        <v>1167.322104787278</v>
+        <v>0.3271663331982967</v>
       </c>
       <c r="M6">
-        <v>1776.201337412232</v>
+        <v>0.4333408735961855</v>
       </c>
       <c r="N6">
-        <v>3.099141010021867</v>
+        <v>0.001104064831045499</v>
       </c>
       <c r="O6">
-        <v>47.57223796501476</v>
+        <v>0.01853923130539162</v>
       </c>
       <c r="P6">
-        <v>1864.883150541878</v>
+        <v>0.4678000727207514</v>
       </c>
       <c r="Q6">
-        <v>99.84919917054916</v>
+        <v>0.03974183997231336</v>
       </c>
       <c r="R6">
-        <v>69.48829092012555</v>
+        <v>0.02752173302625305</v>
       </c>
       <c r="S6">
-        <v>84.60393622639553</v>
+        <v>0.03398898202802981</v>
       </c>
       <c r="T6">
-        <v>1793.662295479559</v>
+        <v>0.4615357856782757</v>
       </c>
       <c r="U6">
-        <v>263.9985089446528</v>
+        <v>0.1093409603399115</v>
       </c>
       <c r="V6">
-        <v>34.58852157869713</v>
+        <v>0.01602945600003627</v>
       </c>
       <c r="W6">
-        <v>737.6883344102712</v>
+        <v>0.5669803748054993</v>
       </c>
       <c r="X6">
-        <v>3404.418322125676</v>
+        <v>1.236814272718895</v>
       </c>
       <c r="Y6">
-        <v>49.57330657722958</v>
+        <v>0.03162017724975023</v>
       </c>
       <c r="Z6">
-        <v>38.52545035427882</v>
+        <v>0.02791184265788797</v>
       </c>
       <c r="AA6">
-        <v>3175.563690957088</v>
+        <v>0.9092135690933091</v>
       </c>
       <c r="AB6">
-        <v>174.9189866052282</v>
+        <v>0.1382705502260923</v>
       </c>
       <c r="AC6">
-        <v>42.86010761769037</v>
+        <v>0.03567409246096202</v>
       </c>
       <c r="AD6">
-        <v>3220.814277892316</v>
+        <v>1.000192592390936</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -3908,91 +3908,88 @@
         <v>1000.111</v>
       </c>
       <c r="B7">
-        <v>163.7820485431781</v>
+        <v>0.04831788733417309</v>
       </c>
       <c r="C7">
-        <v>54.31535441290982</v>
+        <v>0.01876538783528313</v>
       </c>
       <c r="D7">
-        <v>34.8606780628261</v>
+        <v>0.01204557389918076</v>
       </c>
       <c r="E7">
-        <v>260.6715787633934</v>
+        <v>0.08009570125640078</v>
       </c>
       <c r="F7">
-        <v>74.51864246616418</v>
+        <v>0.02628841389534355</v>
       </c>
       <c r="G7">
-        <v>215.5227931681473</v>
+        <v>0.08107137248680792</v>
       </c>
       <c r="H7">
-        <v>118.1741394087557</v>
+        <v>0.04592290276599627</v>
       </c>
       <c r="I7">
-        <v>610.4654347094518</v>
+        <v>0.2156703190135762</v>
       </c>
       <c r="J7">
-        <v>287.4266014567893</v>
+        <v>0.132945062656417</v>
       </c>
       <c r="K7">
-        <v>117.1104819177174</v>
+        <v>0.05771311672953128</v>
       </c>
       <c r="L7">
-        <v>671.9361065793385</v>
+        <v>0.4358161730697819</v>
       </c>
       <c r="M7">
-        <v>1123.659577129568</v>
+        <v>0.6715964611170515</v>
       </c>
       <c r="N7">
-        <v>110.8659357061491</v>
+        <v>0.1049323720973965</v>
       </c>
       <c r="O7">
-        <v>79.43571237170346</v>
+        <v>0.1005220923011128</v>
       </c>
       <c r="P7">
-        <v>1104.65287571481</v>
+        <v>0.7134717132567179</v>
       </c>
       <c r="Q7">
-        <v>76.56200575350677</v>
+        <v>0.09720243866889566</v>
       </c>
       <c r="R7">
-        <v>90.86119509999854</v>
+        <v>0.1130993979273773</v>
       </c>
       <c r="S7">
-        <v>89.46722486475144</v>
+        <v>0.1129716684927707</v>
       </c>
       <c r="T7">
-        <v>1086.267377214284</v>
+        <v>0.6966080131783599</v>
       </c>
       <c r="U7">
-        <v>101.137932176805</v>
+        <v>0.1335217690948347</v>
       </c>
       <c r="V7">
-        <v>72.24213157846326</v>
+        <v>0.1242499740885699</v>
       </c>
       <c r="W7">
-        <v>443.5174599437997</v>
-      </c>
-      <c r="X7">
-        <v>1951.269757593757</v>
+        <v>0.0693661055159956</v>
       </c>
       <c r="Y7">
-        <v>61.34456964556847</v>
+        <v>0.2048626669973225</v>
       </c>
       <c r="Z7">
-        <v>18.72315344700247</v>
+        <v>0.08733520408590827</v>
       </c>
       <c r="AA7">
-        <v>1791.659251664501</v>
+        <v>1.661138864281263</v>
       </c>
       <c r="AB7">
-        <v>57.06101208355843</v>
+        <v>0.4285989799627858</v>
       </c>
       <c r="AC7">
-        <v>8.826920470923028</v>
+        <v>0.1079248422892098</v>
       </c>
       <c r="AD7">
-        <v>1803.655806771347</v>
+        <v>2.07522246196933</v>
       </c>
     </row>
   </sheetData>
@@ -4001,6 +3998,1851 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CI7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:87">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06795099732174277</v>
+      </c>
+      <c r="C2">
+        <v>0.08185805465480191</v>
+      </c>
+      <c r="D2">
+        <v>0.1545338928394538</v>
+      </c>
+      <c r="E2">
+        <v>0.1595285979578524</v>
+      </c>
+      <c r="F2">
+        <v>0.1611356300105169</v>
+      </c>
+      <c r="G2">
+        <v>0.1657440760914083</v>
+      </c>
+      <c r="H2">
+        <v>0.1522321958209901</v>
+      </c>
+      <c r="I2">
+        <v>0.1604916017349513</v>
+      </c>
+      <c r="J2">
+        <v>0.1120118472991535</v>
+      </c>
+      <c r="K2">
+        <v>0.1194300125897388</v>
+      </c>
+      <c r="L2">
+        <v>0.002974758985301182</v>
+      </c>
+      <c r="M2">
+        <v>0.1121004179217738</v>
+      </c>
+      <c r="N2">
+        <v>0.1913025001408202</v>
+      </c>
+      <c r="O2">
+        <v>0.2010557087478083</v>
+      </c>
+      <c r="P2">
+        <v>0.1945269807809258</v>
+      </c>
+      <c r="Q2">
+        <v>0.2779525147030378</v>
+      </c>
+      <c r="R2">
+        <v>0.2690071736811264</v>
+      </c>
+      <c r="S2">
+        <v>0.2716118830993711</v>
+      </c>
+      <c r="T2">
+        <v>0.3176560953365489</v>
+      </c>
+      <c r="U2">
+        <v>0.3301819559422958</v>
+      </c>
+      <c r="V2">
+        <v>0.3131392511907007</v>
+      </c>
+      <c r="W2">
+        <v>0.001330261400455145</v>
+      </c>
+      <c r="X2">
+        <v>0.3266598543948022</v>
+      </c>
+      <c r="Y2">
+        <v>0.3319231269399354</v>
+      </c>
+      <c r="Z2">
+        <v>0.33346493110568</v>
+      </c>
+      <c r="AA2">
+        <v>0.4829306993669014</v>
+      </c>
+      <c r="AB2">
+        <v>0.4898524009478926</v>
+      </c>
+      <c r="AC2">
+        <v>0.4896019436102285</v>
+      </c>
+      <c r="AD2">
+        <v>0.4373970654521983</v>
+      </c>
+      <c r="AE2">
+        <v>0.4306792180796415</v>
+      </c>
+      <c r="AF2">
+        <v>0.4277006167351722</v>
+      </c>
+      <c r="AG2">
+        <v>1.01899263158486</v>
+      </c>
+      <c r="AH2">
+        <v>0.1995119506017013</v>
+      </c>
+      <c r="AI2">
+        <v>1.026949115133777</v>
+      </c>
+      <c r="AJ2">
+        <v>1.024379418627245</v>
+      </c>
+      <c r="AK2">
+        <v>1.013984726349174</v>
+      </c>
+      <c r="AL2">
+        <v>1.016103755226842</v>
+      </c>
+      <c r="AM2">
+        <v>1.017959728441051</v>
+      </c>
+      <c r="AN2">
+        <v>1.12178981811764</v>
+      </c>
+      <c r="AO2">
+        <v>1.128846836013933</v>
+      </c>
+      <c r="AP2">
+        <v>1.112898153439635</v>
+      </c>
+      <c r="AQ2">
+        <v>1.108901319659735</v>
+      </c>
+      <c r="AR2">
+        <v>1.107784533644136</v>
+      </c>
+      <c r="AS2">
+        <v>0.2078434700802005</v>
+      </c>
+      <c r="AT2">
+        <v>1.126976540244029</v>
+      </c>
+      <c r="AU2">
+        <v>1.15642433072145</v>
+      </c>
+      <c r="AV2">
+        <v>1.176725201038425</v>
+      </c>
+      <c r="AW2">
+        <v>1.144612984295044</v>
+      </c>
+      <c r="AX2">
+        <v>1.131278282202457</v>
+      </c>
+      <c r="AY2">
+        <v>1.117729844113085</v>
+      </c>
+      <c r="AZ2">
+        <v>1.116643994309363</v>
+      </c>
+      <c r="BA2">
+        <v>1.212702435619046</v>
+      </c>
+      <c r="BB2">
+        <v>1.21928876747057</v>
+      </c>
+      <c r="BC2">
+        <v>1.210609183259514</v>
+      </c>
+      <c r="BD2">
+        <v>0.204715584709188</v>
+      </c>
+      <c r="BE2">
+        <v>1.086805281829825</v>
+      </c>
+      <c r="BF2">
+        <v>1.084310676819978</v>
+      </c>
+      <c r="BG2">
+        <v>1.076349440387174</v>
+      </c>
+      <c r="BH2">
+        <v>1.313627091948996</v>
+      </c>
+      <c r="BI2">
+        <v>1.306779881285925</v>
+      </c>
+      <c r="BJ2">
+        <v>1.313414825429418</v>
+      </c>
+      <c r="BK2">
+        <v>1.301348894529031</v>
+      </c>
+      <c r="BL2">
+        <v>1.3051761215023</v>
+      </c>
+      <c r="BM2">
+        <v>1.317076515764124</v>
+      </c>
+      <c r="BN2">
+        <v>2.488672286634736</v>
+      </c>
+      <c r="BO2">
+        <v>0.06283595561770416</v>
+      </c>
+      <c r="BP2">
+        <v>2.474974116374596</v>
+      </c>
+      <c r="BQ2">
+        <v>2.475548528763476</v>
+      </c>
+      <c r="BR2">
+        <v>1.677426607305108</v>
+      </c>
+      <c r="BS2">
+        <v>1.681449415043503</v>
+      </c>
+      <c r="BT2">
+        <v>1.660453162689851</v>
+      </c>
+      <c r="BU2">
+        <v>1.714476497547774</v>
+      </c>
+      <c r="BV2">
+        <v>1.765027021071516</v>
+      </c>
+      <c r="BW2">
+        <v>1.690234886541741</v>
+      </c>
+      <c r="BX2">
+        <v>1.701908530833132</v>
+      </c>
+      <c r="BY2">
+        <v>1.704198085567938</v>
+      </c>
+      <c r="BZ2">
+        <v>0.04918456893420017</v>
+      </c>
+      <c r="CA2">
+        <v>1.687194530989987</v>
+      </c>
+      <c r="CB2">
+        <v>1.919785367810857</v>
+      </c>
+      <c r="CC2">
+        <v>1.928167274677659</v>
+      </c>
+      <c r="CD2">
+        <v>1.907916940354473</v>
+      </c>
+      <c r="CE2">
+        <v>1.919215747486826</v>
+      </c>
+      <c r="CF2">
+        <v>1.926238552017087</v>
+      </c>
+      <c r="CG2">
+        <v>1.912777983247811</v>
+      </c>
+      <c r="CH2">
+        <v>0.0614402292893785</v>
+      </c>
+      <c r="CI2">
+        <v>0.07791362787603238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.06254309411229172</v>
+      </c>
+      <c r="C3">
+        <v>0.05785678103512904</v>
+      </c>
+      <c r="D3">
+        <v>0.1433899630497707</v>
+      </c>
+      <c r="E3">
+        <v>0.1483169813843757</v>
+      </c>
+      <c r="F3">
+        <v>0.1470527193014075</v>
+      </c>
+      <c r="G3">
+        <v>0.1496672710642195</v>
+      </c>
+      <c r="H3">
+        <v>0.1540524273499986</v>
+      </c>
+      <c r="I3">
+        <v>0.1578234254181533</v>
+      </c>
+      <c r="J3">
+        <v>0.1037213976898729</v>
+      </c>
+      <c r="K3">
+        <v>0.09495811317170584</v>
+      </c>
+      <c r="L3">
+        <v>0.002315853507733548</v>
+      </c>
+      <c r="M3">
+        <v>0.1011536916548215</v>
+      </c>
+      <c r="N3">
+        <v>0.1789797946206727</v>
+      </c>
+      <c r="O3">
+        <v>0.1726894573919343</v>
+      </c>
+      <c r="P3">
+        <v>0.1738728165946373</v>
+      </c>
+      <c r="Q3">
+        <v>0.2525142444596454</v>
+      </c>
+      <c r="R3">
+        <v>0.2475249976218991</v>
+      </c>
+      <c r="S3">
+        <v>0.255713639650946</v>
+      </c>
+      <c r="T3">
+        <v>0.2928322070710072</v>
+      </c>
+      <c r="U3">
+        <v>0.2940084387592624</v>
+      </c>
+      <c r="V3">
+        <v>0.3137637401213069</v>
+      </c>
+      <c r="W3">
+        <v>0.001869700701004347</v>
+      </c>
+      <c r="X3">
+        <v>0.3039233660583848</v>
+      </c>
+      <c r="Y3">
+        <v>0.3002289262914682</v>
+      </c>
+      <c r="Z3">
+        <v>0.3078415998742265</v>
+      </c>
+      <c r="AA3">
+        <v>0.4481233899072491</v>
+      </c>
+      <c r="AB3">
+        <v>0.4463180747955694</v>
+      </c>
+      <c r="AC3">
+        <v>0.4585852651378226</v>
+      </c>
+      <c r="AD3">
+        <v>0.4052696777173711</v>
+      </c>
+      <c r="AE3">
+        <v>0.4086558333297102</v>
+      </c>
+      <c r="AF3">
+        <v>0.4067019442358616</v>
+      </c>
+      <c r="AG3">
+        <v>0.985449928045534</v>
+      </c>
+      <c r="AH3">
+        <v>0.1928535557583117</v>
+      </c>
+      <c r="AI3">
+        <v>0.9940083474749077</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9835278215611972</v>
+      </c>
+      <c r="AK3">
+        <v>0.953755380326761</v>
+      </c>
+      <c r="AL3">
+        <v>0.9819740242282641</v>
+      </c>
+      <c r="AM3">
+        <v>0.9788849928641112</v>
+      </c>
+      <c r="AN3">
+        <v>1.10425467251388</v>
+      </c>
+      <c r="AO3">
+        <v>1.098594181794953</v>
+      </c>
+      <c r="AP3">
+        <v>1.096510620778534</v>
+      </c>
+      <c r="AQ3">
+        <v>1.065805080491945</v>
+      </c>
+      <c r="AR3">
+        <v>1.065646616280369</v>
+      </c>
+      <c r="AS3">
+        <v>0.1900194398218211</v>
+      </c>
+      <c r="AT3">
+        <v>1.074111195167979</v>
+      </c>
+      <c r="AU3">
+        <v>1.123957093707858</v>
+      </c>
+      <c r="AV3">
+        <v>1.11245921217335</v>
+      </c>
+      <c r="AW3">
+        <v>1.105008508231081</v>
+      </c>
+      <c r="AX3">
+        <v>1.075295965202646</v>
+      </c>
+      <c r="AY3">
+        <v>1.082903579075164</v>
+      </c>
+      <c r="AZ3">
+        <v>1.083910664160616</v>
+      </c>
+      <c r="BA3">
+        <v>1.156531424687362</v>
+      </c>
+      <c r="BB3">
+        <v>1.153948784082036</v>
+      </c>
+      <c r="BC3">
+        <v>1.174401777410012</v>
+      </c>
+      <c r="BD3">
+        <v>0.1833590955163211</v>
+      </c>
+      <c r="BE3">
+        <v>1.045432144962698</v>
+      </c>
+      <c r="BF3">
+        <v>1.029427607496673</v>
+      </c>
+      <c r="BG3">
+        <v>1.037962699501496</v>
+      </c>
+      <c r="BH3">
+        <v>1.255249383946394</v>
+      </c>
+      <c r="BI3">
+        <v>1.288895485521961</v>
+      </c>
+      <c r="BJ3">
+        <v>1.265233471629128</v>
+      </c>
+      <c r="BK3">
+        <v>1.260028518855096</v>
+      </c>
+      <c r="BL3">
+        <v>1.254994352563541</v>
+      </c>
+      <c r="BM3">
+        <v>1.245648968037489</v>
+      </c>
+      <c r="BN3">
+        <v>2.419851279703033</v>
+      </c>
+      <c r="BO3">
+        <v>0.0320701584753309</v>
+      </c>
+      <c r="BP3">
+        <v>2.389803366704771</v>
+      </c>
+      <c r="BQ3">
+        <v>2.402928895117701</v>
+      </c>
+      <c r="BR3">
+        <v>1.63023505717894</v>
+      </c>
+      <c r="BS3">
+        <v>1.651122404539787</v>
+      </c>
+      <c r="BT3">
+        <v>1.613737177433537</v>
+      </c>
+      <c r="BU3">
+        <v>1.660786902927901</v>
+      </c>
+      <c r="BV3">
+        <v>1.683014039654155</v>
+      </c>
+      <c r="BW3">
+        <v>1.676140434024832</v>
+      </c>
+      <c r="BX3">
+        <v>1.660140996320911</v>
+      </c>
+      <c r="BY3">
+        <v>1.634348831846555</v>
+      </c>
+      <c r="BZ3">
+        <v>0.03093495153954072</v>
+      </c>
+      <c r="CA3">
+        <v>1.628704209351442</v>
+      </c>
+      <c r="CB3">
+        <v>1.876055044353057</v>
+      </c>
+      <c r="CC3">
+        <v>1.868342932769132</v>
+      </c>
+      <c r="CD3">
+        <v>1.875966400268557</v>
+      </c>
+      <c r="CE3">
+        <v>1.860660744604795</v>
+      </c>
+      <c r="CF3">
+        <v>1.860135408236272</v>
+      </c>
+      <c r="CG3">
+        <v>1.8299393991325</v>
+      </c>
+      <c r="CH3">
+        <v>0.03044318140292155</v>
+      </c>
+      <c r="CI3">
+        <v>0.05513501163719099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.03833920716397395</v>
+      </c>
+      <c r="C4">
+        <v>0.04367385821915429</v>
+      </c>
+      <c r="D4">
+        <v>0.1297175473504567</v>
+      </c>
+      <c r="E4">
+        <v>0.1314549432236708</v>
+      </c>
+      <c r="F4">
+        <v>0.126546191620998</v>
+      </c>
+      <c r="G4">
+        <v>0.1408241820141943</v>
+      </c>
+      <c r="H4">
+        <v>0.14193599480132</v>
+      </c>
+      <c r="I4">
+        <v>0.1469368819771829</v>
+      </c>
+      <c r="J4">
+        <v>0.09187943693942219</v>
+      </c>
+      <c r="K4">
+        <v>0.09279983223092153</v>
+      </c>
+      <c r="L4">
+        <v>-0.001004910967455668</v>
+      </c>
+      <c r="M4">
+        <v>0.1031102377321041</v>
+      </c>
+      <c r="N4">
+        <v>0.1557520307000901</v>
+      </c>
+      <c r="O4">
+        <v>0.1553085342176607</v>
+      </c>
+      <c r="P4">
+        <v>0.1525362433194694</v>
+      </c>
+      <c r="Q4">
+        <v>0.2528441489259688</v>
+      </c>
+      <c r="R4">
+        <v>0.2357826949753737</v>
+      </c>
+      <c r="S4">
+        <v>0.2358582630510093</v>
+      </c>
+      <c r="T4">
+        <v>0.2796335062737026</v>
+      </c>
+      <c r="U4">
+        <v>0.2823934259153261</v>
+      </c>
+      <c r="V4">
+        <v>0.3132074683489514</v>
+      </c>
+      <c r="W4">
+        <v>0.01151183258022224</v>
+      </c>
+      <c r="X4">
+        <v>0.2966779126958042</v>
+      </c>
+      <c r="Y4">
+        <v>0.285126218778282</v>
+      </c>
+      <c r="Z4">
+        <v>0.3017339166970138</v>
+      </c>
+      <c r="AA4">
+        <v>0.4558772986221947</v>
+      </c>
+      <c r="AB4">
+        <v>0.4528359006649535</v>
+      </c>
+      <c r="AC4">
+        <v>0.4573808235033963</v>
+      </c>
+      <c r="AD4">
+        <v>0.4101833791173501</v>
+      </c>
+      <c r="AE4">
+        <v>0.4229486839812581</v>
+      </c>
+      <c r="AF4">
+        <v>0.4091607952057537</v>
+      </c>
+      <c r="AG4">
+        <v>1.024477842413456</v>
+      </c>
+      <c r="AH4">
+        <v>0.188325535155088</v>
+      </c>
+      <c r="AI4">
+        <v>1.004498740112759</v>
+      </c>
+      <c r="AJ4">
+        <v>1.00460740855161</v>
+      </c>
+      <c r="AK4">
+        <v>0.9748877903160449</v>
+      </c>
+      <c r="AL4">
+        <v>0.9741640868250526</v>
+      </c>
+      <c r="AM4">
+        <v>0.9679925760233756</v>
+      </c>
+      <c r="AN4">
+        <v>1.099505350093428</v>
+      </c>
+      <c r="AO4">
+        <v>1.122928633549595</v>
+      </c>
+      <c r="AP4">
+        <v>1.085626175492969</v>
+      </c>
+      <c r="AQ4">
+        <v>1.092988516261982</v>
+      </c>
+      <c r="AR4">
+        <v>1.103531673330121</v>
+      </c>
+      <c r="AS4">
+        <v>0.2014408876085131</v>
+      </c>
+      <c r="AT4">
+        <v>1.103110674663337</v>
+      </c>
+      <c r="AU4">
+        <v>1.172028554412571</v>
+      </c>
+      <c r="AV4">
+        <v>1.167673494442184</v>
+      </c>
+      <c r="AW4">
+        <v>1.168423750731289</v>
+      </c>
+      <c r="AX4">
+        <v>1.125860318784975</v>
+      </c>
+      <c r="AY4">
+        <v>1.106687745906473</v>
+      </c>
+      <c r="AZ4">
+        <v>1.117439128134247</v>
+      </c>
+      <c r="BA4">
+        <v>1.187103285661931</v>
+      </c>
+      <c r="BB4">
+        <v>1.17566789098289</v>
+      </c>
+      <c r="BC4">
+        <v>1.168209155089518</v>
+      </c>
+      <c r="BD4">
+        <v>0.1905223314708753</v>
+      </c>
+      <c r="BE4">
+        <v>1.068966952670205</v>
+      </c>
+      <c r="BF4">
+        <v>1.060162313290766</v>
+      </c>
+      <c r="BG4">
+        <v>1.084601906465271</v>
+      </c>
+      <c r="BH4">
+        <v>1.300468441429387</v>
+      </c>
+      <c r="BI4">
+        <v>1.318199809783778</v>
+      </c>
+      <c r="BJ4">
+        <v>1.31284049392728</v>
+      </c>
+      <c r="BK4">
+        <v>1.317602262333849</v>
+      </c>
+      <c r="BL4">
+        <v>1.282926373557593</v>
+      </c>
+      <c r="BM4">
+        <v>1.320491286496821</v>
+      </c>
+      <c r="BN4">
+        <v>2.636961302139714</v>
+      </c>
+      <c r="BO4">
+        <v>0.02138087320821584</v>
+      </c>
+      <c r="BP4">
+        <v>2.587155235745727</v>
+      </c>
+      <c r="BQ4">
+        <v>2.651770855926393</v>
+      </c>
+      <c r="BR4">
+        <v>1.720932236206869</v>
+      </c>
+      <c r="BS4">
+        <v>1.722383544002407</v>
+      </c>
+      <c r="BT4">
+        <v>1.711706377621188</v>
+      </c>
+      <c r="BU4">
+        <v>1.781260444724237</v>
+      </c>
+      <c r="BV4">
+        <v>1.785818006532374</v>
+      </c>
+      <c r="BW4">
+        <v>1.763899655059693</v>
+      </c>
+      <c r="BX4">
+        <v>1.719517875086779</v>
+      </c>
+      <c r="BY4">
+        <v>1.74203260405706</v>
+      </c>
+      <c r="BZ4">
+        <v>0.01194290195077402</v>
+      </c>
+      <c r="CA4">
+        <v>1.714476042920863</v>
+      </c>
+      <c r="CB4">
+        <v>1.953065676662382</v>
+      </c>
+      <c r="CC4">
+        <v>2.002280908260923</v>
+      </c>
+      <c r="CD4">
+        <v>2.009111662658423</v>
+      </c>
+      <c r="CE4">
+        <v>1.949364643123308</v>
+      </c>
+      <c r="CF4">
+        <v>1.983909284890204</v>
+      </c>
+      <c r="CG4">
+        <v>1.994716192448075</v>
+      </c>
+      <c r="CH4">
+        <v>0.03445170658732304</v>
+      </c>
+      <c r="CI4">
+        <v>0.05372631012837377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.1881966511082789</v>
+      </c>
+      <c r="C5">
+        <v>0.1750716187995824</v>
+      </c>
+      <c r="D5">
+        <v>0.2890848398746892</v>
+      </c>
+      <c r="E5">
+        <v>0.2744378742829458</v>
+      </c>
+      <c r="F5">
+        <v>0.2684965519858511</v>
+      </c>
+      <c r="G5">
+        <v>0.2684043977114589</v>
+      </c>
+      <c r="H5">
+        <v>0.288873363867502</v>
+      </c>
+      <c r="I5">
+        <v>0.2597976009690804</v>
+      </c>
+      <c r="J5">
+        <v>0.251693458605665</v>
+      </c>
+      <c r="K5">
+        <v>0.2344350474374066</v>
+      </c>
+      <c r="L5">
+        <v>0.01116511243619821</v>
+      </c>
+      <c r="M5">
+        <v>0.2396414284772545</v>
+      </c>
+      <c r="N5">
+        <v>0.290984635207768</v>
+      </c>
+      <c r="O5">
+        <v>0.2970974855986788</v>
+      </c>
+      <c r="P5">
+        <v>0.312706114360255</v>
+      </c>
+      <c r="Q5">
+        <v>0.3780815766488732</v>
+      </c>
+      <c r="R5">
+        <v>0.3880851187727803</v>
+      </c>
+      <c r="S5">
+        <v>0.3838628446330425</v>
+      </c>
+      <c r="T5">
+        <v>0.4585419539298044</v>
+      </c>
+      <c r="U5">
+        <v>0.4502600664085776</v>
+      </c>
+      <c r="V5">
+        <v>0.4242212189429646</v>
+      </c>
+      <c r="W5">
+        <v>0.01402748021711575</v>
+      </c>
+      <c r="X5">
+        <v>0.4657173727026709</v>
+      </c>
+      <c r="Y5">
+        <v>0.4383928731107648</v>
+      </c>
+      <c r="Z5">
+        <v>0.459513729384551</v>
+      </c>
+      <c r="AA5">
+        <v>0.615711562080528</v>
+      </c>
+      <c r="AB5">
+        <v>0.6186077384473645</v>
+      </c>
+      <c r="AC5">
+        <v>0.6116104683614789</v>
+      </c>
+      <c r="AD5">
+        <v>0.5163378661859894</v>
+      </c>
+      <c r="AE5">
+        <v>0.5576603121359391</v>
+      </c>
+      <c r="AF5">
+        <v>0.5445327039376731</v>
+      </c>
+      <c r="AG5">
+        <v>1.156490453635927</v>
+      </c>
+      <c r="AH5">
+        <v>0.2203103574328929</v>
+      </c>
+      <c r="AI5">
+        <v>1.131146284779263</v>
+      </c>
+      <c r="AJ5">
+        <v>1.126423594408779</v>
+      </c>
+      <c r="AK5">
+        <v>1.154344624684555</v>
+      </c>
+      <c r="AL5">
+        <v>1.133051205281654</v>
+      </c>
+      <c r="AM5">
+        <v>1.1398612996056</v>
+      </c>
+      <c r="AN5">
+        <v>1.217134182410509</v>
+      </c>
+      <c r="AO5">
+        <v>1.240710215406989</v>
+      </c>
+      <c r="AP5">
+        <v>1.260666619418507</v>
+      </c>
+      <c r="AQ5">
+        <v>1.256218792504037</v>
+      </c>
+      <c r="AR5">
+        <v>1.236803485493025</v>
+      </c>
+      <c r="AS5">
+        <v>0.2346015030006579</v>
+      </c>
+      <c r="AT5">
+        <v>1.262991623145054</v>
+      </c>
+      <c r="AU5">
+        <v>1.310891289812208</v>
+      </c>
+      <c r="AV5">
+        <v>1.296957326823001</v>
+      </c>
+      <c r="AW5">
+        <v>1.30972061749532</v>
+      </c>
+      <c r="AX5">
+        <v>1.250929662137866</v>
+      </c>
+      <c r="AY5">
+        <v>1.247777798863432</v>
+      </c>
+      <c r="AZ5">
+        <v>1.240194597507536</v>
+      </c>
+      <c r="BA5">
+        <v>1.319130365972271</v>
+      </c>
+      <c r="BB5">
+        <v>1.280903502793044</v>
+      </c>
+      <c r="BC5">
+        <v>1.296603695419857</v>
+      </c>
+      <c r="BD5">
+        <v>0.2429821024350673</v>
+      </c>
+      <c r="BE5">
+        <v>1.205024395054442</v>
+      </c>
+      <c r="BF5">
+        <v>1.215268634878065</v>
+      </c>
+      <c r="BG5">
+        <v>1.176498204519787</v>
+      </c>
+      <c r="BH5">
+        <v>1.442777376863091</v>
+      </c>
+      <c r="BI5">
+        <v>1.414179171950821</v>
+      </c>
+      <c r="BJ5">
+        <v>1.430777682913397</v>
+      </c>
+      <c r="BK5">
+        <v>1.4128790881607</v>
+      </c>
+      <c r="BL5">
+        <v>1.443968741246742</v>
+      </c>
+      <c r="BM5">
+        <v>1.420988286948955</v>
+      </c>
+      <c r="BN5">
+        <v>2.760139961080261</v>
+      </c>
+      <c r="BO5">
+        <v>0.1666897062290194</v>
+      </c>
+      <c r="BP5">
+        <v>2.813553185329114</v>
+      </c>
+      <c r="BQ5">
+        <v>2.811651848682326</v>
+      </c>
+      <c r="BR5">
+        <v>1.872951504573724</v>
+      </c>
+      <c r="BS5">
+        <v>1.803617547774103</v>
+      </c>
+      <c r="BT5">
+        <v>1.80425787564384</v>
+      </c>
+      <c r="BU5">
+        <v>1.873694755090048</v>
+      </c>
+      <c r="BV5">
+        <v>1.933464435466854</v>
+      </c>
+      <c r="BW5">
+        <v>1.888959187164408</v>
+      </c>
+      <c r="BX5">
+        <v>1.886639177835629</v>
+      </c>
+      <c r="BY5">
+        <v>1.887277238153974</v>
+      </c>
+      <c r="BZ5">
+        <v>0.1579967294129387</v>
+      </c>
+      <c r="CA5">
+        <v>1.858323361054042</v>
+      </c>
+      <c r="CB5">
+        <v>2.108191897831868</v>
+      </c>
+      <c r="CC5">
+        <v>2.138341436207218</v>
+      </c>
+      <c r="CD5">
+        <v>2.137896413905129</v>
+      </c>
+      <c r="CE5">
+        <v>2.08964915364912</v>
+      </c>
+      <c r="CF5">
+        <v>2.157898578671151</v>
+      </c>
+      <c r="CG5">
+        <v>2.093914529399436</v>
+      </c>
+      <c r="CH5">
+        <v>0.1788430909872715</v>
+      </c>
+      <c r="CI5">
+        <v>0.1850127532138407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.04618049010047671</v>
+      </c>
+      <c r="C6">
+        <v>0.05660105263717474</v>
+      </c>
+      <c r="D6">
+        <v>0.1404435861315483</v>
+      </c>
+      <c r="E6">
+        <v>0.1129972831565304</v>
+      </c>
+      <c r="F6">
+        <v>0.1453107775944028</v>
+      </c>
+      <c r="G6">
+        <v>0.1334810937770101</v>
+      </c>
+      <c r="H6">
+        <v>0.1566303143704205</v>
+      </c>
+      <c r="I6">
+        <v>0.1355295441204163</v>
+      </c>
+      <c r="J6">
+        <v>0.1241187209410544</v>
+      </c>
+      <c r="K6">
+        <v>0.1276196893336042</v>
+      </c>
+      <c r="L6">
+        <v>-0.003840402552067633</v>
+      </c>
+      <c r="M6">
+        <v>0.1004957451604708</v>
+      </c>
+      <c r="N6">
+        <v>0.1720559465402511</v>
+      </c>
+      <c r="O6">
+        <v>0.1928764199905353</v>
+      </c>
+      <c r="P6">
+        <v>0.1727895077115985</v>
+      </c>
+      <c r="Q6">
+        <v>0.2238226611154495</v>
+      </c>
+      <c r="R6">
+        <v>0.2231275742656919</v>
+      </c>
+      <c r="S6">
+        <v>0.2389180156830674</v>
+      </c>
+      <c r="T6">
+        <v>0.2865781466545998</v>
+      </c>
+      <c r="U6">
+        <v>0.295858746089077</v>
+      </c>
+      <c r="V6">
+        <v>0.3009615773636864</v>
+      </c>
+      <c r="W6">
+        <v>0.007001353599929366</v>
+      </c>
+      <c r="X6">
+        <v>0.326475918346098</v>
+      </c>
+      <c r="Y6">
+        <v>0.3104874623196898</v>
+      </c>
+      <c r="Z6">
+        <v>0.341622288261455</v>
+      </c>
+      <c r="AA6">
+        <v>0.4215945782691212</v>
+      </c>
+      <c r="AB6">
+        <v>0.4294688744584179</v>
+      </c>
+      <c r="AC6">
+        <v>0.4548608398447015</v>
+      </c>
+      <c r="AD6">
+        <v>0.4107678897983407</v>
+      </c>
+      <c r="AE6">
+        <v>0.4202462873998518</v>
+      </c>
+      <c r="AF6">
+        <v>0.4400534671698642</v>
+      </c>
+      <c r="AG6">
+        <v>0.9965589039232278</v>
+      </c>
+      <c r="AH6">
+        <v>0.2085729231489898</v>
+      </c>
+      <c r="AI6">
+        <v>0.9775627895942107</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9392526006422522</v>
+      </c>
+      <c r="AK6">
+        <v>0.9384632591771854</v>
+      </c>
+      <c r="AL6">
+        <v>0.9400950463767029</v>
+      </c>
+      <c r="AM6">
+        <v>0.9405674968129348</v>
+      </c>
+      <c r="AN6">
+        <v>1.011214820888098</v>
+      </c>
+      <c r="AO6">
+        <v>1.016319263455206</v>
+      </c>
+      <c r="AP6">
+        <v>1.045572195712293</v>
+      </c>
+      <c r="AQ6">
+        <v>1.016489194633488</v>
+      </c>
+      <c r="AR6">
+        <v>1.025402628562557</v>
+      </c>
+      <c r="AS6">
+        <v>0.2107291892734859</v>
+      </c>
+      <c r="AT6">
+        <v>1.015296954046005</v>
+      </c>
+      <c r="AU6">
+        <v>1.08998575457769</v>
+      </c>
+      <c r="AV6">
+        <v>1.076187666963908</v>
+      </c>
+      <c r="AW6">
+        <v>1.070350577039326</v>
+      </c>
+      <c r="AX6">
+        <v>1.01762947982831</v>
+      </c>
+      <c r="AY6">
+        <v>1.030289597858286</v>
+      </c>
+      <c r="AZ6">
+        <v>1.024942126674597</v>
+      </c>
+      <c r="BA6">
+        <v>1.050383162557839</v>
+      </c>
+      <c r="BB6">
+        <v>1.092254933154031</v>
+      </c>
+      <c r="BC6">
+        <v>1.09822167779114</v>
+      </c>
+      <c r="BD6">
+        <v>0.2359426421017406</v>
+      </c>
+      <c r="BE6">
+        <v>0.9523925047341975</v>
+      </c>
+      <c r="BF6">
+        <v>1.035088531458818</v>
+      </c>
+      <c r="BG6">
+        <v>0.9807408297827257</v>
+      </c>
+      <c r="BH6">
+        <v>1.191356993940401</v>
+      </c>
+      <c r="BI6">
+        <v>1.201910560472023</v>
+      </c>
+      <c r="BJ6">
+        <v>1.2184766318359</v>
+      </c>
+      <c r="BK6">
+        <v>1.186423776242012</v>
+      </c>
+      <c r="BL6">
+        <v>1.304553440054293</v>
+      </c>
+      <c r="BM6">
+        <v>1.222382950648558</v>
+      </c>
+      <c r="BN6">
+        <v>2.242925312456034</v>
+      </c>
+      <c r="BO6">
+        <v>0.07211756104950118</v>
+      </c>
+      <c r="BP6">
+        <v>2.173834750663177</v>
+      </c>
+      <c r="BQ6">
+        <v>2.252674025538894</v>
+      </c>
+      <c r="BR6">
+        <v>1.489589958837439</v>
+      </c>
+      <c r="BS6">
+        <v>1.512023919696251</v>
+      </c>
+      <c r="BT6">
+        <v>1.552012845938398</v>
+      </c>
+      <c r="BU6">
+        <v>1.670492050770646</v>
+      </c>
+      <c r="BV6">
+        <v>1.625057732931408</v>
+      </c>
+      <c r="BW6">
+        <v>1.675864123836584</v>
+      </c>
+      <c r="BX6">
+        <v>1.56561358516818</v>
+      </c>
+      <c r="BY6">
+        <v>1.649281507369268</v>
+      </c>
+      <c r="BZ6">
+        <v>0.03431128333213561</v>
+      </c>
+      <c r="CA6">
+        <v>1.612388089464998</v>
+      </c>
+      <c r="CB6">
+        <v>1.801793873707485</v>
+      </c>
+      <c r="CC6">
+        <v>1.881591187463184</v>
+      </c>
+      <c r="CD6">
+        <v>1.769034225942265</v>
+      </c>
+      <c r="CE6">
+        <v>1.820545299080496</v>
+      </c>
+      <c r="CF6">
+        <v>1.752036053586298</v>
+      </c>
+      <c r="CG6">
+        <v>1.790508605933244</v>
+      </c>
+      <c r="CH6">
+        <v>0.05008895685144273</v>
+      </c>
+      <c r="CI6">
+        <v>0.06627287461984564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.08139561075577238</v>
+      </c>
+      <c r="C7">
+        <v>0.08580789983117487</v>
+      </c>
+      <c r="D7">
+        <v>0.2188236736177796</v>
+      </c>
+      <c r="E7">
+        <v>0.2033783344532896</v>
+      </c>
+      <c r="F7">
+        <v>0.1814783696929212</v>
+      </c>
+      <c r="G7">
+        <v>0.1877154390448533</v>
+      </c>
+      <c r="H7">
+        <v>0.2104282265880995</v>
+      </c>
+      <c r="I7">
+        <v>0.1921159350891234</v>
+      </c>
+      <c r="J7">
+        <v>0.1624031750507396</v>
+      </c>
+      <c r="K7">
+        <v>0.1358949407699438</v>
+      </c>
+      <c r="L7">
+        <v>0.01233184694713855</v>
+      </c>
+      <c r="M7">
+        <v>0.1938904951474605</v>
+      </c>
+      <c r="N7">
+        <v>0.2463740684337486</v>
+      </c>
+      <c r="O7">
+        <v>0.2174215592437918</v>
+      </c>
+      <c r="P7">
+        <v>0.2132178736942696</v>
+      </c>
+      <c r="Q7">
+        <v>0.3349426784622033</v>
+      </c>
+      <c r="R7">
+        <v>0.3668434489370849</v>
+      </c>
+      <c r="S7">
+        <v>0.2760251502098539</v>
+      </c>
+      <c r="T7">
+        <v>0.3640708838821</v>
+      </c>
+      <c r="U7">
+        <v>0.342690909572162</v>
+      </c>
+      <c r="V7">
+        <v>0.4456181228603575</v>
+      </c>
+      <c r="W7">
+        <v>0.03589530866177911</v>
+      </c>
+      <c r="X7">
+        <v>0.3575320177480512</v>
+      </c>
+      <c r="Y7">
+        <v>0.3617844519202073</v>
+      </c>
+      <c r="Z7">
+        <v>0.4090053258879582</v>
+      </c>
+      <c r="AA7">
+        <v>0.6120020618939226</v>
+      </c>
+      <c r="AB7">
+        <v>0.614626782827309</v>
+      </c>
+      <c r="AC7">
+        <v>0.5791489688119996</v>
+      </c>
+      <c r="AD7">
+        <v>0.5017647710425769</v>
+      </c>
+      <c r="AE7">
+        <v>0.489678767677242</v>
+      </c>
+      <c r="AF7">
+        <v>0.4631440780117863</v>
+      </c>
+      <c r="AG7">
+        <v>1.23091731600297</v>
+      </c>
+      <c r="AH7">
+        <v>0.2217959432978147</v>
+      </c>
+      <c r="AI7">
+        <v>1.389517363312149</v>
+      </c>
+      <c r="AJ7">
+        <v>1.380500487476161</v>
+      </c>
+      <c r="AK7">
+        <v>1.292199369509935</v>
+      </c>
+      <c r="AL7">
+        <v>1.117573344985812</v>
+      </c>
+      <c r="AM7">
+        <v>1.305691723231708</v>
+      </c>
+      <c r="AN7">
+        <v>1.602930376760634</v>
+      </c>
+      <c r="AO7">
+        <v>1.403550978622442</v>
+      </c>
+      <c r="AP7">
+        <v>1.525600570811129</v>
+      </c>
+      <c r="AQ7">
+        <v>1.484894420512529</v>
+      </c>
+      <c r="AR7">
+        <v>1.525600570811129</v>
+      </c>
+      <c r="AS7">
+        <v>0.2699811624978711</v>
+      </c>
+      <c r="AT7">
+        <v>1.516983793421944</v>
+      </c>
+      <c r="AU7">
+        <v>1.601896105798979</v>
+      </c>
+      <c r="AV7">
+        <v>1.407989077527697</v>
+      </c>
+      <c r="AW7">
+        <v>1.596922238622056</v>
+      </c>
+      <c r="AX7">
+        <v>1.550518291839777</v>
+      </c>
+      <c r="AY7">
+        <v>1.38199278486653</v>
+      </c>
+      <c r="AZ7">
+        <v>1.382500478386768</v>
+      </c>
+      <c r="BA7">
+        <v>1.473513180848214</v>
+      </c>
+      <c r="BB7">
+        <v>1.607102640956338</v>
+      </c>
+      <c r="BC7">
+        <v>1.556055712444142</v>
+      </c>
+      <c r="BD7">
+        <v>0.2710764792454293</v>
+      </c>
+      <c r="BE7">
+        <v>1.37983795834449</v>
+      </c>
+      <c r="BF7">
+        <v>1.416399336047944</v>
+      </c>
+      <c r="BG7">
+        <v>1.44083032705779</v>
+      </c>
+      <c r="BH7">
+        <v>1.658911452186672</v>
+      </c>
+      <c r="BI7">
+        <v>1.773067063912149</v>
+      </c>
+      <c r="BJ7">
+        <v>1.926080660151839</v>
+      </c>
+      <c r="BK7">
+        <v>1.680002939679785</v>
+      </c>
+      <c r="BL7">
+        <v>1.888063179885118</v>
+      </c>
+      <c r="BM7">
+        <v>1.789964692695393</v>
+      </c>
+      <c r="BO7">
+        <v>0.1062020160298224</v>
+      </c>
+      <c r="BR7">
+        <v>2.684462882471138</v>
+      </c>
+      <c r="BS7">
+        <v>2.498777989999738</v>
+      </c>
+      <c r="BT7">
+        <v>2.275318400961112</v>
+      </c>
+      <c r="BU7">
+        <v>2.714938376468172</v>
+      </c>
+      <c r="BV7">
+        <v>2.790374078712237</v>
+      </c>
+      <c r="BW7">
+        <v>2.889090844672491</v>
+      </c>
+      <c r="BX7">
+        <v>3.031002863128569</v>
+      </c>
+      <c r="BY7">
+        <v>2.858717110926029</v>
+      </c>
+      <c r="BZ7">
+        <v>0.0715543656274555</v>
+      </c>
+      <c r="CA7">
+        <v>2.892091199905992</v>
+      </c>
+      <c r="CB7">
+        <v>3.346224959460505</v>
+      </c>
+      <c r="CC7">
+        <v>3.748771574773756</v>
+      </c>
+      <c r="CD7">
+        <v>3.826215663449488</v>
+      </c>
+      <c r="CE7">
+        <v>3.670235156945154</v>
+      </c>
+      <c r="CF7">
+        <v>3.877437932587533</v>
+      </c>
+      <c r="CG7">
+        <v>3.69005895255929</v>
+      </c>
+      <c r="CH7">
+        <v>0.1090431169904558</v>
+      </c>
+      <c r="CI7">
+        <v>0.08244096957791737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC7"/>
   <sheetViews>
@@ -4634,1849 +6476,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:87">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:87">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.06795099732174277</v>
-      </c>
-      <c r="C2">
-        <v>0.08185805465480191</v>
-      </c>
-      <c r="D2">
-        <v>0.1545338928394538</v>
-      </c>
-      <c r="E2">
-        <v>0.1595285979578524</v>
-      </c>
-      <c r="F2">
-        <v>0.1611356300105169</v>
-      </c>
-      <c r="G2">
-        <v>0.1657440760914083</v>
-      </c>
-      <c r="H2">
-        <v>0.1522321958209901</v>
-      </c>
-      <c r="I2">
-        <v>0.1604916017349513</v>
-      </c>
-      <c r="J2">
-        <v>0.1120118472991535</v>
-      </c>
-      <c r="K2">
-        <v>0.1194300125897388</v>
-      </c>
-      <c r="L2">
-        <v>0.002974758985301182</v>
-      </c>
-      <c r="M2">
-        <v>0.1121004179217738</v>
-      </c>
-      <c r="N2">
-        <v>0.1913025001408202</v>
-      </c>
-      <c r="O2">
-        <v>0.2010557087478083</v>
-      </c>
-      <c r="P2">
-        <v>0.1945269807809258</v>
-      </c>
-      <c r="Q2">
-        <v>0.2779525147030378</v>
-      </c>
-      <c r="R2">
-        <v>0.2690071736811264</v>
-      </c>
-      <c r="S2">
-        <v>0.2716118830993711</v>
-      </c>
-      <c r="T2">
-        <v>0.3176560953365489</v>
-      </c>
-      <c r="U2">
-        <v>0.3301819559422958</v>
-      </c>
-      <c r="V2">
-        <v>0.3131392511907007</v>
-      </c>
-      <c r="W2">
-        <v>0.001330261400455145</v>
-      </c>
-      <c r="X2">
-        <v>0.3266598543948022</v>
-      </c>
-      <c r="Y2">
-        <v>0.3319231269399354</v>
-      </c>
-      <c r="Z2">
-        <v>0.33346493110568</v>
-      </c>
-      <c r="AA2">
-        <v>0.4829306993669014</v>
-      </c>
-      <c r="AB2">
-        <v>0.4898524009478926</v>
-      </c>
-      <c r="AC2">
-        <v>0.4896019436102285</v>
-      </c>
-      <c r="AD2">
-        <v>0.4373970654521983</v>
-      </c>
-      <c r="AE2">
-        <v>0.4306792180796415</v>
-      </c>
-      <c r="AF2">
-        <v>0.4277006167351722</v>
-      </c>
-      <c r="AG2">
-        <v>1.01899263158486</v>
-      </c>
-      <c r="AH2">
-        <v>0.1995119506017013</v>
-      </c>
-      <c r="AI2">
-        <v>1.026949115133777</v>
-      </c>
-      <c r="AJ2">
-        <v>1.024379418627245</v>
-      </c>
-      <c r="AK2">
-        <v>1.013984726349174</v>
-      </c>
-      <c r="AL2">
-        <v>1.016103755226842</v>
-      </c>
-      <c r="AM2">
-        <v>1.017959728441051</v>
-      </c>
-      <c r="AN2">
-        <v>1.12178981811764</v>
-      </c>
-      <c r="AO2">
-        <v>1.128846836013933</v>
-      </c>
-      <c r="AP2">
-        <v>1.112898153439635</v>
-      </c>
-      <c r="AQ2">
-        <v>1.108901319659735</v>
-      </c>
-      <c r="AR2">
-        <v>1.107784533644136</v>
-      </c>
-      <c r="AS2">
-        <v>0.2078434700802005</v>
-      </c>
-      <c r="AT2">
-        <v>1.126976540244029</v>
-      </c>
-      <c r="AU2">
-        <v>1.15642433072145</v>
-      </c>
-      <c r="AV2">
-        <v>1.176725201038425</v>
-      </c>
-      <c r="AW2">
-        <v>1.144612984295044</v>
-      </c>
-      <c r="AX2">
-        <v>1.131278282202457</v>
-      </c>
-      <c r="AY2">
-        <v>1.117729844113085</v>
-      </c>
-      <c r="AZ2">
-        <v>1.116643994309363</v>
-      </c>
-      <c r="BA2">
-        <v>1.212702435619046</v>
-      </c>
-      <c r="BB2">
-        <v>1.21928876747057</v>
-      </c>
-      <c r="BC2">
-        <v>1.210609183259514</v>
-      </c>
-      <c r="BD2">
-        <v>0.204715584709188</v>
-      </c>
-      <c r="BE2">
-        <v>1.086805281829825</v>
-      </c>
-      <c r="BF2">
-        <v>1.084310676819978</v>
-      </c>
-      <c r="BG2">
-        <v>1.076349440387174</v>
-      </c>
-      <c r="BH2">
-        <v>1.313627091948996</v>
-      </c>
-      <c r="BI2">
-        <v>1.306779881285925</v>
-      </c>
-      <c r="BJ2">
-        <v>1.313414825429418</v>
-      </c>
-      <c r="BK2">
-        <v>1.301348894529031</v>
-      </c>
-      <c r="BL2">
-        <v>1.3051761215023</v>
-      </c>
-      <c r="BM2">
-        <v>1.317076515764124</v>
-      </c>
-      <c r="BN2">
-        <v>2.488672286634736</v>
-      </c>
-      <c r="BO2">
-        <v>0.06283595561770416</v>
-      </c>
-      <c r="BP2">
-        <v>2.474974116374596</v>
-      </c>
-      <c r="BQ2">
-        <v>2.475548528763476</v>
-      </c>
-      <c r="BR2">
-        <v>1.677426607305108</v>
-      </c>
-      <c r="BS2">
-        <v>1.681449415043503</v>
-      </c>
-      <c r="BT2">
-        <v>1.660453162689851</v>
-      </c>
-      <c r="BU2">
-        <v>1.714476497547774</v>
-      </c>
-      <c r="BV2">
-        <v>1.765027021071516</v>
-      </c>
-      <c r="BW2">
-        <v>1.690234886541741</v>
-      </c>
-      <c r="BX2">
-        <v>1.701908530833132</v>
-      </c>
-      <c r="BY2">
-        <v>1.704198085567938</v>
-      </c>
-      <c r="BZ2">
-        <v>0.04918456893420017</v>
-      </c>
-      <c r="CA2">
-        <v>1.687194530989987</v>
-      </c>
-      <c r="CB2">
-        <v>1.919785367810857</v>
-      </c>
-      <c r="CC2">
-        <v>1.928167274677659</v>
-      </c>
-      <c r="CD2">
-        <v>1.907916940354473</v>
-      </c>
-      <c r="CE2">
-        <v>1.919215747486826</v>
-      </c>
-      <c r="CF2">
-        <v>1.926238552017087</v>
-      </c>
-      <c r="CG2">
-        <v>1.912777983247811</v>
-      </c>
-      <c r="CH2">
-        <v>0.0614402292893785</v>
-      </c>
-      <c r="CI2">
-        <v>0.07791362787603238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:87">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.06254309411229172</v>
-      </c>
-      <c r="C3">
-        <v>0.05785678103512904</v>
-      </c>
-      <c r="D3">
-        <v>0.1433899630497707</v>
-      </c>
-      <c r="E3">
-        <v>0.1483169813843757</v>
-      </c>
-      <c r="F3">
-        <v>0.1470527193014075</v>
-      </c>
-      <c r="G3">
-        <v>0.1496672710642195</v>
-      </c>
-      <c r="H3">
-        <v>0.1540524273499986</v>
-      </c>
-      <c r="I3">
-        <v>0.1578234254181533</v>
-      </c>
-      <c r="J3">
-        <v>0.1037213976898729</v>
-      </c>
-      <c r="K3">
-        <v>0.09495811317170584</v>
-      </c>
-      <c r="L3">
-        <v>0.002315853507733548</v>
-      </c>
-      <c r="M3">
-        <v>0.1011536916548215</v>
-      </c>
-      <c r="N3">
-        <v>0.1789797946206727</v>
-      </c>
-      <c r="O3">
-        <v>0.1726894573919343</v>
-      </c>
-      <c r="P3">
-        <v>0.1738728165946373</v>
-      </c>
-      <c r="Q3">
-        <v>0.2525142444596454</v>
-      </c>
-      <c r="R3">
-        <v>0.2475249976218991</v>
-      </c>
-      <c r="S3">
-        <v>0.255713639650946</v>
-      </c>
-      <c r="T3">
-        <v>0.2928322070710072</v>
-      </c>
-      <c r="U3">
-        <v>0.2940084387592624</v>
-      </c>
-      <c r="V3">
-        <v>0.3137637401213069</v>
-      </c>
-      <c r="W3">
-        <v>0.001869700701004347</v>
-      </c>
-      <c r="X3">
-        <v>0.3039233660583848</v>
-      </c>
-      <c r="Y3">
-        <v>0.3002289262914682</v>
-      </c>
-      <c r="Z3">
-        <v>0.3078415998742265</v>
-      </c>
-      <c r="AA3">
-        <v>0.4481233899072491</v>
-      </c>
-      <c r="AB3">
-        <v>0.4463180747955694</v>
-      </c>
-      <c r="AC3">
-        <v>0.4585852651378226</v>
-      </c>
-      <c r="AD3">
-        <v>0.4052696777173711</v>
-      </c>
-      <c r="AE3">
-        <v>0.4086558333297102</v>
-      </c>
-      <c r="AF3">
-        <v>0.4067019442358616</v>
-      </c>
-      <c r="AG3">
-        <v>0.985449928045534</v>
-      </c>
-      <c r="AH3">
-        <v>0.1928535557583117</v>
-      </c>
-      <c r="AI3">
-        <v>0.9940083474749077</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9835278215611972</v>
-      </c>
-      <c r="AK3">
-        <v>0.953755380326761</v>
-      </c>
-      <c r="AL3">
-        <v>0.9819740242282641</v>
-      </c>
-      <c r="AM3">
-        <v>0.9788849928641112</v>
-      </c>
-      <c r="AN3">
-        <v>1.10425467251388</v>
-      </c>
-      <c r="AO3">
-        <v>1.098594181794953</v>
-      </c>
-      <c r="AP3">
-        <v>1.096510620778534</v>
-      </c>
-      <c r="AQ3">
-        <v>1.065805080491945</v>
-      </c>
-      <c r="AR3">
-        <v>1.065646616280369</v>
-      </c>
-      <c r="AS3">
-        <v>0.1900194398218211</v>
-      </c>
-      <c r="AT3">
-        <v>1.074111195167979</v>
-      </c>
-      <c r="AU3">
-        <v>1.123957093707858</v>
-      </c>
-      <c r="AV3">
-        <v>1.11245921217335</v>
-      </c>
-      <c r="AW3">
-        <v>1.105008508231081</v>
-      </c>
-      <c r="AX3">
-        <v>1.075295965202646</v>
-      </c>
-      <c r="AY3">
-        <v>1.082903579075164</v>
-      </c>
-      <c r="AZ3">
-        <v>1.083910664160616</v>
-      </c>
-      <c r="BA3">
-        <v>1.156531424687362</v>
-      </c>
-      <c r="BB3">
-        <v>1.153948784082036</v>
-      </c>
-      <c r="BC3">
-        <v>1.174401777410012</v>
-      </c>
-      <c r="BD3">
-        <v>0.1833590955163211</v>
-      </c>
-      <c r="BE3">
-        <v>1.045432144962698</v>
-      </c>
-      <c r="BF3">
-        <v>1.029427607496673</v>
-      </c>
-      <c r="BG3">
-        <v>1.037962699501496</v>
-      </c>
-      <c r="BH3">
-        <v>1.255249383946394</v>
-      </c>
-      <c r="BI3">
-        <v>1.288895485521961</v>
-      </c>
-      <c r="BJ3">
-        <v>1.265233471629128</v>
-      </c>
-      <c r="BK3">
-        <v>1.260028518855096</v>
-      </c>
-      <c r="BL3">
-        <v>1.254994352563541</v>
-      </c>
-      <c r="BM3">
-        <v>1.245648968037489</v>
-      </c>
-      <c r="BN3">
-        <v>2.419851279703033</v>
-      </c>
-      <c r="BO3">
-        <v>0.0320701584753309</v>
-      </c>
-      <c r="BP3">
-        <v>2.389803366704771</v>
-      </c>
-      <c r="BQ3">
-        <v>2.402928895117701</v>
-      </c>
-      <c r="BR3">
-        <v>1.63023505717894</v>
-      </c>
-      <c r="BS3">
-        <v>1.651122404539787</v>
-      </c>
-      <c r="BT3">
-        <v>1.613737177433537</v>
-      </c>
-      <c r="BU3">
-        <v>1.660786902927901</v>
-      </c>
-      <c r="BV3">
-        <v>1.683014039654155</v>
-      </c>
-      <c r="BW3">
-        <v>1.676140434024832</v>
-      </c>
-      <c r="BX3">
-        <v>1.660140996320911</v>
-      </c>
-      <c r="BY3">
-        <v>1.634348831846555</v>
-      </c>
-      <c r="BZ3">
-        <v>0.03093495153954072</v>
-      </c>
-      <c r="CA3">
-        <v>1.628704209351442</v>
-      </c>
-      <c r="CB3">
-        <v>1.876055044353057</v>
-      </c>
-      <c r="CC3">
-        <v>1.868342932769132</v>
-      </c>
-      <c r="CD3">
-        <v>1.875966400268557</v>
-      </c>
-      <c r="CE3">
-        <v>1.860660744604795</v>
-      </c>
-      <c r="CF3">
-        <v>1.860135408236272</v>
-      </c>
-      <c r="CG3">
-        <v>1.8299393991325</v>
-      </c>
-      <c r="CH3">
-        <v>0.03044318140292155</v>
-      </c>
-      <c r="CI3">
-        <v>0.05513501163719099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:87">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0.03833920716397395</v>
-      </c>
-      <c r="C4">
-        <v>0.04367385821915429</v>
-      </c>
-      <c r="D4">
-        <v>0.1297175473504567</v>
-      </c>
-      <c r="E4">
-        <v>0.1314549432236708</v>
-      </c>
-      <c r="F4">
-        <v>0.126546191620998</v>
-      </c>
-      <c r="G4">
-        <v>0.1408241820141943</v>
-      </c>
-      <c r="H4">
-        <v>0.14193599480132</v>
-      </c>
-      <c r="I4">
-        <v>0.1469368819771829</v>
-      </c>
-      <c r="J4">
-        <v>0.09187943693942219</v>
-      </c>
-      <c r="K4">
-        <v>0.09279983223092153</v>
-      </c>
-      <c r="L4">
-        <v>-0.001004910967455668</v>
-      </c>
-      <c r="M4">
-        <v>0.1031102377321041</v>
-      </c>
-      <c r="N4">
-        <v>0.1557520307000901</v>
-      </c>
-      <c r="O4">
-        <v>0.1553085342176607</v>
-      </c>
-      <c r="P4">
-        <v>0.1525362433194694</v>
-      </c>
-      <c r="Q4">
-        <v>0.2528441489259688</v>
-      </c>
-      <c r="R4">
-        <v>0.2357826949753737</v>
-      </c>
-      <c r="S4">
-        <v>0.2358582630510093</v>
-      </c>
-      <c r="T4">
-        <v>0.2796335062737026</v>
-      </c>
-      <c r="U4">
-        <v>0.2823934259153261</v>
-      </c>
-      <c r="V4">
-        <v>0.3132074683489514</v>
-      </c>
-      <c r="W4">
-        <v>0.01151183258022224</v>
-      </c>
-      <c r="X4">
-        <v>0.2966779126958042</v>
-      </c>
-      <c r="Y4">
-        <v>0.285126218778282</v>
-      </c>
-      <c r="Z4">
-        <v>0.3017339166970138</v>
-      </c>
-      <c r="AA4">
-        <v>0.4558772986221947</v>
-      </c>
-      <c r="AB4">
-        <v>0.4528359006649535</v>
-      </c>
-      <c r="AC4">
-        <v>0.4573808235033963</v>
-      </c>
-      <c r="AD4">
-        <v>0.4101833791173501</v>
-      </c>
-      <c r="AE4">
-        <v>0.4229486839812581</v>
-      </c>
-      <c r="AF4">
-        <v>0.4091607952057537</v>
-      </c>
-      <c r="AG4">
-        <v>1.024477842413456</v>
-      </c>
-      <c r="AH4">
-        <v>0.188325535155088</v>
-      </c>
-      <c r="AI4">
-        <v>1.004498740112759</v>
-      </c>
-      <c r="AJ4">
-        <v>1.00460740855161</v>
-      </c>
-      <c r="AK4">
-        <v>0.9748877903160449</v>
-      </c>
-      <c r="AL4">
-        <v>0.9741640868250526</v>
-      </c>
-      <c r="AM4">
-        <v>0.9679925760233756</v>
-      </c>
-      <c r="AN4">
-        <v>1.099505350093428</v>
-      </c>
-      <c r="AO4">
-        <v>1.122928633549595</v>
-      </c>
-      <c r="AP4">
-        <v>1.085626175492969</v>
-      </c>
-      <c r="AQ4">
-        <v>1.092988516261982</v>
-      </c>
-      <c r="AR4">
-        <v>1.103531673330121</v>
-      </c>
-      <c r="AS4">
-        <v>0.2014408876085131</v>
-      </c>
-      <c r="AT4">
-        <v>1.103110674663337</v>
-      </c>
-      <c r="AU4">
-        <v>1.172028554412571</v>
-      </c>
-      <c r="AV4">
-        <v>1.167673494442184</v>
-      </c>
-      <c r="AW4">
-        <v>1.168423750731289</v>
-      </c>
-      <c r="AX4">
-        <v>1.125860318784975</v>
-      </c>
-      <c r="AY4">
-        <v>1.106687745906473</v>
-      </c>
-      <c r="AZ4">
-        <v>1.117439128134247</v>
-      </c>
-      <c r="BA4">
-        <v>1.187103285661931</v>
-      </c>
-      <c r="BB4">
-        <v>1.17566789098289</v>
-      </c>
-      <c r="BC4">
-        <v>1.168209155089518</v>
-      </c>
-      <c r="BD4">
-        <v>0.1905223314708753</v>
-      </c>
-      <c r="BE4">
-        <v>1.068966952670205</v>
-      </c>
-      <c r="BF4">
-        <v>1.060162313290766</v>
-      </c>
-      <c r="BG4">
-        <v>1.084601906465271</v>
-      </c>
-      <c r="BH4">
-        <v>1.300468441429387</v>
-      </c>
-      <c r="BI4">
-        <v>1.318199809783778</v>
-      </c>
-      <c r="BJ4">
-        <v>1.31284049392728</v>
-      </c>
-      <c r="BK4">
-        <v>1.317602262333849</v>
-      </c>
-      <c r="BL4">
-        <v>1.282926373557593</v>
-      </c>
-      <c r="BM4">
-        <v>1.320491286496821</v>
-      </c>
-      <c r="BN4">
-        <v>2.636961302139714</v>
-      </c>
-      <c r="BO4">
-        <v>0.02138087320821584</v>
-      </c>
-      <c r="BP4">
-        <v>2.587155235745727</v>
-      </c>
-      <c r="BQ4">
-        <v>2.651770855926393</v>
-      </c>
-      <c r="BR4">
-        <v>1.720932236206869</v>
-      </c>
-      <c r="BS4">
-        <v>1.722383544002407</v>
-      </c>
-      <c r="BT4">
-        <v>1.711706377621188</v>
-      </c>
-      <c r="BU4">
-        <v>1.781260444724237</v>
-      </c>
-      <c r="BV4">
-        <v>1.785818006532374</v>
-      </c>
-      <c r="BW4">
-        <v>1.763899655059693</v>
-      </c>
-      <c r="BX4">
-        <v>1.719517875086779</v>
-      </c>
-      <c r="BY4">
-        <v>1.74203260405706</v>
-      </c>
-      <c r="BZ4">
-        <v>0.01194290195077402</v>
-      </c>
-      <c r="CA4">
-        <v>1.714476042920863</v>
-      </c>
-      <c r="CB4">
-        <v>1.953065676662382</v>
-      </c>
-      <c r="CC4">
-        <v>2.002280908260923</v>
-      </c>
-      <c r="CD4">
-        <v>2.009111662658423</v>
-      </c>
-      <c r="CE4">
-        <v>1.949364643123308</v>
-      </c>
-      <c r="CF4">
-        <v>1.983909284890204</v>
-      </c>
-      <c r="CG4">
-        <v>1.994716192448075</v>
-      </c>
-      <c r="CH4">
-        <v>0.03445170658732304</v>
-      </c>
-      <c r="CI4">
-        <v>0.05372631012837377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:87">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0.1881966511082789</v>
-      </c>
-      <c r="C5">
-        <v>0.1750716187995824</v>
-      </c>
-      <c r="D5">
-        <v>0.2890848398746892</v>
-      </c>
-      <c r="E5">
-        <v>0.2744378742829458</v>
-      </c>
-      <c r="F5">
-        <v>0.2684965519858511</v>
-      </c>
-      <c r="G5">
-        <v>0.2684043977114589</v>
-      </c>
-      <c r="H5">
-        <v>0.288873363867502</v>
-      </c>
-      <c r="I5">
-        <v>0.2597976009690804</v>
-      </c>
-      <c r="J5">
-        <v>0.251693458605665</v>
-      </c>
-      <c r="K5">
-        <v>0.2344350474374066</v>
-      </c>
-      <c r="L5">
-        <v>0.01116511243619821</v>
-      </c>
-      <c r="M5">
-        <v>0.2396414284772545</v>
-      </c>
-      <c r="N5">
-        <v>0.290984635207768</v>
-      </c>
-      <c r="O5">
-        <v>0.2970974855986788</v>
-      </c>
-      <c r="P5">
-        <v>0.312706114360255</v>
-      </c>
-      <c r="Q5">
-        <v>0.3780815766488732</v>
-      </c>
-      <c r="R5">
-        <v>0.3880851187727803</v>
-      </c>
-      <c r="S5">
-        <v>0.3838628446330425</v>
-      </c>
-      <c r="T5">
-        <v>0.4585419539298044</v>
-      </c>
-      <c r="U5">
-        <v>0.4502600664085776</v>
-      </c>
-      <c r="V5">
-        <v>0.4242212189429646</v>
-      </c>
-      <c r="W5">
-        <v>0.01402748021711575</v>
-      </c>
-      <c r="X5">
-        <v>0.4657173727026709</v>
-      </c>
-      <c r="Y5">
-        <v>0.4383928731107648</v>
-      </c>
-      <c r="Z5">
-        <v>0.459513729384551</v>
-      </c>
-      <c r="AA5">
-        <v>0.615711562080528</v>
-      </c>
-      <c r="AB5">
-        <v>0.6186077384473645</v>
-      </c>
-      <c r="AC5">
-        <v>0.6116104683614789</v>
-      </c>
-      <c r="AD5">
-        <v>0.5163378661859894</v>
-      </c>
-      <c r="AE5">
-        <v>0.5576603121359391</v>
-      </c>
-      <c r="AF5">
-        <v>0.5445327039376731</v>
-      </c>
-      <c r="AG5">
-        <v>1.156490453635927</v>
-      </c>
-      <c r="AH5">
-        <v>0.2203103574328929</v>
-      </c>
-      <c r="AI5">
-        <v>1.131146284779263</v>
-      </c>
-      <c r="AJ5">
-        <v>1.126423594408779</v>
-      </c>
-      <c r="AK5">
-        <v>1.154344624684555</v>
-      </c>
-      <c r="AL5">
-        <v>1.133051205281654</v>
-      </c>
-      <c r="AM5">
-        <v>1.1398612996056</v>
-      </c>
-      <c r="AN5">
-        <v>1.217134182410509</v>
-      </c>
-      <c r="AO5">
-        <v>1.240710215406989</v>
-      </c>
-      <c r="AP5">
-        <v>1.260666619418507</v>
-      </c>
-      <c r="AQ5">
-        <v>1.256218792504037</v>
-      </c>
-      <c r="AR5">
-        <v>1.236803485493025</v>
-      </c>
-      <c r="AS5">
-        <v>0.2346015030006579</v>
-      </c>
-      <c r="AT5">
-        <v>1.262991623145054</v>
-      </c>
-      <c r="AU5">
-        <v>1.310891289812208</v>
-      </c>
-      <c r="AV5">
-        <v>1.296957326823001</v>
-      </c>
-      <c r="AW5">
-        <v>1.30972061749532</v>
-      </c>
-      <c r="AX5">
-        <v>1.250929662137866</v>
-      </c>
-      <c r="AY5">
-        <v>1.247777798863432</v>
-      </c>
-      <c r="AZ5">
-        <v>1.240194597507536</v>
-      </c>
-      <c r="BA5">
-        <v>1.319130365972271</v>
-      </c>
-      <c r="BB5">
-        <v>1.280903502793044</v>
-      </c>
-      <c r="BC5">
-        <v>1.296603695419857</v>
-      </c>
-      <c r="BD5">
-        <v>0.2429821024350673</v>
-      </c>
-      <c r="BE5">
-        <v>1.205024395054442</v>
-      </c>
-      <c r="BF5">
-        <v>1.215268634878065</v>
-      </c>
-      <c r="BG5">
-        <v>1.176498204519787</v>
-      </c>
-      <c r="BH5">
-        <v>1.442777376863091</v>
-      </c>
-      <c r="BI5">
-        <v>1.414179171950821</v>
-      </c>
-      <c r="BJ5">
-        <v>1.430777682913397</v>
-      </c>
-      <c r="BK5">
-        <v>1.4128790881607</v>
-      </c>
-      <c r="BL5">
-        <v>1.443968741246742</v>
-      </c>
-      <c r="BM5">
-        <v>1.420988286948955</v>
-      </c>
-      <c r="BN5">
-        <v>2.760139961080261</v>
-      </c>
-      <c r="BO5">
-        <v>0.1666897062290194</v>
-      </c>
-      <c r="BP5">
-        <v>2.813553185329114</v>
-      </c>
-      <c r="BQ5">
-        <v>2.811651848682326</v>
-      </c>
-      <c r="BR5">
-        <v>1.872951504573724</v>
-      </c>
-      <c r="BS5">
-        <v>1.803617547774103</v>
-      </c>
-      <c r="BT5">
-        <v>1.80425787564384</v>
-      </c>
-      <c r="BU5">
-        <v>1.873694755090048</v>
-      </c>
-      <c r="BV5">
-        <v>1.933464435466854</v>
-      </c>
-      <c r="BW5">
-        <v>1.888959187164408</v>
-      </c>
-      <c r="BX5">
-        <v>1.886639177835629</v>
-      </c>
-      <c r="BY5">
-        <v>1.887277238153974</v>
-      </c>
-      <c r="BZ5">
-        <v>0.1579967294129387</v>
-      </c>
-      <c r="CA5">
-        <v>1.858323361054042</v>
-      </c>
-      <c r="CB5">
-        <v>2.108191897831868</v>
-      </c>
-      <c r="CC5">
-        <v>2.138341436207218</v>
-      </c>
-      <c r="CD5">
-        <v>2.137896413905129</v>
-      </c>
-      <c r="CE5">
-        <v>2.08964915364912</v>
-      </c>
-      <c r="CF5">
-        <v>2.157898578671151</v>
-      </c>
-      <c r="CG5">
-        <v>2.093914529399436</v>
-      </c>
-      <c r="CH5">
-        <v>0.1788430909872715</v>
-      </c>
-      <c r="CI5">
-        <v>0.1850127532138407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:87">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0.04618049010047671</v>
-      </c>
-      <c r="C6">
-        <v>0.05660105263717474</v>
-      </c>
-      <c r="D6">
-        <v>0.1404435861315483</v>
-      </c>
-      <c r="E6">
-        <v>0.1129972831565304</v>
-      </c>
-      <c r="F6">
-        <v>0.1453107775944028</v>
-      </c>
-      <c r="G6">
-        <v>0.1334810937770101</v>
-      </c>
-      <c r="H6">
-        <v>0.1566303143704205</v>
-      </c>
-      <c r="I6">
-        <v>0.1355295441204163</v>
-      </c>
-      <c r="J6">
-        <v>0.1241187209410544</v>
-      </c>
-      <c r="K6">
-        <v>0.1276196893336042</v>
-      </c>
-      <c r="L6">
-        <v>-0.003840402552067633</v>
-      </c>
-      <c r="M6">
-        <v>0.1004957451604708</v>
-      </c>
-      <c r="N6">
-        <v>0.1720559465402511</v>
-      </c>
-      <c r="O6">
-        <v>0.1928764199905353</v>
-      </c>
-      <c r="P6">
-        <v>0.1727895077115985</v>
-      </c>
-      <c r="Q6">
-        <v>0.2238226611154495</v>
-      </c>
-      <c r="R6">
-        <v>0.2231275742656919</v>
-      </c>
-      <c r="S6">
-        <v>0.2389180156830674</v>
-      </c>
-      <c r="T6">
-        <v>0.2865781466545998</v>
-      </c>
-      <c r="U6">
-        <v>0.295858746089077</v>
-      </c>
-      <c r="V6">
-        <v>0.3009615773636864</v>
-      </c>
-      <c r="W6">
-        <v>0.007001353599929366</v>
-      </c>
-      <c r="X6">
-        <v>0.326475918346098</v>
-      </c>
-      <c r="Y6">
-        <v>0.3104874623196898</v>
-      </c>
-      <c r="Z6">
-        <v>0.341622288261455</v>
-      </c>
-      <c r="AA6">
-        <v>0.4215945782691212</v>
-      </c>
-      <c r="AB6">
-        <v>0.4294688744584179</v>
-      </c>
-      <c r="AC6">
-        <v>0.4548608398447015</v>
-      </c>
-      <c r="AD6">
-        <v>0.4107678897983407</v>
-      </c>
-      <c r="AE6">
-        <v>0.4202462873998518</v>
-      </c>
-      <c r="AF6">
-        <v>0.4400534671698642</v>
-      </c>
-      <c r="AG6">
-        <v>0.9965589039232278</v>
-      </c>
-      <c r="AH6">
-        <v>0.2085729231489898</v>
-      </c>
-      <c r="AI6">
-        <v>0.9775627895942107</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9392526006422522</v>
-      </c>
-      <c r="AK6">
-        <v>0.9384632591771854</v>
-      </c>
-      <c r="AL6">
-        <v>0.9400950463767029</v>
-      </c>
-      <c r="AM6">
-        <v>0.9405674968129348</v>
-      </c>
-      <c r="AN6">
-        <v>1.011214820888098</v>
-      </c>
-      <c r="AO6">
-        <v>1.016319263455206</v>
-      </c>
-      <c r="AP6">
-        <v>1.045572195712293</v>
-      </c>
-      <c r="AQ6">
-        <v>1.016489194633488</v>
-      </c>
-      <c r="AR6">
-        <v>1.025402628562557</v>
-      </c>
-      <c r="AS6">
-        <v>0.2107291892734859</v>
-      </c>
-      <c r="AT6">
-        <v>1.015296954046005</v>
-      </c>
-      <c r="AU6">
-        <v>1.08998575457769</v>
-      </c>
-      <c r="AV6">
-        <v>1.076187666963908</v>
-      </c>
-      <c r="AW6">
-        <v>1.070350577039326</v>
-      </c>
-      <c r="AX6">
-        <v>1.01762947982831</v>
-      </c>
-      <c r="AY6">
-        <v>1.030289597858286</v>
-      </c>
-      <c r="AZ6">
-        <v>1.024942126674597</v>
-      </c>
-      <c r="BA6">
-        <v>1.050383162557839</v>
-      </c>
-      <c r="BB6">
-        <v>1.092254933154031</v>
-      </c>
-      <c r="BC6">
-        <v>1.09822167779114</v>
-      </c>
-      <c r="BD6">
-        <v>0.2359426421017406</v>
-      </c>
-      <c r="BE6">
-        <v>0.9523925047341975</v>
-      </c>
-      <c r="BF6">
-        <v>1.035088531458818</v>
-      </c>
-      <c r="BG6">
-        <v>0.9807408297827257</v>
-      </c>
-      <c r="BH6">
-        <v>1.191356993940401</v>
-      </c>
-      <c r="BI6">
-        <v>1.201910560472023</v>
-      </c>
-      <c r="BJ6">
-        <v>1.2184766318359</v>
-      </c>
-      <c r="BK6">
-        <v>1.186423776242012</v>
-      </c>
-      <c r="BL6">
-        <v>1.304553440054293</v>
-      </c>
-      <c r="BM6">
-        <v>1.222382950648558</v>
-      </c>
-      <c r="BN6">
-        <v>2.242925312456034</v>
-      </c>
-      <c r="BO6">
-        <v>0.07211756104950118</v>
-      </c>
-      <c r="BP6">
-        <v>2.173834750663177</v>
-      </c>
-      <c r="BQ6">
-        <v>2.252674025538894</v>
-      </c>
-      <c r="BR6">
-        <v>1.489589958837439</v>
-      </c>
-      <c r="BS6">
-        <v>1.512023919696251</v>
-      </c>
-      <c r="BT6">
-        <v>1.552012845938398</v>
-      </c>
-      <c r="BU6">
-        <v>1.670492050770646</v>
-      </c>
-      <c r="BV6">
-        <v>1.625057732931408</v>
-      </c>
-      <c r="BW6">
-        <v>1.675864123836584</v>
-      </c>
-      <c r="BX6">
-        <v>1.56561358516818</v>
-      </c>
-      <c r="BY6">
-        <v>1.649281507369268</v>
-      </c>
-      <c r="BZ6">
-        <v>0.03431128333213561</v>
-      </c>
-      <c r="CA6">
-        <v>1.612388089464998</v>
-      </c>
-      <c r="CB6">
-        <v>1.801793873707485</v>
-      </c>
-      <c r="CC6">
-        <v>1.881591187463184</v>
-      </c>
-      <c r="CD6">
-        <v>1.769034225942265</v>
-      </c>
-      <c r="CE6">
-        <v>1.820545299080496</v>
-      </c>
-      <c r="CF6">
-        <v>1.752036053586298</v>
-      </c>
-      <c r="CG6">
-        <v>1.790508605933244</v>
-      </c>
-      <c r="CH6">
-        <v>0.05008895685144273</v>
-      </c>
-      <c r="CI6">
-        <v>0.06627287461984564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:87">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0.08139561075577238</v>
-      </c>
-      <c r="C7">
-        <v>0.08580789983117487</v>
-      </c>
-      <c r="D7">
-        <v>0.2188236736177796</v>
-      </c>
-      <c r="E7">
-        <v>0.2033783344532896</v>
-      </c>
-      <c r="F7">
-        <v>0.1814783696929212</v>
-      </c>
-      <c r="G7">
-        <v>0.1877154390448533</v>
-      </c>
-      <c r="H7">
-        <v>0.2104282265880995</v>
-      </c>
-      <c r="I7">
-        <v>0.1921159350891234</v>
-      </c>
-      <c r="J7">
-        <v>0.1624031750507396</v>
-      </c>
-      <c r="K7">
-        <v>0.1358949407699438</v>
-      </c>
-      <c r="L7">
-        <v>0.01233184694713855</v>
-      </c>
-      <c r="M7">
-        <v>0.1938904951474605</v>
-      </c>
-      <c r="N7">
-        <v>0.2463740684337486</v>
-      </c>
-      <c r="O7">
-        <v>0.2174215592437918</v>
-      </c>
-      <c r="P7">
-        <v>0.2132178736942696</v>
-      </c>
-      <c r="Q7">
-        <v>0.3349426784622033</v>
-      </c>
-      <c r="R7">
-        <v>0.3668434489370849</v>
-      </c>
-      <c r="S7">
-        <v>0.2760251502098539</v>
-      </c>
-      <c r="T7">
-        <v>0.3640708838821</v>
-      </c>
-      <c r="U7">
-        <v>0.342690909572162</v>
-      </c>
-      <c r="V7">
-        <v>0.4456181228603575</v>
-      </c>
-      <c r="W7">
-        <v>0.03589530866177911</v>
-      </c>
-      <c r="X7">
-        <v>0.3575320177480512</v>
-      </c>
-      <c r="Y7">
-        <v>0.3617844519202073</v>
-      </c>
-      <c r="Z7">
-        <v>0.4090053258879582</v>
-      </c>
-      <c r="AA7">
-        <v>0.6120020618939226</v>
-      </c>
-      <c r="AB7">
-        <v>0.614626782827309</v>
-      </c>
-      <c r="AC7">
-        <v>0.5791489688119996</v>
-      </c>
-      <c r="AD7">
-        <v>0.5017647710425769</v>
-      </c>
-      <c r="AE7">
-        <v>0.489678767677242</v>
-      </c>
-      <c r="AF7">
-        <v>0.4631440780117863</v>
-      </c>
-      <c r="AG7">
-        <v>1.23091731600297</v>
-      </c>
-      <c r="AH7">
-        <v>0.2217959432978147</v>
-      </c>
-      <c r="AI7">
-        <v>1.389517363312149</v>
-      </c>
-      <c r="AJ7">
-        <v>1.380500487476161</v>
-      </c>
-      <c r="AK7">
-        <v>1.292199369509935</v>
-      </c>
-      <c r="AL7">
-        <v>1.117573344985812</v>
-      </c>
-      <c r="AM7">
-        <v>1.305691723231708</v>
-      </c>
-      <c r="AN7">
-        <v>1.602930376760634</v>
-      </c>
-      <c r="AO7">
-        <v>1.403550978622442</v>
-      </c>
-      <c r="AP7">
-        <v>1.525600570811129</v>
-      </c>
-      <c r="AQ7">
-        <v>1.484894420512529</v>
-      </c>
-      <c r="AR7">
-        <v>1.525600570811129</v>
-      </c>
-      <c r="AS7">
-        <v>0.2699811624978711</v>
-      </c>
-      <c r="AT7">
-        <v>1.516983793421944</v>
-      </c>
-      <c r="AU7">
-        <v>1.601896105798979</v>
-      </c>
-      <c r="AV7">
-        <v>1.407989077527697</v>
-      </c>
-      <c r="AW7">
-        <v>1.596922238622056</v>
-      </c>
-      <c r="AX7">
-        <v>1.550518291839777</v>
-      </c>
-      <c r="AY7">
-        <v>1.38199278486653</v>
-      </c>
-      <c r="AZ7">
-        <v>1.382500478386768</v>
-      </c>
-      <c r="BA7">
-        <v>1.473513180848214</v>
-      </c>
-      <c r="BB7">
-        <v>1.607102640956338</v>
-      </c>
-      <c r="BC7">
-        <v>1.556055712444142</v>
-      </c>
-      <c r="BD7">
-        <v>0.2710764792454293</v>
-      </c>
-      <c r="BE7">
-        <v>1.37983795834449</v>
-      </c>
-      <c r="BF7">
-        <v>1.416399336047944</v>
-      </c>
-      <c r="BG7">
-        <v>1.44083032705779</v>
-      </c>
-      <c r="BH7">
-        <v>1.658911452186672</v>
-      </c>
-      <c r="BI7">
-        <v>1.773067063912149</v>
-      </c>
-      <c r="BJ7">
-        <v>1.926080660151839</v>
-      </c>
-      <c r="BK7">
-        <v>1.680002939679785</v>
-      </c>
-      <c r="BL7">
-        <v>1.888063179885118</v>
-      </c>
-      <c r="BM7">
-        <v>1.789964692695393</v>
-      </c>
-      <c r="BO7">
-        <v>0.1062020160298224</v>
-      </c>
-      <c r="BR7">
-        <v>2.684462882471138</v>
-      </c>
-      <c r="BS7">
-        <v>2.498777989999738</v>
-      </c>
-      <c r="BT7">
-        <v>2.275318400961112</v>
-      </c>
-      <c r="BU7">
-        <v>2.714938376468172</v>
-      </c>
-      <c r="BV7">
-        <v>2.790374078712237</v>
-      </c>
-      <c r="BW7">
-        <v>2.889090844672491</v>
-      </c>
-      <c r="BX7">
-        <v>3.031002863128569</v>
-      </c>
-      <c r="BY7">
-        <v>2.858717110926029</v>
-      </c>
-      <c r="BZ7">
-        <v>0.0715543656274555</v>
-      </c>
-      <c r="CA7">
-        <v>2.892091199905992</v>
-      </c>
-      <c r="CB7">
-        <v>3.346224959460505</v>
-      </c>
-      <c r="CC7">
-        <v>3.748771574773756</v>
-      </c>
-      <c r="CD7">
-        <v>3.826215663449488</v>
-      </c>
-      <c r="CE7">
-        <v>3.670235156945154</v>
-      </c>
-      <c r="CF7">
-        <v>3.877437932587533</v>
-      </c>
-      <c r="CG7">
-        <v>3.69005895255929</v>
-      </c>
-      <c r="CH7">
-        <v>0.1090431169904558</v>
-      </c>
-      <c r="CI7">
-        <v>0.08244096957791737</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/combined_dataframes.xlsx
+++ b/combined_dataframes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>Wavelength</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>STDMaterial_18</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -718,58 +721,58 @@
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>13969.45642333333</v>
+        <v>41886.28602333333</v>
       </c>
       <c r="C2">
-        <v>19.02787666666667</v>
+        <v>30123.27569</v>
       </c>
       <c r="D2">
-        <v>1.9357</v>
+        <v>20.811775</v>
       </c>
       <c r="E2">
-        <v>13975.28592333333</v>
+        <v>18.441265</v>
       </c>
       <c r="F2">
-        <v>16.1025</v>
+        <v>38.112315</v>
       </c>
       <c r="G2">
-        <v>76.70576666666666</v>
+        <v>50.4082</v>
       </c>
       <c r="H2">
-        <v>105.6347533333333</v>
+        <v>12.82031</v>
       </c>
       <c r="I2">
-        <v>15585.20577</v>
+        <v>34.89241666666667</v>
       </c>
       <c r="J2">
-        <v>4280.827903333334</v>
+        <v>102.29485</v>
       </c>
       <c r="K2">
-        <v>6491.428146666666</v>
+        <v>113.24899</v>
       </c>
       <c r="L2">
-        <v>11985.06718</v>
+        <v>4680.075023333334</v>
       </c>
       <c r="M2">
-        <v>18041.65933</v>
+        <v>3604.433183333333</v>
       </c>
       <c r="N2">
+        <v>12221.5875</v>
+      </c>
+      <c r="O2">
+        <v>11771.46911</v>
+      </c>
+      <c r="P2">
         <v>20515.28316333333</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>20102.13738666667</v>
       </c>
-      <c r="P2">
-        <v>26449.27023</v>
-      </c>
-      <c r="Q2">
-        <v>22493.71921</v>
-      </c>
       <c r="R2">
-        <v>17384.64073</v>
+        <v>24659.36187</v>
       </c>
       <c r="S2">
-        <v>7.201156666666667</v>
+        <v>21672.70910666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -777,58 +780,58 @@
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>12552.49591333333</v>
+        <v>36795.61794333334</v>
       </c>
       <c r="C3">
-        <v>-27.32914666666666</v>
+        <v>26599.52937</v>
       </c>
       <c r="D3">
+        <v>34.514585</v>
+      </c>
+      <c r="E3">
+        <v>27.98452333333333</v>
+      </c>
+      <c r="F3">
+        <v>33.36978</v>
+      </c>
+      <c r="G3">
         <v>23.70994666666667</v>
       </c>
-      <c r="E3">
-        <v>12095.73364333333</v>
-      </c>
-      <c r="F3">
-        <v>0.6442500000000001</v>
-      </c>
-      <c r="G3">
-        <v>123.8023133333333</v>
-      </c>
       <c r="H3">
-        <v>242.73299</v>
+        <v>8.07855</v>
       </c>
       <c r="I3">
-        <v>14170.36128666667</v>
+        <v>14.489295</v>
       </c>
       <c r="J3">
-        <v>5503.121763333334</v>
+        <v>200.01529</v>
       </c>
       <c r="K3">
-        <v>7479.256183333334</v>
+        <v>226.4408066666666</v>
       </c>
       <c r="L3">
-        <v>12234.60357666667</v>
+        <v>5869.553856666666</v>
       </c>
       <c r="M3">
-        <v>16713.60751333333</v>
+        <v>4908.467036666667</v>
       </c>
       <c r="N3">
+        <v>12434.50541</v>
+      </c>
+      <c r="O3">
+        <v>11854.02763666667</v>
+      </c>
+      <c r="P3">
         <v>19356.84124333333</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>19671.82022</v>
       </c>
-      <c r="P3">
-        <v>24196.13092666666</v>
-      </c>
-      <c r="Q3">
-        <v>21074.1171</v>
-      </c>
       <c r="R3">
-        <v>15849.14506333333</v>
+        <v>22936.02401333333</v>
       </c>
       <c r="S3">
-        <v>33.19843</v>
+        <v>20403.25568666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -836,58 +839,58 @@
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>6932.285936666666</v>
+        <v>20554.8369</v>
       </c>
       <c r="C4">
-        <v>-8.370313333333334</v>
+        <v>14848.4749</v>
       </c>
       <c r="D4">
-        <v>26.52627666666666</v>
+        <v>14.92804</v>
       </c>
       <c r="E4">
-        <v>6795.605430000001</v>
+        <v>5.619759999999999</v>
       </c>
       <c r="F4">
-        <v>53.33856</v>
+        <v>8.25407</v>
       </c>
       <c r="G4">
-        <v>80.91987</v>
+        <v>56.734655</v>
       </c>
       <c r="H4">
-        <v>141.4823333333333</v>
+        <v>43.38448333333333</v>
       </c>
       <c r="I4">
-        <v>7957.620139999999</v>
+        <v>36.29832333333334</v>
       </c>
       <c r="J4">
-        <v>3077.371226666667</v>
+        <v>115.6491033333333</v>
       </c>
       <c r="K4">
-        <v>4145.92234</v>
+        <v>134.3358933333333</v>
       </c>
       <c r="L4">
-        <v>7273.76042</v>
+        <v>3299.528983333334</v>
       </c>
       <c r="M4">
-        <v>9614.88789</v>
+        <v>2581.32409</v>
       </c>
       <c r="N4">
+        <v>7316.216723333334</v>
+      </c>
+      <c r="O4">
+        <v>6990.159266666667</v>
+      </c>
+      <c r="P4">
         <v>11214.71510666666</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>11253.09757333333</v>
       </c>
-      <c r="P4">
-        <v>13577.53117333333</v>
-      </c>
-      <c r="Q4">
-        <v>12441.78536333333</v>
-      </c>
       <c r="R4">
-        <v>9035.658949999999</v>
+        <v>13030.57828333333</v>
       </c>
       <c r="S4">
-        <v>-19.49027333333333</v>
+        <v>12165.85010333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -895,58 +898,58 @@
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>3095.688013333334</v>
+        <v>9177.530586666668</v>
       </c>
       <c r="C5">
-        <v>-4.855340000000001</v>
+        <v>5975.128903333333</v>
       </c>
       <c r="D5">
-        <v>-21.94467333333334</v>
+        <v>41.33446333333333</v>
       </c>
       <c r="E5">
-        <v>3074.815486666667</v>
+        <v>45.843405</v>
       </c>
       <c r="F5">
-        <v>12.58806333333333</v>
+        <v>18.17754</v>
       </c>
       <c r="G5">
-        <v>40.86438666666667</v>
+        <v>10.18604</v>
       </c>
       <c r="H5">
-        <v>76.11745333333333</v>
+        <v>10.36183</v>
       </c>
       <c r="I5">
-        <v>3223.61855</v>
+        <v>35.56543</v>
       </c>
       <c r="J5">
-        <v>541.7520733333333</v>
+        <v>65.75201</v>
       </c>
       <c r="K5">
-        <v>998.6890166666666</v>
+        <v>61.565015</v>
       </c>
       <c r="L5">
-        <v>1984.38306</v>
+        <v>579.0114566666667</v>
       </c>
       <c r="M5">
-        <v>3203.457866666667</v>
+        <v>471.6415233333334</v>
       </c>
       <c r="N5">
+        <v>2070.12945</v>
+      </c>
+      <c r="O5">
+        <v>1819.580843333333</v>
+      </c>
+      <c r="P5">
         <v>3664.984486666667</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>3816.84904</v>
       </c>
-      <c r="P5">
-        <v>4980.962733333333</v>
-      </c>
-      <c r="Q5">
-        <v>4137.550749999999</v>
-      </c>
       <c r="R5">
-        <v>3347.038946666667</v>
+        <v>4457.43869</v>
       </c>
       <c r="S5">
-        <v>27.57530666666667</v>
+        <v>4007.866093333334</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -954,58 +957,58 @@
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>332.25372</v>
+        <v>1032.1978</v>
       </c>
       <c r="C6">
-        <v>-19.60666666666667</v>
+        <v>473.6399866666666</v>
       </c>
       <c r="D6">
-        <v>-12.81786666666667</v>
+        <v>34.95126</v>
       </c>
       <c r="E6">
-        <v>353.1356033333333</v>
+        <v>50.58386</v>
       </c>
       <c r="F6">
-        <v>-9.891603333333334</v>
+        <v>16.50851</v>
       </c>
       <c r="G6">
-        <v>-17.43703</v>
+        <v>16.33288</v>
       </c>
       <c r="H6">
-        <v>78.22518666666666</v>
+        <v>10.36155</v>
       </c>
       <c r="I6">
-        <v>402.96002</v>
+        <v>17.38667</v>
       </c>
       <c r="J6">
-        <v>31.79190666666666</v>
+        <v>37.146265</v>
       </c>
       <c r="K6">
-        <v>75.53742666666666</v>
+        <v>95.67583333333333</v>
       </c>
       <c r="L6">
-        <v>123.7908633333333</v>
+        <v>43.67735666666667</v>
       </c>
       <c r="M6">
-        <v>206.3967533333333</v>
+        <v>64.46751</v>
       </c>
       <c r="N6">
+        <v>121.4478733333333</v>
+      </c>
+      <c r="O6">
+        <v>102.8225566666667</v>
+      </c>
+      <c r="P6">
         <v>227.02584</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>223.2759233333333</v>
       </c>
-      <c r="P6">
-        <v>381.7327366666667</v>
-      </c>
-      <c r="Q6">
-        <v>295.8948766666667</v>
-      </c>
       <c r="R6">
-        <v>277.1073966666667</v>
+        <v>333.41682</v>
       </c>
       <c r="S6">
-        <v>-7.549576666666666</v>
+        <v>275.8496933333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1013,58 +1016,58 @@
         <v>1000.111</v>
       </c>
       <c r="B7">
-        <v>17.6243</v>
+        <v>68.44456666666666</v>
       </c>
       <c r="C7">
+        <v>42.50425</v>
+      </c>
+      <c r="D7">
+        <v>57.08346</v>
+      </c>
+      <c r="E7">
+        <v>44.26014</v>
+      </c>
+      <c r="F7">
         <v>30.97146333333333</v>
       </c>
-      <c r="D7">
-        <v>-9.300673333333334</v>
-      </c>
-      <c r="E7">
-        <v>23.65732333333333</v>
-      </c>
-      <c r="F7">
-        <v>-9.188706666666667</v>
-      </c>
       <c r="G7">
-        <v>50.70141333333333</v>
+        <v>52.86748</v>
       </c>
       <c r="H7">
-        <v>-2.57548</v>
+        <v>27.57355</v>
       </c>
       <c r="I7">
-        <v>22.89632666666666</v>
+        <v>29.94484</v>
       </c>
       <c r="J7">
-        <v>-15.27766</v>
+        <v>57.610755</v>
       </c>
       <c r="K7">
-        <v>0.3514033333333335</v>
+        <v>8.605320000000001</v>
       </c>
       <c r="L7">
-        <v>47.19506666666667</v>
+        <v>24.93896</v>
       </c>
       <c r="M7">
-        <v>30.61949333333333</v>
+        <v>9.48343</v>
       </c>
       <c r="N7">
+        <v>13.611025</v>
+      </c>
+      <c r="O7">
+        <v>51.52733666666666</v>
+      </c>
+      <c r="P7">
         <v>59.72284</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>66.51241</v>
       </c>
-      <c r="P7">
-        <v>61.77090333333333</v>
-      </c>
-      <c r="Q7">
-        <v>23.12794</v>
-      </c>
       <c r="R7">
-        <v>0.7653099999999995</v>
+        <v>82.38233</v>
       </c>
       <c r="S7">
-        <v>-13.16375333333333</v>
+        <v>31.20573333333333</v>
       </c>
     </row>
   </sheetData>
@@ -1255,163 +1258,142 @@
         <v>41905.55299</v>
       </c>
       <c r="C2">
-        <v>-33.01256</v>
+        <v>41946.92794</v>
       </c>
       <c r="D2">
+        <v>41806.37714</v>
+      </c>
+      <c r="E2">
+        <v>30393.86229</v>
+      </c>
+      <c r="F2">
+        <v>29988.32273</v>
+      </c>
+      <c r="G2">
+        <v>29987.64205</v>
+      </c>
+      <c r="H2">
+        <v>10.7128</v>
+      </c>
+      <c r="I2">
+        <v>30.91075</v>
+      </c>
+      <c r="K2">
+        <v>1.05369</v>
+      </c>
+      <c r="M2">
         <v>35.82884</v>
       </c>
-      <c r="E2">
-        <v>-19.141</v>
-      </c>
-      <c r="F2">
+      <c r="O2">
         <v>34.42366</v>
       </c>
-      <c r="G2">
+      <c r="P2">
         <v>41.80097</v>
       </c>
-      <c r="H2">
+      <c r="Q2">
         <v>50.4082</v>
       </c>
-      <c r="I2">
-        <v>-1.93175</v>
-      </c>
-      <c r="J2">
-        <v>-42.66935</v>
-      </c>
-      <c r="K2">
+      <c r="T2">
         <v>12.82031</v>
       </c>
-      <c r="L2">
-        <v>-33.89048</v>
-      </c>
-      <c r="M2">
-        <v>41946.92794</v>
-      </c>
-      <c r="N2">
-        <v>-36.3486</v>
-      </c>
-      <c r="O2">
+      <c r="W2">
         <v>49.00291</v>
       </c>
-      <c r="P2">
+      <c r="X2">
         <v>35.65319</v>
       </c>
-      <c r="Q2">
+      <c r="Y2">
         <v>20.02115</v>
       </c>
-      <c r="R2">
+      <c r="Z2">
         <v>129.2961</v>
       </c>
-      <c r="S2">
+      <c r="AA2">
         <v>80.80005</v>
       </c>
-      <c r="T2">
+      <c r="AB2">
         <v>96.7884</v>
       </c>
-      <c r="U2">
+      <c r="AC2">
         <v>147.7487</v>
       </c>
-      <c r="V2">
+      <c r="AD2">
         <v>72.36716</v>
       </c>
-      <c r="W2">
+      <c r="AE2">
         <v>119.63111</v>
       </c>
-      <c r="X2">
-        <v>41806.37714</v>
-      </c>
-      <c r="Y2">
+      <c r="AF2">
         <v>4829.60906</v>
       </c>
-      <c r="Z2">
+      <c r="AG2">
         <v>4667.25919</v>
       </c>
-      <c r="AA2">
+      <c r="AH2">
         <v>4543.35682</v>
       </c>
-      <c r="AB2">
+      <c r="AI2">
         <v>3631.8677</v>
       </c>
-      <c r="AC2">
+      <c r="AJ2">
         <v>3458.41838</v>
       </c>
-      <c r="AD2">
+      <c r="AK2">
         <v>3723.01347</v>
       </c>
-      <c r="AE2">
+      <c r="AL2">
         <v>12292.85259</v>
       </c>
-      <c r="AF2">
+      <c r="AM2">
         <v>12218.66083</v>
       </c>
-      <c r="AG2">
+      <c r="AN2">
         <v>12153.24908</v>
       </c>
-      <c r="AH2">
+      <c r="AO2">
         <v>11583.29163</v>
       </c>
-      <c r="AI2">
-        <v>30393.86229</v>
-      </c>
-      <c r="AJ2">
+      <c r="AP2">
         <v>11930.24861</v>
       </c>
-      <c r="AK2">
+      <c r="AQ2">
         <v>11800.86709</v>
       </c>
-      <c r="AL2">
+      <c r="AR2">
         <v>20460.76736</v>
       </c>
-      <c r="AM2">
+      <c r="AS2">
         <v>20339.58929</v>
       </c>
-      <c r="AN2">
+      <c r="AT2">
         <v>20745.49284</v>
       </c>
-      <c r="AO2">
+      <c r="AU2">
         <v>19917.27543</v>
       </c>
-      <c r="AP2">
+      <c r="AV2">
         <v>20233.65534</v>
       </c>
-      <c r="AQ2">
+      <c r="AW2">
         <v>20155.48139</v>
       </c>
-      <c r="AR2">
+      <c r="AX2">
         <v>24687.38741</v>
       </c>
-      <c r="AS2">
+      <c r="AY2">
         <v>24672.10055</v>
       </c>
-      <c r="AT2">
-        <v>29988.32273</v>
-      </c>
-      <c r="AU2">
+      <c r="AZ2">
         <v>24618.59765</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <v>21113.79306</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <v>21748.76692</v>
       </c>
-      <c r="AX2">
+      <c r="BC2">
         <v>22155.56734</v>
-      </c>
-      <c r="AY2">
-        <v>29987.64205</v>
-      </c>
-      <c r="AZ2">
-        <v>10.7128</v>
-      </c>
-      <c r="BA2">
-        <v>30.91075</v>
-      </c>
-      <c r="BB2">
-        <v>-10.36097</v>
-      </c>
-      <c r="BC2">
-        <v>1.05369</v>
       </c>
     </row>
     <row r="3" spans="1:55">
@@ -1422,163 +1404,148 @@
         <v>37627.27997</v>
       </c>
       <c r="C3">
+        <v>36323.02239</v>
+      </c>
+      <c r="D3">
+        <v>36436.55147</v>
+      </c>
+      <c r="E3">
+        <v>26458.42355</v>
+      </c>
+      <c r="F3">
+        <v>26722.44636</v>
+      </c>
+      <c r="G3">
+        <v>26617.7182</v>
+      </c>
+      <c r="H3">
+        <v>0.17561</v>
+      </c>
+      <c r="I3">
+        <v>68.85356</v>
+      </c>
+      <c r="K3">
+        <v>53.7458</v>
+      </c>
+      <c r="L3">
         <v>2.80986</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>27.39791</v>
       </c>
-      <c r="E3">
-        <v>-33.89048</v>
-      </c>
-      <c r="F3">
-        <v>-81.46674</v>
-      </c>
-      <c r="G3">
+      <c r="P3">
         <v>33.36978</v>
       </c>
-      <c r="H3">
+      <c r="Q3">
         <v>41.97663</v>
       </c>
-      <c r="I3">
+      <c r="R3">
         <v>17.0354</v>
       </c>
-      <c r="J3">
+      <c r="S3">
         <v>12.11781</v>
       </c>
-      <c r="K3">
-        <v>-37.75323</v>
-      </c>
-      <c r="L3">
+      <c r="U3">
         <v>1.93177</v>
       </c>
-      <c r="M3">
-        <v>36323.02239</v>
-      </c>
-      <c r="N3">
+      <c r="V3">
         <v>14.22533</v>
       </c>
-      <c r="O3">
+      <c r="W3">
         <v>0.52684</v>
       </c>
-      <c r="P3">
-        <v>-12.81942</v>
-      </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>28.45175</v>
       </c>
-      <c r="R3">
+      <c r="Z3">
         <v>144.05805</v>
       </c>
-      <c r="S3">
+      <c r="AA3">
         <v>198.89714</v>
       </c>
-      <c r="T3">
+      <c r="AB3">
         <v>257.09068</v>
       </c>
-      <c r="U3">
+      <c r="AC3">
         <v>204.69824</v>
       </c>
-      <c r="V3">
+      <c r="AD3">
         <v>266.41005</v>
       </c>
-      <c r="W3">
+      <c r="AE3">
         <v>208.21413</v>
       </c>
-      <c r="X3">
-        <v>36436.55147</v>
-      </c>
-      <c r="Y3">
+      <c r="AF3">
         <v>5866.31826</v>
       </c>
-      <c r="Z3">
+      <c r="AG3">
         <v>5865.10487</v>
       </c>
-      <c r="AA3">
+      <c r="AH3">
         <v>5877.23844</v>
       </c>
-      <c r="AB3">
+      <c r="AI3">
         <v>4767.02198</v>
       </c>
-      <c r="AC3">
+      <c r="AJ3">
         <v>5023.34223</v>
       </c>
-      <c r="AD3">
+      <c r="AK3">
         <v>4935.0369</v>
       </c>
-      <c r="AE3">
+      <c r="AL3">
         <v>12479.38942</v>
       </c>
-      <c r="AF3">
+      <c r="AM3">
         <v>12429.55047</v>
       </c>
-      <c r="AG3">
+      <c r="AN3">
         <v>12394.57634</v>
       </c>
-      <c r="AH3">
+      <c r="AO3">
         <v>11879.68392</v>
       </c>
-      <c r="AI3">
-        <v>26458.42355</v>
-      </c>
-      <c r="AJ3">
+      <c r="AP3">
         <v>11753.67232</v>
       </c>
-      <c r="AK3">
+      <c r="AQ3">
         <v>11928.72667</v>
       </c>
-      <c r="AL3">
+      <c r="AR3">
         <v>19285.49722</v>
       </c>
-      <c r="AM3">
+      <c r="AS3">
         <v>19428.18697</v>
       </c>
-      <c r="AN3">
+      <c r="AT3">
         <v>19356.83954</v>
       </c>
-      <c r="AO3">
+      <c r="AU3">
         <v>19801.57694</v>
       </c>
-      <c r="AP3">
+      <c r="AV3">
         <v>19831.6843</v>
       </c>
-      <c r="AQ3">
+      <c r="AW3">
         <v>19382.19942</v>
       </c>
-      <c r="AR3">
+      <c r="AX3">
         <v>22788.94463</v>
       </c>
-      <c r="AS3">
+      <c r="AY3">
         <v>23077.00179</v>
       </c>
-      <c r="AT3">
-        <v>26722.44636</v>
-      </c>
-      <c r="AU3">
+      <c r="AZ3">
         <v>22942.12562</v>
       </c>
-      <c r="AV3">
+      <c r="BA3">
         <v>19903.23526</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <v>20376.99042</v>
       </c>
-      <c r="AX3">
+      <c r="BC3">
         <v>20929.54138</v>
-      </c>
-      <c r="AY3">
-        <v>26617.7182</v>
-      </c>
-      <c r="AZ3">
-        <v>0.17561</v>
-      </c>
-      <c r="BA3">
-        <v>68.85356</v>
-      </c>
-      <c r="BB3">
-        <v>-23.00407</v>
-      </c>
-      <c r="BC3">
-        <v>53.7458</v>
       </c>
     </row>
     <row r="4" spans="1:55">
@@ -1589,163 +1556,148 @@
         <v>20785.61829</v>
       </c>
       <c r="C4">
+        <v>20344.66628</v>
+      </c>
+      <c r="D4">
+        <v>20534.22613</v>
+      </c>
+      <c r="E4">
+        <v>14993.14162</v>
+      </c>
+      <c r="F4">
+        <v>14817.95728</v>
+      </c>
+      <c r="G4">
+        <v>14734.3258</v>
+      </c>
+      <c r="H4">
+        <v>23.35822</v>
+      </c>
+      <c r="J4">
+        <v>6.49786</v>
+      </c>
+      <c r="L4">
         <v>4.91728</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>6.32224</v>
       </c>
-      <c r="E4">
+      <c r="N4">
         <v>8.25407</v>
       </c>
-      <c r="F4">
-        <v>-9.834160000000001</v>
-      </c>
-      <c r="G4">
-        <v>-23.53085</v>
-      </c>
-      <c r="H4">
-        <v>-33.89048</v>
-      </c>
-      <c r="I4">
+      <c r="R4">
         <v>25.46587</v>
       </c>
-      <c r="J4">
+      <c r="S4">
         <v>88.00344</v>
       </c>
-      <c r="K4">
+      <c r="T4">
         <v>25.46587</v>
       </c>
-      <c r="L4">
+      <c r="U4">
         <v>16.68414</v>
       </c>
-      <c r="M4">
-        <v>20344.66628</v>
-      </c>
-      <c r="N4">
+      <c r="V4">
         <v>88.00344</v>
       </c>
-      <c r="O4">
+      <c r="W4">
         <v>11.06405</v>
       </c>
-      <c r="P4">
+      <c r="X4">
         <v>60.94819</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>36.88273</v>
       </c>
-      <c r="R4">
+      <c r="Z4">
         <v>114.5352</v>
       </c>
-      <c r="S4">
+      <c r="AA4">
         <v>91.34168</v>
       </c>
-      <c r="T4">
+      <c r="AB4">
         <v>141.07043</v>
       </c>
-      <c r="U4">
+      <c r="AC4">
         <v>107.68229</v>
       </c>
-      <c r="V4">
+      <c r="AD4">
         <v>175.69428</v>
       </c>
-      <c r="W4">
+      <c r="AE4">
         <v>119.63111</v>
       </c>
-      <c r="X4">
-        <v>20534.22613</v>
-      </c>
-      <c r="Y4">
+      <c r="AF4">
         <v>3219.00318</v>
       </c>
-      <c r="Z4">
+      <c r="AG4">
         <v>3339.96741</v>
       </c>
-      <c r="AA4">
+      <c r="AH4">
         <v>3339.61636</v>
       </c>
-      <c r="AB4">
+      <c r="AI4">
         <v>2552.52991</v>
       </c>
-      <c r="AC4">
+      <c r="AJ4">
         <v>2680.44637</v>
       </c>
-      <c r="AD4">
+      <c r="AK4">
         <v>2510.99599</v>
       </c>
-      <c r="AE4">
+      <c r="AL4">
         <v>7246.32466</v>
       </c>
-      <c r="AF4">
+      <c r="AM4">
         <v>7399.91635</v>
       </c>
-      <c r="AG4">
+      <c r="AN4">
         <v>7302.40916</v>
       </c>
-      <c r="AH4">
+      <c r="AO4">
         <v>7118.95575</v>
       </c>
-      <c r="AI4">
-        <v>14993.14162</v>
-      </c>
-      <c r="AJ4">
+      <c r="AP4">
         <v>6930.67306</v>
       </c>
-      <c r="AK4">
+      <c r="AQ4">
         <v>6920.84899</v>
       </c>
-      <c r="AL4">
+      <c r="AR4">
         <v>11267.90452</v>
       </c>
-      <c r="AM4">
+      <c r="AS4">
         <v>11278.74303</v>
       </c>
-      <c r="AN4">
+      <c r="AT4">
         <v>11097.49777</v>
       </c>
-      <c r="AO4">
+      <c r="AU4">
         <v>11091.73719</v>
       </c>
-      <c r="AP4">
+      <c r="AV4">
         <v>11343.42938</v>
       </c>
-      <c r="AQ4">
+      <c r="AW4">
         <v>11324.12615</v>
       </c>
-      <c r="AR4">
+      <c r="AX4">
         <v>12972.00585</v>
       </c>
-      <c r="AS4">
+      <c r="AY4">
         <v>12942.63039</v>
       </c>
-      <c r="AT4">
-        <v>14817.95728</v>
-      </c>
-      <c r="AU4">
+      <c r="AZ4">
         <v>13177.09861</v>
       </c>
-      <c r="AV4">
+      <c r="BA4">
         <v>11985.54266</v>
       </c>
-      <c r="AW4">
+      <c r="BB4">
         <v>12162.71482</v>
       </c>
-      <c r="AX4">
+      <c r="BC4">
         <v>12349.29283</v>
-      </c>
-      <c r="AY4">
-        <v>14734.3258</v>
-      </c>
-      <c r="AZ4">
-        <v>23.35822</v>
-      </c>
-      <c r="BA4">
-        <v>-55.48573</v>
-      </c>
-      <c r="BB4">
-        <v>6.49786</v>
-      </c>
-      <c r="BC4">
-        <v>-9.482950000000001</v>
       </c>
     </row>
     <row r="5" spans="1:55">
@@ -1756,163 +1708,145 @@
         <v>9223.12463</v>
       </c>
       <c r="C5">
-        <v>-11.94141</v>
+        <v>9243.41185</v>
       </c>
       <c r="D5">
+        <v>9066.05528</v>
+      </c>
+      <c r="E5">
+        <v>5981.72723</v>
+      </c>
+      <c r="F5">
+        <v>6063.64777</v>
+      </c>
+      <c r="G5">
+        <v>5880.01171</v>
+      </c>
+      <c r="H5">
+        <v>57.08346</v>
+      </c>
+      <c r="I5">
+        <v>3.51233</v>
+      </c>
+      <c r="J5">
+        <v>63.4076</v>
+      </c>
+      <c r="K5">
+        <v>15.80599</v>
+      </c>
+      <c r="M5">
         <v>75.88082</v>
       </c>
-      <c r="E5">
+      <c r="N5">
         <v>4.03918</v>
       </c>
-      <c r="F5">
+      <c r="O5">
         <v>32.3159</v>
       </c>
-      <c r="G5">
-        <v>-50.9211</v>
-      </c>
-      <c r="H5">
+      <c r="Q5">
         <v>16.68414</v>
       </c>
-      <c r="I5">
-        <v>-86.20610000000001</v>
-      </c>
-      <c r="J5">
+      <c r="S5">
         <v>3.68794</v>
       </c>
-      <c r="K5">
+      <c r="T5">
         <v>0.17561</v>
       </c>
-      <c r="L5">
-        <v>-19.141</v>
-      </c>
-      <c r="M5">
-        <v>9243.41185</v>
-      </c>
-      <c r="N5">
+      <c r="V5">
         <v>20.54805</v>
       </c>
-      <c r="O5">
+      <c r="W5">
         <v>40.5714</v>
       </c>
-      <c r="P5">
-        <v>-23.35526</v>
-      </c>
-      <c r="Q5">
+      <c r="Y5">
         <v>30.55946</v>
       </c>
-      <c r="R5">
+      <c r="Z5">
         <v>53.39447</v>
       </c>
-      <c r="S5">
+      <c r="AA5">
         <v>38.63923</v>
       </c>
-      <c r="T5">
+      <c r="AB5">
         <v>105.22233</v>
       </c>
-      <c r="U5">
+      <c r="AC5">
         <v>33.89672</v>
       </c>
-      <c r="V5">
+      <c r="AD5">
         <v>89.23331</v>
       </c>
-      <c r="W5">
-        <v>-13.17063</v>
-      </c>
-      <c r="X5">
-        <v>9066.05528</v>
-      </c>
-      <c r="Y5">
+      <c r="AF5">
         <v>617.971</v>
       </c>
-      <c r="Z5">
+      <c r="AG5">
         <v>492.11332</v>
       </c>
-      <c r="AA5">
+      <c r="AH5">
         <v>626.95005</v>
       </c>
-      <c r="AB5">
+      <c r="AI5">
         <v>506.19285</v>
       </c>
-      <c r="AC5">
+      <c r="AJ5">
         <v>452.5182</v>
       </c>
-      <c r="AD5">
+      <c r="AK5">
         <v>456.21352</v>
       </c>
-      <c r="AE5">
+      <c r="AL5">
         <v>2087.33533</v>
       </c>
-      <c r="AF5">
+      <c r="AM5">
         <v>2024.79597</v>
       </c>
-      <c r="AG5">
+      <c r="AN5">
         <v>2098.25705</v>
       </c>
-      <c r="AH5">
+      <c r="AO5">
         <v>1830.09616</v>
       </c>
-      <c r="AI5">
-        <v>5981.72723</v>
-      </c>
-      <c r="AJ5">
+      <c r="AP5">
         <v>1863.75345</v>
       </c>
-      <c r="AK5">
+      <c r="AQ5">
         <v>1764.89292</v>
       </c>
-      <c r="AL5">
+      <c r="AR5">
         <v>3549.63081</v>
       </c>
-      <c r="AM5">
+      <c r="AS5">
         <v>3750.17494</v>
       </c>
-      <c r="AN5">
+      <c r="AT5">
         <v>3695.14771</v>
       </c>
-      <c r="AO5">
+      <c r="AU5">
         <v>3935.13612</v>
       </c>
-      <c r="AP5">
+      <c r="AV5">
         <v>3800.28372</v>
       </c>
-      <c r="AQ5">
+      <c r="AW5">
         <v>3715.12728</v>
       </c>
-      <c r="AR5">
+      <c r="AX5">
         <v>4523.97912</v>
       </c>
-      <c r="AS5">
+      <c r="AY5">
         <v>4355.26131</v>
       </c>
-      <c r="AT5">
-        <v>6063.64777</v>
-      </c>
-      <c r="AU5">
+      <c r="AZ5">
         <v>4493.07564</v>
       </c>
-      <c r="AV5">
+      <c r="BA5">
         <v>3840.74805</v>
       </c>
-      <c r="AW5">
+      <c r="BB5">
         <v>4078.82856</v>
       </c>
-      <c r="AX5">
+      <c r="BC5">
         <v>4104.02167</v>
-      </c>
-      <c r="AY5">
-        <v>5880.01171</v>
-      </c>
-      <c r="AZ5">
-        <v>57.08346</v>
-      </c>
-      <c r="BA5">
-        <v>3.51233</v>
-      </c>
-      <c r="BB5">
-        <v>63.4076</v>
-      </c>
-      <c r="BC5">
-        <v>15.80599</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -1923,163 +1857,124 @@
         <v>970.7617</v>
       </c>
       <c r="C6">
-        <v>-24.5844</v>
+        <v>1063.6207</v>
       </c>
       <c r="D6">
+        <v>1062.211</v>
+      </c>
+      <c r="E6">
+        <v>435.274</v>
+      </c>
+      <c r="F6">
+        <v>434.04231</v>
+      </c>
+      <c r="G6">
+        <v>551.60365</v>
+      </c>
+      <c r="H6">
+        <v>50.75953</v>
+      </c>
+      <c r="J6">
+        <v>19.14299</v>
+      </c>
+      <c r="M6">
         <v>50.58386</v>
       </c>
-      <c r="E6">
-        <v>-17.03383</v>
-      </c>
-      <c r="F6">
-        <v>-58.29468</v>
-      </c>
-      <c r="G6">
+      <c r="P6">
         <v>16.50851</v>
       </c>
-      <c r="H6">
-        <v>-12.81942</v>
-      </c>
-      <c r="I6">
-        <v>-41.96706</v>
-      </c>
-      <c r="J6">
+      <c r="S6">
         <v>16.33288</v>
       </c>
-      <c r="K6">
-        <v>-14.57544</v>
-      </c>
-      <c r="L6">
+      <c r="U6">
         <v>10.36155</v>
       </c>
-      <c r="M6">
-        <v>1063.6207</v>
-      </c>
-      <c r="N6">
-        <v>-17.38502</v>
-      </c>
-      <c r="O6">
+      <c r="W6">
         <v>17.38667</v>
       </c>
-      <c r="P6">
-        <v>-29.67646</v>
-      </c>
-      <c r="Q6">
-        <v>-83.22208000000001</v>
-      </c>
-      <c r="R6">
-        <v>-1.40491</v>
-      </c>
-      <c r="S6">
+      <c r="AA6">
         <v>32.3159</v>
       </c>
-      <c r="T6">
+      <c r="AB6">
         <v>41.97663</v>
       </c>
-      <c r="U6">
+      <c r="AC6">
         <v>107.68229</v>
       </c>
-      <c r="V6">
+      <c r="AD6">
         <v>85.01664</v>
       </c>
-      <c r="W6">
+      <c r="AE6">
         <v>94.32857</v>
       </c>
-      <c r="X6">
-        <v>1062.211</v>
-      </c>
-      <c r="Y6">
+      <c r="AF6">
         <v>52.34049</v>
       </c>
-      <c r="Z6">
+      <c r="AG6">
         <v>0.52684</v>
       </c>
-      <c r="AA6">
+      <c r="AH6">
         <v>78.16473999999999</v>
       </c>
-      <c r="AB6">
+      <c r="AI6">
         <v>16.68414</v>
       </c>
-      <c r="AC6">
-        <v>-3.16104</v>
-      </c>
-      <c r="AD6">
+      <c r="AK6">
         <v>112.25088</v>
       </c>
-      <c r="AE6">
+      <c r="AL6">
         <v>117.52244</v>
       </c>
-      <c r="AF6">
+      <c r="AM6">
         <v>99.42397</v>
       </c>
-      <c r="AG6">
+      <c r="AN6">
         <v>147.39721</v>
       </c>
-      <c r="AH6">
+      <c r="AO6">
         <v>124.55141</v>
       </c>
-      <c r="AI6">
-        <v>435.274</v>
-      </c>
-      <c r="AJ6">
+      <c r="AP6">
         <v>67.44814</v>
       </c>
-      <c r="AK6">
+      <c r="AQ6">
         <v>116.46812</v>
       </c>
-      <c r="AL6">
+      <c r="AR6">
         <v>216.8283</v>
       </c>
-      <c r="AM6">
+      <c r="AS6">
         <v>211.20268</v>
       </c>
-      <c r="AN6">
+      <c r="AT6">
         <v>253.04654</v>
       </c>
-      <c r="AO6">
+      <c r="AU6">
         <v>251.28824</v>
       </c>
-      <c r="AP6">
+      <c r="AV6">
         <v>189.75633</v>
       </c>
-      <c r="AQ6">
+      <c r="AW6">
         <v>228.7832</v>
       </c>
-      <c r="AR6">
+      <c r="AX6">
         <v>341.32972</v>
       </c>
-      <c r="AS6">
+      <c r="AY6">
         <v>369.82618</v>
       </c>
-      <c r="AT6">
-        <v>434.04231</v>
-      </c>
-      <c r="AU6">
+      <c r="AZ6">
         <v>289.09456</v>
       </c>
-      <c r="AV6">
+      <c r="BA6">
         <v>283.11549</v>
       </c>
-      <c r="AW6">
+      <c r="BB6">
         <v>315.47458</v>
       </c>
-      <c r="AX6">
+      <c r="BC6">
         <v>228.95901</v>
-      </c>
-      <c r="AY6">
-        <v>551.60365</v>
-      </c>
-      <c r="AZ6">
-        <v>50.75953</v>
-      </c>
-      <c r="BA6">
-        <v>-40.73804</v>
-      </c>
-      <c r="BB6">
-        <v>19.14299</v>
-      </c>
-      <c r="BC6">
-        <v>-1.05368</v>
       </c>
     </row>
     <row r="7" spans="1:55">
@@ -2090,163 +1985,109 @@
         <v>41.62532</v>
       </c>
       <c r="C7">
-        <v>-33.01256</v>
+        <v>81.50281</v>
       </c>
       <c r="D7">
+        <v>82.20556999999999</v>
+      </c>
+      <c r="E7">
+        <v>57.61047</v>
+      </c>
+      <c r="F7">
+        <v>20.54805</v>
+      </c>
+      <c r="G7">
+        <v>49.35423</v>
+      </c>
+      <c r="J7">
+        <v>57.08346</v>
+      </c>
+      <c r="M7">
         <v>44.26014</v>
       </c>
-      <c r="E7">
+      <c r="N7">
         <v>71.48875</v>
       </c>
-      <c r="F7">
+      <c r="O7">
         <v>13.34719</v>
       </c>
-      <c r="G7">
+      <c r="P7">
         <v>8.07845</v>
       </c>
-      <c r="H7">
-        <v>-12.81942</v>
-      </c>
-      <c r="I7">
+      <c r="R7">
         <v>52.86748</v>
       </c>
-      <c r="J7">
-        <v>-67.95008</v>
-      </c>
-      <c r="K7">
+      <c r="T7">
         <v>27.57355</v>
       </c>
-      <c r="L7">
-        <v>-38.10439</v>
-      </c>
-      <c r="M7">
-        <v>81.50281</v>
-      </c>
-      <c r="N7">
-        <v>-34.24164</v>
-      </c>
-      <c r="O7">
-        <v>-16.33143</v>
-      </c>
-      <c r="P7">
+      <c r="X7">
         <v>23.00695</v>
       </c>
-      <c r="Q7">
+      <c r="Y7">
         <v>36.88273</v>
       </c>
-      <c r="R7">
+      <c r="Z7">
         <v>68.15085000000001</v>
       </c>
-      <c r="S7">
+      <c r="AA7">
         <v>47.07066</v>
       </c>
-      <c r="T7">
-        <v>-10.71218</v>
-      </c>
-      <c r="U7">
+      <c r="AC7">
         <v>8.605320000000001</v>
       </c>
-      <c r="V7">
-        <v>-5.61958</v>
-      </c>
-      <c r="W7">
-        <v>-38.45555</v>
-      </c>
-      <c r="X7">
-        <v>82.20556999999999</v>
-      </c>
-      <c r="Y7">
+      <c r="AF7">
         <v>24.93896</v>
       </c>
-      <c r="Z7">
-        <v>-5.79519</v>
-      </c>
-      <c r="AA7">
-        <v>-14.57544</v>
-      </c>
-      <c r="AB7">
-        <v>-25.46235</v>
-      </c>
-      <c r="AC7">
+      <c r="AJ7">
         <v>9.48343</v>
       </c>
-      <c r="AD7">
-        <v>-10.00976</v>
-      </c>
-      <c r="AE7">
+      <c r="AL7">
         <v>1.58054</v>
       </c>
-      <c r="AF7">
+      <c r="AM7">
         <v>25.64151</v>
       </c>
-      <c r="AG7">
-        <v>-4.39031</v>
-      </c>
-      <c r="AH7">
+      <c r="AO7">
         <v>120.334</v>
       </c>
-      <c r="AI7">
-        <v>57.61047</v>
-      </c>
-      <c r="AJ7">
+      <c r="AP7">
         <v>0</v>
       </c>
-      <c r="AK7">
+      <c r="AQ7">
         <v>34.24801</v>
       </c>
-      <c r="AL7">
+      <c r="AR7">
         <v>5.97099</v>
       </c>
-      <c r="AM7">
+      <c r="AS7">
         <v>67.79949000000001</v>
       </c>
-      <c r="AN7">
+      <c r="AT7">
         <v>105.39804</v>
       </c>
-      <c r="AO7">
+      <c r="AU7">
         <v>97.31551</v>
       </c>
-      <c r="AP7">
+      <c r="AV7">
         <v>52.69182</v>
       </c>
-      <c r="AQ7">
+      <c r="AW7">
         <v>49.5299</v>
       </c>
-      <c r="AR7">
+      <c r="AX7">
         <v>102.93811</v>
       </c>
-      <c r="AS7">
+      <c r="AY7">
         <v>61.82655</v>
       </c>
-      <c r="AT7">
-        <v>20.54805</v>
-      </c>
-      <c r="AU7">
-        <v>-23.00407</v>
-      </c>
-      <c r="AV7">
+      <c r="BA7">
         <v>21.60186</v>
       </c>
-      <c r="AW7">
+      <c r="BB7">
         <v>70.78603</v>
       </c>
-      <c r="AX7">
+      <c r="BC7">
         <v>1.22931</v>
-      </c>
-      <c r="AY7">
-        <v>49.35423</v>
-      </c>
-      <c r="AZ7">
-        <v>-48.28761</v>
-      </c>
-      <c r="BA7">
-        <v>-57.59244</v>
-      </c>
-      <c r="BB7">
-        <v>57.08346</v>
-      </c>
-      <c r="BC7">
-        <v>-38.98228</v>
       </c>
     </row>
   </sheetData>
@@ -2326,55 +2167,52 @@
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>4.995299620221993</v>
+        <v>0.001724963836062461</v>
       </c>
       <c r="C2">
+        <v>0.007761891073783482</v>
+      </c>
+      <c r="D2">
+        <v>0.7492961175287587</v>
+      </c>
+      <c r="E2">
+        <v>2.493580149634246</v>
+      </c>
+      <c r="F2">
         <v>0.1373027607088225</v>
       </c>
-      <c r="E2">
-        <v>5.722706994833109</v>
-      </c>
-      <c r="F2">
-        <v>0.2248889903485518</v>
-      </c>
-      <c r="G2">
-        <v>0.9701352075957687</v>
-      </c>
-      <c r="H2">
-        <v>0.3589151342952568</v>
-      </c>
       <c r="I2">
-        <v>2.96174237543613</v>
+        <v>0.4537479264930682</v>
       </c>
       <c r="J2">
-        <v>0.1377055136405786</v>
+        <v>0.2371614956299856</v>
       </c>
       <c r="K2">
-        <v>0.7118726997008468</v>
+        <v>0.3666706687878193</v>
       </c>
       <c r="L2">
-        <v>0.02940408630086061</v>
+        <v>0.03062204961686835</v>
       </c>
       <c r="M2">
-        <v>0.543092063647444</v>
+        <v>0.03751444978560724</v>
       </c>
       <c r="N2">
+        <v>0.005714158463767701</v>
+      </c>
+      <c r="O2">
+        <v>0.01492339326305733</v>
+      </c>
+      <c r="P2">
         <v>0.01013837546677909</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.008212814642403124</v>
       </c>
-      <c r="P2">
-        <v>0.1124828577445869</v>
-      </c>
-      <c r="Q2">
-        <v>0.08147170337382224</v>
-      </c>
       <c r="R2">
-        <v>4.497653829707875</v>
+        <v>0.001465289159804688</v>
       </c>
       <c r="S2">
-        <v>2.389176444441049</v>
+        <v>0.0242933467258729</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2382,55 +2220,55 @@
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>4.961212533967454</v>
+        <v>0.01952907923740375</v>
+      </c>
+      <c r="C3">
+        <v>0.005000690228146048</v>
       </c>
       <c r="D3">
+        <v>4.222468049465279</v>
+      </c>
+      <c r="E3">
+        <v>1.5464701506389</v>
+      </c>
+      <c r="G3">
         <v>0.6419952810963966</v>
       </c>
-      <c r="E3">
-        <v>6.959182563089944</v>
-      </c>
-      <c r="F3">
-        <v>2.330540908303858</v>
-      </c>
-      <c r="G3">
-        <v>1.042140595617285</v>
-      </c>
       <c r="H3">
-        <v>0.1429654927510638</v>
+        <v>1.411800558539723</v>
       </c>
       <c r="I3">
-        <v>2.619010873400925</v>
+        <v>2.820697070152297</v>
       </c>
       <c r="J3">
-        <v>0.1202849132683757</v>
+        <v>0.2902309780989877</v>
       </c>
       <c r="K3">
-        <v>0.530572759271272</v>
+        <v>0.1474615416379214</v>
       </c>
       <c r="L3">
-        <v>0.02534915275716958</v>
+        <v>0.001138166409084474</v>
       </c>
       <c r="M3">
-        <v>0.4642582614033626</v>
+        <v>0.02663757977267676</v>
       </c>
       <c r="N3">
+        <v>0.003426812157935884</v>
+      </c>
+      <c r="O3">
+        <v>0.007629469904159279</v>
+      </c>
+      <c r="P3">
         <v>0.003685789063810974</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.01282015160987156</v>
       </c>
-      <c r="P3">
-        <v>0.08852755607780817</v>
-      </c>
-      <c r="Q3">
-        <v>0.076160053919179</v>
-      </c>
       <c r="R3">
-        <v>6.818766289144904</v>
+        <v>0.006285148498897456</v>
       </c>
       <c r="S3">
-        <v>0.1751619505126095</v>
+        <v>0.0251569636654362</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2438,52 +2276,55 @@
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>4.749561423667795</v>
+        <v>0.0107537697827067</v>
+      </c>
+      <c r="C4">
+        <v>0.008882406404589462</v>
       </c>
       <c r="D4">
+        <v>0.9047262015756741</v>
+      </c>
+      <c r="E4">
+        <v>0.1777086928942029</v>
+      </c>
+      <c r="G4">
         <v>0.8768384162925928</v>
       </c>
-      <c r="E4">
-        <v>3.986254183380136</v>
-      </c>
-      <c r="F4">
-        <v>1.106542119991522</v>
-      </c>
-      <c r="G4">
-        <v>0.5996673779892893</v>
-      </c>
       <c r="H4">
-        <v>0.2452153856524817</v>
+        <v>0.8642736113531588</v>
       </c>
       <c r="I4">
-        <v>2.606056542008332</v>
+        <v>0.8768829408699463</v>
       </c>
       <c r="J4">
-        <v>0.1552053318019095</v>
+        <v>0.2173874418753982</v>
       </c>
       <c r="K4">
-        <v>0.5939310416617086</v>
+        <v>0.2576993286455241</v>
       </c>
       <c r="L4">
-        <v>0.01967055912201143</v>
+        <v>0.02126777453491441</v>
       </c>
       <c r="M4">
-        <v>0.4459142624125887</v>
+        <v>0.03397249450790905</v>
       </c>
       <c r="N4">
+        <v>0.01060902024779602</v>
+      </c>
+      <c r="O4">
+        <v>0.01590067164540986</v>
+      </c>
+      <c r="P4">
         <v>0.009088342074837686</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.01249211973890599</v>
       </c>
-      <c r="P4">
-        <v>0.07747696896596436</v>
-      </c>
-      <c r="Q4">
-        <v>0.05101515963165079</v>
-      </c>
       <c r="R4">
-        <v>3.67225616663221</v>
+        <v>0.009777124905127877</v>
+      </c>
+      <c r="S4">
+        <v>0.01494967008100202</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2491,58 +2332,58 @@
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>3.394328361906694</v>
+        <v>0.01060824267020598</v>
       </c>
       <c r="C5">
+        <v>0.01541048549459068</v>
+      </c>
+      <c r="D5">
+        <v>1.64096015005667</v>
+      </c>
+      <c r="E5">
+        <v>1.109291419042228</v>
+      </c>
+      <c r="F5">
         <v>1.47044104470758</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>1.067300279922528</v>
       </c>
-      <c r="E5">
-        <v>7.687068124186458</v>
-      </c>
-      <c r="F5">
-        <v>0.4810428615956892</v>
-      </c>
-      <c r="G5">
-        <v>0.2801927318624694</v>
-      </c>
       <c r="H5">
-        <v>0.6119920286217797</v>
+        <v>3.367423297604404</v>
       </c>
       <c r="I5">
-        <v>1.899183454083217</v>
+        <v>0.2003863478862582</v>
       </c>
       <c r="J5">
-        <v>0.1324200371744105</v>
+        <v>0.5112753114437442</v>
       </c>
       <c r="K5">
-        <v>0.8803236986232265</v>
+        <v>0.6844342124707929</v>
       </c>
       <c r="L5">
-        <v>0.07093282060830981</v>
+        <v>0.1358372905100923</v>
       </c>
       <c r="M5">
-        <v>0.68953012569829</v>
+        <v>0.06249968861821361</v>
       </c>
       <c r="N5">
+        <v>0.01924684005848419</v>
+      </c>
+      <c r="O5">
+        <v>0.02774513187590493</v>
+      </c>
+      <c r="P5">
         <v>0.02844049743334633</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.02898129780539387</v>
       </c>
-      <c r="P5">
-        <v>0.1810888854672414</v>
-      </c>
-      <c r="Q5">
-        <v>0.07914298463203463</v>
-      </c>
       <c r="R5">
-        <v>2.578374138105477</v>
+        <v>0.02025685679291453</v>
       </c>
       <c r="S5">
-        <v>1.447032339310716</v>
+        <v>0.03663053919915115</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2550,43 +2391,43 @@
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>2.089110546386839</v>
-      </c>
-      <c r="E6">
-        <v>3.27484646241964</v>
-      </c>
-      <c r="H6">
-        <v>0.4901387526781569</v>
-      </c>
-      <c r="I6">
-        <v>1.595403737920094</v>
+        <v>0.05236407850460666</v>
+      </c>
+      <c r="C6">
+        <v>0.1375730616527762</v>
+      </c>
+      <c r="D6">
+        <v>0.6895442232484918</v>
       </c>
       <c r="J6">
-        <v>2.559981566258668</v>
+        <v>0.1849463706449851</v>
       </c>
       <c r="K6">
-        <v>0.03245120048290794</v>
+        <v>0.11845439687007</v>
       </c>
       <c r="L6">
-        <v>0.1975532595488047</v>
+        <v>2.778038745182362</v>
       </c>
       <c r="M6">
-        <v>0.9585807285128292</v>
+        <v>1.347941958259772</v>
       </c>
       <c r="N6">
+        <v>0.1976109045819472</v>
+      </c>
+      <c r="O6">
+        <v>0.3364300133841509</v>
+      </c>
+      <c r="P6">
         <v>0.09765903269132591</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.1429844332320555</v>
       </c>
-      <c r="P6">
-        <v>0.1223418246211045</v>
-      </c>
-      <c r="Q6">
-        <v>0.05740870400691337</v>
-      </c>
       <c r="R6">
-        <v>1.206525798489109</v>
+        <v>0.125612213006786</v>
+      </c>
+      <c r="S6">
+        <v>0.1630599946910611</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2594,43 +2435,34 @@
         <v>1000.111</v>
       </c>
       <c r="B7">
-        <v>0.04339928807014247</v>
+        <v>0.3904403477507102</v>
       </c>
       <c r="C7">
+        <v>0.5559656730549188</v>
+      </c>
+      <c r="F7">
         <v>1.141816039754351</v>
       </c>
-      <c r="E7">
-        <v>0.7663485537973792</v>
-      </c>
-      <c r="G7">
-        <v>0.3091430742427847</v>
-      </c>
       <c r="I7">
-        <v>0.8434311858951723</v>
-      </c>
-      <c r="K7">
-        <v>1.26697943793387</v>
-      </c>
-      <c r="L7">
-        <v>1.093228581790163</v>
-      </c>
-      <c r="M7">
-        <v>0.3677491681763419</v>
+        <v>0.3337169775271709</v>
+      </c>
+      <c r="J7">
+        <v>0.2616816606866113</v>
       </c>
       <c r="N7">
+        <v>1.970314835051048</v>
+      </c>
+      <c r="P7">
         <v>1.545934469471649</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.3733519843742963</v>
       </c>
-      <c r="P7">
-        <v>0.8235924988780805</v>
-      </c>
-      <c r="Q7">
-        <v>0.8392524823199595</v>
-      </c>
       <c r="R7">
-        <v>2.611041598220012</v>
+        <v>0.3604795368623867</v>
+      </c>
+      <c r="S7">
+        <v>2.083787280955262</v>
       </c>
     </row>
   </sheetData>
@@ -2814,143 +2646,143 @@
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>-0.0009868510245363523</v>
+      </c>
       <c r="C2">
+        <v>0.002369456689062963</v>
+      </c>
+      <c r="D2">
+        <v>0.321177658068397</v>
+      </c>
+      <c r="E2">
+        <v>0.334610284186732</v>
+      </c>
+      <c r="F2">
+        <v>0.3346329826127608</v>
+      </c>
+      <c r="G2">
+        <v>8.271734338524011</v>
+      </c>
+      <c r="H2">
+        <v>7.212069606881336</v>
+      </c>
+      <c r="J2">
+        <v>10.5908753375122</v>
+      </c>
+      <c r="L2">
         <v>7.064420471035114</v>
       </c>
-      <c r="E2">
+      <c r="N2">
         <v>7.104429508065826</v>
       </c>
-      <c r="F2">
+      <c r="O2">
         <v>6.910254081720142</v>
       </c>
-      <c r="G2">
+      <c r="P2">
         <v>6.72301976646716</v>
       </c>
-      <c r="J2">
+      <c r="S2">
         <v>8.092142994555823</v>
       </c>
-      <c r="L2">
-        <v>-0.0009868510245363523</v>
-      </c>
-      <c r="N2">
+      <c r="V2">
         <v>6.751293942620885</v>
       </c>
-      <c r="O2">
+      <c r="W2">
         <v>7.069335002800199</v>
       </c>
-      <c r="P2">
+      <c r="X2">
         <v>7.646384411928474</v>
       </c>
-      <c r="Q2">
+      <c r="Y2">
         <v>5.781068503813306</v>
       </c>
-      <c r="R2">
+      <c r="Z2">
         <v>6.251196042384491</v>
       </c>
-      <c r="S2">
+      <c r="AA2">
         <v>6.070646474332196</v>
       </c>
-      <c r="T2">
+      <c r="AB2">
         <v>5.647660769122093</v>
       </c>
-      <c r="U2">
+      <c r="AC2">
         <v>6.36142102139537</v>
       </c>
-      <c r="V2">
+      <c r="AD2">
         <v>5.858760701974419</v>
       </c>
-      <c r="W2">
-        <v>0.002369456689062963</v>
-      </c>
-      <c r="X2">
+      <c r="AE2">
         <v>2.160652823311019</v>
       </c>
-      <c r="Y2">
+      <c r="AF2">
         <v>2.194846345568148</v>
       </c>
-      <c r="Z2">
+      <c r="AG2">
         <v>2.221752221235033</v>
       </c>
-      <c r="AA2">
+      <c r="AH2">
         <v>2.445671313876951</v>
       </c>
-      <c r="AB2">
+      <c r="AI2">
         <v>2.494606978787585</v>
       </c>
-      <c r="AC2">
+      <c r="AJ2">
         <v>2.420884934807099</v>
       </c>
-      <c r="AD2">
+      <c r="AK2">
         <v>1.226400344504993</v>
       </c>
-      <c r="AE2">
+      <c r="AL2">
         <v>1.232453988382594</v>
       </c>
-      <c r="AF2">
+      <c r="AM2">
         <v>1.237821799711515</v>
       </c>
-      <c r="AG2">
+      <c r="AN2">
         <v>1.285854664692653</v>
       </c>
-      <c r="AH2">
-        <v>0.321177658068397</v>
-      </c>
-      <c r="AI2">
+      <c r="AO2">
         <v>1.256341272787208</v>
       </c>
-      <c r="AJ2">
+      <c r="AP2">
         <v>1.267245336765769</v>
       </c>
-      <c r="AK2">
+      <c r="AQ2">
         <v>0.7169090825445777</v>
       </c>
-      <c r="AL2">
+      <c r="AR2">
         <v>0.7228491495566002</v>
       </c>
-      <c r="AM2">
+      <c r="AS2">
         <v>0.7030893371885647</v>
       </c>
-      <c r="AN2">
+      <c r="AT2">
         <v>0.7438308805416863</v>
       </c>
-      <c r="AO2">
+      <c r="AU2">
         <v>0.7280710238081137</v>
       </c>
-      <c r="AP2">
+      <c r="AV2">
         <v>0.7319420670612602</v>
       </c>
-      <c r="AQ2">
+      <c r="AW2">
         <v>0.5291258656977472</v>
       </c>
-      <c r="AR2">
+      <c r="AX2">
         <v>0.5297452748983102</v>
       </c>
-      <c r="AS2">
-        <v>0.334610284186732</v>
-      </c>
-      <c r="AT2">
+      <c r="AY2">
         <v>0.5319161883958456</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <v>0.6854918213014732</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <v>0.6558612851468613</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <v>0.6373295356540289</v>
-      </c>
-      <c r="AX2">
-        <v>0.3346329826127608</v>
-      </c>
-      <c r="AY2">
-        <v>8.271734338524011</v>
-      </c>
-      <c r="AZ2">
-        <v>7.212069606881336</v>
-      </c>
-      <c r="BB2">
-        <v>10.5908753375122</v>
       </c>
     </row>
     <row r="3" spans="1:54">
@@ -2958,148 +2790,148 @@
         <v>0</v>
       </c>
       <c r="B3">
+        <v>0.03527755258783717</v>
+      </c>
+      <c r="C3">
+        <v>0.03215688636863803</v>
+      </c>
+      <c r="D3">
+        <v>0.3521547401396932</v>
+      </c>
+      <c r="E3">
+        <v>0.3422254185756777</v>
+      </c>
+      <c r="F3">
+        <v>0.3461522266550301</v>
+      </c>
+      <c r="G3">
+        <v>12.27497424921892</v>
+      </c>
+      <c r="H3">
+        <v>6.30350266697805</v>
+      </c>
+      <c r="J3">
+        <v>6.551219073004707</v>
+      </c>
+      <c r="K3">
         <v>9.502349937384105</v>
       </c>
-      <c r="C3">
+      <c r="L3">
         <v>7.225017864312048</v>
       </c>
-      <c r="F3">
+      <c r="O3">
         <v>7.02783389743097</v>
       </c>
-      <c r="G3">
+      <c r="P3">
         <v>6.79837156257643</v>
       </c>
-      <c r="H3">
+      <c r="Q3">
         <v>7.7001910655189</v>
       </c>
-      <c r="I3">
+      <c r="R3">
         <v>8.04080832617964</v>
       </c>
-      <c r="K3">
+      <c r="T3">
         <v>9.877047916339993</v>
       </c>
-      <c r="L3">
-        <v>0.03527755258783717</v>
-      </c>
-      <c r="M3">
+      <c r="U3">
         <v>7.880460419087207</v>
       </c>
-      <c r="N3">
+      <c r="V3">
         <v>11.17634297927583</v>
       </c>
-      <c r="P3">
+      <c r="X3">
         <v>7.187274927320402</v>
       </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>5.565268254081594</v>
       </c>
-      <c r="R3">
+      <c r="Z3">
         <v>5.242696790752963</v>
       </c>
-      <c r="S3">
+      <c r="AA3">
         <v>4.986055734295956</v>
       </c>
-      <c r="T3">
+      <c r="AB3">
         <v>5.213947702742479</v>
       </c>
-      <c r="U3">
+      <c r="AC3">
         <v>4.950447934244662</v>
       </c>
-      <c r="V3">
+      <c r="AD3">
         <v>5.196917576111406</v>
       </c>
-      <c r="W3">
-        <v>0.03215688636863803</v>
-      </c>
-      <c r="X3">
+      <c r="AE3">
         <v>1.858502094329916</v>
       </c>
-      <c r="Y3">
+      <c r="AF3">
         <v>1.858708955848912</v>
       </c>
-      <c r="Z3">
+      <c r="AG3">
         <v>1.856642319914637</v>
       </c>
-      <c r="AA3">
+      <c r="AH3">
         <v>2.066007531363974</v>
       </c>
-      <c r="AB3">
+      <c r="AI3">
         <v>2.013633823405331</v>
       </c>
-      <c r="AC3">
+      <c r="AJ3">
         <v>2.031369168381267</v>
       </c>
-      <c r="AD3">
+      <c r="AK3">
         <v>1.103650881377462</v>
       </c>
-      <c r="AE3">
+      <c r="AL3">
         <v>1.107652578497324</v>
       </c>
-      <c r="AF3">
+      <c r="AM3">
         <v>1.110470333450653</v>
       </c>
-      <c r="AG3">
+      <c r="AN3">
         <v>1.15289961092246</v>
       </c>
-      <c r="AH3">
-        <v>0.3521547401396932</v>
-      </c>
-      <c r="AI3">
+      <c r="AO3">
         <v>1.163563588809684</v>
       </c>
-      <c r="AJ3">
+      <c r="AP3">
         <v>1.148779821474097</v>
       </c>
-      <c r="AK3">
+      <c r="AQ3">
         <v>0.6683759443818894</v>
       </c>
-      <c r="AL3">
+      <c r="AR3">
         <v>0.6610043702662816</v>
       </c>
-      <c r="AM3">
+      <c r="AS3">
         <v>0.6646834968210266</v>
       </c>
-      <c r="AN3">
+      <c r="AT3">
         <v>0.6419677404789425</v>
       </c>
-      <c r="AO3">
+      <c r="AU3">
         <v>0.6404484425534448</v>
       </c>
-      <c r="AP3">
+      <c r="AV3">
         <v>0.6633742292551066</v>
       </c>
-      <c r="AQ3">
+      <c r="AW3">
         <v>0.5014537847257093</v>
       </c>
-      <c r="AR3">
+      <c r="AX3">
         <v>0.4888927903535583</v>
       </c>
-      <c r="AS3">
-        <v>0.3422254185756777</v>
-      </c>
-      <c r="AT3">
+      <c r="AY3">
         <v>0.4947545510512887</v>
       </c>
-      <c r="AU3">
+      <c r="AZ3">
         <v>0.6368470240465879</v>
       </c>
-      <c r="AV3">
+      <c r="BA3">
         <v>0.6133229747616171</v>
       </c>
-      <c r="AW3">
+      <c r="BB3">
         <v>0.5865676943124826</v>
-      </c>
-      <c r="AX3">
-        <v>0.3461522266550301</v>
-      </c>
-      <c r="AY3">
-        <v>12.27497424921892</v>
-      </c>
-      <c r="AZ3">
-        <v>6.30350266697805</v>
-      </c>
-      <c r="BB3">
-        <v>6.551219073004707</v>
       </c>
     </row>
     <row r="4" spans="1:54">
@@ -3107,526 +2939,529 @@
         <v>0</v>
       </c>
       <c r="B4">
+        <v>0.02144254092336376</v>
+      </c>
+      <c r="C4">
+        <v>0.01216825791178978</v>
+      </c>
+      <c r="D4">
+        <v>0.3266684479855524</v>
+      </c>
+      <c r="E4">
+        <v>0.3384215441849036</v>
+      </c>
+      <c r="F4">
+        <v>0.3440814590572777</v>
+      </c>
+      <c r="G4">
+        <v>6.791067641750565</v>
+      </c>
+      <c r="I4">
+        <v>8.070543706253178</v>
+      </c>
+      <c r="K4">
         <v>8.349261066076865</v>
       </c>
-      <c r="C4">
+      <c r="L4">
         <v>8.097943022434288</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>7.831310186146149</v>
       </c>
-      <c r="H4">
+      <c r="Q4">
         <v>6.704677473884654</v>
       </c>
-      <c r="I4">
+      <c r="R4">
         <v>5.464640693553923</v>
       </c>
-      <c r="J4">
+      <c r="S4">
         <v>6.704677473884654</v>
       </c>
-      <c r="K4">
+      <c r="T4">
         <v>7.127558030604622</v>
       </c>
-      <c r="L4">
-        <v>0.02144254092336376</v>
-      </c>
-      <c r="M4">
+      <c r="U4">
         <v>5.464640693553923</v>
       </c>
-      <c r="N4">
+      <c r="V4">
         <v>7.538315484663701</v>
       </c>
-      <c r="O4">
+      <c r="W4">
         <v>5.831992439163377</v>
       </c>
-      <c r="P4">
+      <c r="X4">
         <v>6.334273178367257</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>5.201134398847057</v>
       </c>
-      <c r="R4">
+      <c r="Z4">
         <v>5.427409397771441</v>
       </c>
-      <c r="S4">
+      <c r="AA4">
         <v>4.992757328963292</v>
       </c>
-      <c r="T4">
+      <c r="AB4">
         <v>5.26283146579071</v>
       </c>
-      <c r="U4">
+      <c r="AC4">
         <v>4.773271159006398</v>
       </c>
-      <c r="V4">
+      <c r="AD4">
         <v>5.15760367342838</v>
       </c>
-      <c r="W4">
-        <v>0.01216825791178978</v>
-      </c>
-      <c r="X4">
+      <c r="AE4">
         <v>1.865189578994434</v>
       </c>
-      <c r="Y4">
+      <c r="AF4">
         <v>1.828300269739079</v>
       </c>
-      <c r="Z4">
+      <c r="AG4">
         <v>1.82840538107907</v>
       </c>
-      <c r="AA4">
+      <c r="AH4">
         <v>2.09717633028342</v>
       </c>
-      <c r="AB4">
+      <c r="AI4">
         <v>2.048277982571045</v>
       </c>
-      <c r="AC4">
+      <c r="AJ4">
         <v>2.113581835994198</v>
       </c>
-      <c r="AD4">
+      <c r="AK4">
         <v>1.053766922316019</v>
       </c>
-      <c r="AE4">
+      <c r="AL4">
         <v>1.032792623102875</v>
       </c>
-      <c r="AF4">
+      <c r="AM4">
         <v>1.046057003568155</v>
       </c>
-      <c r="AG4">
+      <c r="AN4">
         <v>1.071500268853276</v>
       </c>
-      <c r="AH4">
-        <v>0.3266684479855524</v>
-      </c>
-      <c r="AI4">
+      <c r="AO4">
         <v>1.098304388054219</v>
       </c>
-      <c r="AJ4">
+      <c r="AP4">
         <v>1.099722870674653</v>
       </c>
-      <c r="AK4">
+      <c r="AQ4">
         <v>0.612302942770254</v>
       </c>
-      <c r="AL4">
+      <c r="AR4">
         <v>0.6113415128449541</v>
       </c>
-      <c r="AM4">
+      <c r="AS4">
         <v>0.6275416624151797</v>
       </c>
-      <c r="AN4">
+      <c r="AT4">
         <v>0.6280608853753045</v>
       </c>
-      <c r="AO4">
+      <c r="AU4">
         <v>0.6056226521514031</v>
       </c>
-      <c r="AP4">
+      <c r="AV4">
         <v>0.6073258119509334</v>
       </c>
-      <c r="AQ4">
+      <c r="AW4">
         <v>0.4714676797787611</v>
       </c>
-      <c r="AR4">
+      <c r="AX4">
         <v>0.473734774891326</v>
       </c>
-      <c r="AS4">
-        <v>0.3384215441849036</v>
-      </c>
-      <c r="AT4">
+      <c r="AY4">
         <v>0.4557809501659731</v>
       </c>
-      <c r="AU4">
+      <c r="AZ4">
         <v>0.5505601740692386</v>
       </c>
-      <c r="AV4">
+      <c r="BA4">
         <v>0.5358862093517571</v>
       </c>
-      <c r="AW4">
+      <c r="BB4">
         <v>0.5206625184892706</v>
-      </c>
-      <c r="AX4">
-        <v>0.3440814590572777</v>
-      </c>
-      <c r="AY4">
-        <v>6.791067641750565</v>
-      </c>
-      <c r="BA4">
-        <v>8.070543706253178</v>
       </c>
     </row>
     <row r="5" spans="1:54">
       <c r="A5">
         <v>0</v>
       </c>
+      <c r="B5">
+        <v>-0.002197188214864343</v>
+      </c>
       <c r="C5">
+        <v>0.01717662711178382</v>
+      </c>
+      <c r="D5">
+        <v>0.4330045164129592</v>
+      </c>
+      <c r="E5">
+        <v>0.4194023158881378</v>
+      </c>
+      <c r="F5">
+        <v>0.4501551237138702</v>
+      </c>
+      <c r="G5">
+        <v>5.084954748651293</v>
+      </c>
+      <c r="H5">
+        <v>7.873189521189055</v>
+      </c>
+      <c r="I5">
+        <v>4.979885428025235</v>
+      </c>
+      <c r="J5">
+        <v>6.369080173989713</v>
+      </c>
+      <c r="L5">
         <v>4.800305204556098</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>7.733427455026388</v>
       </c>
-      <c r="E5">
+      <c r="N5">
         <v>5.653909786930866</v>
       </c>
-      <c r="G5">
+      <c r="P5">
         <v>6.31501058852859</v>
       </c>
-      <c r="I5">
+      <c r="R5">
         <v>7.82440111951963</v>
       </c>
-      <c r="J5">
+      <c r="S5">
         <v>10.86895880789553</v>
       </c>
-      <c r="L5">
-        <v>-0.002197188214864343</v>
-      </c>
-      <c r="M5">
+      <c r="U5">
         <v>6.106703110172253</v>
       </c>
-      <c r="N5">
+      <c r="V5">
         <v>5.426405771220866</v>
       </c>
-      <c r="P5">
+      <c r="X5">
         <v>5.709794862116025</v>
       </c>
-      <c r="Q5">
+      <c r="Y5">
         <v>5.151761973549949</v>
       </c>
-      <c r="R5">
+      <c r="Z5">
         <v>5.475201074491629</v>
       </c>
-      <c r="S5">
+      <c r="AA5">
         <v>4.473393615964602</v>
       </c>
-      <c r="T5">
+      <c r="AB5">
         <v>5.606150901558078</v>
       </c>
-      <c r="U5">
+      <c r="AC5">
         <v>4.638214755729734</v>
       </c>
-      <c r="W5">
-        <v>0.01717662711178382</v>
-      </c>
-      <c r="X5">
+      <c r="AE5">
         <v>2.703027625310849</v>
       </c>
-      <c r="Y5">
+      <c r="AF5">
         <v>2.930760140926376</v>
       </c>
-      <c r="Z5">
+      <c r="AG5">
         <v>2.688602283713438</v>
       </c>
-      <c r="AA5">
+      <c r="AH5">
         <v>2.902551432941729</v>
       </c>
-      <c r="AB5">
+      <c r="AI5">
         <v>3.014641172775545</v>
       </c>
-      <c r="AC5">
+      <c r="AJ5">
         <v>3.006508210565505</v>
       </c>
-      <c r="AD5">
+      <c r="AK5">
         <v>1.485825586319976</v>
       </c>
-      <c r="AE5">
+      <c r="AL5">
         <v>1.516244937192256</v>
       </c>
-      <c r="AF5">
+      <c r="AM5">
         <v>1.480606853201056</v>
       </c>
-      <c r="AG5">
+      <c r="AN5">
         <v>1.61734536519812</v>
       </c>
-      <c r="AH5">
-        <v>0.4330045164129592</v>
-      </c>
-      <c r="AI5">
+      <c r="AO5">
         <v>1.599121438917284</v>
       </c>
-      <c r="AJ5">
+      <c r="AP5">
         <v>1.653623857129413</v>
       </c>
-      <c r="AK5">
+      <c r="AQ5">
         <v>0.9548702762228773</v>
       </c>
-      <c r="AL5">
+      <c r="AR5">
         <v>0.8999113875581437</v>
       </c>
-      <c r="AM5">
+      <c r="AS5">
         <v>0.9146933478751004</v>
       </c>
-      <c r="AN5">
+      <c r="AT5">
         <v>0.8517684037259662</v>
       </c>
-      <c r="AO5">
+      <c r="AU5">
         <v>0.8866381500159414</v>
       </c>
-      <c r="AP5">
+      <c r="AV5">
         <v>0.909300938432563</v>
       </c>
-      <c r="AQ5">
+      <c r="AW5">
         <v>0.7123219342604135</v>
       </c>
-      <c r="AR5">
+      <c r="AX5">
         <v>0.7503292663184096</v>
       </c>
-      <c r="AS5">
-        <v>0.4194023158881378</v>
-      </c>
-      <c r="AT5">
+      <c r="AY5">
         <v>0.7191764120959206</v>
       </c>
-      <c r="AU5">
+      <c r="AZ5">
         <v>0.876046724803855</v>
       </c>
-      <c r="AV5">
+      <c r="BA5">
         <v>0.8159040475761727</v>
       </c>
-      <c r="AW5">
+      <c r="BB5">
         <v>0.8097464890500682</v>
-      </c>
-      <c r="AX5">
-        <v>0.4501551237138702</v>
-      </c>
-      <c r="AY5">
-        <v>5.084954748651293</v>
-      </c>
-      <c r="AZ5">
-        <v>7.873189521189055</v>
-      </c>
-      <c r="BA5">
-        <v>4.979885428025235</v>
-      </c>
-      <c r="BB5">
-        <v>6.369080173989713</v>
       </c>
     </row>
     <row r="6" spans="1:54">
       <c r="A6">
         <v>0</v>
       </c>
+      <c r="B6">
+        <v>-0.09135310030747056</v>
+      </c>
       <c r="C6">
+        <v>-0.09002684272401879</v>
+      </c>
+      <c r="D6">
+        <v>0.8021053032240173</v>
+      </c>
+      <c r="E6">
+        <v>0.8049390032478694</v>
+      </c>
+      <c r="F6">
+        <v>0.5652512580647395</v>
+      </c>
+      <c r="G6">
+        <v>2.950981637531783</v>
+      </c>
+      <c r="I6">
+        <v>3.926144429905822</v>
+      </c>
+      <c r="L6">
         <v>2.954448467996935</v>
       </c>
-      <c r="F6">
+      <c r="O6">
         <v>4.074205015550776</v>
       </c>
-      <c r="I6">
+      <c r="R6">
         <v>4.084900767120548</v>
       </c>
-      <c r="K6">
+      <c r="T6">
         <v>4.539979181535936</v>
       </c>
-      <c r="L6">
-        <v>-0.09135310030747056</v>
-      </c>
-      <c r="N6">
+      <c r="V6">
         <v>4.022377200407783</v>
       </c>
-      <c r="R6">
+      <c r="Z6">
         <v>3.402521651905551</v>
       </c>
-      <c r="S6">
+      <c r="AA6">
         <v>3.140967986227732</v>
       </c>
-      <c r="T6">
+      <c r="AB6">
         <v>2.198895888689364</v>
       </c>
-      <c r="U6">
+      <c r="AC6">
         <v>2.435234019039055</v>
       </c>
-      <c r="V6">
+      <c r="AD6">
         <v>2.331296908075263</v>
       </c>
-      <c r="W6">
-        <v>-0.09002684272401879</v>
-      </c>
-      <c r="X6">
+      <c r="AE6">
         <v>2.920310762152936</v>
       </c>
-      <c r="Y6">
+      <c r="AF6">
         <v>7.518939402927136</v>
       </c>
-      <c r="Z6">
+      <c r="AG6">
         <v>2.519262370349024</v>
       </c>
-      <c r="AA6">
+      <c r="AH6">
         <v>4.063622453503275</v>
       </c>
-      <c r="AC6">
+      <c r="AJ6">
         <v>2.157344654840557</v>
       </c>
-      <c r="AD6">
+      <c r="AK6">
         <v>2.111451727002341</v>
       </c>
-      <c r="AE6">
+      <c r="AL6">
         <v>2.278687789603264</v>
       </c>
-      <c r="AF6">
+      <c r="AM6">
         <v>1.884949969586585</v>
       </c>
-      <c r="AG6">
+      <c r="AN6">
         <v>2.053362458677017</v>
       </c>
-      <c r="AH6">
-        <v>0.8021053032240173</v>
-      </c>
-      <c r="AI6">
+      <c r="AO6">
         <v>2.666722014784512</v>
       </c>
-      <c r="AJ6">
+      <c r="AP6">
         <v>2.120463433587223</v>
       </c>
-      <c r="AK6">
+      <c r="AQ6">
         <v>1.498975224973961</v>
       </c>
-      <c r="AL6">
+      <c r="AR6">
         <v>1.525262779930308</v>
       </c>
-      <c r="AM6">
+      <c r="AS6">
         <v>1.344507596696353</v>
       </c>
-      <c r="AN6">
+      <c r="AT6">
         <v>1.351480374278677</v>
       </c>
-      <c r="AO6">
+      <c r="AU6">
         <v>1.632340245672732</v>
       </c>
-      <c r="AP6">
+      <c r="AV6">
         <v>1.44530619083949</v>
       </c>
-      <c r="AQ6">
+      <c r="AW6">
         <v>1.045232090138032</v>
       </c>
-      <c r="AR6">
+      <c r="AX6">
         <v>0.9650479096043314</v>
       </c>
-      <c r="AS6">
-        <v>0.8049390032478694</v>
-      </c>
-      <c r="AT6">
+      <c r="AY6">
         <v>1.211327189248919</v>
       </c>
-      <c r="AU6">
+      <c r="AZ6">
         <v>1.232226114806656</v>
       </c>
-      <c r="AV6">
+      <c r="BA6">
         <v>1.124002912863534</v>
       </c>
-      <c r="AW6">
+      <c r="BB6">
         <v>1.444538029176422</v>
-      </c>
-      <c r="AX6">
-        <v>0.5652512580647395</v>
-      </c>
-      <c r="AY6">
-        <v>2.950981637531783</v>
-      </c>
-      <c r="BA6">
-        <v>3.926144429905822</v>
       </c>
     </row>
     <row r="7" spans="1:54">
       <c r="A7">
         <v>0</v>
       </c>
+      <c r="B7">
+        <v>-0.671928862221308</v>
+      </c>
       <c r="C7">
+        <v>-0.6805144253648557</v>
+      </c>
+      <c r="D7">
+        <v>-0.3249956860581171</v>
+      </c>
+      <c r="E7">
+        <v>0.7059425900298402</v>
+      </c>
+      <c r="F7">
+        <v>-0.1703148405331999</v>
+      </c>
+      <c r="I7">
+        <v>-0.3158057714911197</v>
+      </c>
+      <c r="L7">
         <v>-0.06137586178613235</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>-0.5408314587042193</v>
       </c>
-      <c r="E7">
+      <c r="N7">
         <v>1.137402760159347</v>
       </c>
-      <c r="F7">
+      <c r="O7">
         <v>1.63950861351096</v>
       </c>
-      <c r="H7">
+      <c r="Q7">
         <v>-0.2390797690709351</v>
       </c>
-      <c r="J7">
+      <c r="S7">
         <v>0.4118516560639531</v>
       </c>
-      <c r="L7">
-        <v>-0.671928862221308</v>
-      </c>
-      <c r="O7">
+      <c r="W7">
         <v>0.5929122917618943</v>
       </c>
-      <c r="P7">
+      <c r="X7">
         <v>0.1209652161488118</v>
       </c>
-      <c r="Q7">
+      <c r="Y7">
         <v>-0.493014994593176</v>
       </c>
-      <c r="R7">
+      <c r="Z7">
         <v>-0.122941241025856</v>
       </c>
-      <c r="T7">
+      <c r="AB7">
         <v>1.576328019305107</v>
       </c>
-      <c r="W7">
-        <v>-0.6805144253648557</v>
-      </c>
-      <c r="X7">
+      <c r="AE7">
         <v>0.5122773966565201</v>
       </c>
-      <c r="AB7">
+      <c r="AI7">
         <v>1.47916257078485</v>
       </c>
-      <c r="AD7">
+      <c r="AK7">
         <v>3.270942075158769</v>
       </c>
-      <c r="AE7">
+      <c r="AL7">
         <v>0.4844961132846687</v>
       </c>
-      <c r="AG7">
+      <c r="AN7">
         <v>-1.061562573856884</v>
       </c>
-      <c r="AH7">
-        <v>-0.3249956860581171</v>
-      </c>
-      <c r="AJ7">
+      <c r="AO7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP7">
         <v>0.1950801751282898</v>
       </c>
-      <c r="AK7">
+      <c r="AQ7">
         <v>1.941795893156639</v>
       </c>
-      <c r="AL7">
+      <c r="AR7">
         <v>-0.4878460368354194</v>
       </c>
-      <c r="AM7">
+      <c r="AS7">
         <v>-0.929035404150185</v>
       </c>
-      <c r="AN7">
+      <c r="AT7">
         <v>-0.8492497444352084</v>
       </c>
-      <c r="AO7">
+      <c r="AU7">
         <v>-0.2357515893246583</v>
       </c>
-      <c r="AP7">
+      <c r="AV7">
         <v>-0.1738678916609658</v>
       </c>
-      <c r="AQ7">
+      <c r="AW7">
         <v>-0.9054192978874812</v>
       </c>
-      <c r="AR7">
+      <c r="AX7">
         <v>-0.3956242478987219</v>
       </c>
-      <c r="AS7">
-        <v>0.7059425900298402</v>
-      </c>
-      <c r="AU7">
+      <c r="AZ7">
         <v>0.6559292138648641</v>
       </c>
-      <c r="AV7">
+      <c r="BA7">
         <v>-0.5309530288873089</v>
       </c>
-      <c r="AW7">
+      <c r="BB7">
         <v>3.522255599589863</v>
-      </c>
-      <c r="AX7">
-        <v>-0.1703148405331999</v>
-      </c>
-      <c r="BA7">
-        <v>-0.3158057714911197</v>
       </c>
     </row>
   </sheetData>
@@ -3703,249 +3538,279 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.598723444337138</v>
+        <v>0.3296603191407701</v>
       </c>
       <c r="C2">
-        <v>8.884159523040678</v>
+        <v>7.607194817490235</v>
       </c>
       <c r="D2">
-        <v>-0.0004172162342559312</v>
+        <v>7.728122933146121</v>
       </c>
       <c r="E2">
-        <v>6.765654001771132</v>
+        <v>7.002176291537233</v>
       </c>
       <c r="F2">
-        <v>5.204651650960755</v>
+        <v>6.722559889533247</v>
       </c>
       <c r="G2">
-        <v>4.884641120545216</v>
+        <v>8.091683117621908</v>
       </c>
       <c r="H2">
-        <v>-0.1094488539841212</v>
+        <v>7.090444231679342</v>
       </c>
       <c r="I2">
-        <v>1.182726835982149</v>
+        <v>6.014854420229931</v>
       </c>
       <c r="J2">
-        <v>0.7663907023045956</v>
+        <v>5.913124903788237</v>
       </c>
       <c r="K2">
-        <v>0.1532117890172575</v>
+        <v>2.191644330379332</v>
       </c>
       <c r="L2">
-        <v>-0.2558102287752875</v>
+        <v>2.452793943130414</v>
       </c>
       <c r="M2">
-        <v>-0.3842968663169468</v>
+        <v>1.231754615517668</v>
       </c>
       <c r="N2">
-        <v>-0.3639528848287876</v>
+        <v>1.269279739142317</v>
       </c>
       <c r="O2">
-        <v>-0.6383553051475742</v>
+        <v>0.7137883422623288</v>
       </c>
       <c r="P2">
-        <v>-0.4763628617916895</v>
+        <v>0.734132323750488</v>
       </c>
       <c r="Q2">
-        <v>-0.2187138375021365</v>
+        <v>0.5298018505347537</v>
       </c>
       <c r="R2">
-        <v>7.570386879942415</v>
+        <v>0.6589046466138117</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>0.3244852376837802</v>
+      </c>
       <c r="C3">
-        <v>6.271780151670569</v>
+        <v>6.971752051114541</v>
       </c>
       <c r="D3">
-        <v>0.03706672439305822</v>
+        <v>7.181482420175956</v>
       </c>
       <c r="E3">
-        <v>9.877343231792514</v>
+        <v>7.005483339446334</v>
       </c>
       <c r="F3">
-        <v>4.618988756214164</v>
+        <v>7.347239388767625</v>
       </c>
       <c r="G3">
-        <v>3.945712769717209</v>
+        <v>8.423921638456504</v>
       </c>
       <c r="H3">
-        <v>-0.1212330266058801</v>
+        <v>7.839723938535279</v>
       </c>
       <c r="I3">
-        <v>0.8246039988091252</v>
+        <v>5.214740225814023</v>
       </c>
       <c r="J3">
-        <v>0.5177861770497234</v>
+        <v>5.090650467891878</v>
       </c>
       <c r="K3">
-        <v>0.02565122775383427</v>
+        <v>1.835600133481228</v>
       </c>
       <c r="L3">
-        <v>-0.2863036854331391</v>
+        <v>2.014417079891322</v>
       </c>
       <c r="M3">
-        <v>-0.4331263862571195</v>
+        <v>1.084903458018339</v>
       </c>
       <c r="N3">
-        <v>-0.4492676426338248</v>
+        <v>1.132711065673662</v>
       </c>
       <c r="O3">
-        <v>-0.6562732179565456</v>
+        <v>0.6423328508399366</v>
       </c>
       <c r="P3">
-        <v>-0.5181260864112246</v>
+        <v>0.6261915944632312</v>
       </c>
       <c r="Q3">
-        <v>-0.2331960362859314</v>
+        <v>0.4726699849059673</v>
       </c>
       <c r="R3">
-        <v>5.935172216695203</v>
+        <v>0.5896842798574651</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>0.3251991258713444</v>
+      </c>
       <c r="C4">
-        <v>5.565809084746518</v>
+        <v>7.227610240861648</v>
       </c>
       <c r="D4">
-        <v>0.01991347682875193</v>
+        <v>8.204562606124053</v>
       </c>
       <c r="E4">
-        <v>4.867285377018603</v>
+        <v>7.820145152460407</v>
       </c>
       <c r="F4">
-        <v>4.450485493009343</v>
+        <v>5.892466341169427</v>
       </c>
       <c r="G4">
-        <v>3.89177004226206</v>
+        <v>6.160749714194783</v>
       </c>
       <c r="H4">
-        <v>-0.1379403579662106</v>
+        <v>6.339080013451767</v>
       </c>
       <c r="I4">
-        <v>0.8121138850871681</v>
+        <v>5.180290929122628</v>
       </c>
       <c r="J4">
-        <v>0.5140643372696264</v>
+        <v>5.030508234322499</v>
       </c>
       <c r="K4">
-        <v>-0.04808378973576734</v>
+        <v>1.829316559547337</v>
       </c>
       <c r="L4">
-        <v>-0.3271230992658724</v>
+        <v>2.074793805046334</v>
       </c>
       <c r="M4">
-        <v>-0.4810371449659721</v>
+        <v>1.033002932219159</v>
       </c>
       <c r="N4">
-        <v>-0.4844538108027234</v>
+        <v>1.078592944592312</v>
       </c>
       <c r="O4">
-        <v>-0.6722266870790489</v>
+        <v>0.6058695207428427</v>
       </c>
       <c r="P4">
-        <v>-0.5848709751656606</v>
+        <v>0.6024528549060915</v>
       </c>
       <c r="Q4">
-        <v>-0.2649892346223947</v>
+        <v>0.4557975144415266</v>
+      </c>
+      <c r="R4">
+        <v>0.524463430635795</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
         <v>0</v>
       </c>
+      <c r="B5">
+        <v>0.4291524978073202</v>
+      </c>
+      <c r="C5">
+        <v>5.40281683288105</v>
+      </c>
       <c r="D5">
-        <v>0.006765284640481984</v>
+        <v>5.299282098401393</v>
       </c>
       <c r="E5">
-        <v>5.505016448308531</v>
+        <v>6.22432668209168</v>
       </c>
       <c r="F5">
-        <v>4.327506516657974</v>
+        <v>6.803495292740686</v>
       </c>
       <c r="G5">
-        <v>3.705487872823189</v>
+        <v>6.786384585995152</v>
       </c>
       <c r="H5">
-        <v>-0.04049432212510903</v>
+        <v>5.553139349503119</v>
       </c>
       <c r="I5">
-        <v>1.742956991232057</v>
+        <v>4.938623207221142</v>
       </c>
       <c r="J5">
-        <v>1.131322023186363</v>
+        <v>5.004419677264226</v>
       </c>
       <c r="K5">
-        <v>0.4447021149396336</v>
+        <v>2.763191183787661</v>
       </c>
       <c r="L5">
-        <v>-0.03422062996650074</v>
+        <v>2.968294235586116</v>
       </c>
       <c r="M5">
-        <v>-0.1688139227339628</v>
+        <v>1.489147027617968</v>
       </c>
       <c r="N5">
-        <v>-0.2094150438340742</v>
+        <v>1.618152000468391</v>
       </c>
       <c r="O5">
-        <v>-0.4756130125365335</v>
+        <v>0.9179340666752709</v>
       </c>
       <c r="P5">
-        <v>-0.2900938267263956</v>
+        <v>0.8773329455751595</v>
       </c>
       <c r="Q5">
-        <v>-0.07806587869010696</v>
+        <v>0.7221838528578617</v>
       </c>
       <c r="R5">
-        <v>4.720844772482351</v>
+        <v>0.8284992157943516</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
         <v>0</v>
       </c>
+      <c r="B6">
+        <v>0.7789980830304857</v>
+      </c>
+      <c r="C6">
+        <v>3.385491074810341</v>
+      </c>
       <c r="D6">
-        <v>-0.06095323466960551</v>
+        <v>3.015813041263556</v>
+      </c>
+      <c r="E6">
+        <v>4.135569588817398</v>
+      </c>
+      <c r="F6">
+        <v>4.14626534038717</v>
       </c>
       <c r="G6">
-        <v>1.446307218087942</v>
+        <v>4.601343754802558</v>
       </c>
       <c r="H6">
-        <v>-0.1929384571511742</v>
+        <v>4.083741773674405</v>
       </c>
       <c r="I6">
-        <v>2.346687143862821</v>
+        <v>3.324582366591025</v>
       </c>
       <c r="J6">
-        <v>1.481270643051965</v>
+        <v>2.378479853025953</v>
       </c>
       <c r="K6">
-        <v>0.9873053382228408</v>
+        <v>3.162615780609991</v>
       </c>
       <c r="L6">
-        <v>0.4760985904094073</v>
+        <v>2.773284218380979</v>
       </c>
       <c r="M6">
-        <v>0.3808350503168544</v>
+        <v>2.139960449682975</v>
       </c>
       <c r="N6">
-        <v>0.3974905629490362</v>
+        <v>2.306440842563572</v>
       </c>
       <c r="O6">
-        <v>-0.138821827589935</v>
+        <v>1.514381750740383</v>
       </c>
       <c r="P6">
-        <v>0.1158946490706902</v>
+        <v>1.531037263372565</v>
       </c>
       <c r="Q6">
-        <v>0.1814937492750197</v>
+        <v>1.130052175388308</v>
+      </c>
+      <c r="R6">
+        <v>1.319589466339948</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3953,40 +3818,55 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-0.5637876112982098</v>
+        <v>0.4764201009792872</v>
+      </c>
+      <c r="C7">
+        <v>0.1815097644601263</v>
       </c>
       <c r="D7">
-        <v>-0.2943940900936612</v>
+        <v>0.4359396741651137</v>
+      </c>
+      <c r="E7">
+        <v>0.7929579290142199</v>
       </c>
       <c r="F7">
-        <v>-1.056675155008143</v>
+        <v>0.2582357668803111</v>
+      </c>
+      <c r="G7">
+        <v>0.9091671920151991</v>
       </c>
       <c r="H7">
-        <v>-0.2616978585268205</v>
+        <v>0.8266671493369104</v>
+      </c>
+      <c r="I7">
+        <v>0.1723149028879223</v>
       </c>
       <c r="J7">
-        <v>3.915099249005633</v>
+        <v>2.073643555256353</v>
       </c>
       <c r="K7">
-        <v>-0.9850107357573641</v>
+        <v>1.009592932607766</v>
       </c>
       <c r="L7">
-        <v>-0.552358211575849</v>
+        <v>1.976478106736096</v>
       </c>
       <c r="M7">
-        <v>-1.220435895200582</v>
+        <v>1.615144045812054</v>
       </c>
       <c r="N7">
-        <v>-1.328109915194899</v>
+        <v>0.2839116960081089</v>
       </c>
       <c r="O7">
-        <v>-1.254153802146641</v>
+        <v>0.1363096451118474</v>
       </c>
       <c r="P7">
-        <v>-0.2717627788550755</v>
+        <v>0.02863562511753045</v>
       </c>
       <c r="Q7">
-        <v>3.136752930077993</v>
+        <v>-0.1853468002619424</v>
+      </c>
+      <c r="R7">
+        <v>0.7854223332927206</v>
       </c>
     </row>
   </sheetData>

--- a/combined_dataframes.xlsx
+++ b/combined_dataframes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>Wavelength</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>STDMaterial_18</t>
-  </si>
-  <si>
-    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -651,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,65 +1008,6 @@
         <v>275.8496933333333</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>1000.111</v>
-      </c>
-      <c r="B7">
-        <v>68.44456666666666</v>
-      </c>
-      <c r="C7">
-        <v>42.50425</v>
-      </c>
-      <c r="D7">
-        <v>57.08346</v>
-      </c>
-      <c r="E7">
-        <v>44.26014</v>
-      </c>
-      <c r="F7">
-        <v>30.97146333333333</v>
-      </c>
-      <c r="G7">
-        <v>52.86748</v>
-      </c>
-      <c r="H7">
-        <v>27.57355</v>
-      </c>
-      <c r="I7">
-        <v>29.94484</v>
-      </c>
-      <c r="J7">
-        <v>57.610755</v>
-      </c>
-      <c r="K7">
-        <v>8.605320000000001</v>
-      </c>
-      <c r="L7">
-        <v>24.93896</v>
-      </c>
-      <c r="M7">
-        <v>9.48343</v>
-      </c>
-      <c r="N7">
-        <v>13.611025</v>
-      </c>
-      <c r="O7">
-        <v>51.52733666666666</v>
-      </c>
-      <c r="P7">
-        <v>59.72284</v>
-      </c>
-      <c r="Q7">
-        <v>66.51241</v>
-      </c>
-      <c r="R7">
-        <v>82.38233</v>
-      </c>
-      <c r="S7">
-        <v>31.20573333333333</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1077,7 +1015,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC7"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1977,119 +1915,6 @@
         <v>228.95901</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
-      <c r="A7">
-        <v>1000.111</v>
-      </c>
-      <c r="B7">
-        <v>41.62532</v>
-      </c>
-      <c r="C7">
-        <v>81.50281</v>
-      </c>
-      <c r="D7">
-        <v>82.20556999999999</v>
-      </c>
-      <c r="E7">
-        <v>57.61047</v>
-      </c>
-      <c r="F7">
-        <v>20.54805</v>
-      </c>
-      <c r="G7">
-        <v>49.35423</v>
-      </c>
-      <c r="J7">
-        <v>57.08346</v>
-      </c>
-      <c r="M7">
-        <v>44.26014</v>
-      </c>
-      <c r="N7">
-        <v>71.48875</v>
-      </c>
-      <c r="O7">
-        <v>13.34719</v>
-      </c>
-      <c r="P7">
-        <v>8.07845</v>
-      </c>
-      <c r="R7">
-        <v>52.86748</v>
-      </c>
-      <c r="T7">
-        <v>27.57355</v>
-      </c>
-      <c r="X7">
-        <v>23.00695</v>
-      </c>
-      <c r="Y7">
-        <v>36.88273</v>
-      </c>
-      <c r="Z7">
-        <v>68.15085000000001</v>
-      </c>
-      <c r="AA7">
-        <v>47.07066</v>
-      </c>
-      <c r="AC7">
-        <v>8.605320000000001</v>
-      </c>
-      <c r="AF7">
-        <v>24.93896</v>
-      </c>
-      <c r="AJ7">
-        <v>9.48343</v>
-      </c>
-      <c r="AL7">
-        <v>1.58054</v>
-      </c>
-      <c r="AM7">
-        <v>25.64151</v>
-      </c>
-      <c r="AO7">
-        <v>120.334</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>34.24801</v>
-      </c>
-      <c r="AR7">
-        <v>5.97099</v>
-      </c>
-      <c r="AS7">
-        <v>67.79949000000001</v>
-      </c>
-      <c r="AT7">
-        <v>105.39804</v>
-      </c>
-      <c r="AU7">
-        <v>97.31551</v>
-      </c>
-      <c r="AV7">
-        <v>52.69182</v>
-      </c>
-      <c r="AW7">
-        <v>49.5299</v>
-      </c>
-      <c r="AX7">
-        <v>102.93811</v>
-      </c>
-      <c r="AY7">
-        <v>61.82655</v>
-      </c>
-      <c r="BA7">
-        <v>21.60186</v>
-      </c>
-      <c r="BB7">
-        <v>70.78603</v>
-      </c>
-      <c r="BC7">
-        <v>1.22931</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2097,7 +1922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2164,7 +1989,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>630.188</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.001724963836062461</v>
@@ -2217,7 +2042,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
-        <v>710.104</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.01952907923740375</v>
@@ -2273,7 +2098,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4">
-        <v>800.131</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.0107537697827067</v>
@@ -2329,7 +2154,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5">
-        <v>905.029</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0.01060824267020598</v>
@@ -2388,7 +2213,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
-        <v>940.061</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.05236407850460666</v>
@@ -2428,41 +2253,6 @@
       </c>
       <c r="S6">
         <v>0.1630599946910611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>1000.111</v>
-      </c>
-      <c r="B7">
-        <v>0.3904403477507102</v>
-      </c>
-      <c r="C7">
-        <v>0.5559656730549188</v>
-      </c>
-      <c r="F7">
-        <v>1.141816039754351</v>
-      </c>
-      <c r="I7">
-        <v>0.3337169775271709</v>
-      </c>
-      <c r="J7">
-        <v>0.2616816606866113</v>
-      </c>
-      <c r="N7">
-        <v>1.970314835051048</v>
-      </c>
-      <c r="P7">
-        <v>1.545934469471649</v>
-      </c>
-      <c r="Q7">
-        <v>0.3733519843742963</v>
-      </c>
-      <c r="R7">
-        <v>0.3604795368623867</v>
-      </c>
-      <c r="S7">
-        <v>2.083787280955262</v>
       </c>
     </row>
   </sheetData>
@@ -2472,996 +2262,904 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:55">
       <c r="A2">
+        <v>630.188</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-0.0009868510245363523</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.002369456689062963</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.321177658068397</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.334610284186732</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.3346329826127608</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8.271734338524011</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7.212069606881336</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10.5908753375122</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7.064420471035114</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>7.104429508065826</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6.910254081720142</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6.72301976646716</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>8.092142994555823</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6.751293942620885</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7.069335002800199</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>7.646384411928474</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5.781068503813306</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>6.251196042384491</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>6.070646474332196</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>5.647660769122093</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>6.36142102139537</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>5.858760701974419</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2.160652823311019</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2.194846345568148</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2.221752221235033</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2.445671313876951</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2.494606978787585</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2.420884934807099</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1.226400344504993</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1.232453988382594</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1.237821799711515</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1.285854664692653</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>1.256341272787208</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>1.267245336765769</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>0.7169090825445777</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>0.7228491495566002</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>0.7030893371885647</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>0.7438308805416863</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>0.7280710238081137</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>0.7319420670612602</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0.5291258656977472</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>0.5297452748983102</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>0.5319161883958456</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>0.6854918213014732</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>0.6558612851468613</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>0.6373295356540289</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:55">
       <c r="A3">
+        <v>710.104</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.03527755258783717</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.03215688636863803</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3521547401396932</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3422254185756777</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.3461522266550301</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>12.27497424921892</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6.30350266697805</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6.551219073004707</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9.502349937384105</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7.225017864312048</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>7.02783389743097</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>6.79837156257643</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7.7001910655189</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>8.04080832617964</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>9.877047916339993</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>7.880460419087207</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>11.17634297927583</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>7.187274927320402</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>5.565268254081594</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>5.242696790752963</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>4.986055734295956</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>5.213947702742479</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4.950447934244662</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>5.196917576111406</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1.858502094329916</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1.858708955848912</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1.856642319914637</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2.066007531363974</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2.013633823405331</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2.031369168381267</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1.103650881377462</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1.107652578497324</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1.110470333450653</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1.15289961092246</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>1.163563588809684</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>1.148779821474097</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>0.6683759443818894</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>0.6610043702662816</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>0.6646834968210266</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>0.6419677404789425</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>0.6404484425534448</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0.6633742292551066</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>0.5014537847257093</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>0.4888927903535583</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>0.4947545510512887</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>0.6368470240465879</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>0.6133229747616171</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>0.5865676943124826</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:55">
       <c r="A4">
+        <v>800.131</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.02144254092336376</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.01216825791178978</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3266684479855524</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3384215441849036</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3440814590572777</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6.791067641750565</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>8.070543706253178</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8.349261066076865</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.097943022434288</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>7.831310186146149</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6.704677473884654</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>5.464640693553923</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6.704677473884654</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>7.127558030604622</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>5.464640693553923</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>7.538315484663701</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5.831992439163377</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>6.334273178367257</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5.201134398847057</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>5.427409397771441</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>4.992757328963292</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>5.26283146579071</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>4.773271159006398</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5.15760367342838</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1.865189578994434</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1.828300269739079</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1.82840538107907</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2.09717633028342</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2.048277982571045</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2.113581835994198</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1.053766922316019</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1.032792623102875</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1.046057003568155</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1.071500268853276</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>1.098304388054219</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>1.099722870674653</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>0.612302942770254</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>0.6113415128449541</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>0.6275416624151797</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>0.6280608853753045</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>0.6056226521514031</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>0.6073258119509334</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>0.4714676797787611</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>0.473734774891326</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>0.4557809501659731</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>0.5505601740692386</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>0.5358862093517571</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>0.5206625184892706</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:55">
       <c r="A5">
+        <v>905.029</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-0.002197188214864343</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.01717662711178382</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4330045164129592</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.4194023158881378</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.4501551237138702</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.084954748651293</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7.873189521189055</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.979885428025235</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6.369080173989713</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4.800305204556098</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>7.733427455026388</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>5.653909786930866</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>6.31501058852859</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>7.82440111951963</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>10.86895880789553</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>6.106703110172253</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>5.426405771220866</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>5.709794862116025</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>5.151761973549949</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>5.475201074491629</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>4.473393615964602</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>5.606150901558078</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>4.638214755729734</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2.703027625310849</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2.930760140926376</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2.688602283713438</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2.902551432941729</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3.014641172775545</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3.006508210565505</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1.485825586319976</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1.516244937192256</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1.480606853201056</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1.61734536519812</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>1.599121438917284</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>1.653623857129413</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>0.9548702762228773</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>0.8999113875581437</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.9146933478751004</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.8517684037259662</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.8866381500159414</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>0.909300938432563</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>0.7123219342604135</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>0.7503292663184096</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.7191764120959206</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.876046724803855</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.8159040475761727</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>0.8097464890500682</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:55">
       <c r="A6">
+        <v>940.061</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-0.09135310030747056</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.09002684272401879</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.8021053032240173</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.8049390032478694</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.5652512580647395</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.950981637531783</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.926144429905822</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.954448467996935</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4.074205015550776</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4.084900767120548</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>4.539979181535936</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>4.022377200407783</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3.402521651905551</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>3.140967986227732</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2.198895888689364</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2.435234019039055</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2.331296908075263</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2.920310762152936</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>7.518939402927136</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2.519262370349024</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>4.063622453503275</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>2.157344654840557</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2.111451727002341</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>2.278687789603264</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1.884949969586585</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>2.053362458677017</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>2.666722014784512</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>2.120463433587223</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>1.498975224973961</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>1.525262779930308</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>1.344507596696353</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>1.351480374278677</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>1.632340245672732</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>1.44530619083949</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>1.045232090138032</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>0.9650479096043314</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>1.211327189248919</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>1.232226114806656</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>1.124002912863534</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>1.444538029176422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-0.671928862221308</v>
-      </c>
-      <c r="C7">
-        <v>-0.6805144253648557</v>
-      </c>
-      <c r="D7">
-        <v>-0.3249956860581171</v>
-      </c>
-      <c r="E7">
-        <v>0.7059425900298402</v>
-      </c>
-      <c r="F7">
-        <v>-0.1703148405331999</v>
-      </c>
-      <c r="I7">
-        <v>-0.3158057714911197</v>
-      </c>
-      <c r="L7">
-        <v>-0.06137586178613235</v>
-      </c>
-      <c r="M7">
-        <v>-0.5408314587042193</v>
-      </c>
-      <c r="N7">
-        <v>1.137402760159347</v>
-      </c>
-      <c r="O7">
-        <v>1.63950861351096</v>
-      </c>
-      <c r="Q7">
-        <v>-0.2390797690709351</v>
-      </c>
-      <c r="S7">
-        <v>0.4118516560639531</v>
-      </c>
-      <c r="W7">
-        <v>0.5929122917618943</v>
-      </c>
-      <c r="X7">
-        <v>0.1209652161488118</v>
-      </c>
-      <c r="Y7">
-        <v>-0.493014994593176</v>
-      </c>
-      <c r="Z7">
-        <v>-0.122941241025856</v>
-      </c>
-      <c r="AB7">
-        <v>1.576328019305107</v>
-      </c>
-      <c r="AE7">
-        <v>0.5122773966565201</v>
-      </c>
-      <c r="AI7">
-        <v>1.47916257078485</v>
-      </c>
-      <c r="AK7">
-        <v>3.270942075158769</v>
-      </c>
-      <c r="AL7">
-        <v>0.4844961132846687</v>
-      </c>
-      <c r="AN7">
-        <v>-1.061562573856884</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP7">
-        <v>0.1950801751282898</v>
-      </c>
-      <c r="AQ7">
-        <v>1.941795893156639</v>
-      </c>
-      <c r="AR7">
-        <v>-0.4878460368354194</v>
-      </c>
-      <c r="AS7">
-        <v>-0.929035404150185</v>
-      </c>
-      <c r="AT7">
-        <v>-0.8492497444352084</v>
-      </c>
-      <c r="AU7">
-        <v>-0.2357515893246583</v>
-      </c>
-      <c r="AV7">
-        <v>-0.1738678916609658</v>
-      </c>
-      <c r="AW7">
-        <v>-0.9054192978874812</v>
-      </c>
-      <c r="AX7">
-        <v>-0.3956242478987219</v>
-      </c>
-      <c r="AZ7">
-        <v>0.6559292138648641</v>
-      </c>
-      <c r="BA7">
-        <v>-0.5309530288873089</v>
-      </c>
-      <c r="BB7">
-        <v>3.522255599589863</v>
       </c>
     </row>
   </sheetData>
@@ -3471,402 +3169,364 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
+        <v>630.188</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.3296603191407701</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>7.607194817490235</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7.728122933146121</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.002176291537233</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6.722559889533247</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8.091683117621908</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7.090444231679342</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6.014854420229931</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5.913124903788237</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2.191644330379332</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2.452793943130414</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.231754615517668</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1.269279739142317</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.7137883422623288</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.734132323750488</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.5298018505347537</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.6589046466138117</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
+        <v>710.104</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.3244852376837802</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6.971752051114541</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7.181482420175956</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7.005483339446334</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7.347239388767625</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8.423921638456504</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>7.839723938535279</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5.214740225814023</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5.090650467891878</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.835600133481228</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.014417079891322</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.084903458018339</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.132711065673662</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.6423328508399366</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.6261915944632312</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.4726699849059673</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.5896842798574651</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
+        <v>800.131</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.3251991258713444</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7.227610240861648</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>8.204562606124053</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7.820145152460407</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.892466341169427</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6.160749714194783</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.339080013451767</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5.180290929122628</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5.030508234322499</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.829316559547337</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2.074793805046334</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.033002932219159</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.078592944592312</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.6058695207428427</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.6024528549060915</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.4557975144415266</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.524463430635795</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
+        <v>905.029</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.4291524978073202</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.40281683288105</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5.299282098401393</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6.22432668209168</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.803495292740686</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>6.786384585995152</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.553139349503119</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4.938623207221142</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5.004419677264226</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.763191183787661</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2.968294235586116</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1.489147027617968</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.618152000468391</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.9179340666752709</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.8773329455751595</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.7221838528578617</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.8284992157943516</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
+        <v>940.061</v>
+      </c>
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.7789980830304857</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3.385491074810341</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.015813041263556</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4.135569588817398</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4.14626534038717</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.601343754802558</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4.083741773674405</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.324582366591025</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2.378479853025953</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3.162615780609991</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.773284218380979</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.139960449682975</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2.306440842563572</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.514381750740383</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.531037263372565</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.130052175388308</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.319589466339948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0.4764201009792872</v>
-      </c>
-      <c r="C7">
-        <v>0.1815097644601263</v>
-      </c>
-      <c r="D7">
-        <v>0.4359396741651137</v>
-      </c>
-      <c r="E7">
-        <v>0.7929579290142199</v>
-      </c>
-      <c r="F7">
-        <v>0.2582357668803111</v>
-      </c>
-      <c r="G7">
-        <v>0.9091671920151991</v>
-      </c>
-      <c r="H7">
-        <v>0.8266671493369104</v>
-      </c>
-      <c r="I7">
-        <v>0.1723149028879223</v>
-      </c>
-      <c r="J7">
-        <v>2.073643555256353</v>
-      </c>
-      <c r="K7">
-        <v>1.009592932607766</v>
-      </c>
-      <c r="L7">
-        <v>1.976478106736096</v>
-      </c>
-      <c r="M7">
-        <v>1.615144045812054</v>
-      </c>
-      <c r="N7">
-        <v>0.2839116960081089</v>
-      </c>
-      <c r="O7">
-        <v>0.1363096451118474</v>
-      </c>
-      <c r="P7">
-        <v>0.02863562511753045</v>
-      </c>
-      <c r="Q7">
-        <v>-0.1853468002619424</v>
-      </c>
-      <c r="R7">
-        <v>0.7854223332927206</v>
       </c>
     </row>
   </sheetData>

--- a/combined_dataframes.xlsx
+++ b/combined_dataframes.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Standard Deviations" sheetId="3" r:id="rId3"/>
     <sheet name="Absorbance Sample" sheetId="4" r:id="rId4"/>
     <sheet name="Absorbance Material" sheetId="5" r:id="rId5"/>
+    <sheet name="Adjusted Absorbance Material" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
   <si>
     <t>Wavelength</t>
   </si>
@@ -291,6 +292,54 @@
   </si>
   <si>
     <t>STDMaterial_18</t>
+  </si>
+  <si>
+    <t>Material_3_minus_12.8</t>
+  </si>
+  <si>
+    <t>Material_4_minus_12.8</t>
+  </si>
+  <si>
+    <t>Material_5_minus_6.4</t>
+  </si>
+  <si>
+    <t>Material_6_minus_6.4</t>
+  </si>
+  <si>
+    <t>Material_7_minus_3.2</t>
+  </si>
+  <si>
+    <t>Material_8_minus_3.2</t>
+  </si>
+  <si>
+    <t>Material_9_minus_1.6</t>
+  </si>
+  <si>
+    <t>Material_10_minus_1.6</t>
+  </si>
+  <si>
+    <t>Material_11_minus_0.8</t>
+  </si>
+  <si>
+    <t>Material_12_minus_0.8</t>
+  </si>
+  <si>
+    <t>Material_13_minus_0.4</t>
+  </si>
+  <si>
+    <t>Material_14_minus_0.4</t>
+  </si>
+  <si>
+    <t>Material_15_minus_0.2</t>
+  </si>
+  <si>
+    <t>Material_16_minus_0.2</t>
+  </si>
+  <si>
+    <t>Material_17_minus_0.1</t>
+  </si>
+  <si>
+    <t>Material_18_minus_0.1</t>
   </si>
 </sst>
 </file>
@@ -3532,4 +3581,335 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>630.188</v>
+      </c>
+      <c r="B2">
+        <v>-0.06046405782794295</v>
+      </c>
+      <c r="C2">
+        <v>0.06046405782794295</v>
+      </c>
+      <c r="D2">
+        <v>0.1398082010019932</v>
+      </c>
+      <c r="E2">
+        <v>-0.1398082010019932</v>
+      </c>
+      <c r="F2">
+        <v>0.5006194429712831</v>
+      </c>
+      <c r="G2">
+        <v>-0.5006194429712831</v>
+      </c>
+      <c r="H2">
+        <v>0.0508647582208468</v>
+      </c>
+      <c r="I2">
+        <v>-0.0508647582208468</v>
+      </c>
+      <c r="J2">
+        <v>-0.1305748063755403</v>
+      </c>
+      <c r="K2">
+        <v>0.1305748063755408</v>
+      </c>
+      <c r="L2">
+        <v>-0.01876256181232439</v>
+      </c>
+      <c r="M2">
+        <v>0.01876256181232461</v>
+      </c>
+      <c r="N2">
+        <v>-0.0101719907440796</v>
+      </c>
+      <c r="O2">
+        <v>0.0101719907440796</v>
+      </c>
+      <c r="P2">
+        <v>-0.06455139803952892</v>
+      </c>
+      <c r="Q2">
+        <v>0.06455139803952903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>710.104</v>
+      </c>
+      <c r="B3">
+        <v>-0.1048651845307083</v>
+      </c>
+      <c r="C3">
+        <v>0.1048651845307074</v>
+      </c>
+      <c r="D3">
+        <v>-0.1708780246606452</v>
+      </c>
+      <c r="E3">
+        <v>0.1708780246606461</v>
+      </c>
+      <c r="F3">
+        <v>0.2920988499606114</v>
+      </c>
+      <c r="G3">
+        <v>-0.2920988499606132</v>
+      </c>
+      <c r="H3">
+        <v>0.06204487896107125</v>
+      </c>
+      <c r="I3">
+        <v>-0.06204487896107302</v>
+      </c>
+      <c r="J3">
+        <v>-0.08940847320504708</v>
+      </c>
+      <c r="K3">
+        <v>0.08940847320504686</v>
+      </c>
+      <c r="L3">
+        <v>-0.02390380382766111</v>
+      </c>
+      <c r="M3">
+        <v>0.02390380382766133</v>
+      </c>
+      <c r="N3">
+        <v>0.008070628188352691</v>
+      </c>
+      <c r="O3">
+        <v>-0.008070628188352691</v>
+      </c>
+      <c r="P3">
+        <v>-0.05850714747574881</v>
+      </c>
+      <c r="Q3">
+        <v>0.05850714747574892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>800.131</v>
+      </c>
+      <c r="B4">
+        <v>-0.4884761826312021</v>
+      </c>
+      <c r="C4">
+        <v>0.488476182631203</v>
+      </c>
+      <c r="D4">
+        <v>0.9638394056454906</v>
+      </c>
+      <c r="E4">
+        <v>-0.9638394056454898</v>
+      </c>
+      <c r="F4">
+        <v>-0.08916514962849131</v>
+      </c>
+      <c r="G4">
+        <v>0.0891651496284922</v>
+      </c>
+      <c r="H4">
+        <v>0.07489134740006431</v>
+      </c>
+      <c r="I4">
+        <v>-0.07489134740006431</v>
+      </c>
+      <c r="J4">
+        <v>-0.1227386227494984</v>
+      </c>
+      <c r="K4">
+        <v>0.1227386227494982</v>
+      </c>
+      <c r="L4">
+        <v>-0.02279500618657604</v>
+      </c>
+      <c r="M4">
+        <v>0.02279500618657671</v>
+      </c>
+      <c r="N4">
+        <v>0.001708332918375688</v>
+      </c>
+      <c r="O4">
+        <v>-0.001708332918375577</v>
+      </c>
+      <c r="P4">
+        <v>-0.03433295809713421</v>
+      </c>
+      <c r="Q4">
+        <v>0.03433295809713421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>905.029</v>
+      </c>
+      <c r="B5">
+        <v>0.05176736723982867</v>
+      </c>
+      <c r="C5">
+        <v>-0.05176736723982867</v>
+      </c>
+      <c r="D5">
+        <v>-0.2895843053245022</v>
+      </c>
+      <c r="E5">
+        <v>0.2895843053245031</v>
+      </c>
+      <c r="F5">
+        <v>0.6166226182460166</v>
+      </c>
+      <c r="G5">
+        <v>-0.6166226182460166</v>
+      </c>
+      <c r="H5">
+        <v>-0.0328982350215421</v>
+      </c>
+      <c r="I5">
+        <v>0.03289823502154121</v>
+      </c>
+      <c r="J5">
+        <v>-0.1025515258992273</v>
+      </c>
+      <c r="K5">
+        <v>0.1025515258992269</v>
+      </c>
+      <c r="L5">
+        <v>-0.06450248642521128</v>
+      </c>
+      <c r="M5">
+        <v>0.06450248642521128</v>
+      </c>
+      <c r="N5">
+        <v>0.02030056055005569</v>
+      </c>
+      <c r="O5">
+        <v>-0.02030056055005569</v>
+      </c>
+      <c r="P5">
+        <v>-0.05315768146824495</v>
+      </c>
+      <c r="Q5">
+        <v>0.05315768146824495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>940.061</v>
+      </c>
+      <c r="B6">
+        <v>0.1848390167733922</v>
+      </c>
+      <c r="C6">
+        <v>-0.1848390167733922</v>
+      </c>
+      <c r="D6">
+        <v>-0.005347875784885936</v>
+      </c>
+      <c r="E6">
+        <v>0.005347875784885936</v>
+      </c>
+      <c r="F6">
+        <v>0.258800990564076</v>
+      </c>
+      <c r="G6">
+        <v>-0.2588009905640769</v>
+      </c>
+      <c r="H6">
+        <v>0.473051256782536</v>
+      </c>
+      <c r="I6">
+        <v>-0.473051256782536</v>
+      </c>
+      <c r="J6">
+        <v>0.1946657811145065</v>
+      </c>
+      <c r="K6">
+        <v>-0.1946657811145056</v>
+      </c>
+      <c r="L6">
+        <v>-0.08324019644029823</v>
+      </c>
+      <c r="M6">
+        <v>0.08324019644029867</v>
+      </c>
+      <c r="N6">
+        <v>-0.008327756316091284</v>
+      </c>
+      <c r="O6">
+        <v>0.008327756316090618</v>
+      </c>
+      <c r="P6">
+        <v>-0.09476864547581987</v>
+      </c>
+      <c r="Q6">
+        <v>0.09476864547582009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/combined_dataframes.xlsx
+++ b/combined_dataframes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="154">
   <si>
     <t>Wavelength</t>
   </si>
@@ -77,6 +77,45 @@
     <t>Material_18</t>
   </si>
   <si>
+    <t>Material_19</t>
+  </si>
+  <si>
+    <t>Material_20</t>
+  </si>
+  <si>
+    <t>Material_21</t>
+  </si>
+  <si>
+    <t>Material_22</t>
+  </si>
+  <si>
+    <t>Material_23</t>
+  </si>
+  <si>
+    <t>Material_24</t>
+  </si>
+  <si>
+    <t>Material_25</t>
+  </si>
+  <si>
+    <t>Material_26</t>
+  </si>
+  <si>
+    <t>Material_27</t>
+  </si>
+  <si>
+    <t>Material_28</t>
+  </si>
+  <si>
+    <t>Material_29</t>
+  </si>
+  <si>
+    <t>Material_30</t>
+  </si>
+  <si>
+    <t>Material_31</t>
+  </si>
+  <si>
     <t>Sample_0</t>
   </si>
   <si>
@@ -239,6 +278,117 @@
     <t>Sample_53</t>
   </si>
   <si>
+    <t>Sample_54</t>
+  </si>
+  <si>
+    <t>Sample_55</t>
+  </si>
+  <si>
+    <t>Sample_56</t>
+  </si>
+  <si>
+    <t>Sample_57</t>
+  </si>
+  <si>
+    <t>Sample_58</t>
+  </si>
+  <si>
+    <t>Sample_59</t>
+  </si>
+  <si>
+    <t>Sample_60</t>
+  </si>
+  <si>
+    <t>Sample_61</t>
+  </si>
+  <si>
+    <t>Sample_62</t>
+  </si>
+  <si>
+    <t>Sample_63</t>
+  </si>
+  <si>
+    <t>Sample_64</t>
+  </si>
+  <si>
+    <t>Sample_65</t>
+  </si>
+  <si>
+    <t>Sample_66</t>
+  </si>
+  <si>
+    <t>Sample_67</t>
+  </si>
+  <si>
+    <t>Sample_68</t>
+  </si>
+  <si>
+    <t>Sample_69</t>
+  </si>
+  <si>
+    <t>Sample_70</t>
+  </si>
+  <si>
+    <t>Sample_71</t>
+  </si>
+  <si>
+    <t>Sample_72</t>
+  </si>
+  <si>
+    <t>Sample_73</t>
+  </si>
+  <si>
+    <t>Sample_74</t>
+  </si>
+  <si>
+    <t>Sample_75</t>
+  </si>
+  <si>
+    <t>Sample_76</t>
+  </si>
+  <si>
+    <t>Sample_77</t>
+  </si>
+  <si>
+    <t>Sample_78</t>
+  </si>
+  <si>
+    <t>Sample_79</t>
+  </si>
+  <si>
+    <t>Sample_80</t>
+  </si>
+  <si>
+    <t>Sample_81</t>
+  </si>
+  <si>
+    <t>Sample_82</t>
+  </si>
+  <si>
+    <t>Sample_83</t>
+  </si>
+  <si>
+    <t>Sample_84</t>
+  </si>
+  <si>
+    <t>Sample_85</t>
+  </si>
+  <si>
+    <t>Sample_86</t>
+  </si>
+  <si>
+    <t>Sample_87</t>
+  </si>
+  <si>
+    <t>Sample_88</t>
+  </si>
+  <si>
+    <t>Sample_89</t>
+  </si>
+  <si>
+    <t>Sample_90</t>
+  </si>
+  <si>
     <t>STDMaterial_1</t>
   </si>
   <si>
@@ -291,6 +441,45 @@
   </si>
   <si>
     <t>STDMaterial_18</t>
+  </si>
+  <si>
+    <t>STDMaterial_19</t>
+  </si>
+  <si>
+    <t>STDMaterial_20</t>
+  </si>
+  <si>
+    <t>STDMaterial_21</t>
+  </si>
+  <si>
+    <t>STDMaterial_22</t>
+  </si>
+  <si>
+    <t>STDMaterial_23</t>
+  </si>
+  <si>
+    <t>STDMaterial_24</t>
+  </si>
+  <si>
+    <t>STDMaterial_25</t>
+  </si>
+  <si>
+    <t>STDMaterial_26</t>
+  </si>
+  <si>
+    <t>STDMaterial_27</t>
+  </si>
+  <si>
+    <t>STDMaterial_28</t>
+  </si>
+  <si>
+    <t>STDMaterial_29</t>
+  </si>
+  <si>
+    <t>STDMaterial_30</t>
+  </si>
+  <si>
+    <t>STDMaterial_31</t>
   </si>
 </sst>
 </file>
@@ -648,13 +837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,359 +901,623 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>13969.45642333333</v>
+        <v>31376.17033333333</v>
       </c>
       <c r="C2">
-        <v>19.02787666666667</v>
+        <v>28387.57412333334</v>
       </c>
       <c r="D2">
-        <v>1.9357</v>
+        <v>27096.28431666667</v>
       </c>
       <c r="E2">
-        <v>13975.28592333333</v>
+        <v>32495.16871</v>
       </c>
       <c r="F2">
-        <v>16.1025</v>
+        <v>29829.80748333333</v>
       </c>
       <c r="G2">
-        <v>76.70576666666666</v>
+        <v>28183.58866</v>
       </c>
       <c r="H2">
-        <v>105.6347533333333</v>
+        <v>21471.07305</v>
       </c>
       <c r="I2">
-        <v>15585.20577</v>
+        <v>24889.04379333333</v>
       </c>
       <c r="J2">
-        <v>4280.827903333334</v>
+        <v>15871.05881</v>
       </c>
       <c r="K2">
-        <v>6491.428146666666</v>
+        <v>17151.53103666667</v>
       </c>
       <c r="L2">
-        <v>11985.06718</v>
+        <v>14284.90545</v>
       </c>
       <c r="M2">
-        <v>18041.65933</v>
+        <v>18896.46780333333</v>
       </c>
       <c r="N2">
-        <v>20515.28316333333</v>
+        <v>9782.886413333334</v>
       </c>
       <c r="O2">
-        <v>20102.13738666667</v>
+        <v>8891.240696666668</v>
       </c>
       <c r="P2">
-        <v>26449.27023</v>
+        <v>18114.21792333333</v>
       </c>
       <c r="Q2">
-        <v>22493.71921</v>
+        <v>6219.651475</v>
       </c>
       <c r="R2">
-        <v>17384.64073</v>
+        <v>8930.428033333332</v>
       </c>
       <c r="S2">
-        <v>7.201156666666667</v>
+        <v>9236.41577</v>
+      </c>
+      <c r="T2">
+        <v>17264.65565</v>
+      </c>
+      <c r="U2">
+        <v>11356.35342666667</v>
+      </c>
+      <c r="V2">
+        <v>12147.71365</v>
+      </c>
+      <c r="W2">
+        <v>16307.99177666667</v>
+      </c>
+      <c r="X2">
+        <v>19882.17342666666</v>
+      </c>
+      <c r="Y2">
+        <v>8473.099766666666</v>
+      </c>
+      <c r="Z2">
+        <v>9745.232543333334</v>
+      </c>
+      <c r="AA2">
+        <v>15422.69592</v>
+      </c>
+      <c r="AB2">
+        <v>7504.93589</v>
+      </c>
+      <c r="AC2">
+        <v>8511.537330000001</v>
+      </c>
+      <c r="AD2">
+        <v>8398.640223333334</v>
+      </c>
+      <c r="AE2">
+        <v>15792.68507</v>
+      </c>
+      <c r="AF2">
+        <v>26149.21269</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>12552.49591333333</v>
+        <v>28326.40579</v>
       </c>
       <c r="C3">
-        <v>-27.32914666666666</v>
+        <v>25271.51110666667</v>
       </c>
       <c r="D3">
-        <v>23.70994666666667</v>
+        <v>24263.77053333333</v>
       </c>
       <c r="E3">
-        <v>12095.73364333333</v>
+        <v>28736.25982666666</v>
       </c>
       <c r="F3">
-        <v>0.6442500000000001</v>
+        <v>26567.56956333333</v>
       </c>
       <c r="G3">
-        <v>123.8023133333333</v>
+        <v>25237.11180333333</v>
       </c>
       <c r="H3">
-        <v>242.73299</v>
+        <v>19227.65963666667</v>
       </c>
       <c r="I3">
-        <v>14170.36128666667</v>
+        <v>21997.82559666667</v>
       </c>
       <c r="J3">
-        <v>5503.121763333334</v>
+        <v>14379.68740333334</v>
       </c>
       <c r="K3">
-        <v>7479.256183333334</v>
+        <v>15520.08774666667</v>
       </c>
       <c r="L3">
-        <v>12234.60357666667</v>
+        <v>12767.07571333333</v>
       </c>
       <c r="M3">
-        <v>16713.60751333333</v>
+        <v>16977.07222666667</v>
       </c>
       <c r="N3">
-        <v>19356.84124333333</v>
+        <v>8956.84598</v>
       </c>
       <c r="O3">
-        <v>19671.82022</v>
+        <v>7769.156983333333</v>
       </c>
       <c r="P3">
-        <v>24196.13092666666</v>
+        <v>16162.21929</v>
       </c>
       <c r="Q3">
-        <v>21074.1171</v>
+        <v>3734.023813333333</v>
       </c>
       <c r="R3">
-        <v>15849.14506333333</v>
+        <v>8089.846373333334</v>
       </c>
       <c r="S3">
-        <v>33.19843</v>
+        <v>8523.117526666667</v>
+      </c>
+      <c r="T3">
+        <v>15202.58712</v>
+      </c>
+      <c r="U3">
+        <v>10261.72173333333</v>
+      </c>
+      <c r="V3">
+        <v>10737.81613333333</v>
+      </c>
+      <c r="W3">
+        <v>14349.12967333333</v>
+      </c>
+      <c r="X3">
+        <v>18031.4008</v>
+      </c>
+      <c r="Y3">
+        <v>7595.652536666667</v>
+      </c>
+      <c r="Z3">
+        <v>8795.422306666667</v>
+      </c>
+      <c r="AA3">
+        <v>13846.56354666667</v>
+      </c>
+      <c r="AB3">
+        <v>6686.642920000001</v>
+      </c>
+      <c r="AC3">
+        <v>7558.81859</v>
+      </c>
+      <c r="AD3">
+        <v>7523.903336666666</v>
+      </c>
+      <c r="AE3">
+        <v>14034.89243333333</v>
+      </c>
+      <c r="AF3">
+        <v>24010.65822</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>6932.285936666666</v>
+        <v>16140.61875666667</v>
       </c>
       <c r="C4">
-        <v>-8.370313333333334</v>
+        <v>13947.69509666667</v>
       </c>
       <c r="D4">
-        <v>26.52627666666666</v>
+        <v>13447.55499333333</v>
       </c>
       <c r="E4">
-        <v>6795.605430000001</v>
+        <v>16180.64927</v>
       </c>
       <c r="F4">
-        <v>53.33856</v>
+        <v>14763.82084333333</v>
       </c>
       <c r="G4">
-        <v>80.91987</v>
+        <v>14125.2873</v>
       </c>
       <c r="H4">
-        <v>141.4823333333333</v>
+        <v>10276.61122</v>
       </c>
       <c r="I4">
-        <v>7957.620139999999</v>
+        <v>12249.20795333333</v>
       </c>
       <c r="J4">
-        <v>3077.371226666667</v>
+        <v>7602.108113333333</v>
       </c>
       <c r="K4">
-        <v>4145.92234</v>
+        <v>8091.376383333333</v>
       </c>
       <c r="L4">
-        <v>7273.76042</v>
+        <v>6579.28689</v>
       </c>
       <c r="M4">
-        <v>9614.88789</v>
+        <v>9125.597896666666</v>
       </c>
       <c r="N4">
-        <v>11214.71510666666</v>
+        <v>4380.393113333334</v>
       </c>
       <c r="O4">
-        <v>11253.09757333333</v>
+        <v>3558.31828</v>
       </c>
       <c r="P4">
-        <v>13577.53117333333</v>
+        <v>8715.017273333333</v>
       </c>
       <c r="Q4">
-        <v>12441.78536333333</v>
+        <v>2982.54498</v>
       </c>
       <c r="R4">
-        <v>9035.658949999999</v>
+        <v>4130.32316</v>
       </c>
       <c r="S4">
-        <v>-19.49027333333333</v>
+        <v>3825.590373333334</v>
+      </c>
+      <c r="T4">
+        <v>8087.374589999999</v>
+      </c>
+      <c r="U4">
+        <v>5057.065963333333</v>
+      </c>
+      <c r="V4">
+        <v>5395.274886666667</v>
+      </c>
+      <c r="W4">
+        <v>7775.799196666667</v>
+      </c>
+      <c r="X4">
+        <v>9541.492173333334</v>
+      </c>
+      <c r="Y4">
+        <v>3464.603033333333</v>
+      </c>
+      <c r="Z4">
+        <v>4186.495763333333</v>
+      </c>
+      <c r="AA4">
+        <v>6946.339046666667</v>
+      </c>
+      <c r="AB4">
+        <v>2643.67723</v>
+      </c>
+      <c r="AC4">
+        <v>3320.809696666667</v>
+      </c>
+      <c r="AD4">
+        <v>3268.74859</v>
+      </c>
+      <c r="AE4">
+        <v>7020.952476666666</v>
+      </c>
+      <c r="AF4">
+        <v>13672.51557</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>3095.688013333334</v>
+        <v>6246.202053333333</v>
       </c>
       <c r="C5">
-        <v>-4.855340000000001</v>
+        <v>4751.881683333333</v>
       </c>
       <c r="D5">
-        <v>-21.94467333333334</v>
+        <v>4506.077353333333</v>
       </c>
       <c r="E5">
-        <v>3074.815486666667</v>
+        <v>6227.565466666667</v>
       </c>
       <c r="F5">
-        <v>12.58806333333333</v>
+        <v>5171.696103333333</v>
       </c>
       <c r="G5">
-        <v>40.86438666666667</v>
+        <v>4803.35256</v>
       </c>
       <c r="H5">
-        <v>76.11745333333333</v>
+        <v>3005.69006</v>
       </c>
       <c r="I5">
-        <v>3223.61855</v>
+        <v>4287.131086666667</v>
       </c>
       <c r="J5">
-        <v>541.7520733333333</v>
+        <v>1756.405063333333</v>
       </c>
       <c r="K5">
-        <v>998.6890166666666</v>
+        <v>2024.59957</v>
       </c>
       <c r="L5">
-        <v>1984.38306</v>
+        <v>1378.852786666667</v>
       </c>
       <c r="M5">
-        <v>3203.457866666667</v>
+        <v>2761.227403333333</v>
       </c>
       <c r="N5">
-        <v>3664.984486666667</v>
+        <v>670.44188</v>
       </c>
       <c r="O5">
-        <v>3816.84904</v>
+        <v>448.59349</v>
       </c>
       <c r="P5">
-        <v>4980.962733333333</v>
+        <v>2585.642756666667</v>
       </c>
       <c r="Q5">
-        <v>4137.550749999999</v>
+        <v>530.82781</v>
       </c>
       <c r="R5">
-        <v>3347.038946666667</v>
+        <v>733.9865</v>
       </c>
       <c r="S5">
-        <v>27.57530666666667</v>
+        <v>545.8022099999999</v>
+      </c>
+      <c r="T5">
+        <v>2474.983756666667</v>
+      </c>
+      <c r="U5">
+        <v>912.7629833333334</v>
+      </c>
+      <c r="V5">
+        <v>1034.489766666667</v>
+      </c>
+      <c r="W5">
+        <v>1892.539096666667</v>
+      </c>
+      <c r="X5">
+        <v>2993.01777</v>
+      </c>
+      <c r="Y5">
+        <v>437.6295833333334</v>
+      </c>
+      <c r="Z5">
+        <v>572.3164233333333</v>
+      </c>
+      <c r="AA5">
+        <v>2104.290586666667</v>
+      </c>
+      <c r="AB5">
+        <v>204.69824</v>
+      </c>
+      <c r="AC5">
+        <v>308.8027466666667</v>
+      </c>
+      <c r="AD5">
+        <v>319.46286</v>
+      </c>
+      <c r="AE5">
+        <v>2117.716543333333</v>
+      </c>
+      <c r="AF5">
+        <v>4881.72033</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>332.25372</v>
+        <v>665.5240266666666</v>
       </c>
       <c r="C6">
-        <v>-19.60666666666667</v>
+        <v>362.8526566666666</v>
       </c>
       <c r="D6">
-        <v>-12.81786666666667</v>
+        <v>315.5929333333333</v>
       </c>
       <c r="E6">
-        <v>353.1356033333333</v>
+        <v>629.3209333333333</v>
       </c>
       <c r="F6">
-        <v>-9.891603333333334</v>
+        <v>420.5624566666667</v>
       </c>
       <c r="G6">
-        <v>-17.43703</v>
+        <v>418.0946</v>
       </c>
       <c r="H6">
-        <v>78.22518666666666</v>
+        <v>182.8705066666667</v>
       </c>
       <c r="I6">
-        <v>402.96002</v>
+        <v>426.0310866666667</v>
       </c>
       <c r="J6">
-        <v>31.79190666666666</v>
+        <v>113.7178266666667</v>
       </c>
       <c r="K6">
-        <v>75.53742666666666</v>
+        <v>152.7892466666667</v>
       </c>
       <c r="L6">
-        <v>123.7908633333333</v>
+        <v>45.08103</v>
       </c>
       <c r="M6">
-        <v>206.3967533333333</v>
+        <v>192.5380533333333</v>
       </c>
       <c r="N6">
-        <v>227.02584</v>
+        <v>69.55752333333334</v>
       </c>
       <c r="O6">
-        <v>223.2759233333333</v>
+        <v>80.74890666666666</v>
       </c>
       <c r="P6">
-        <v>381.7327366666667</v>
+        <v>151.8931933333333</v>
       </c>
       <c r="Q6">
-        <v>295.8948766666667</v>
+        <v>54.536595</v>
       </c>
       <c r="R6">
-        <v>277.1073966666667</v>
+        <v>30.09151666666667</v>
       </c>
       <c r="S6">
-        <v>-7.549576666666666</v>
+        <v>33.54624666666667</v>
+      </c>
+      <c r="T6">
+        <v>167.5639833333333</v>
+      </c>
+      <c r="U6">
+        <v>79.98426666666667</v>
+      </c>
+      <c r="V6">
+        <v>91.58106333333335</v>
+      </c>
+      <c r="W6">
+        <v>120.10994</v>
+      </c>
+      <c r="X6">
+        <v>245.66585</v>
+      </c>
+      <c r="Y6">
+        <v>63.84689</v>
+      </c>
+      <c r="Z6">
+        <v>86.862475</v>
+      </c>
+      <c r="AA6">
+        <v>272.0552</v>
+      </c>
+      <c r="AC6">
+        <v>26.521115</v>
+      </c>
+      <c r="AD6">
+        <v>67.04269000000001</v>
+      </c>
+      <c r="AE6">
+        <v>195.2880033333333</v>
+      </c>
+      <c r="AF6">
+        <v>379.14977</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>1000.111</v>
       </c>
       <c r="B7">
-        <v>17.6243</v>
+        <v>58.90101333333333</v>
       </c>
       <c r="C7">
-        <v>30.97146333333333</v>
+        <v>47.77434</v>
       </c>
       <c r="D7">
-        <v>-9.300673333333334</v>
+        <v>39.98721333333333</v>
       </c>
       <c r="E7">
-        <v>23.65732333333333</v>
+        <v>36.12161</v>
       </c>
       <c r="F7">
-        <v>-9.188706666666667</v>
+        <v>18.32397666666667</v>
       </c>
       <c r="G7">
-        <v>50.70141333333333</v>
+        <v>88.24506666666667</v>
       </c>
       <c r="H7">
-        <v>-2.57548</v>
+        <v>49.88122</v>
       </c>
       <c r="I7">
-        <v>22.89632666666666</v>
+        <v>83.84670333333334</v>
       </c>
       <c r="J7">
-        <v>-15.27766</v>
+        <v>20.25584333333333</v>
       </c>
       <c r="K7">
-        <v>0.3514033333333335</v>
+        <v>48.5639</v>
       </c>
       <c r="L7">
-        <v>47.19506666666667</v>
+        <v>87.30070000000001</v>
       </c>
       <c r="M7">
-        <v>30.61949333333333</v>
-      </c>
-      <c r="N7">
-        <v>59.72284</v>
+        <v>60.24583</v>
       </c>
       <c r="O7">
-        <v>66.51241</v>
+        <v>53.33672666666666</v>
       </c>
       <c r="P7">
-        <v>61.77090333333333</v>
+        <v>50.4082</v>
       </c>
       <c r="Q7">
-        <v>23.12794</v>
+        <v>11.12273333333333</v>
       </c>
       <c r="R7">
-        <v>0.7653099999999995</v>
+        <v>9.48343</v>
       </c>
       <c r="S7">
-        <v>-13.16375333333333</v>
+        <v>58.66448</v>
+      </c>
+      <c r="T7">
+        <v>26.34407</v>
+      </c>
+      <c r="U7">
+        <v>68.854855</v>
+      </c>
+      <c r="V7">
+        <v>46.5437</v>
+      </c>
+      <c r="W7">
+        <v>43.11838</v>
+      </c>
+      <c r="X7">
+        <v>79.04317</v>
+      </c>
+      <c r="Y7">
+        <v>47.94895</v>
+      </c>
+      <c r="Z7">
+        <v>18.70391</v>
+      </c>
+      <c r="AA7">
+        <v>23.88701666666667</v>
+      </c>
+      <c r="AB7">
+        <v>4.39042</v>
+      </c>
+      <c r="AC7">
+        <v>18.528805</v>
+      </c>
+      <c r="AD7">
+        <v>10.01035</v>
+      </c>
+      <c r="AF7">
+        <v>26.87099</v>
       </c>
     </row>
   </sheetData>
@@ -1074,1179 +1527,1839 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC7"/>
+  <dimension ref="A1:CN7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:92">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:92">
       <c r="A2">
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>41905.55299</v>
+        <v>41237.13418</v>
       </c>
       <c r="C2">
-        <v>-33.01256</v>
+        <v>26168.25039</v>
       </c>
       <c r="D2">
-        <v>35.82884</v>
+        <v>26723.12643</v>
       </c>
       <c r="E2">
-        <v>-19.141</v>
+        <v>28292.60104</v>
       </c>
       <c r="F2">
-        <v>34.42366</v>
+        <v>28506.92934</v>
       </c>
       <c r="G2">
-        <v>41.80097</v>
+        <v>28363.19199</v>
       </c>
       <c r="H2">
-        <v>50.4082</v>
+        <v>27261.78858</v>
       </c>
       <c r="I2">
-        <v>-1.93175</v>
+        <v>27142.2476</v>
       </c>
       <c r="J2">
-        <v>-42.66935</v>
+        <v>26884.81677</v>
       </c>
       <c r="K2">
-        <v>12.82031</v>
+        <v>27882.68929</v>
       </c>
       <c r="L2">
-        <v>-33.89048</v>
+        <v>27797.65109</v>
       </c>
       <c r="M2">
-        <v>41946.92794</v>
+        <v>41805.16575</v>
       </c>
       <c r="N2">
-        <v>-36.3486</v>
+        <v>28129.99167</v>
       </c>
       <c r="O2">
-        <v>49.00291</v>
+        <v>30881.32331</v>
       </c>
       <c r="P2">
-        <v>35.65319</v>
+        <v>30478.10747</v>
       </c>
       <c r="Q2">
-        <v>20.02115</v>
+        <v>30837.23765</v>
       </c>
       <c r="R2">
-        <v>129.2961</v>
+        <v>26952.14792</v>
       </c>
       <c r="S2">
-        <v>80.80005</v>
+        <v>26761.38041</v>
       </c>
       <c r="T2">
-        <v>96.7884</v>
+        <v>27127.45409</v>
       </c>
       <c r="U2">
-        <v>147.7487</v>
+        <v>18655.6379</v>
       </c>
       <c r="V2">
-        <v>72.36716</v>
+        <v>18630.12716</v>
       </c>
       <c r="W2">
-        <v>119.63111</v>
+        <v>18795.36669</v>
       </c>
       <c r="X2">
-        <v>41806.37714</v>
+        <v>41538.7604</v>
       </c>
       <c r="Y2">
-        <v>4829.60906</v>
+        <v>14333.00429</v>
       </c>
       <c r="Z2">
-        <v>4667.25919</v>
+        <v>14736.855</v>
       </c>
       <c r="AA2">
-        <v>4543.35682</v>
+        <v>14622.70246</v>
       </c>
       <c r="AB2">
-        <v>3631.8677</v>
+        <v>18253.61897</v>
       </c>
       <c r="AC2">
-        <v>3458.41838</v>
+        <v>18335.86867</v>
       </c>
       <c r="AD2">
-        <v>3723.01347</v>
+        <v>18317.79685</v>
       </c>
       <c r="AE2">
-        <v>12292.85259</v>
+        <v>14800.92759</v>
       </c>
       <c r="AF2">
-        <v>12218.66083</v>
+        <v>14717.9703</v>
       </c>
       <c r="AG2">
-        <v>12153.24908</v>
+        <v>14900.40736</v>
       </c>
       <c r="AH2">
-        <v>11583.29163</v>
+        <v>13236.33869</v>
       </c>
       <c r="AI2">
-        <v>30393.86229</v>
+        <v>30078.00376</v>
       </c>
       <c r="AJ2">
-        <v>11930.24861</v>
+        <v>13342.82648</v>
       </c>
       <c r="AK2">
-        <v>11800.86709</v>
+        <v>13268.57317</v>
       </c>
       <c r="AL2">
-        <v>20460.76736</v>
+        <v>9632.98784</v>
       </c>
       <c r="AM2">
-        <v>20339.58929</v>
+        <v>9837.68154</v>
       </c>
       <c r="AN2">
-        <v>20745.49284</v>
+        <v>9877.98986</v>
       </c>
       <c r="AO2">
-        <v>19917.27543</v>
+        <v>8937.73191</v>
       </c>
       <c r="AP2">
-        <v>20233.65534</v>
+        <v>8860.055710000001</v>
       </c>
       <c r="AQ2">
-        <v>20155.48139</v>
+        <v>8875.93447</v>
       </c>
       <c r="AR2">
-        <v>24687.38741</v>
+        <v>12106.59411</v>
       </c>
       <c r="AS2">
-        <v>24672.10055</v>
+        <v>12222.04107</v>
       </c>
       <c r="AT2">
-        <v>29988.32273</v>
+        <v>30014.01859</v>
       </c>
       <c r="AU2">
-        <v>24618.59765</v>
-      </c>
-      <c r="AV2">
-        <v>21113.79306</v>
+        <v>12427.18514</v>
       </c>
       <c r="AW2">
-        <v>21748.76692</v>
+        <v>12.11781</v>
       </c>
       <c r="AX2">
-        <v>22155.56734</v>
+        <v>60.06984</v>
       </c>
       <c r="AY2">
-        <v>29987.64205</v>
+        <v>13397.50038</v>
       </c>
       <c r="AZ2">
-        <v>10.7128</v>
+        <v>13333.71388</v>
       </c>
       <c r="BA2">
-        <v>30.91075</v>
+        <v>13286.46199</v>
       </c>
       <c r="BB2">
-        <v>-10.36097</v>
+        <v>7211.39266</v>
       </c>
       <c r="BC2">
-        <v>1.05369</v>
+        <v>7211.39266</v>
+      </c>
+      <c r="BD2">
+        <v>9173.16668</v>
+      </c>
+      <c r="BE2">
+        <v>30272.85924</v>
+      </c>
+      <c r="BF2">
+        <v>12347.94103</v>
+      </c>
+      <c r="BG2">
+        <v>12468.74618</v>
+      </c>
+      <c r="BH2">
+        <v>12431.23999</v>
+      </c>
+      <c r="BI2">
+        <v>9169.07411</v>
+      </c>
+      <c r="BJ2">
+        <v>9507.338159999999</v>
+      </c>
+      <c r="BK2">
+        <v>9688.4728</v>
+      </c>
+      <c r="BL2">
+        <v>17247.32999</v>
+      </c>
+      <c r="BM2">
+        <v>17330.69267</v>
+      </c>
+      <c r="BN2">
+        <v>17438.53176</v>
+      </c>
+      <c r="BO2">
+        <v>14154.7509</v>
+      </c>
+      <c r="BP2">
+        <v>31066.18382</v>
+      </c>
+      <c r="BQ2">
+        <v>14399.10799</v>
+      </c>
+      <c r="BR2">
+        <v>14181.22847</v>
+      </c>
+      <c r="BS2">
+        <v>8200.016299999999</v>
+      </c>
+      <c r="BT2">
+        <v>8761.51485</v>
+      </c>
+      <c r="BU2">
+        <v>8457.76815</v>
+      </c>
+      <c r="BV2">
+        <v>9726.25052</v>
+      </c>
+      <c r="BW2">
+        <v>9632.98784</v>
+      </c>
+      <c r="BX2">
+        <v>9876.459269999999</v>
+      </c>
+      <c r="BY2">
+        <v>7433.95502</v>
+      </c>
+      <c r="BZ2">
+        <v>7504.93589</v>
+      </c>
+      <c r="CA2">
+        <v>31329.19685</v>
+      </c>
+      <c r="CB2">
+        <v>7504.93589</v>
+      </c>
+      <c r="CC2">
+        <v>7504.93589</v>
+      </c>
+      <c r="CD2">
+        <v>7504.93589</v>
+      </c>
+      <c r="CE2">
+        <v>7504.93589</v>
+      </c>
+      <c r="CF2">
+        <v>9326.93009</v>
+      </c>
+      <c r="CG2">
+        <v>8702.746010000001</v>
+      </c>
+      <c r="CH2">
+        <v>8573.70874</v>
+      </c>
+      <c r="CI2">
+        <v>8413.633169999999</v>
+      </c>
+      <c r="CJ2">
+        <v>8208.57876</v>
+      </c>
+      <c r="CK2">
+        <v>8150.17597</v>
+      </c>
+      <c r="CL2">
+        <v>31241.52302</v>
+      </c>
+      <c r="CM2">
+        <v>7986.35622</v>
+      </c>
+      <c r="CN2">
+        <v>26149.21269</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:92">
       <c r="A3">
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>37627.27997</v>
+        <v>36589.77789</v>
       </c>
       <c r="C3">
-        <v>2.80986</v>
+        <v>24337.35391</v>
       </c>
       <c r="D3">
-        <v>27.39791</v>
+        <v>24052.08557</v>
       </c>
       <c r="E3">
-        <v>-33.89048</v>
+        <v>25401.5994</v>
       </c>
       <c r="F3">
-        <v>-81.46674</v>
+        <v>25419.95093</v>
       </c>
       <c r="G3">
-        <v>33.36978</v>
+        <v>24992.98299</v>
       </c>
       <c r="H3">
-        <v>41.97663</v>
+        <v>24390.3381</v>
       </c>
       <c r="I3">
-        <v>17.0354</v>
+        <v>24167.0355</v>
       </c>
       <c r="J3">
-        <v>12.11781</v>
+        <v>24233.938</v>
       </c>
       <c r="K3">
-        <v>-37.75323</v>
+        <v>24839.24426</v>
       </c>
       <c r="L3">
-        <v>1.93177</v>
+        <v>24860.30823</v>
       </c>
       <c r="M3">
-        <v>36323.02239</v>
+        <v>36509.22699</v>
       </c>
       <c r="N3">
-        <v>14.22533</v>
+        <v>24890.54565</v>
       </c>
       <c r="O3">
-        <v>0.52684</v>
+        <v>27233.05072</v>
       </c>
       <c r="P3">
-        <v>-12.81942</v>
+        <v>27579.11232</v>
       </c>
       <c r="Q3">
-        <v>28.45175</v>
+        <v>27495.1019</v>
       </c>
       <c r="R3">
-        <v>144.05805</v>
+        <v>24066.85707</v>
       </c>
       <c r="S3">
-        <v>198.89714</v>
+        <v>24149.37644</v>
       </c>
       <c r="T3">
-        <v>257.09068</v>
+        <v>24245.99434</v>
       </c>
       <c r="U3">
-        <v>204.69824</v>
+        <v>16684.67047</v>
       </c>
       <c r="V3">
-        <v>266.41005</v>
+        <v>16752.3141</v>
       </c>
       <c r="W3">
-        <v>208.21413</v>
+        <v>16597.46295</v>
       </c>
       <c r="X3">
-        <v>36436.55147</v>
+        <v>36352.59968</v>
       </c>
       <c r="Y3">
-        <v>5866.31826</v>
+        <v>13043.41416</v>
       </c>
       <c r="Z3">
-        <v>5865.10487</v>
+        <v>13492.16044</v>
       </c>
       <c r="AA3">
-        <v>5877.23844</v>
+        <v>13211.86676</v>
       </c>
       <c r="AB3">
-        <v>4767.02198</v>
+        <v>16435.03501</v>
       </c>
       <c r="AC3">
-        <v>5023.34223</v>
+        <v>16581.94483</v>
       </c>
       <c r="AD3">
-        <v>4935.0369</v>
+        <v>16831.09448</v>
       </c>
       <c r="AE3">
-        <v>12479.38942</v>
+        <v>13147.22393</v>
       </c>
       <c r="AF3">
-        <v>12429.55047</v>
+        <v>12910.21482</v>
       </c>
       <c r="AG3">
-        <v>12394.57634</v>
+        <v>13048.30954</v>
       </c>
       <c r="AH3">
-        <v>11879.68392</v>
+        <v>12342.70278</v>
       </c>
       <c r="AI3">
-        <v>26458.42355</v>
+        <v>26571.30586</v>
       </c>
       <c r="AJ3">
-        <v>11753.67232</v>
+        <v>12193.81541</v>
       </c>
       <c r="AK3">
-        <v>11928.72667</v>
+        <v>12166.09541</v>
       </c>
       <c r="AL3">
-        <v>19285.49722</v>
+        <v>8947.80233</v>
       </c>
       <c r="AM3">
-        <v>19428.18697</v>
+        <v>8921.68662</v>
       </c>
       <c r="AN3">
-        <v>19356.83954</v>
+        <v>9001.048989999999</v>
       </c>
       <c r="AO3">
-        <v>19801.57694</v>
+        <v>7740.38302</v>
       </c>
       <c r="AP3">
-        <v>19831.6843</v>
+        <v>7775.56473</v>
       </c>
       <c r="AQ3">
-        <v>19382.19942</v>
+        <v>7791.5232</v>
       </c>
       <c r="AR3">
-        <v>22788.94463</v>
+        <v>10924.4726</v>
       </c>
       <c r="AS3">
-        <v>23077.00179</v>
+        <v>10946.6772</v>
       </c>
       <c r="AT3">
-        <v>26722.44636</v>
+        <v>26615.50807</v>
       </c>
       <c r="AU3">
-        <v>22942.12562</v>
+        <v>11052.7663</v>
       </c>
       <c r="AV3">
-        <v>19903.23526</v>
+        <v>99.24826</v>
       </c>
       <c r="AW3">
-        <v>20376.99042</v>
+        <v>50.05688</v>
       </c>
       <c r="AX3">
-        <v>20929.54138</v>
+        <v>95.90989</v>
       </c>
       <c r="AY3">
-        <v>26617.7182</v>
+        <v>12112.67976</v>
       </c>
       <c r="AZ3">
-        <v>0.17561</v>
+        <v>12060.94947</v>
       </c>
       <c r="BA3">
-        <v>68.85356</v>
+        <v>11948.68062</v>
       </c>
       <c r="BB3">
-        <v>-23.00407</v>
+        <v>6810.33598</v>
       </c>
       <c r="BC3">
-        <v>53.7458</v>
+        <v>6810.33598</v>
+      </c>
+      <c r="BD3">
+        <v>7993.55602</v>
+      </c>
+      <c r="BE3">
+        <v>26459.95355</v>
+      </c>
+      <c r="BF3">
+        <v>11154.25179</v>
+      </c>
+      <c r="BG3">
+        <v>11094.44806</v>
+      </c>
+      <c r="BH3">
+        <v>11323.11016</v>
+      </c>
+      <c r="BI3">
+        <v>8367.60698</v>
+      </c>
+      <c r="BJ3">
+        <v>8284.255929999999</v>
+      </c>
+      <c r="BK3">
+        <v>8513.52296</v>
+      </c>
+      <c r="BL3">
+        <v>15415.66951</v>
+      </c>
+      <c r="BM3">
+        <v>15349.23808</v>
+      </c>
+      <c r="BN3">
+        <v>15206.09123</v>
+      </c>
+      <c r="BO3">
+        <v>12492.05971</v>
+      </c>
+      <c r="BP3">
+        <v>28076.92401</v>
+      </c>
+      <c r="BQ3">
+        <v>13018.43039</v>
+      </c>
+      <c r="BR3">
+        <v>12998.848</v>
+      </c>
+      <c r="BS3">
+        <v>7448.56577</v>
+      </c>
+      <c r="BT3">
+        <v>7783.62992</v>
+      </c>
+      <c r="BU3">
+        <v>7554.76192</v>
+      </c>
+      <c r="BV3">
+        <v>8930.733560000001</v>
+      </c>
+      <c r="BW3">
+        <v>8662.931769999999</v>
+      </c>
+      <c r="BX3">
+        <v>8792.60159</v>
+      </c>
+      <c r="BY3">
+        <v>6617.42879</v>
+      </c>
+      <c r="BZ3">
+        <v>6686.64292</v>
+      </c>
+      <c r="CA3">
+        <v>28235.61893</v>
+      </c>
+      <c r="CB3">
+        <v>6686.64292</v>
+      </c>
+      <c r="CC3">
+        <v>6686.64292</v>
+      </c>
+      <c r="CD3">
+        <v>6686.64292</v>
+      </c>
+      <c r="CE3">
+        <v>6686.64292</v>
+      </c>
+      <c r="CF3">
+        <v>8277.579610000001</v>
+      </c>
+      <c r="CG3">
+        <v>7712.23324</v>
+      </c>
+      <c r="CH3">
+        <v>7751.53886</v>
+      </c>
+      <c r="CI3">
+        <v>7848.31146</v>
+      </c>
+      <c r="CJ3">
+        <v>6971.85969</v>
+      </c>
+      <c r="CK3">
+        <v>6859.30762</v>
+      </c>
+      <c r="CL3">
+        <v>28341.92952</v>
+      </c>
+      <c r="CM3">
+        <v>6903.44016</v>
+      </c>
+      <c r="CN3">
+        <v>24010.65822</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:92">
       <c r="A4">
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>20785.61829</v>
+        <v>20933.77473</v>
       </c>
       <c r="C4">
-        <v>4.91728</v>
+        <v>13669.14154</v>
       </c>
       <c r="D4">
-        <v>6.32224</v>
+        <v>13818.94</v>
       </c>
       <c r="E4">
-        <v>8.25407</v>
+        <v>13983.0591</v>
       </c>
       <c r="F4">
-        <v>-9.834160000000001</v>
+        <v>13906.14629</v>
       </c>
       <c r="G4">
-        <v>-23.53085</v>
+        <v>13953.8799</v>
       </c>
       <c r="H4">
-        <v>-33.89048</v>
+        <v>13501.10294</v>
       </c>
       <c r="I4">
-        <v>25.46587</v>
+        <v>13528.26745</v>
       </c>
       <c r="J4">
-        <v>88.00344</v>
+        <v>13313.29459</v>
       </c>
       <c r="K4">
-        <v>25.46587</v>
+        <v>13691.91606</v>
       </c>
       <c r="L4">
-        <v>16.68414</v>
+        <v>14048.83691</v>
       </c>
       <c r="M4">
-        <v>20344.66628</v>
+        <v>20801.19484</v>
       </c>
       <c r="N4">
-        <v>88.00344</v>
+        <v>13773.22626</v>
       </c>
       <c r="O4">
-        <v>11.06405</v>
+        <v>15140.16632</v>
       </c>
       <c r="P4">
-        <v>60.94819</v>
+        <v>15378.06995</v>
       </c>
       <c r="Q4">
-        <v>36.88273</v>
+        <v>15385.8259</v>
       </c>
       <c r="R4">
-        <v>114.5352</v>
+        <v>13649.40329</v>
       </c>
       <c r="S4">
-        <v>91.34168</v>
+        <v>13340.63271</v>
       </c>
       <c r="T4">
-        <v>141.07043</v>
+        <v>13349.5765</v>
       </c>
       <c r="U4">
-        <v>107.68229</v>
+        <v>8507.024649999999</v>
       </c>
       <c r="V4">
-        <v>175.69428</v>
+        <v>8973.23251</v>
       </c>
       <c r="W4">
-        <v>119.63111</v>
+        <v>9004.973749999999</v>
       </c>
       <c r="X4">
-        <v>20534.22613</v>
+        <v>21085.00151</v>
       </c>
       <c r="Y4">
-        <v>3219.00318</v>
+        <v>6657.6486</v>
       </c>
       <c r="Z4">
-        <v>3339.96741</v>
+        <v>6944.46038</v>
       </c>
       <c r="AA4">
-        <v>3339.61636</v>
+        <v>6924.9855</v>
       </c>
       <c r="AB4">
-        <v>2552.52991</v>
+        <v>8936.87846</v>
       </c>
       <c r="AC4">
-        <v>2680.44637</v>
+        <v>8817.194729999999</v>
       </c>
       <c r="AD4">
-        <v>2510.99599</v>
+        <v>8813.26683</v>
       </c>
       <c r="AE4">
-        <v>7246.32466</v>
+        <v>6643.66759</v>
       </c>
       <c r="AF4">
-        <v>7399.91635</v>
+        <v>6763.76659</v>
       </c>
       <c r="AG4">
-        <v>7302.40916</v>
+        <v>6842.75525</v>
       </c>
       <c r="AH4">
-        <v>7118.95575</v>
+        <v>6131.33883</v>
       </c>
       <c r="AI4">
-        <v>14993.14162</v>
+        <v>14799.5787</v>
       </c>
       <c r="AJ4">
-        <v>6930.67306</v>
+        <v>6325.61729</v>
       </c>
       <c r="AK4">
-        <v>6920.84899</v>
+        <v>6251.5977</v>
       </c>
       <c r="AL4">
-        <v>11267.90452</v>
+        <v>4426.36365</v>
       </c>
       <c r="AM4">
-        <v>11278.74303</v>
+        <v>4233.96309</v>
       </c>
       <c r="AN4">
-        <v>11097.49777</v>
+        <v>4480.8526</v>
       </c>
       <c r="AO4">
-        <v>11091.73719</v>
+        <v>3413.85229</v>
       </c>
       <c r="AP4">
-        <v>11343.42938</v>
+        <v>3603.46501</v>
       </c>
       <c r="AQ4">
-        <v>11324.12615</v>
+        <v>3657.63754</v>
       </c>
       <c r="AR4">
-        <v>12972.00585</v>
+        <v>5495.86116</v>
       </c>
       <c r="AS4">
-        <v>12942.63039</v>
+        <v>5654.02576</v>
       </c>
       <c r="AT4">
-        <v>14817.95728</v>
+        <v>14995.1649</v>
       </c>
       <c r="AU4">
-        <v>13177.09861</v>
+        <v>5926.97768</v>
       </c>
       <c r="AV4">
-        <v>11985.54266</v>
-      </c>
-      <c r="AW4">
-        <v>12162.71482</v>
+        <v>38.11228</v>
       </c>
       <c r="AX4">
-        <v>12349.29283</v>
+        <v>85.36802</v>
       </c>
       <c r="AY4">
-        <v>14734.3258</v>
+        <v>6159.55049</v>
       </c>
       <c r="AZ4">
-        <v>23.35822</v>
+        <v>6146.05097</v>
       </c>
       <c r="BA4">
-        <v>-55.48573</v>
+        <v>6097.58298</v>
       </c>
       <c r="BB4">
-        <v>6.49786</v>
+        <v>2689.59407</v>
       </c>
       <c r="BC4">
-        <v>-9.482950000000001</v>
+        <v>2689.59407</v>
+      </c>
+      <c r="BD4">
+        <v>3571.7271</v>
+      </c>
+      <c r="BE4">
+        <v>15069.5204</v>
+      </c>
+      <c r="BF4">
+        <v>5620.87627</v>
+      </c>
+      <c r="BG4">
+        <v>5669.99092</v>
+      </c>
+      <c r="BH4">
+        <v>5696.0181</v>
+      </c>
+      <c r="BI4">
+        <v>3805.18887</v>
+      </c>
+      <c r="BJ4">
+        <v>4001.48109</v>
+      </c>
+      <c r="BK4">
+        <v>3868.42072</v>
+      </c>
+      <c r="BL4">
+        <v>8315.922850000001</v>
+      </c>
+      <c r="BM4">
+        <v>8406.61865</v>
+      </c>
+      <c r="BN4">
+        <v>8271.58786</v>
+      </c>
+      <c r="BO4">
+        <v>6649.19108</v>
+      </c>
+      <c r="BP4">
+        <v>15359.69173</v>
+      </c>
+      <c r="BQ4">
+        <v>6489.11604</v>
+      </c>
+      <c r="BR4">
+        <v>6775.66875</v>
+      </c>
+      <c r="BS4">
+        <v>3374.7188</v>
+      </c>
+      <c r="BT4">
+        <v>3443.32997</v>
+      </c>
+      <c r="BU4">
+        <v>3575.76033</v>
+      </c>
+      <c r="BV4">
+        <v>4327.12793</v>
+      </c>
+      <c r="BW4">
+        <v>4122.21482</v>
+      </c>
+      <c r="BX4">
+        <v>4110.14454</v>
+      </c>
+      <c r="BY4">
+        <v>2670.24288</v>
+      </c>
+      <c r="BZ4">
+        <v>2643.67723</v>
+      </c>
+      <c r="CA4">
+        <v>15525.09703</v>
+      </c>
+      <c r="CB4">
+        <v>2643.67723</v>
+      </c>
+      <c r="CC4">
+        <v>2643.67723</v>
+      </c>
+      <c r="CD4">
+        <v>2643.67723</v>
+      </c>
+      <c r="CE4">
+        <v>2643.67723</v>
+      </c>
+      <c r="CF4">
+        <v>3956.84489</v>
+      </c>
+      <c r="CG4">
+        <v>3361.90697</v>
+      </c>
+      <c r="CH4">
+        <v>3341.02055</v>
+      </c>
+      <c r="CI4">
+        <v>3448.41803</v>
+      </c>
+      <c r="CJ4">
+        <v>3016.80719</v>
+      </c>
+      <c r="CK4">
+        <v>2766.98791</v>
+      </c>
+      <c r="CL4">
+        <v>15555.61565</v>
+      </c>
+      <c r="CM4">
+        <v>2740.25387</v>
+      </c>
+      <c r="CN4">
+        <v>13672.51557</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:92">
       <c r="A5">
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>9223.12463</v>
+        <v>9137.01331</v>
       </c>
       <c r="C5">
-        <v>-11.94141</v>
+        <v>4662.72331</v>
       </c>
       <c r="D5">
-        <v>75.88082</v>
+        <v>4938.86954</v>
       </c>
       <c r="E5">
-        <v>4.03918</v>
+        <v>4773.82212</v>
       </c>
       <c r="F5">
-        <v>32.3159</v>
+        <v>4614.74112</v>
       </c>
       <c r="G5">
-        <v>-50.9211</v>
+        <v>4867.08181</v>
       </c>
       <c r="H5">
-        <v>16.68414</v>
+        <v>4627.13037</v>
       </c>
       <c r="I5">
-        <v>-86.20610000000001</v>
+        <v>4546.32441</v>
       </c>
       <c r="J5">
-        <v>3.68794</v>
+        <v>4344.77728</v>
       </c>
       <c r="K5">
-        <v>0.17561</v>
+        <v>4730.22734</v>
       </c>
       <c r="L5">
-        <v>-19.141</v>
+        <v>4691.1581</v>
       </c>
       <c r="M5">
-        <v>9243.41185</v>
+        <v>9261.310960000001</v>
       </c>
       <c r="N5">
-        <v>20.54805</v>
+        <v>4655.22141</v>
       </c>
       <c r="O5">
-        <v>40.5714</v>
+        <v>5420.98517</v>
       </c>
       <c r="P5">
-        <v>-23.35526</v>
+        <v>5438.88173</v>
       </c>
       <c r="Q5">
-        <v>30.55946</v>
+        <v>5430.19429</v>
       </c>
       <c r="R5">
-        <v>53.39447</v>
+        <v>4470.54973</v>
       </c>
       <c r="S5">
-        <v>38.63923</v>
+        <v>4509.31366</v>
       </c>
       <c r="T5">
-        <v>105.22233</v>
+        <v>4566.74719</v>
       </c>
       <c r="U5">
-        <v>33.89672</v>
+        <v>2191.96393</v>
       </c>
       <c r="V5">
-        <v>89.23331</v>
+        <v>2258.35906</v>
       </c>
       <c r="W5">
-        <v>-13.17063</v>
+        <v>2426.33075</v>
       </c>
       <c r="X5">
-        <v>9066.05528</v>
+        <v>9072.36729</v>
       </c>
       <c r="Y5">
-        <v>617.971</v>
+        <v>1362.69522</v>
       </c>
       <c r="Z5">
-        <v>492.11332</v>
+        <v>1440.07053</v>
       </c>
       <c r="AA5">
-        <v>626.95005</v>
+        <v>1500.52573</v>
       </c>
       <c r="AB5">
-        <v>506.19285</v>
+        <v>2328.61893</v>
       </c>
       <c r="AC5">
-        <v>452.5182</v>
+        <v>2334.07727</v>
       </c>
       <c r="AD5">
-        <v>456.21352</v>
+        <v>2387.07259</v>
       </c>
       <c r="AE5">
-        <v>2087.33533</v>
+        <v>1352.64885</v>
       </c>
       <c r="AF5">
-        <v>2024.79597</v>
+        <v>1356.8789</v>
       </c>
       <c r="AG5">
-        <v>2098.25705</v>
+        <v>1520.08986</v>
       </c>
       <c r="AH5">
-        <v>1830.09616</v>
+        <v>1259.5896</v>
       </c>
       <c r="AI5">
-        <v>5981.72723</v>
+        <v>5799.39632</v>
       </c>
       <c r="AJ5">
-        <v>1863.75345</v>
+        <v>1174.11341</v>
       </c>
       <c r="AK5">
-        <v>1764.89292</v>
+        <v>1310.17248</v>
       </c>
       <c r="AL5">
-        <v>3549.63081</v>
+        <v>724.50103</v>
       </c>
       <c r="AM5">
-        <v>3750.17494</v>
+        <v>651.0713500000001</v>
       </c>
       <c r="AN5">
-        <v>3695.14771</v>
+        <v>635.75326</v>
       </c>
       <c r="AO5">
-        <v>3935.13612</v>
+        <v>414.16009</v>
       </c>
       <c r="AP5">
-        <v>3800.28372</v>
+        <v>526.25728</v>
       </c>
       <c r="AQ5">
-        <v>3715.12728</v>
+        <v>405.3631</v>
       </c>
       <c r="AR5">
-        <v>4523.97912</v>
+        <v>945.7430000000001</v>
       </c>
       <c r="AS5">
-        <v>4355.26131</v>
+        <v>966.70931</v>
       </c>
       <c r="AT5">
-        <v>6063.64777</v>
+        <v>5844.47596</v>
       </c>
       <c r="AU5">
-        <v>4493.07564</v>
-      </c>
-      <c r="AV5">
-        <v>3840.74805</v>
+        <v>1053.75279</v>
       </c>
       <c r="AW5">
-        <v>4078.82856</v>
+        <v>7.90283</v>
       </c>
       <c r="AX5">
-        <v>4104.02167</v>
+        <v>112.77803</v>
       </c>
       <c r="AY5">
-        <v>5880.01171</v>
+        <v>1007.05811</v>
       </c>
       <c r="AZ5">
-        <v>57.08346</v>
+        <v>1082.12336</v>
       </c>
       <c r="BA5">
-        <v>3.51233</v>
+        <v>1060.27265</v>
       </c>
       <c r="BB5">
-        <v>63.4076</v>
+        <v>288.56699</v>
       </c>
       <c r="BC5">
-        <v>15.80599</v>
+        <v>288.56699</v>
+      </c>
+      <c r="BD5">
+        <v>502.8489</v>
+      </c>
+      <c r="BE5">
+        <v>5629.55473</v>
+      </c>
+      <c r="BF5">
+        <v>1292.54764</v>
+      </c>
+      <c r="BG5">
+        <v>1118.2487</v>
+      </c>
+      <c r="BH5">
+        <v>1117.19135</v>
+      </c>
+      <c r="BI5">
+        <v>502.8489</v>
+      </c>
+      <c r="BJ5">
+        <v>531.18558</v>
+      </c>
+      <c r="BK5">
+        <v>435.44996</v>
+      </c>
+      <c r="BL5">
+        <v>2136.83376</v>
+      </c>
+      <c r="BM5">
+        <v>2063.20116</v>
+      </c>
+      <c r="BN5">
+        <v>2182.10079</v>
+      </c>
+      <c r="BO5">
+        <v>1432.31534</v>
+      </c>
+      <c r="BP5">
+        <v>6013.25278</v>
+      </c>
+      <c r="BQ5">
+        <v>1520.61862</v>
+      </c>
+      <c r="BR5">
+        <v>1445.18191</v>
+      </c>
+      <c r="BS5">
+        <v>334.82172</v>
+      </c>
+      <c r="BT5">
+        <v>490.17744</v>
+      </c>
+      <c r="BU5">
+        <v>487.88959</v>
+      </c>
+      <c r="BV5">
+        <v>580.12066</v>
+      </c>
+      <c r="BW5">
+        <v>568.15026</v>
+      </c>
+      <c r="BX5">
+        <v>568.67835</v>
+      </c>
+      <c r="BY5">
+        <v>332.53516</v>
+      </c>
+      <c r="BZ5">
+        <v>204.69824</v>
+      </c>
+      <c r="CA5">
+        <v>5775.63836</v>
+      </c>
+      <c r="CB5">
+        <v>204.69824</v>
+      </c>
+      <c r="CC5">
+        <v>204.69824</v>
+      </c>
+      <c r="CD5">
+        <v>204.69824</v>
+      </c>
+      <c r="CE5">
+        <v>204.69824</v>
+      </c>
+      <c r="CF5">
+        <v>349.06919</v>
+      </c>
+      <c r="CG5">
+        <v>372.64081</v>
+      </c>
+      <c r="CH5">
+        <v>322.15797</v>
+      </c>
+      <c r="CI5">
+        <v>353.81853</v>
+      </c>
+      <c r="CJ5">
+        <v>282.41208</v>
+      </c>
+      <c r="CK5">
+        <v>279.42261</v>
+      </c>
+      <c r="CL5">
+        <v>5861.11795</v>
+      </c>
+      <c r="CM5">
+        <v>212.60907</v>
+      </c>
+      <c r="CN5">
+        <v>4881.72033</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:92">
       <c r="A6">
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>970.7617</v>
+        <v>1139.74833</v>
       </c>
       <c r="C6">
-        <v>-24.5844</v>
+        <v>434.74613</v>
       </c>
       <c r="D6">
-        <v>50.58386</v>
+        <v>422.07762</v>
       </c>
       <c r="E6">
-        <v>-17.03383</v>
+        <v>335.70117</v>
       </c>
       <c r="F6">
-        <v>-58.29468</v>
+        <v>323.03738</v>
       </c>
       <c r="G6">
-        <v>16.50851</v>
+        <v>429.81942</v>
       </c>
       <c r="H6">
-        <v>-12.81942</v>
+        <v>299.64623</v>
       </c>
       <c r="I6">
-        <v>-41.96706</v>
+        <v>298.41518</v>
       </c>
       <c r="J6">
-        <v>16.33288</v>
+        <v>348.71739</v>
       </c>
       <c r="K6">
-        <v>-14.57544</v>
+        <v>371.93715</v>
       </c>
       <c r="L6">
-        <v>10.36155</v>
+        <v>410.64126</v>
       </c>
       <c r="M6">
-        <v>1063.6207</v>
+        <v>1105.38439</v>
       </c>
       <c r="N6">
-        <v>-17.38502</v>
+        <v>336.40473</v>
       </c>
       <c r="O6">
-        <v>17.38667</v>
+        <v>409.23374</v>
       </c>
       <c r="P6">
-        <v>-29.67646</v>
+        <v>516.0489</v>
       </c>
       <c r="Q6">
-        <v>-83.22208000000001</v>
+        <v>492.4653</v>
       </c>
       <c r="R6">
-        <v>-1.40491</v>
+        <v>393.0478</v>
       </c>
       <c r="S6">
+        <v>368.7707</v>
+      </c>
+      <c r="T6">
+        <v>333.76638</v>
+      </c>
+      <c r="U6">
+        <v>67.97517000000001</v>
+      </c>
+      <c r="V6">
+        <v>146.86997</v>
+      </c>
+      <c r="W6">
+        <v>126.83588</v>
+      </c>
+      <c r="X6">
+        <v>1115.25289</v>
+      </c>
+      <c r="Y6">
+        <v>36.00449</v>
+      </c>
+      <c r="Z6">
+        <v>148.97893</v>
+      </c>
+      <c r="AA6">
+        <v>70.08331</v>
+      </c>
+      <c r="AB6">
+        <v>122.09124</v>
+      </c>
+      <c r="AC6">
+        <v>169.71819</v>
+      </c>
+      <c r="AD6">
+        <v>180.44012</v>
+      </c>
+      <c r="AE6">
+        <v>108.20943</v>
+      </c>
+      <c r="AF6">
+        <v>28.10047</v>
+      </c>
+      <c r="AG6">
+        <v>74.82671999999999</v>
+      </c>
+      <c r="AH6">
         <v>32.3159</v>
       </c>
-      <c r="T6">
-        <v>41.97663</v>
-      </c>
-      <c r="U6">
-        <v>107.68229</v>
-      </c>
-      <c r="V6">
-        <v>85.01664</v>
-      </c>
-      <c r="W6">
-        <v>94.32857</v>
-      </c>
-      <c r="X6">
-        <v>1062.211</v>
-      </c>
-      <c r="Y6">
-        <v>52.34049</v>
-      </c>
-      <c r="Z6">
-        <v>0.52684</v>
-      </c>
-      <c r="AA6">
-        <v>78.16473999999999</v>
-      </c>
-      <c r="AB6">
-        <v>16.68414</v>
-      </c>
-      <c r="AC6">
-        <v>-3.16104</v>
-      </c>
-      <c r="AD6">
-        <v>112.25088</v>
-      </c>
-      <c r="AE6">
-        <v>117.52244</v>
-      </c>
-      <c r="AF6">
-        <v>99.42397</v>
-      </c>
-      <c r="AG6">
-        <v>147.39721</v>
-      </c>
-      <c r="AH6">
-        <v>124.55141</v>
-      </c>
       <c r="AI6">
-        <v>435.274</v>
+        <v>473.9869</v>
       </c>
       <c r="AJ6">
-        <v>67.44814</v>
+        <v>58.84015</v>
       </c>
       <c r="AK6">
-        <v>116.46812</v>
+        <v>44.78711</v>
       </c>
       <c r="AL6">
-        <v>216.8283</v>
+        <v>82.73264</v>
       </c>
       <c r="AM6">
-        <v>211.20268</v>
+        <v>87.47635</v>
       </c>
       <c r="AN6">
-        <v>253.04654</v>
+        <v>38.46358</v>
       </c>
       <c r="AO6">
-        <v>251.28824</v>
+        <v>139.84024</v>
       </c>
       <c r="AP6">
-        <v>189.75633</v>
+        <v>9.30781</v>
       </c>
       <c r="AQ6">
-        <v>228.7832</v>
+        <v>93.09867</v>
       </c>
       <c r="AR6">
-        <v>341.32972</v>
+        <v>63.05626</v>
       </c>
       <c r="AS6">
-        <v>369.82618</v>
+        <v>46.01671</v>
       </c>
       <c r="AT6">
-        <v>434.04231</v>
+        <v>346.60661</v>
       </c>
       <c r="AU6">
-        <v>289.09456</v>
-      </c>
-      <c r="AV6">
-        <v>283.11549</v>
+        <v>65.34002</v>
       </c>
       <c r="AW6">
-        <v>315.47458</v>
+        <v>43.73317</v>
       </c>
       <c r="AX6">
-        <v>228.95901</v>
+        <v>20.02115</v>
       </c>
       <c r="AY6">
-        <v>551.60365</v>
+        <v>48.30027</v>
       </c>
       <c r="AZ6">
-        <v>50.75953</v>
+        <v>21.95313</v>
       </c>
       <c r="BA6">
-        <v>-40.73804</v>
+        <v>8.605320000000001</v>
       </c>
       <c r="BB6">
-        <v>19.14299</v>
+        <v>46.01671</v>
       </c>
       <c r="BC6">
-        <v>-1.05368</v>
+        <v>46.01671</v>
+      </c>
+      <c r="BD6">
+        <v>21.7775</v>
+      </c>
+      <c r="BE6">
+        <v>419.96626</v>
+      </c>
+      <c r="BF6">
+        <v>60.94819</v>
+      </c>
+      <c r="BG6">
+        <v>114.88664</v>
+      </c>
+      <c r="BH6">
+        <v>101.18103</v>
+      </c>
+      <c r="BI6">
+        <v>23.88513</v>
+      </c>
+      <c r="BJ6">
+        <v>79.57023</v>
+      </c>
+      <c r="BK6">
+        <v>43.03055</v>
+      </c>
+      <c r="BL6">
+        <v>152.14241</v>
+      </c>
+      <c r="BM6">
+        <v>68.15085000000001</v>
+      </c>
+      <c r="BN6">
+        <v>212.08167</v>
+      </c>
+      <c r="BO6">
+        <v>80.0973</v>
+      </c>
+      <c r="BP6">
+        <v>579.24047</v>
+      </c>
+      <c r="BQ6">
+        <v>144.93677</v>
+      </c>
+      <c r="BR6">
+        <v>12.82031</v>
+      </c>
+      <c r="BT6">
+        <v>57.61047</v>
+      </c>
+      <c r="BU6">
+        <v>70.08331</v>
+      </c>
+      <c r="BV6">
+        <v>107.33087</v>
+      </c>
+      <c r="BX6">
+        <v>66.39408</v>
+      </c>
+      <c r="BY6">
+        <v>47.77329</v>
+      </c>
+      <c r="CA6">
+        <v>496.33711</v>
+      </c>
+      <c r="CF6">
+        <v>49.5299</v>
+      </c>
+      <c r="CG6">
+        <v>3.51233</v>
+      </c>
+      <c r="CH6">
+        <v>96.437</v>
+      </c>
+      <c r="CI6">
+        <v>96.437</v>
+      </c>
+      <c r="CJ6">
+        <v>8.25407</v>
+      </c>
+      <c r="CK6">
+        <v>17.91356</v>
+      </c>
+      <c r="CL6">
+        <v>557.7645199999999</v>
+      </c>
+      <c r="CM6">
+        <v>10.18593</v>
+      </c>
+      <c r="CN6">
+        <v>379.14977</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:92">
       <c r="A7">
         <v>1000.111</v>
       </c>
       <c r="B7">
-        <v>41.62532</v>
+        <v>75.17807999999999</v>
       </c>
       <c r="C7">
-        <v>-33.01256</v>
+        <v>84.48956</v>
       </c>
       <c r="D7">
-        <v>44.26014</v>
+        <v>17.0354</v>
       </c>
       <c r="E7">
+        <v>27.74919</v>
+      </c>
+      <c r="F7">
+        <v>67.79949000000001</v>
+      </c>
+      <c r="H7">
+        <v>71.84011</v>
+      </c>
+      <c r="I7">
+        <v>24.2364</v>
+      </c>
+      <c r="J7">
+        <v>23.88513</v>
+      </c>
+      <c r="K7">
+        <v>40.74705</v>
+      </c>
+      <c r="L7">
+        <v>33.01848</v>
+      </c>
+      <c r="M7">
+        <v>34.5993</v>
+      </c>
+      <c r="N7">
+        <v>15.80599</v>
+      </c>
+      <c r="O7">
+        <v>37.93663</v>
+      </c>
+      <c r="P7">
+        <v>1.22931</v>
+      </c>
+      <c r="Q7">
+        <v>53.57014</v>
+      </c>
+      <c r="R7">
+        <v>165.14835</v>
+      </c>
+      <c r="S7">
+        <v>46.01671</v>
+      </c>
+      <c r="V7">
+        <v>49.88122</v>
+      </c>
+      <c r="W7">
+        <v>116.2924</v>
+      </c>
+      <c r="X7">
+        <v>63.4076</v>
+      </c>
+      <c r="Y7">
+        <v>71.84011</v>
+      </c>
+      <c r="Z7">
+        <v>11.94218</v>
+      </c>
+      <c r="AA7">
+        <v>8.95656</v>
+      </c>
+      <c r="AB7">
+        <v>39.86879</v>
+      </c>
+      <c r="AC7">
+        <v>55.85379</v>
+      </c>
+      <c r="AD7">
+        <v>41.27401</v>
+      </c>
+      <c r="AF7">
+        <v>91.34168</v>
+      </c>
+      <c r="AG7">
+        <v>83.25972</v>
+      </c>
+      <c r="AJ7">
         <v>71.48875</v>
       </c>
-      <c r="F7">
-        <v>13.34719</v>
-      </c>
-      <c r="G7">
-        <v>8.07845</v>
-      </c>
-      <c r="H7">
-        <v>-12.81942</v>
-      </c>
-      <c r="I7">
-        <v>52.86748</v>
-      </c>
-      <c r="J7">
-        <v>-67.95008</v>
-      </c>
-      <c r="K7">
-        <v>27.57355</v>
-      </c>
-      <c r="L7">
-        <v>-38.10439</v>
-      </c>
-      <c r="M7">
-        <v>81.50281</v>
-      </c>
-      <c r="N7">
-        <v>-34.24164</v>
-      </c>
-      <c r="O7">
-        <v>-16.33143</v>
-      </c>
-      <c r="P7">
-        <v>23.00695</v>
-      </c>
-      <c r="Q7">
-        <v>36.88273</v>
-      </c>
-      <c r="R7">
-        <v>68.15085000000001</v>
-      </c>
-      <c r="S7">
-        <v>47.07066</v>
-      </c>
-      <c r="T7">
-        <v>-10.71218</v>
-      </c>
-      <c r="U7">
-        <v>8.605320000000001</v>
-      </c>
-      <c r="V7">
-        <v>-5.61958</v>
-      </c>
-      <c r="W7">
-        <v>-38.45555</v>
-      </c>
-      <c r="X7">
-        <v>82.20556999999999</v>
-      </c>
-      <c r="Y7">
-        <v>24.93896</v>
-      </c>
-      <c r="Z7">
-        <v>-5.79519</v>
-      </c>
-      <c r="AA7">
-        <v>-14.57544</v>
-      </c>
-      <c r="AB7">
-        <v>-25.46235</v>
-      </c>
-      <c r="AC7">
+      <c r="AK7">
+        <v>49.00291</v>
+      </c>
+      <c r="AO7">
+        <v>49.17857</v>
+      </c>
+      <c r="AP7">
+        <v>76.75924999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>34.07236</v>
+      </c>
+      <c r="AR7">
+        <v>50.4082</v>
+      </c>
+      <c r="AU7">
+        <v>6.32224</v>
+      </c>
+      <c r="AV7">
+        <v>21.25059</v>
+      </c>
+      <c r="AW7">
+        <v>5.79537</v>
+      </c>
+      <c r="AX7">
         <v>9.48343</v>
       </c>
-      <c r="AD7">
-        <v>-10.00976</v>
-      </c>
-      <c r="AE7">
-        <v>1.58054</v>
-      </c>
-      <c r="AF7">
-        <v>25.64151</v>
-      </c>
-      <c r="AG7">
-        <v>-4.39031</v>
-      </c>
-      <c r="AH7">
-        <v>120.334</v>
-      </c>
-      <c r="AI7">
-        <v>57.61047</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>34.24801</v>
-      </c>
-      <c r="AL7">
-        <v>5.97099</v>
-      </c>
-      <c r="AM7">
-        <v>67.79949000000001</v>
-      </c>
-      <c r="AN7">
-        <v>105.39804</v>
-      </c>
-      <c r="AO7">
-        <v>97.31551</v>
-      </c>
-      <c r="AP7">
-        <v>52.69182</v>
-      </c>
-      <c r="AQ7">
-        <v>49.5299</v>
-      </c>
-      <c r="AR7">
-        <v>102.93811</v>
-      </c>
-      <c r="AS7">
-        <v>61.82655</v>
-      </c>
-      <c r="AT7">
-        <v>20.54805</v>
-      </c>
-      <c r="AU7">
-        <v>-23.00407</v>
-      </c>
-      <c r="AV7">
-        <v>21.60186</v>
-      </c>
-      <c r="AW7">
-        <v>70.78603</v>
-      </c>
-      <c r="AX7">
-        <v>1.22931</v>
-      </c>
-      <c r="AY7">
+      <c r="BB7">
+        <v>58.66448</v>
+      </c>
+      <c r="BC7">
+        <v>58.66448</v>
+      </c>
+      <c r="BE7">
+        <v>25.46587</v>
+      </c>
+      <c r="BF7">
+        <v>27.22227</v>
+      </c>
+      <c r="BH7">
+        <v>46.36803</v>
+      </c>
+      <c r="BI7">
+        <v>91.34168</v>
+      </c>
+      <c r="BJ7">
+        <v>43.73317</v>
+      </c>
+      <c r="BK7">
         <v>49.35423</v>
       </c>
-      <c r="AZ7">
-        <v>-48.28761</v>
-      </c>
-      <c r="BA7">
-        <v>-57.59244</v>
-      </c>
-      <c r="BB7">
-        <v>57.08346</v>
-      </c>
-      <c r="BC7">
-        <v>-38.98228</v>
+      <c r="BM7">
+        <v>42.8549</v>
+      </c>
+      <c r="BN7">
+        <v>43.38186</v>
+      </c>
+      <c r="BP7">
+        <v>79.04317</v>
+      </c>
+      <c r="BS7">
+        <v>47.94895</v>
+      </c>
+      <c r="BW7">
+        <v>17.38667</v>
+      </c>
+      <c r="BX7">
+        <v>20.02115</v>
+      </c>
+      <c r="BY7">
+        <v>5.61975</v>
+      </c>
+      <c r="BZ7">
+        <v>4.39042</v>
+      </c>
+      <c r="CA7">
+        <v>61.65088</v>
+      </c>
+      <c r="CB7">
+        <v>4.39042</v>
+      </c>
+      <c r="CC7">
+        <v>4.39042</v>
+      </c>
+      <c r="CD7">
+        <v>4.39042</v>
+      </c>
+      <c r="CE7">
+        <v>4.39042</v>
+      </c>
+      <c r="CF7">
+        <v>32.66719</v>
+      </c>
+      <c r="CH7">
+        <v>5.79537</v>
+      </c>
+      <c r="CI7">
+        <v>14.22533</v>
+      </c>
+      <c r="CN7">
+        <v>26.87099</v>
       </c>
     </row>
   </sheetData>
@@ -2256,381 +3369,654 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>140</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>4.995299620221993</v>
+        <v>0.2567317874292471</v>
       </c>
       <c r="C2">
-        <v>0.1373027607088225</v>
+        <v>0.003845286956364941</v>
+      </c>
+      <c r="D2">
+        <v>0.007118240153419441</v>
       </c>
       <c r="E2">
-        <v>5.722706994833109</v>
+        <v>0.2347216007953974</v>
       </c>
       <c r="F2">
-        <v>0.2248889903485518</v>
+        <v>0.05051084456553481</v>
       </c>
       <c r="G2">
-        <v>0.9701352075957687</v>
+        <v>0.07987548391134897</v>
       </c>
       <c r="H2">
-        <v>0.3589151342952568</v>
+        <v>0.2165548182328019</v>
       </c>
       <c r="I2">
-        <v>2.96174237543613</v>
+        <v>0.5529570735250386</v>
       </c>
       <c r="J2">
-        <v>0.1377055136405786</v>
+        <v>0.1258646739526554</v>
       </c>
       <c r="K2">
-        <v>0.7118726997008468</v>
+        <v>0.1233670439450172</v>
       </c>
       <c r="L2">
-        <v>0.02940408630086061</v>
+        <v>0.06510705186218738</v>
       </c>
       <c r="M2">
-        <v>0.543092063647444</v>
+        <v>0.4708983355933286</v>
       </c>
       <c r="N2">
-        <v>0.01013837546677909</v>
+        <v>0.01347610064063868</v>
       </c>
       <c r="O2">
-        <v>0.008212814642403124</v>
+        <v>0.004610445200330868</v>
       </c>
       <c r="P2">
-        <v>0.1124828577445869</v>
+        <v>0.5214664221272083</v>
       </c>
       <c r="Q2">
-        <v>0.08147170337382224</v>
+        <v>4.902346869748512</v>
       </c>
       <c r="R2">
-        <v>4.497653829707875</v>
+        <v>3.120538311404077</v>
       </c>
       <c r="S2">
-        <v>2.389176444441049</v>
+        <v>0.3528092416746185</v>
+      </c>
+      <c r="T2">
+        <v>0.6215674287103258</v>
+      </c>
+      <c r="U2">
+        <v>0.1766078373456139</v>
+      </c>
+      <c r="V2">
+        <v>0.3385494245484366</v>
+      </c>
+      <c r="W2">
+        <v>0.1187035180225085</v>
+      </c>
+      <c r="X2">
+        <v>0.4484218550632823</v>
+      </c>
+      <c r="Y2">
+        <v>0.03313996621302832</v>
+      </c>
+      <c r="Z2">
+        <v>0.01258796449703186</v>
+      </c>
+      <c r="AA2">
+        <v>0.8277843875113289</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0.1110283836475294</v>
+      </c>
+      <c r="AD2">
+        <v>0.02182520874081401</v>
+      </c>
+      <c r="AE2">
+        <v>0.781717948247495</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>4.961212533967454</v>
+        <v>0.2388947702073719</v>
+      </c>
+      <c r="C3">
+        <v>0.009578198585317334</v>
       </c>
       <c r="D3">
-        <v>0.6419952810963966</v>
+        <v>0.004719129363319336</v>
       </c>
       <c r="E3">
-        <v>6.959182563089944</v>
+        <v>0.2221165009198686</v>
       </c>
       <c r="F3">
-        <v>2.330540908303858</v>
+        <v>0.05593148251747153</v>
       </c>
       <c r="G3">
-        <v>1.042140595617285</v>
+        <v>0.07591819957589944</v>
       </c>
       <c r="H3">
-        <v>0.1429654927510638</v>
+        <v>0.2146325910617518</v>
       </c>
       <c r="I3">
-        <v>2.619010873400925</v>
+        <v>0.535931371606131</v>
       </c>
       <c r="J3">
-        <v>0.1202849132683757</v>
+        <v>0.1204335510031214</v>
       </c>
       <c r="K3">
-        <v>0.530572759271272</v>
+        <v>0.1385112488566449</v>
       </c>
       <c r="L3">
-        <v>0.02534915275716958</v>
+        <v>0.02950902468378391</v>
       </c>
       <c r="M3">
-        <v>0.4642582614033626</v>
+        <v>0.450358291577071</v>
       </c>
       <c r="N3">
-        <v>0.003685789063810974</v>
+        <v>0.004512517079002648</v>
       </c>
       <c r="O3">
-        <v>0.01282015160987156</v>
+        <v>0.003369817414336758</v>
       </c>
       <c r="P3">
-        <v>0.08852755607780817</v>
+        <v>0.5135386783600112</v>
       </c>
       <c r="Q3">
-        <v>0.076160053919179</v>
+        <v>2.938527803292418</v>
       </c>
       <c r="R3">
-        <v>6.818766289144904</v>
+        <v>2.792331749624245</v>
       </c>
       <c r="S3">
-        <v>0.1751619505126095</v>
+        <v>0.3245744329453755</v>
+      </c>
+      <c r="T3">
+        <v>0.6177895941043137</v>
+      </c>
+      <c r="U3">
+        <v>0.1690544323794439</v>
+      </c>
+      <c r="V3">
+        <v>0.3509354883701106</v>
+      </c>
+      <c r="W3">
+        <v>0.1163079235980924</v>
+      </c>
+      <c r="X3">
+        <v>0.4441761890511858</v>
+      </c>
+      <c r="Y3">
+        <v>0.02246193237586758</v>
+      </c>
+      <c r="Z3">
+        <v>0.01522412553370688</v>
+      </c>
+      <c r="AA3">
+        <v>0.8346769748029806</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.1087219056892306</v>
+      </c>
+      <c r="AD3">
+        <v>0.06508247158952046</v>
+      </c>
+      <c r="AE3">
+        <v>0.8172624168178019</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>4.749561423667795</v>
+        <v>0.2429947458288281</v>
+      </c>
+      <c r="C4">
+        <v>0.002784712029299531</v>
       </c>
       <c r="D4">
-        <v>0.8768384162925928</v>
+        <v>0.008725973071774232</v>
       </c>
       <c r="E4">
-        <v>3.986254183380136</v>
+        <v>0.2343753653222213</v>
       </c>
       <c r="F4">
-        <v>1.106542119991522</v>
+        <v>0.05964401655795518</v>
       </c>
       <c r="G4">
-        <v>0.5996673779892893</v>
+        <v>0.07660263279009112</v>
       </c>
       <c r="H4">
-        <v>0.2452153856524817</v>
+        <v>0.2461973159052365</v>
       </c>
       <c r="I4">
-        <v>2.606056542008332</v>
+        <v>0.5977712910137175</v>
       </c>
       <c r="J4">
-        <v>0.1552053318019095</v>
+        <v>0.1464494603855837</v>
       </c>
       <c r="K4">
-        <v>0.5939310416617086</v>
+        <v>0.1632845146299862</v>
       </c>
       <c r="L4">
-        <v>0.01967055912201143</v>
+        <v>0.06030835511275938</v>
       </c>
       <c r="M4">
-        <v>0.4459142624125887</v>
+        <v>0.4941754986559181</v>
       </c>
       <c r="N4">
-        <v>0.009088342074837686</v>
+        <v>0.02982349513264402</v>
       </c>
       <c r="O4">
-        <v>0.01249211973890599</v>
+        <v>0.03629106358805248</v>
       </c>
       <c r="P4">
-        <v>0.07747696896596436</v>
+        <v>0.5714908984911915</v>
       </c>
       <c r="Q4">
-        <v>0.05101515963165079</v>
+        <v>3.568579237481926</v>
       </c>
       <c r="R4">
-        <v>3.67225616663221</v>
+        <v>2.469726005941752</v>
+      </c>
+      <c r="S4">
+        <v>0.4725624545271377</v>
+      </c>
+      <c r="T4">
+        <v>0.7360582261264725</v>
+      </c>
+      <c r="U4">
+        <v>0.2315933307926787</v>
+      </c>
+      <c r="V4">
+        <v>0.4324292699803165</v>
+      </c>
+      <c r="W4">
+        <v>0.130978576121196</v>
+      </c>
+      <c r="X4">
+        <v>0.4854636068683703</v>
+      </c>
+      <c r="Y4">
+        <v>0.02937620730813913</v>
+      </c>
+      <c r="Z4">
+        <v>0.02889297873319075</v>
+      </c>
+      <c r="AA4">
+        <v>1.019201613808264</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0.2028721871493922</v>
+      </c>
+      <c r="AD4">
+        <v>0.06988195110985163</v>
+      </c>
+      <c r="AE4">
+        <v>0.9997034524459042</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>3.394328361906694</v>
+        <v>0.3729049973249059</v>
       </c>
       <c r="C5">
-        <v>1.47044104470758</v>
+        <v>0.02694845997099607</v>
       </c>
       <c r="D5">
-        <v>1.067300279922528</v>
+        <v>0.0324827661099194</v>
       </c>
       <c r="E5">
-        <v>7.687068124186458</v>
+        <v>0.39032191842229</v>
       </c>
       <c r="F5">
-        <v>0.4810428615956892</v>
+        <v>0.0888902950888275</v>
       </c>
       <c r="G5">
-        <v>0.2801927318624694</v>
+        <v>0.109866111966673</v>
       </c>
       <c r="H5">
-        <v>0.6119920286217797</v>
+        <v>0.4154307738225563</v>
       </c>
       <c r="I5">
-        <v>1.899183454083217</v>
+        <v>0.9717805081934244</v>
       </c>
       <c r="J5">
-        <v>0.1324200371744105</v>
+        <v>0.2663882976659897</v>
       </c>
       <c r="K5">
-        <v>0.8803236986232265</v>
+        <v>0.3216515360968091</v>
       </c>
       <c r="L5">
-        <v>0.07093282060830981</v>
+        <v>0.09466984193820022</v>
       </c>
       <c r="M5">
-        <v>0.68953012569829</v>
+        <v>0.8922012454398054</v>
       </c>
       <c r="N5">
-        <v>0.02844049743334633</v>
+        <v>0.06959657476522525</v>
       </c>
       <c r="O5">
-        <v>0.02898129780539387</v>
+        <v>0.1448929887656785</v>
       </c>
       <c r="P5">
-        <v>0.1810888854672414</v>
+        <v>1.045245004516721</v>
       </c>
       <c r="Q5">
-        <v>0.07914298463203463</v>
+        <v>3.459797278153777</v>
       </c>
       <c r="R5">
-        <v>2.578374138105477</v>
+        <v>1.285287800350727</v>
       </c>
       <c r="S5">
-        <v>1.447032339310716</v>
+        <v>0.7513371462848109</v>
+      </c>
+      <c r="T5">
+        <v>1.217303815606384</v>
+      </c>
+      <c r="U5">
+        <v>0.4611624410282607</v>
+      </c>
+      <c r="V5">
+        <v>0.8667372028420075</v>
+      </c>
+      <c r="W5">
+        <v>0.2286107701378206</v>
+      </c>
+      <c r="X5">
+        <v>0.8088577801996953</v>
+      </c>
+      <c r="Y5">
+        <v>0.2187301557019112</v>
+      </c>
+      <c r="Z5">
+        <v>0.0117788305327095</v>
+      </c>
+      <c r="AA5">
+        <v>1.80458745031729</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.3286425847596396</v>
+      </c>
+      <c r="AD5">
+        <v>0.1132391211025465</v>
+      </c>
+      <c r="AE5">
+        <v>1.841054206331408</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>2.089110546386839</v>
+        <v>0.5651809338937923</v>
+      </c>
+      <c r="C6">
+        <v>0.1549862484518122</v>
+      </c>
+      <c r="D6">
+        <v>0.08877281241652066</v>
       </c>
       <c r="E6">
-        <v>3.27484646241964</v>
+        <v>0.6023233173926565</v>
+      </c>
+      <c r="F6">
+        <v>0.2141947345073852</v>
+      </c>
+      <c r="G6">
+        <v>0.1519741212180127</v>
       </c>
       <c r="H6">
-        <v>0.4901387526781569</v>
+        <v>0.795782877676704</v>
       </c>
       <c r="I6">
-        <v>1.595403737920094</v>
+        <v>1.736785835322513</v>
       </c>
       <c r="J6">
-        <v>2.559981566258668</v>
+        <v>0.3908177151822493</v>
       </c>
       <c r="K6">
-        <v>0.03245120048290794</v>
+        <v>0.2792177593621899</v>
       </c>
       <c r="L6">
-        <v>0.1975532595488047</v>
+        <v>0.5297315808260245</v>
       </c>
       <c r="M6">
-        <v>0.9585807285128292</v>
+        <v>1.290572179591312</v>
       </c>
       <c r="N6">
-        <v>0.09765903269132591</v>
+        <v>0.4591359009919776</v>
       </c>
       <c r="O6">
-        <v>0.1429844332320555</v>
+        <v>1.461199331151093</v>
       </c>
       <c r="P6">
-        <v>0.1223418246211045</v>
+        <v>1.086318150483629</v>
       </c>
       <c r="Q6">
-        <v>0.05740870400691337</v>
+        <v>0.2839018588617967</v>
       </c>
       <c r="R6">
-        <v>1.206525798489109</v>
+        <v>0.4840458784881538</v>
+      </c>
+      <c r="S6">
+        <v>0.9679993031469387</v>
+      </c>
+      <c r="T6">
+        <v>1.502334964644344</v>
+      </c>
+      <c r="U6">
+        <v>0.8724815774000355</v>
+      </c>
+      <c r="V6">
+        <v>0.6315271455558554</v>
+      </c>
+      <c r="W6">
+        <v>0.6141422938829452</v>
+      </c>
+      <c r="X6">
+        <v>1.928844417244325</v>
+      </c>
+      <c r="Y6">
+        <v>0.1385790381632242</v>
+      </c>
+      <c r="Z6">
+        <v>0.3396293340697504</v>
+      </c>
+      <c r="AA6">
+        <v>1.655187532274524</v>
+      </c>
+      <c r="AC6">
+        <v>1.871214477866439</v>
+      </c>
+      <c r="AD6">
+        <v>1.419232924710856</v>
+      </c>
+      <c r="AE6">
+        <v>2.166587620419882</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>1000.111</v>
       </c>
       <c r="B7">
-        <v>0.04339928807014247</v>
+        <v>0.8927339598681654</v>
       </c>
       <c r="C7">
-        <v>1.141816039754351</v>
+        <v>0.6316924444691771</v>
+      </c>
+      <c r="D7">
+        <v>0.6315981928634503</v>
       </c>
       <c r="E7">
-        <v>0.7663485537973792</v>
+        <v>0.1104298420370769</v>
+      </c>
+      <c r="F7">
+        <v>1.781869915507533</v>
       </c>
       <c r="G7">
-        <v>0.3091430742427847</v>
+        <v>0.6980350480696175</v>
       </c>
       <c r="I7">
-        <v>0.8434311858951723</v>
+        <v>0.3202764694856635</v>
+      </c>
+      <c r="J7">
+        <v>0.7922232714319596</v>
       </c>
       <c r="K7">
-        <v>1.26697943793387</v>
+        <v>0.2139028980815356</v>
       </c>
       <c r="L7">
-        <v>1.093228581790163</v>
+        <v>0.06550801383103871</v>
       </c>
       <c r="M7">
-        <v>0.3677491681763419</v>
-      </c>
-      <c r="N7">
-        <v>1.545934469471649</v>
+        <v>0.2670462372931093</v>
       </c>
       <c r="O7">
-        <v>0.3733519843742963</v>
-      </c>
-      <c r="P7">
-        <v>0.8235924988780805</v>
+        <v>0.4067213753795856</v>
       </c>
       <c r="Q7">
-        <v>0.8392524823199595</v>
-      </c>
-      <c r="R7">
-        <v>2.611041598220012</v>
+        <v>0.7263511519106888</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.0471613805658548</v>
+      </c>
+      <c r="U7">
+        <v>0.4794162673224949</v>
+      </c>
+      <c r="V7">
+        <v>0.08550096437361003</v>
+      </c>
+      <c r="W7">
+        <v>0.008641828086214004</v>
+      </c>
+      <c r="Z7">
+        <v>0.09976243891336319</v>
+      </c>
+      <c r="AA7">
+        <v>1.459361756247554</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1.419125349372266</v>
+      </c>
+      <c r="AD7">
+        <v>0.6349570385480261</v>
       </c>
     </row>
   </sheetData>
@@ -2640,993 +4026,1818 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:CM7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:91">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:91">
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.4547923067161973</v>
+      </c>
       <c r="C2">
-        <v>7.064420471035114</v>
+        <v>0.4338098165290926</v>
+      </c>
+      <c r="D2">
+        <v>0.3767388423474659</v>
       </c>
       <c r="E2">
-        <v>7.104429508065826</v>
+        <v>0.3691919730045311</v>
       </c>
       <c r="F2">
-        <v>6.910254081720142</v>
+        <v>0.374246917594366</v>
       </c>
       <c r="G2">
-        <v>6.72301976646716</v>
+        <v>0.4138531294619504</v>
+      </c>
+      <c r="H2">
+        <v>0.4182476994526091</v>
+      </c>
+      <c r="I2">
+        <v>0.4277774705496313</v>
       </c>
       <c r="J2">
-        <v>8.092142994555823</v>
+        <v>0.3913331247539568</v>
+      </c>
+      <c r="K2">
+        <v>0.3943876415021428</v>
       </c>
       <c r="L2">
-        <v>-0.0009868510245363523</v>
+        <v>-0.01368074896738534</v>
+      </c>
+      <c r="M2">
+        <v>0.3825028390869296</v>
       </c>
       <c r="N2">
-        <v>6.751293942620885</v>
+        <v>0.2891875879220103</v>
       </c>
       <c r="O2">
-        <v>7.069335002800199</v>
+        <v>0.302330527452056</v>
       </c>
       <c r="P2">
-        <v>7.646384411928474</v>
+        <v>0.2906161911432185</v>
       </c>
       <c r="Q2">
-        <v>5.781068503813306</v>
+        <v>0.4252761710988741</v>
       </c>
       <c r="R2">
-        <v>6.251196042384491</v>
+        <v>0.43237934670584</v>
       </c>
       <c r="S2">
-        <v>6.070646474332196</v>
+        <v>0.4187928843313071</v>
       </c>
       <c r="T2">
-        <v>5.647660769122093</v>
+        <v>0.7931907647891162</v>
       </c>
       <c r="U2">
-        <v>6.36142102139537</v>
+        <v>0.7945591553231269</v>
       </c>
       <c r="V2">
-        <v>5.858760701974419</v>
+        <v>0.7857287786616363</v>
       </c>
       <c r="W2">
-        <v>0.002369456689062963</v>
+        <v>-0.007287811422197667</v>
       </c>
       <c r="X2">
-        <v>2.160652823311019</v>
+        <v>1.056774295213198</v>
       </c>
       <c r="Y2">
-        <v>2.194846345568148</v>
+        <v>1.028987666461092</v>
       </c>
       <c r="Z2">
-        <v>2.221752221235033</v>
+        <v>1.036763881438722</v>
       </c>
       <c r="AA2">
-        <v>2.445671313876951</v>
+        <v>0.8149758053677819</v>
       </c>
       <c r="AB2">
-        <v>2.494606978787585</v>
+        <v>0.810479987369579</v>
       </c>
       <c r="AC2">
-        <v>2.420884934807099</v>
+        <v>0.8114660727287367</v>
       </c>
       <c r="AD2">
-        <v>1.226400344504993</v>
+        <v>1.024649311657444</v>
       </c>
       <c r="AE2">
-        <v>1.232453988382594</v>
+        <v>1.030269948898366</v>
       </c>
       <c r="AF2">
-        <v>1.237821799711515</v>
+        <v>1.017950613288509</v>
       </c>
       <c r="AG2">
-        <v>1.285854664692653</v>
+        <v>1.136373187185145</v>
       </c>
       <c r="AH2">
-        <v>0.321177658068397</v>
+        <v>0.3155450329457927</v>
       </c>
       <c r="AI2">
-        <v>1.256341272787208</v>
+        <v>1.12836026735948</v>
       </c>
       <c r="AJ2">
-        <v>1.267245336765769</v>
+        <v>1.133940845884587</v>
       </c>
       <c r="AK2">
-        <v>0.7169090825445777</v>
+        <v>1.454145724016244</v>
       </c>
       <c r="AL2">
-        <v>0.7228491495566002</v>
+        <v>1.433119098014791</v>
       </c>
       <c r="AM2">
-        <v>0.7030893371885647</v>
+        <v>1.4290301298692</v>
       </c>
       <c r="AN2">
-        <v>0.7438308805416863</v>
+        <v>1.529057309808007</v>
       </c>
       <c r="AO2">
-        <v>0.7280710238081137</v>
+        <v>1.537786113055913</v>
       </c>
       <c r="AP2">
-        <v>0.7319420670612602</v>
+        <v>1.535995543250527</v>
       </c>
       <c r="AQ2">
-        <v>0.5291258656977472</v>
+        <v>1.225588893533234</v>
       </c>
       <c r="AR2">
-        <v>0.5297452748983102</v>
+        <v>1.216098198662616</v>
       </c>
       <c r="AS2">
-        <v>0.334610284186732</v>
+        <v>0.3176746066122881</v>
       </c>
       <c r="AT2">
-        <v>0.5319161883958456</v>
-      </c>
-      <c r="AU2">
-        <v>0.6854918213014732</v>
+        <v>1.199452742545117</v>
       </c>
       <c r="AV2">
-        <v>0.6558612851468613</v>
+        <v>8.132418173200753</v>
       </c>
       <c r="AW2">
-        <v>0.6373295356540289</v>
+        <v>6.531586559146313</v>
       </c>
       <c r="AX2">
-        <v>0.3346329826127608</v>
+        <v>1.124271014713149</v>
       </c>
       <c r="AY2">
-        <v>8.271734338524011</v>
+        <v>1.129043459424978</v>
       </c>
       <c r="AZ2">
-        <v>7.212069606881336</v>
+        <v>1.132593544131964</v>
+      </c>
+      <c r="BA2">
+        <v>1.74367707609225</v>
       </c>
       <c r="BB2">
-        <v>10.5908753375122</v>
+        <v>1.74367707609225</v>
+      </c>
+      <c r="BC2">
+        <v>1.503056608382672</v>
+      </c>
+      <c r="BD2">
+        <v>0.3090875890116669</v>
+      </c>
+      <c r="BE2">
+        <v>1.205849834507182</v>
+      </c>
+      <c r="BF2">
+        <v>1.196113957739343</v>
+      </c>
+      <c r="BG2">
+        <v>1.199126507072455</v>
+      </c>
+      <c r="BH2">
+        <v>1.503502853758553</v>
+      </c>
+      <c r="BI2">
+        <v>1.467275227138898</v>
+      </c>
+      <c r="BJ2">
+        <v>1.448402357761093</v>
+      </c>
+      <c r="BK2">
+        <v>0.871681817154709</v>
+      </c>
+      <c r="BL2">
+        <v>0.8668600931175635</v>
+      </c>
+      <c r="BM2">
+        <v>0.8606569386000935</v>
+      </c>
+      <c r="BN2">
+        <v>1.069288845076402</v>
+      </c>
+      <c r="BO2">
+        <v>0.2832192748355427</v>
+      </c>
+      <c r="BP2">
+        <v>1.052172905939131</v>
+      </c>
+      <c r="BQ2">
+        <v>1.067420014120507</v>
+      </c>
+      <c r="BR2">
+        <v>1.615203023390408</v>
+      </c>
+      <c r="BS2">
+        <v>1.548970347383363</v>
+      </c>
+      <c r="BT2">
+        <v>1.584253838706646</v>
+      </c>
+      <c r="BU2">
+        <v>1.444510696050952</v>
+      </c>
+      <c r="BV2">
+        <v>1.454145724016244</v>
+      </c>
+      <c r="BW2">
+        <v>1.429185091416645</v>
+      </c>
+      <c r="BX2">
+        <v>1.713281144185186</v>
+      </c>
+      <c r="BY2">
+        <v>1.703778242719708</v>
+      </c>
+      <c r="BZ2">
+        <v>0.2747886960019589</v>
+      </c>
+      <c r="CA2">
+        <v>1.703778242719708</v>
+      </c>
+      <c r="CB2">
+        <v>1.703778242719708</v>
+      </c>
+      <c r="CC2">
+        <v>1.703778242719708</v>
+      </c>
+      <c r="CD2">
+        <v>1.703778242719708</v>
+      </c>
+      <c r="CE2">
+        <v>1.486433241190219</v>
+      </c>
+      <c r="CF2">
+        <v>1.555700556271368</v>
+      </c>
+      <c r="CG2">
+        <v>1.570638768007022</v>
+      </c>
+      <c r="CH2">
+        <v>1.58948577882106</v>
+      </c>
+      <c r="CI2">
+        <v>1.614159367825031</v>
+      </c>
+      <c r="CJ2">
+        <v>1.621299647032795</v>
+      </c>
+      <c r="CK2">
+        <v>0.2775910894396676</v>
+      </c>
+      <c r="CL2">
+        <v>1.641604552257557</v>
+      </c>
+      <c r="CM2">
+        <v>0.4555200828628035</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:91">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>9.502349937384105</v>
+        <v>0.407756540765395</v>
       </c>
       <c r="C3">
-        <v>7.225017864312048</v>
+        <v>0.4195471978956293</v>
+      </c>
+      <c r="D3">
+        <v>0.3649567682289266</v>
+      </c>
+      <c r="E3">
+        <v>0.3642345733852643</v>
       </c>
       <c r="F3">
-        <v>7.02783389743097</v>
+        <v>0.3811738037048366</v>
       </c>
       <c r="G3">
-        <v>6.79837156257643</v>
+        <v>0.4055818344045502</v>
       </c>
       <c r="H3">
-        <v>7.7001910655189</v>
+        <v>0.4147793736299007</v>
       </c>
       <c r="I3">
-        <v>8.04080832617964</v>
+        <v>0.4120148613579037</v>
+      </c>
+      <c r="J3">
+        <v>0.3873440764880923</v>
       </c>
       <c r="K3">
-        <v>9.877047916339993</v>
+        <v>0.3864964241368778</v>
       </c>
       <c r="L3">
-        <v>0.03527755258783717</v>
+        <v>0.002203885886981973</v>
       </c>
       <c r="M3">
-        <v>7.880460419087207</v>
+        <v>0.3852808701768957</v>
       </c>
       <c r="N3">
-        <v>11.17634297927583</v>
+        <v>0.2953375731095007</v>
+      </c>
+      <c r="O3">
+        <v>0.282710222569504</v>
       </c>
       <c r="P3">
-        <v>7.187274927320402</v>
+        <v>0.2857610326936241</v>
       </c>
       <c r="Q3">
-        <v>5.565268254081594</v>
+        <v>0.4189332400797015</v>
       </c>
       <c r="R3">
-        <v>5.242696790752963</v>
+        <v>0.4155103492995443</v>
       </c>
       <c r="S3">
-        <v>4.986055734295956</v>
+        <v>0.4115174868911247</v>
       </c>
       <c r="T3">
-        <v>5.213947702742479</v>
+        <v>0.7852785468415371</v>
       </c>
       <c r="U3">
-        <v>4.950447934244662</v>
+        <v>0.7812325048225195</v>
       </c>
       <c r="V3">
-        <v>5.196917576111406</v>
+        <v>0.7905190594301308</v>
       </c>
       <c r="W3">
-        <v>0.03215688636863803</v>
+        <v>0.006503189333427562</v>
       </c>
       <c r="X3">
-        <v>1.858502094329916</v>
+        <v>1.031485564459946</v>
       </c>
       <c r="Y3">
-        <v>1.858708955848912</v>
+        <v>0.9976601001549669</v>
       </c>
       <c r="Z3">
-        <v>1.856642319914637</v>
+        <v>1.01865348606865</v>
       </c>
       <c r="AA3">
-        <v>2.066007531363974</v>
+        <v>0.8003535714510898</v>
       </c>
       <c r="AB3">
-        <v>2.013633823405331</v>
+        <v>0.7914544661881059</v>
       </c>
       <c r="AC3">
-        <v>2.031369168381267</v>
+        <v>0.7765408711952783</v>
       </c>
       <c r="AD3">
-        <v>1.103650881377462</v>
+        <v>1.023558280422366</v>
       </c>
       <c r="AE3">
-        <v>1.107652578497324</v>
+        <v>1.041750064240713</v>
       </c>
       <c r="AF3">
-        <v>1.110470333450653</v>
+        <v>1.031110320561633</v>
       </c>
       <c r="AG3">
-        <v>1.15289961092246</v>
+        <v>1.086703888348429</v>
       </c>
       <c r="AH3">
-        <v>0.3521547401396932</v>
+        <v>0.3199370022997404</v>
       </c>
       <c r="AI3">
-        <v>1.163563588809684</v>
+        <v>1.098840019176549</v>
       </c>
       <c r="AJ3">
-        <v>1.148779821474097</v>
+        <v>1.101115890559633</v>
       </c>
       <c r="AK3">
-        <v>0.6683759443818894</v>
+        <v>1.408360956361097</v>
       </c>
       <c r="AL3">
-        <v>0.6610043702662816</v>
+        <v>1.411283897097292</v>
       </c>
       <c r="AM3">
-        <v>0.6646834968210266</v>
+        <v>1.402427783786199</v>
       </c>
       <c r="AN3">
-        <v>0.6419677404789425</v>
+        <v>1.553317736609553</v>
       </c>
       <c r="AO3">
-        <v>0.6404484425534448</v>
+        <v>1.54878281926375</v>
       </c>
       <c r="AP3">
-        <v>0.6633742292551066</v>
+        <v>1.546732535272024</v>
       </c>
       <c r="AQ3">
-        <v>0.5014537847257093</v>
+        <v>1.208763443558066</v>
       </c>
       <c r="AR3">
-        <v>0.4888927903535583</v>
+        <v>1.206732950618097</v>
       </c>
       <c r="AS3">
-        <v>0.3422254185756777</v>
+        <v>0.3182748527212835</v>
       </c>
       <c r="AT3">
-        <v>0.4947545510512887</v>
+        <v>1.19708816825056</v>
       </c>
       <c r="AU3">
-        <v>0.6368470240465879</v>
+        <v>5.909899799829583</v>
       </c>
       <c r="AV3">
-        <v>0.6133229747616171</v>
+        <v>6.594364228905476</v>
       </c>
       <c r="AW3">
-        <v>0.5865676943124826</v>
+        <v>5.944115082926417</v>
       </c>
       <c r="AX3">
-        <v>0.3461522266550301</v>
+        <v>1.105516090801288</v>
       </c>
       <c r="AY3">
-        <v>12.27497424921892</v>
+        <v>1.109795991719114</v>
       </c>
       <c r="AZ3">
-        <v>6.30350266697805</v>
+        <v>1.119148044861055</v>
+      </c>
+      <c r="BA3">
+        <v>1.681327453560303</v>
       </c>
       <c r="BB3">
-        <v>6.551219073004707</v>
+        <v>1.681327453560303</v>
+      </c>
+      <c r="BC3">
+        <v>1.521133189182512</v>
+      </c>
+      <c r="BD3">
+        <v>0.3241365055696226</v>
+      </c>
+      <c r="BE3">
+        <v>1.187948157097851</v>
+      </c>
+      <c r="BF3">
+        <v>1.193324100360536</v>
+      </c>
+      <c r="BG3">
+        <v>1.172923124619903</v>
+      </c>
+      <c r="BH3">
+        <v>1.475400969572548</v>
+      </c>
+      <c r="BI3">
+        <v>1.485412071223396</v>
+      </c>
+      <c r="BJ3">
+        <v>1.458113073006827</v>
+      </c>
+      <c r="BK3">
+        <v>0.8643844160088987</v>
+      </c>
+      <c r="BL3">
+        <v>0.8687030724557311</v>
+      </c>
+      <c r="BM3">
+        <v>0.8780728223812552</v>
+      </c>
+      <c r="BN3">
+        <v>1.074675689506403</v>
+      </c>
+      <c r="BO3">
+        <v>0.2648208794210906</v>
+      </c>
+      <c r="BP3">
+        <v>1.033402833025128</v>
+      </c>
+      <c r="BQ3">
+        <v>1.034908170624575</v>
+      </c>
+      <c r="BR3">
+        <v>1.59174740901063</v>
+      </c>
+      <c r="BS3">
+        <v>1.547746108700796</v>
+      </c>
+      <c r="BT3">
+        <v>1.577590826452121</v>
+      </c>
+      <c r="BU3">
+        <v>1.410270371683569</v>
+      </c>
+      <c r="BV3">
+        <v>1.440715701922406</v>
+      </c>
+      <c r="BW3">
+        <v>1.425858269310188</v>
+      </c>
+      <c r="BX3">
+        <v>1.710062014575053</v>
+      </c>
+      <c r="BY3">
+        <v>1.69965696626151</v>
+      </c>
+      <c r="BZ3">
+        <v>0.2591846452245354</v>
+      </c>
+      <c r="CA3">
+        <v>1.69965696626151</v>
+      </c>
+      <c r="CB3">
+        <v>1.69965696626151</v>
+      </c>
+      <c r="CC3">
+        <v>1.69965696626151</v>
+      </c>
+      <c r="CD3">
+        <v>1.69965696626151</v>
+      </c>
+      <c r="CE3">
+        <v>1.486218300743731</v>
+      </c>
+      <c r="CF3">
+        <v>1.556961108148077</v>
+      </c>
+      <c r="CG3">
+        <v>1.551877522539961</v>
+      </c>
+      <c r="CH3">
+        <v>1.539470500755007</v>
+      </c>
+      <c r="CI3">
+        <v>1.657886906104507</v>
+      </c>
+      <c r="CJ3">
+        <v>1.674162402160061</v>
+      </c>
+      <c r="CK3">
+        <v>0.2554265921440878</v>
+      </c>
+      <c r="CL3">
+        <v>1.667749047505342</v>
+      </c>
+      <c r="CM3">
+        <v>0.4212710845068655</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:91">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>8.349261066076865</v>
+        <v>0.4262230204773905</v>
       </c>
       <c r="C4">
-        <v>8.097943022434288</v>
+        <v>0.4153237554480242</v>
       </c>
       <c r="D4">
-        <v>7.831310186146149</v>
+        <v>0.4035173378011602</v>
+      </c>
+      <c r="E4">
+        <v>0.4090329488708145</v>
+      </c>
+      <c r="F4">
+        <v>0.4056062717828424</v>
+      </c>
+      <c r="G4">
+        <v>0.4385924890453255</v>
       </c>
       <c r="H4">
-        <v>6.704677473884654</v>
+        <v>0.4365824889044669</v>
       </c>
       <c r="I4">
-        <v>5.464640693553923</v>
+        <v>0.4526007412116135</v>
       </c>
       <c r="J4">
-        <v>6.704677473884654</v>
+        <v>0.4245582803498234</v>
       </c>
       <c r="K4">
-        <v>7.127558030604622</v>
+        <v>0.3988242602650527</v>
       </c>
       <c r="L4">
-        <v>0.02144254092336376</v>
+        <v>0.006353441123581086</v>
       </c>
       <c r="M4">
-        <v>5.464640693553923</v>
+        <v>0.4186372888179969</v>
       </c>
       <c r="N4">
-        <v>7.538315484663701</v>
+        <v>0.3240126369938465</v>
       </c>
       <c r="O4">
-        <v>5.831992439163377</v>
+        <v>0.3084214051061787</v>
       </c>
       <c r="P4">
-        <v>6.334273178367257</v>
+        <v>0.3079171809206501</v>
       </c>
       <c r="Q4">
-        <v>5.201134398847057</v>
+        <v>0.4276680647546414</v>
       </c>
       <c r="R4">
-        <v>5.427409397771441</v>
+        <v>0.4505494015138006</v>
       </c>
       <c r="S4">
-        <v>4.992757328963292</v>
+        <v>0.4498792089151294</v>
       </c>
       <c r="T4">
-        <v>5.26283146579071</v>
+        <v>0.9004716188084869</v>
       </c>
       <c r="U4">
-        <v>4.773271159006398</v>
+        <v>0.8471178902505726</v>
       </c>
       <c r="V4">
-        <v>5.15760367342838</v>
+        <v>0.8435868068352914</v>
       </c>
       <c r="W4">
-        <v>0.01216825791178978</v>
+        <v>-0.007198088401646786</v>
       </c>
       <c r="X4">
-        <v>1.865189578994434</v>
+        <v>1.145597511263968</v>
       </c>
       <c r="Y4">
-        <v>1.828300269739079</v>
+        <v>1.103419596288262</v>
       </c>
       <c r="Z4">
-        <v>1.82840538107907</v>
+        <v>1.106227912203372</v>
       </c>
       <c r="AA4">
-        <v>2.09717633028342</v>
+        <v>0.851177507746925</v>
       </c>
       <c r="AB4">
-        <v>2.048277982571045</v>
+        <v>0.8646601088073123</v>
       </c>
       <c r="AC4">
-        <v>2.113581835994198</v>
+        <v>0.8651056898888534</v>
       </c>
       <c r="AD4">
-        <v>1.053766922316019</v>
+        <v>1.147699711519805</v>
       </c>
       <c r="AE4">
-        <v>1.032792623102875</v>
+        <v>1.129783947658595</v>
       </c>
       <c r="AF4">
-        <v>1.046057003568155</v>
+        <v>1.118173405557732</v>
       </c>
       <c r="AG4">
-        <v>1.071500268853276</v>
+        <v>1.227950738111786</v>
       </c>
       <c r="AH4">
-        <v>0.3266684479855524</v>
+        <v>0.3467651562630831</v>
       </c>
       <c r="AI4">
-        <v>1.098304388054219</v>
+        <v>1.196756245303372</v>
       </c>
       <c r="AJ4">
-        <v>1.099722870674653</v>
+        <v>1.208526807331748</v>
       </c>
       <c r="AK4">
-        <v>0.612302942770254</v>
+        <v>1.553785469934812</v>
       </c>
       <c r="AL4">
-        <v>0.6113415128449541</v>
+        <v>1.59822541526189</v>
       </c>
       <c r="AM4">
-        <v>0.6275416624151797</v>
+        <v>1.541550529591999</v>
       </c>
       <c r="AN4">
-        <v>0.6280608853753045</v>
+        <v>1.813522512939195</v>
       </c>
       <c r="AO4">
-        <v>0.6056226521514031</v>
+        <v>1.759467985080712</v>
       </c>
       <c r="AP4">
-        <v>0.6073258119509334</v>
+        <v>1.744546412285277</v>
       </c>
       <c r="AQ4">
-        <v>0.4714676797787611</v>
+        <v>1.337368577819541</v>
       </c>
       <c r="AR4">
-        <v>0.473734774891326</v>
+        <v>1.308996055084245</v>
       </c>
       <c r="AS4">
-        <v>0.3384215441849036</v>
+        <v>0.3336360612722604</v>
       </c>
       <c r="AT4">
-        <v>0.4557809501659731</v>
+        <v>1.261849453430601</v>
       </c>
       <c r="AU4">
-        <v>0.5505601740692386</v>
-      </c>
-      <c r="AV4">
-        <v>0.5358862093517571</v>
+        <v>6.308582609480578</v>
       </c>
       <c r="AW4">
-        <v>0.5206625184892706</v>
+        <v>5.502147591799843</v>
       </c>
       <c r="AX4">
-        <v>0.3440814590572777</v>
+        <v>1.22336006793155</v>
       </c>
       <c r="AY4">
-        <v>6.791067641750565</v>
+        <v>1.225554113539033</v>
+      </c>
+      <c r="AZ4">
+        <v>1.233471410540339</v>
       </c>
       <c r="BA4">
-        <v>8.070543706253178</v>
+        <v>2.051973591530798</v>
+      </c>
+      <c r="BB4">
+        <v>2.051973591530798</v>
+      </c>
+      <c r="BC4">
+        <v>1.768314610092161</v>
+      </c>
+      <c r="BD4">
+        <v>0.3286896830973003</v>
+      </c>
+      <c r="BE4">
+        <v>1.314876298731589</v>
+      </c>
+      <c r="BF4">
+        <v>1.306176354084322</v>
+      </c>
+      <c r="BG4">
+        <v>1.301596518638601</v>
+      </c>
+      <c r="BH4">
+        <v>1.704998243010691</v>
+      </c>
+      <c r="BI4">
+        <v>1.65469930532582</v>
+      </c>
+      <c r="BJ4">
+        <v>1.688517529345813</v>
+      </c>
+      <c r="BK4">
+        <v>0.923191777755811</v>
+      </c>
+      <c r="BL4">
+        <v>0.912344540296131</v>
+      </c>
+      <c r="BM4">
+        <v>0.9285373773878917</v>
+      </c>
+      <c r="BN4">
+        <v>1.146868665248267</v>
+      </c>
+      <c r="BO4">
+        <v>0.3096172125550964</v>
+      </c>
+      <c r="BP4">
+        <v>1.171237552362122</v>
+      </c>
+      <c r="BQ4">
+        <v>1.128025800030279</v>
+      </c>
+      <c r="BR4">
+        <v>1.825051868076972</v>
+      </c>
+      <c r="BS4">
+        <v>1.804924852715504</v>
+      </c>
+      <c r="BT4">
+        <v>1.767186037158641</v>
+      </c>
+      <c r="BU4">
+        <v>1.576459844087234</v>
+      </c>
+      <c r="BV4">
+        <v>1.62497327382354</v>
+      </c>
+      <c r="BW4">
+        <v>1.627905674638786</v>
+      </c>
+      <c r="BX4">
+        <v>2.059194435844655</v>
+      </c>
+      <c r="BY4">
+        <v>2.069193032273651</v>
+      </c>
+      <c r="BZ4">
+        <v>0.2989059926922694</v>
+      </c>
+      <c r="CA4">
+        <v>2.069193032273651</v>
+      </c>
+      <c r="CB4">
+        <v>2.069193032273651</v>
+      </c>
+      <c r="CC4">
+        <v>2.069193032273651</v>
+      </c>
+      <c r="CD4">
+        <v>2.069193032273651</v>
+      </c>
+      <c r="CE4">
+        <v>1.665916907664822</v>
+      </c>
+      <c r="CF4">
+        <v>1.828855506837341</v>
+      </c>
+      <c r="CG4">
+        <v>1.835087556203025</v>
+      </c>
+      <c r="CH4">
+        <v>1.803448286560028</v>
+      </c>
+      <c r="CI4">
+        <v>1.937164820132522</v>
+      </c>
+      <c r="CJ4">
+        <v>2.023604538969613</v>
+      </c>
+      <c r="CK4">
+        <v>0.2969421619318575</v>
+      </c>
+      <c r="CL4">
+        <v>2.033313301019166</v>
+      </c>
+      <c r="CM4">
+        <v>0.4259762153913965</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:91">
       <c r="A5">
         <v>0</v>
       </c>
+      <c r="B5">
+        <v>0.6727338820007045</v>
+      </c>
       <c r="C5">
-        <v>4.800305204556098</v>
+        <v>0.6151970937741527</v>
       </c>
       <c r="D5">
-        <v>7.733427455026388</v>
+        <v>0.6491862936666146</v>
       </c>
       <c r="E5">
-        <v>5.653909786930866</v>
+        <v>0.6830777896897458</v>
+      </c>
+      <c r="F5">
+        <v>0.6298390208971719</v>
       </c>
       <c r="G5">
-        <v>6.31501058852859</v>
+        <v>0.6803966752780268</v>
+      </c>
+      <c r="H5">
+        <v>0.6980144762090456</v>
       </c>
       <c r="I5">
-        <v>7.82440111951963</v>
+        <v>0.7433590622446049</v>
       </c>
       <c r="J5">
-        <v>10.86895880789553</v>
+        <v>0.6583602959561009</v>
+      </c>
+      <c r="K5">
+        <v>0.6666540791162707</v>
       </c>
       <c r="L5">
-        <v>-0.002197188214864343</v>
+        <v>-0.01351205026199948</v>
       </c>
       <c r="M5">
-        <v>6.106703110172253</v>
+        <v>0.6743440872222022</v>
       </c>
       <c r="N5">
-        <v>5.426405771220866</v>
+        <v>0.5220559961130488</v>
+      </c>
+      <c r="O5">
+        <v>0.5187600853315087</v>
       </c>
       <c r="P5">
-        <v>5.709794862116025</v>
+        <v>0.5203586465770099</v>
       </c>
       <c r="Q5">
-        <v>5.151761973549949</v>
+        <v>0.7148221775631735</v>
       </c>
       <c r="R5">
-        <v>5.475201074491629</v>
+        <v>0.706188600614303</v>
       </c>
       <c r="S5">
-        <v>4.473393615964602</v>
+        <v>0.6935323838726521</v>
       </c>
       <c r="T5">
-        <v>5.606150901558078</v>
+        <v>1.427535647071472</v>
       </c>
       <c r="U5">
-        <v>4.638214755729734</v>
+        <v>1.397695090815193</v>
+      </c>
+      <c r="V5">
+        <v>1.325953423969126</v>
       </c>
       <c r="W5">
-        <v>0.01717662711178382</v>
+        <v>0.007100328452913396</v>
       </c>
       <c r="X5">
-        <v>2.703027625310849</v>
+        <v>1.902869042704377</v>
       </c>
       <c r="Y5">
-        <v>2.930760140926376</v>
+        <v>1.847641469174744</v>
       </c>
       <c r="Z5">
-        <v>2.688602283713438</v>
+        <v>1.806518027361153</v>
       </c>
       <c r="AA5">
-        <v>2.902551432941729</v>
+        <v>1.367058202794039</v>
       </c>
       <c r="AB5">
-        <v>3.014641172775545</v>
+        <v>1.36471692115816</v>
       </c>
       <c r="AC5">
-        <v>3.006508210565505</v>
+        <v>1.342265803278394</v>
       </c>
       <c r="AD5">
-        <v>1.485825586319976</v>
+        <v>1.910268779594173</v>
       </c>
       <c r="AE5">
-        <v>1.516244937192256</v>
+        <v>1.907146424832095</v>
       </c>
       <c r="AF5">
-        <v>1.480606853201056</v>
+        <v>1.793564109198068</v>
       </c>
       <c r="AG5">
-        <v>1.61734536519812</v>
+        <v>1.981547607108627</v>
       </c>
       <c r="AH5">
-        <v>0.4330045164129592</v>
+        <v>0.4545797313531135</v>
       </c>
       <c r="AI5">
-        <v>1.599121438917284</v>
+        <v>2.051820242626725</v>
       </c>
       <c r="AJ5">
-        <v>1.653623857129413</v>
+        <v>1.942174768061642</v>
       </c>
       <c r="AK5">
-        <v>0.9548702762228773</v>
+        <v>2.534605656282173</v>
       </c>
       <c r="AL5">
-        <v>0.8999113875581437</v>
+        <v>2.641469602894717</v>
       </c>
       <c r="AM5">
-        <v>0.9146933478751004</v>
+        <v>2.665278307621127</v>
       </c>
       <c r="AN5">
-        <v>0.8517684037259662</v>
+        <v>3.093836249811074</v>
       </c>
       <c r="AO5">
-        <v>0.8866381500159414</v>
+        <v>2.854298621081895</v>
       </c>
       <c r="AP5">
-        <v>0.909300938432563</v>
+        <v>3.115305631050416</v>
       </c>
       <c r="AQ5">
-        <v>0.7123219342604135</v>
+        <v>2.268117977759445</v>
       </c>
       <c r="AR5">
-        <v>0.7503292663184096</v>
+        <v>2.246190999585443</v>
       </c>
       <c r="AS5">
-        <v>0.4194023158881378</v>
+        <v>0.4468366259415371</v>
       </c>
       <c r="AT5">
-        <v>0.7191764120959206</v>
-      </c>
-      <c r="AU5">
-        <v>0.876046724803855</v>
+        <v>2.159975682712624</v>
       </c>
       <c r="AV5">
-        <v>0.8159040475761727</v>
+        <v>7.052867916539216</v>
       </c>
       <c r="AW5">
-        <v>0.8097464890500682</v>
+        <v>4.394667289121648</v>
       </c>
       <c r="AX5">
-        <v>0.4501551237138702</v>
+        <v>2.205300242600789</v>
       </c>
       <c r="AY5">
-        <v>5.084954748651293</v>
+        <v>2.133408375713788</v>
       </c>
       <c r="AZ5">
-        <v>7.873189521189055</v>
+        <v>2.153807468699389</v>
       </c>
       <c r="BA5">
-        <v>4.979885428025235</v>
+        <v>3.455161579678491</v>
       </c>
       <c r="BB5">
-        <v>6.369080173989713</v>
+        <v>3.455161579678491</v>
+      </c>
+      <c r="BC5">
+        <v>2.899799112354993</v>
+      </c>
+      <c r="BD5">
+        <v>0.4843032105159129</v>
+      </c>
+      <c r="BE5">
+        <v>1.955718375207928</v>
+      </c>
+      <c r="BF5">
+        <v>2.100569759930476</v>
+      </c>
+      <c r="BG5">
+        <v>2.101515748241682</v>
+      </c>
+      <c r="BH5">
+        <v>2.899799112354993</v>
+      </c>
+      <c r="BI5">
+        <v>2.844977388002592</v>
+      </c>
+      <c r="BJ5">
+        <v>3.04370895243227</v>
+      </c>
+      <c r="BK5">
+        <v>1.453008378714979</v>
+      </c>
+      <c r="BL5">
+        <v>1.488074822911617</v>
+      </c>
+      <c r="BM5">
+        <v>1.432045482818429</v>
+      </c>
+      <c r="BN5">
+        <v>1.853041306936772</v>
+      </c>
+      <c r="BO5">
+        <v>0.4183677306403765</v>
+      </c>
+      <c r="BP5">
+        <v>1.793216321826271</v>
+      </c>
+      <c r="BQ5">
+        <v>1.844098357815518</v>
+      </c>
+      <c r="BR5">
+        <v>3.306490628648989</v>
+      </c>
+      <c r="BS5">
+        <v>2.925321391708875</v>
+      </c>
+      <c r="BT5">
+        <v>2.929999709457263</v>
+      </c>
+      <c r="BU5">
+        <v>2.756852723324966</v>
+      </c>
+      <c r="BV5">
+        <v>2.777702913722477</v>
+      </c>
+      <c r="BW5">
+        <v>2.776773855404733</v>
+      </c>
+      <c r="BX5">
+        <v>3.313343240845747</v>
+      </c>
+      <c r="BY5">
+        <v>3.798551945029953</v>
+      </c>
+      <c r="BZ5">
+        <v>0.4586847719028174</v>
+      </c>
+      <c r="CA5">
+        <v>3.798551945029953</v>
+      </c>
+      <c r="CB5">
+        <v>3.798551945029953</v>
+      </c>
+      <c r="CC5">
+        <v>3.798551945029953</v>
+      </c>
+      <c r="CD5">
+        <v>3.798551945029953</v>
+      </c>
+      <c r="CE5">
+        <v>3.264818685009953</v>
+      </c>
+      <c r="CF5">
+        <v>3.199473859898658</v>
+      </c>
+      <c r="CG5">
+        <v>3.345046824405458</v>
+      </c>
+      <c r="CH5">
+        <v>3.251304685135089</v>
+      </c>
+      <c r="CI5">
+        <v>3.47672155880384</v>
+      </c>
+      <c r="CJ5">
+        <v>3.487363472755977</v>
+      </c>
+      <c r="CK5">
+        <v>0.44399319888596</v>
+      </c>
+      <c r="CL5">
+        <v>3.760633712437603</v>
+      </c>
+      <c r="CM5">
+        <v>0.6268358763483963</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:91">
       <c r="A6">
         <v>0</v>
       </c>
+      <c r="B6">
+        <v>0.9638005023317261</v>
+      </c>
       <c r="C6">
-        <v>2.954448467996935</v>
+        <v>0.9933735230872921</v>
+      </c>
+      <c r="D6">
+        <v>1.222341364624266</v>
+      </c>
+      <c r="E6">
+        <v>1.260794709777954</v>
       </c>
       <c r="F6">
-        <v>4.074205015550776</v>
+        <v>0.9751975868647992</v>
+      </c>
+      <c r="G6">
+        <v>1.335960208378727</v>
+      </c>
+      <c r="H6">
+        <v>1.340077015509496</v>
       </c>
       <c r="I6">
-        <v>4.084900767120548</v>
+        <v>1.184300930471542</v>
+      </c>
+      <c r="J6">
+        <v>1.119837865472562</v>
       </c>
       <c r="K6">
-        <v>4.539979181535936</v>
+        <v>1.020842767230469</v>
       </c>
       <c r="L6">
-        <v>-0.09135310030747056</v>
+        <v>0.03061433614436807</v>
+      </c>
+      <c r="M6">
+        <v>1.220247765216838</v>
       </c>
       <c r="N6">
-        <v>4.022377200407783</v>
+        <v>1.024276269612573</v>
+      </c>
+      <c r="O6">
+        <v>0.7923612254256006</v>
+      </c>
+      <c r="P6">
+        <v>0.8391387525817223</v>
+      </c>
+      <c r="Q6">
+        <v>1.064631520887031</v>
       </c>
       <c r="R6">
-        <v>3.402521651905551</v>
+        <v>1.128387712187167</v>
       </c>
       <c r="S6">
-        <v>3.140967986227732</v>
+        <v>1.228121466697046</v>
       </c>
       <c r="T6">
-        <v>2.198895888689364</v>
+        <v>2.819420262424011</v>
       </c>
       <c r="U6">
-        <v>2.435234019039055</v>
+        <v>2.049015116355396</v>
       </c>
       <c r="V6">
-        <v>2.331296908075263</v>
+        <v>2.195668786583193</v>
       </c>
       <c r="W6">
-        <v>-0.09002684272401879</v>
+        <v>0.02172628850662532</v>
       </c>
       <c r="X6">
-        <v>2.920310762152936</v>
+        <v>3.454919100957711</v>
       </c>
       <c r="Y6">
-        <v>7.518939402927136</v>
+        <v>2.034757867308639</v>
       </c>
       <c r="Z6">
-        <v>2.519262370349024</v>
+        <v>2.788878076610961</v>
       </c>
       <c r="AA6">
-        <v>4.063622453503275</v>
+        <v>2.233794119787717</v>
+      </c>
+      <c r="AB6">
+        <v>1.904423398205703</v>
       </c>
       <c r="AC6">
-        <v>2.157344654840557</v>
+        <v>1.843163776277888</v>
       </c>
       <c r="AD6">
-        <v>2.111451727002341</v>
+        <v>2.354494237824538</v>
       </c>
       <c r="AE6">
-        <v>2.278687789603264</v>
+        <v>3.702776451680403</v>
       </c>
       <c r="AF6">
-        <v>1.884949969586585</v>
+        <v>2.723387713414712</v>
       </c>
       <c r="AG6">
-        <v>2.053362458677017</v>
+        <v>3.563003384688581</v>
       </c>
       <c r="AH6">
-        <v>0.8021053032240173</v>
+        <v>0.8773830696765113</v>
       </c>
       <c r="AI6">
-        <v>2.666722014784512</v>
+        <v>2.963738308842686</v>
       </c>
       <c r="AJ6">
-        <v>2.120463433587223</v>
+        <v>3.236642379052485</v>
       </c>
       <c r="AK6">
-        <v>1.498975224973961</v>
+        <v>2.622948550130028</v>
       </c>
       <c r="AL6">
-        <v>1.525262779930308</v>
+        <v>2.567194282743357</v>
       </c>
       <c r="AM6">
-        <v>1.344507596696353</v>
+        <v>3.388850934306912</v>
       </c>
       <c r="AN6">
-        <v>1.351480374278677</v>
+        <v>2.098062125705981</v>
       </c>
       <c r="AO6">
-        <v>1.632340245672732</v>
+        <v>4.807708921175513</v>
       </c>
       <c r="AP6">
-        <v>1.44530619083949</v>
+        <v>2.504902855392179</v>
       </c>
       <c r="AQ6">
-        <v>1.045232090138032</v>
+        <v>2.894535410095772</v>
       </c>
       <c r="AR6">
-        <v>0.9650479096043314</v>
+        <v>3.209558162463469</v>
       </c>
       <c r="AS6">
-        <v>0.8049390032478694</v>
+        <v>1.190372305784029</v>
       </c>
       <c r="AT6">
-        <v>1.211327189248919</v>
-      </c>
-      <c r="AU6">
-        <v>1.232226114806656</v>
+        <v>2.858958041594781</v>
       </c>
       <c r="AV6">
-        <v>1.124002912863534</v>
+        <v>3.260455900780066</v>
       </c>
       <c r="AW6">
-        <v>1.444538029176422</v>
+        <v>4.041773539064117</v>
       </c>
       <c r="AX6">
-        <v>0.5652512580647395</v>
+        <v>3.161125603153859</v>
       </c>
       <c r="AY6">
-        <v>2.950981637531783</v>
+        <v>3.949653027692718</v>
+      </c>
+      <c r="AZ6">
+        <v>4.886182137205235</v>
       </c>
       <c r="BA6">
-        <v>3.926144429905822</v>
+        <v>3.209558162463469</v>
+      </c>
+      <c r="BB6">
+        <v>3.209558162463469</v>
+      </c>
+      <c r="BC6">
+        <v>3.957685427147963</v>
+      </c>
+      <c r="BD6">
+        <v>0.9983883791416879</v>
+      </c>
+      <c r="BE6">
+        <v>2.92853859484506</v>
+      </c>
+      <c r="BF6">
+        <v>2.294616850786386</v>
+      </c>
+      <c r="BG6">
+        <v>2.421651465169452</v>
+      </c>
+      <c r="BH6">
+        <v>3.865306664285266</v>
+      </c>
+      <c r="BI6">
+        <v>2.661922725936973</v>
+      </c>
+      <c r="BJ6">
+        <v>3.276652425309898</v>
+      </c>
+      <c r="BK6">
+        <v>2.013745763742116</v>
+      </c>
+      <c r="BL6">
+        <v>2.816839123306952</v>
+      </c>
+      <c r="BM6">
+        <v>1.681591317522082</v>
+      </c>
+      <c r="BN6">
+        <v>2.655320608217851</v>
+      </c>
+      <c r="BO6">
+        <v>0.6768450429907489</v>
+      </c>
+      <c r="BP6">
+        <v>2.062265175509537</v>
+      </c>
+      <c r="BQ6">
+        <v>4.487532121691466</v>
+      </c>
+      <c r="BS6">
+        <v>2.984858431842011</v>
+      </c>
+      <c r="BT6">
+        <v>2.788878076610961</v>
+      </c>
+      <c r="BU6">
+        <v>2.362646447556496</v>
+      </c>
+      <c r="BW6">
+        <v>2.84295485797768</v>
+      </c>
+      <c r="BX6">
+        <v>3.172096057151763</v>
+      </c>
+      <c r="BZ6">
+        <v>0.8313074007382766</v>
+      </c>
+      <c r="CE6">
+        <v>3.135986226239162</v>
+      </c>
+      <c r="CF6">
+        <v>5.78228311894677</v>
+      </c>
+      <c r="CG6">
+        <v>2.469672808454054</v>
+      </c>
+      <c r="CH6">
+        <v>2.469672808454054</v>
+      </c>
+      <c r="CI6">
+        <v>4.927856341827832</v>
+      </c>
+      <c r="CJ6">
+        <v>4.15300478590276</v>
+      </c>
+      <c r="CK6">
+        <v>0.7146258877161061</v>
+      </c>
+      <c r="CL6">
+        <v>4.717555397597573</v>
+      </c>
+      <c r="CM6">
+        <v>1.100631455332184</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:91">
       <c r="A7">
         <v>0</v>
       </c>
+      <c r="B7">
+        <v>-0.1167682773314931</v>
+      </c>
       <c r="C7">
-        <v>-0.06137586178613235</v>
+        <v>1.484566167197168</v>
       </c>
       <c r="D7">
-        <v>-0.5408314587042193</v>
+        <v>0.996653048525569</v>
       </c>
       <c r="E7">
-        <v>1.137402760159347</v>
-      </c>
-      <c r="F7">
-        <v>1.63950861351096</v>
+        <v>0.1033050263086457</v>
+      </c>
+      <c r="G7">
+        <v>0.04541674392963776</v>
       </c>
       <c r="H7">
-        <v>-0.2390797690709351</v>
+        <v>1.132004063782605</v>
+      </c>
+      <c r="I7">
+        <v>1.146603609529204</v>
       </c>
       <c r="J7">
-        <v>0.4118516560639531</v>
+        <v>0.6124762546744491</v>
+      </c>
+      <c r="K7">
+        <v>0.8227922943778164</v>
       </c>
       <c r="L7">
-        <v>-0.671928862221308</v>
+        <v>0.7760262484576587</v>
+      </c>
+      <c r="M7">
+        <v>1.559470716991365</v>
+      </c>
+      <c r="N7">
+        <v>0.6839425630007415</v>
       </c>
       <c r="O7">
-        <v>0.5929122917618943</v>
+        <v>4.113406662733928</v>
       </c>
       <c r="P7">
-        <v>0.1209652161488118</v>
+        <v>0.3388678758103325</v>
       </c>
       <c r="Q7">
-        <v>-0.493014994593176</v>
+        <v>-0.7869844617667306</v>
       </c>
       <c r="R7">
-        <v>-0.122941241025856</v>
-      </c>
-      <c r="T7">
-        <v>1.576328019305107</v>
+        <v>0.4908551077074058</v>
+      </c>
+      <c r="U7">
+        <v>0.410215119889202</v>
+      </c>
+      <c r="V7">
+        <v>-0.4362480100492018</v>
       </c>
       <c r="W7">
-        <v>-0.6805144253648557</v>
+        <v>0.1702759710268875</v>
       </c>
       <c r="X7">
-        <v>0.5122773966565201</v>
+        <v>0.04541674392963776</v>
+      </c>
+      <c r="Y7">
+        <v>1.839783028239486</v>
+      </c>
+      <c r="Z7">
+        <v>2.127473474406843</v>
+      </c>
+      <c r="AA7">
+        <v>0.6342658868031336</v>
       </c>
       <c r="AB7">
-        <v>1.47916257078485</v>
-      </c>
-      <c r="AD7">
-        <v>3.270942075158769</v>
+        <v>0.2971223155498128</v>
+      </c>
+      <c r="AC7">
+        <v>0.5996266950476303</v>
       </c>
       <c r="AE7">
-        <v>0.4844961132846687</v>
-      </c>
-      <c r="AG7">
-        <v>-1.061562573856884</v>
-      </c>
-      <c r="AH7">
-        <v>-0.3249956860581171</v>
+        <v>-0.194747501302939</v>
+      </c>
+      <c r="AF7">
+        <v>-0.1021051796989597</v>
+      </c>
+      <c r="AI7">
+        <v>0.05031960443984572</v>
       </c>
       <c r="AJ7">
-        <v>0.1950801751282898</v>
-      </c>
-      <c r="AK7">
-        <v>1.941795893156639</v>
-      </c>
-      <c r="AL7">
-        <v>-0.4878460368354194</v>
-      </c>
-      <c r="AM7">
-        <v>-0.929035404150185</v>
+        <v>0.4279800150004648</v>
       </c>
       <c r="AN7">
-        <v>-0.8492497444352084</v>
+        <v>0.4244017395980165</v>
       </c>
       <c r="AO7">
-        <v>-0.2357515893246583</v>
+        <v>-0.02081420127504123</v>
       </c>
       <c r="AP7">
-        <v>-0.1738678916609658</v>
+        <v>0.7913732006771859</v>
       </c>
       <c r="AQ7">
-        <v>-0.9054192978874812</v>
-      </c>
-      <c r="AR7">
-        <v>-0.3956242478987219</v>
-      </c>
-      <c r="AS7">
-        <v>0.7059425900298402</v>
+        <v>0.3997058388467405</v>
+      </c>
+      <c r="AT7">
+        <v>2.475786123359907</v>
       </c>
       <c r="AU7">
-        <v>0.6559292138648641</v>
+        <v>1.263475039411935</v>
       </c>
       <c r="AV7">
-        <v>-0.5309530288873089</v>
+        <v>2.562800376204349</v>
       </c>
       <c r="AW7">
-        <v>3.522255599589863</v>
-      </c>
-      <c r="AX7">
-        <v>-0.1703148405331999</v>
+        <v>2.070313633928915</v>
       </c>
       <c r="BA7">
-        <v>-0.3158057714911197</v>
+        <v>0.2480252661546865</v>
+      </c>
+      <c r="BB7">
+        <v>0.2480252661546865</v>
+      </c>
+      <c r="BD7">
+        <v>1.082520574810273</v>
+      </c>
+      <c r="BE7">
+        <v>1.015824310793802</v>
+      </c>
+      <c r="BG7">
+        <v>0.4832494859668185</v>
+      </c>
+      <c r="BH7">
+        <v>-0.194747501302939</v>
+      </c>
+      <c r="BI7">
+        <v>0.5417528460240033</v>
+      </c>
+      <c r="BJ7">
+        <v>0.4208362226108652</v>
+      </c>
+      <c r="BL7">
+        <v>0.5620397082046928</v>
+      </c>
+      <c r="BM7">
+        <v>0.5498183177214723</v>
+      </c>
+      <c r="BO7">
+        <v>-0.05013445980787037</v>
+      </c>
+      <c r="BR7">
+        <v>0.4497227958233428</v>
+      </c>
+      <c r="BV7">
+        <v>1.46415587843475</v>
+      </c>
+      <c r="BW7">
+        <v>1.323070484308054</v>
+      </c>
+      <c r="BX7">
+        <v>2.593572520172418</v>
+      </c>
+      <c r="BY7">
+        <v>2.840434804610226</v>
+      </c>
+      <c r="BZ7">
+        <v>0.1983721954661889</v>
+      </c>
+      <c r="CA7">
+        <v>2.840434804610226</v>
+      </c>
+      <c r="CB7">
+        <v>2.840434804610226</v>
+      </c>
+      <c r="CC7">
+        <v>2.840434804610226</v>
+      </c>
+      <c r="CD7">
+        <v>2.840434804610226</v>
+      </c>
+      <c r="CE7">
+        <v>0.8334884888205104</v>
+      </c>
+      <c r="CG7">
+        <v>2.562800376204349</v>
+      </c>
+      <c r="CH7">
+        <v>1.664835520765475</v>
+      </c>
+      <c r="CM7">
+        <v>1.028812433090125</v>
       </c>
     </row>
   </sheetData>
@@ -3636,13 +5847,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3697,296 +5908,605 @@
       <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.598723444337138</v>
+        <v>0.1000971796630322</v>
       </c>
       <c r="C2">
-        <v>8.884159523040678</v>
+        <v>0.1466520898179819</v>
       </c>
       <c r="D2">
-        <v>-0.0004172162342559312</v>
+        <v>-0.03504272499141848</v>
       </c>
       <c r="E2">
-        <v>6.765654001771132</v>
+        <v>0.05054055350497766</v>
       </c>
       <c r="F2">
-        <v>5.204651650960755</v>
+        <v>0.1073088520902213</v>
       </c>
       <c r="G2">
-        <v>4.884641120545216</v>
+        <v>0.3793421085347882</v>
       </c>
       <c r="H2">
-        <v>-0.1094488539841212</v>
+        <v>0.2316209998783511</v>
       </c>
       <c r="I2">
-        <v>1.182726835982149</v>
+        <v>0.6815514481979342</v>
       </c>
       <c r="J2">
-        <v>0.7663907023045956</v>
+        <v>0.6039612553147375</v>
       </c>
       <c r="K2">
-        <v>0.1532117890172575</v>
+        <v>0.7868452813871988</v>
       </c>
       <c r="L2">
-        <v>-0.2558102287752875</v>
+        <v>0.507073682329886</v>
       </c>
       <c r="M2">
-        <v>-0.3842968663169468</v>
+        <v>1.165414123426258</v>
       </c>
       <c r="N2">
-        <v>-0.3639528848287876</v>
+        <v>1.260982097499113</v>
       </c>
       <c r="O2">
-        <v>-0.6383553051475742</v>
+        <v>0.5493515476790136</v>
       </c>
       <c r="P2">
-        <v>-0.4763628617916895</v>
+        <v>1.618334825994105</v>
       </c>
       <c r="Q2">
-        <v>-0.2187138375021365</v>
+        <v>1.256584372413183</v>
       </c>
       <c r="R2">
-        <v>7.570386879942415</v>
+        <v>1.222894791497244</v>
+      </c>
+      <c r="S2">
+        <v>0.5973873125494208</v>
+      </c>
+      <c r="T2">
+        <v>1.016271337629698</v>
+      </c>
+      <c r="U2">
+        <v>0.9489077230927688</v>
+      </c>
+      <c r="V2">
+        <v>0.6543934175117013</v>
+      </c>
+      <c r="W2">
+        <v>0.4562251756673386</v>
+      </c>
+      <c r="X2">
+        <v>1.30915228641333</v>
+      </c>
+      <c r="Y2">
+        <v>1.169270502706636</v>
+      </c>
+      <c r="Z2">
+        <v>0.7102085126785335</v>
+      </c>
+      <c r="AA2">
+        <v>1.430487775473279</v>
+      </c>
+      <c r="AB2">
+        <v>1.304626122123284</v>
+      </c>
+      <c r="AC2">
+        <v>1.31797888364611</v>
+      </c>
+      <c r="AD2">
+        <v>0.6865018356411495</v>
+      </c>
+      <c r="AE2">
+        <v>0.1822296156163747</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>0.1141167183416987</v>
+      </c>
       <c r="C3">
-        <v>6.271780151670569</v>
+        <v>0.1548101231390575</v>
       </c>
       <c r="D3">
-        <v>0.03706672439305822</v>
+        <v>-0.01436529753375305</v>
       </c>
       <c r="E3">
-        <v>9.877343231792514</v>
+        <v>0.06410315377410396</v>
       </c>
       <c r="F3">
-        <v>4.618988756214164</v>
+        <v>0.1154788346169027</v>
       </c>
       <c r="G3">
-        <v>3.945712769717209</v>
+        <v>0.3874445879647221</v>
       </c>
       <c r="H3">
-        <v>-0.1212330266058801</v>
+        <v>0.2528508244389089</v>
       </c>
       <c r="I3">
-        <v>0.8246039988091252</v>
+        <v>0.6779778226347292</v>
       </c>
       <c r="J3">
-        <v>0.5177861770497234</v>
+        <v>0.6016592678782642</v>
       </c>
       <c r="K3">
-        <v>0.02565122775383427</v>
+        <v>0.7969247891833315</v>
       </c>
       <c r="L3">
-        <v>-0.2863036854331391</v>
+        <v>0.5119306951945949</v>
       </c>
       <c r="M3">
-        <v>-0.4331263862571195</v>
+        <v>1.15137628254177</v>
       </c>
       <c r="N3">
-        <v>-0.4492676426338248</v>
+        <v>1.293632774257518</v>
       </c>
       <c r="O3">
-        <v>-0.6562732179565456</v>
+        <v>0.5611180604317109</v>
       </c>
       <c r="P3">
-        <v>-0.5181260864112246</v>
+        <v>2.026308013865627</v>
       </c>
       <c r="Q3">
-        <v>-0.2331960362859314</v>
+        <v>1.253184695206546</v>
       </c>
       <c r="R3">
-        <v>5.935172216695203</v>
+        <v>1.201012255598038</v>
+      </c>
+      <c r="S3">
+        <v>0.622328817765307</v>
+      </c>
+      <c r="T3">
+        <v>1.015373800466961</v>
+      </c>
+      <c r="U3">
+        <v>0.9700227075336496</v>
+      </c>
+      <c r="V3">
+        <v>0.6801051459730029</v>
+      </c>
+      <c r="W3">
+        <v>0.4516797094657897</v>
+      </c>
+      <c r="X3">
+        <v>1.316218387428501</v>
+      </c>
+      <c r="Y3">
+        <v>1.169563042684523</v>
+      </c>
+      <c r="Z3">
+        <v>0.715757353925028</v>
+      </c>
+      <c r="AA3">
+        <v>1.443682493884011</v>
+      </c>
+      <c r="AB3">
+        <v>1.321079529581613</v>
+      </c>
+      <c r="AC3">
+        <v>1.325709372374146</v>
+      </c>
+      <c r="AD3">
+        <v>0.7022478907858483</v>
+      </c>
+      <c r="AE3">
+        <v>0.1652966121293669</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4">
+        <v>0.1460247303805963</v>
+      </c>
       <c r="C4">
-        <v>5.565809084746518</v>
+        <v>0.1825416943105503</v>
       </c>
       <c r="D4">
-        <v>0.01991347682875193</v>
+        <v>-0.002477039809720565</v>
       </c>
       <c r="E4">
-        <v>4.867285377018603</v>
+        <v>0.0891593485541288</v>
       </c>
       <c r="F4">
-        <v>4.450485493009343</v>
+        <v>0.1333723823025818</v>
       </c>
       <c r="G4">
-        <v>3.89177004226206</v>
+        <v>0.4514684411299468</v>
       </c>
       <c r="H4">
-        <v>-0.1379403579662106</v>
+        <v>0.2758777209216021</v>
       </c>
       <c r="I4">
-        <v>0.8121138850871681</v>
+        <v>0.7529134067892695</v>
       </c>
       <c r="J4">
-        <v>0.5140643372696264</v>
+        <v>0.6905401484417989</v>
       </c>
       <c r="K4">
-        <v>-0.04808378973576734</v>
+        <v>0.8974126348669932</v>
       </c>
       <c r="L4">
-        <v>-0.3271230992658724</v>
+        <v>0.5702555787068474</v>
       </c>
       <c r="M4">
-        <v>-0.4810371449659721</v>
+        <v>1.304200526687763</v>
       </c>
       <c r="N4">
-        <v>-0.4844538108027234</v>
+        <v>1.512050958958579</v>
       </c>
       <c r="O4">
-        <v>-0.6722266870790489</v>
+        <v>0.6162913379578926</v>
       </c>
       <c r="P4">
-        <v>-0.5848709751656606</v>
+        <v>1.688562042767404</v>
       </c>
       <c r="Q4">
-        <v>-0.2649892346223947</v>
+        <v>1.362983348066072</v>
+      </c>
+      <c r="R4">
+        <v>1.439626197613359</v>
+      </c>
+      <c r="S4">
+        <v>0.6910348458905132</v>
+      </c>
+      <c r="T4">
+        <v>1.16055253297301</v>
+      </c>
+      <c r="U4">
+        <v>1.095815449423004</v>
+      </c>
+      <c r="V4">
+        <v>0.7303227556004747</v>
+      </c>
+      <c r="W4">
+        <v>0.5256891134230856</v>
+      </c>
+      <c r="X4">
+        <v>1.538740937566978</v>
+      </c>
+      <c r="Y4">
+        <v>1.349474948272368</v>
+      </c>
+      <c r="Z4">
+        <v>0.8431242340344584</v>
+      </c>
+      <c r="AA4">
+        <v>1.809168160813129</v>
+      </c>
+      <c r="AB4">
+        <v>1.581130361219694</v>
+      </c>
+      <c r="AC4">
+        <v>1.596931781477794</v>
+      </c>
+      <c r="AD4">
+        <v>0.8324401096804351</v>
+      </c>
+      <c r="AE4">
+        <v>0.1659513439308746</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>0</v>
       </c>
+      <c r="B5">
+        <v>0.2734329241125703</v>
+      </c>
+      <c r="C5">
+        <v>0.3265465989711585</v>
+      </c>
       <c r="D5">
-        <v>0.006765284640481984</v>
+        <v>0.002988126963855177</v>
       </c>
       <c r="E5">
-        <v>5.505016448308531</v>
+        <v>0.1887729064474177</v>
       </c>
       <c r="F5">
-        <v>4.327506516657974</v>
+        <v>0.2626594834633464</v>
       </c>
       <c r="G5">
-        <v>3.705487872823189</v>
+        <v>0.7314664286787232</v>
       </c>
       <c r="H5">
-        <v>-0.04049432212510903</v>
+        <v>0.3763558427105809</v>
       </c>
       <c r="I5">
-        <v>1.742956991232057</v>
+        <v>1.26870446508268</v>
       </c>
       <c r="J5">
-        <v>1.131322023186363</v>
+        <v>1.126601669779647</v>
       </c>
       <c r="K5">
-        <v>0.4447021149396336</v>
+        <v>1.510721768148168</v>
       </c>
       <c r="L5">
-        <v>-0.03422062996650074</v>
+        <v>0.8162983153475778</v>
       </c>
       <c r="M5">
-        <v>-0.1688139227339628</v>
+        <v>2.231791869172886</v>
       </c>
       <c r="N5">
-        <v>-0.2094150438340742</v>
+        <v>2.633611776390367</v>
       </c>
       <c r="O5">
-        <v>-0.4756130125365335</v>
+        <v>0.8819994819082597</v>
       </c>
       <c r="P5">
-        <v>-0.2900938267263956</v>
+        <v>2.465291192856115</v>
       </c>
       <c r="Q5">
-        <v>-0.07806587869010696</v>
+        <v>2.141238250481842</v>
       </c>
       <c r="R5">
-        <v>4.720844772482351</v>
+        <v>2.437472229188368</v>
+      </c>
+      <c r="S5">
+        <v>0.9257397745383522</v>
+      </c>
+      <c r="T5">
+        <v>1.92325264170866</v>
+      </c>
+      <c r="U5">
+        <v>1.798065281477327</v>
+      </c>
+      <c r="V5">
+        <v>1.194054242717786</v>
+      </c>
+      <c r="W5">
+        <v>0.7356914415348006</v>
+      </c>
+      <c r="X5">
+        <v>2.658356034138524</v>
+      </c>
+      <c r="Y5">
+        <v>2.390036860483039</v>
+      </c>
+      <c r="Z5">
+        <v>1.087995210701976</v>
+      </c>
+      <c r="AA5">
+        <v>3.418191991874579</v>
+      </c>
+      <c r="AB5">
+        <v>3.007026173799638</v>
+      </c>
+      <c r="AC5">
+        <v>2.973087863627382</v>
+      </c>
+      <c r="AD5">
+        <v>1.081635201583289</v>
+      </c>
+      <c r="AE5">
+        <v>0.2464759231930226</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>0</v>
       </c>
+      <c r="B6">
+        <v>0.6065778930002486</v>
+      </c>
+      <c r="C6">
+        <v>0.746121542855501</v>
+      </c>
       <c r="D6">
-        <v>-0.06095323466960551</v>
+        <v>0.05593338591063666</v>
+      </c>
+      <c r="E6">
+        <v>0.4589817424521043</v>
+      </c>
+      <c r="F6">
+        <v>0.4648670176553533</v>
       </c>
       <c r="G6">
-        <v>1.446307218087942</v>
+        <v>1.291796451842802</v>
       </c>
       <c r="H6">
-        <v>-0.1929384571511742</v>
+        <v>0.4460624233611553</v>
       </c>
       <c r="I6">
-        <v>2.346687143862821</v>
+        <v>1.766854565031292</v>
       </c>
       <c r="J6">
-        <v>1.481270643051965</v>
+        <v>1.47151524132621</v>
       </c>
       <c r="K6">
-        <v>0.9873053382228408</v>
+        <v>2.692113203183728</v>
       </c>
       <c r="L6">
-        <v>0.4760985904094073</v>
+        <v>1.240280926518558</v>
       </c>
       <c r="M6">
-        <v>0.3808350503168544</v>
+        <v>2.2584206562655</v>
       </c>
       <c r="N6">
-        <v>0.3974905629490362</v>
+        <v>2.109230318084607</v>
       </c>
       <c r="O6">
-        <v>-0.138821827589935</v>
+        <v>1.477397141948445</v>
       </c>
       <c r="P6">
-        <v>0.1158946490706902</v>
+        <v>2.501702796138621</v>
       </c>
       <c r="Q6">
-        <v>0.1814937492750197</v>
+        <v>3.096331446649802</v>
+      </c>
+      <c r="R6">
+        <v>2.987649756031196</v>
+      </c>
+      <c r="S6">
+        <v>1.379209471988781</v>
+      </c>
+      <c r="T6">
+        <v>2.118744791698238</v>
+      </c>
+      <c r="U6">
+        <v>1.983350222224834</v>
+      </c>
+      <c r="V6">
+        <v>1.71216725033984</v>
+      </c>
+      <c r="W6">
+        <v>0.9966024611359793</v>
+      </c>
+      <c r="X6">
+        <v>2.344086866980911</v>
+      </c>
+      <c r="Y6">
+        <v>2.03624861953482</v>
+      </c>
+      <c r="Z6">
+        <v>0.8945697534813351</v>
+      </c>
+      <c r="AB6">
+        <v>3.222633532189606</v>
+      </c>
+      <c r="AC6">
+        <v>2.295245159696869</v>
+      </c>
+      <c r="AD6">
+        <v>1.226099331232755</v>
+      </c>
+      <c r="AE6">
+        <v>0.5626434418373388</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>-0.5637876112982098</v>
+        <v>0.2093696195363837</v>
+      </c>
+      <c r="C7">
+        <v>0.3872985584676344</v>
       </c>
       <c r="D7">
-        <v>-0.2943940900936612</v>
+        <v>0.4889669936118039</v>
+      </c>
+      <c r="E7">
+        <v>1.167647892162476</v>
       </c>
       <c r="F7">
-        <v>-1.056675155008143</v>
+        <v>-0.4042594976460733</v>
+      </c>
+      <c r="G7">
+        <v>0.1662137155970153</v>
       </c>
       <c r="H7">
-        <v>-0.2616978585268205</v>
+        <v>-0.3531318764463741</v>
+      </c>
+      <c r="I7">
+        <v>1.067414983212629</v>
       </c>
       <c r="J7">
-        <v>3.915099249005633</v>
+        <v>0.1929778382694717</v>
       </c>
       <c r="K7">
-        <v>-0.9850107357573641</v>
+        <v>-0.393500186330392</v>
       </c>
       <c r="L7">
-        <v>-0.552358211575849</v>
-      </c>
-      <c r="M7">
-        <v>-1.220435895200582</v>
+        <v>-0.02257506354664857</v>
       </c>
       <c r="N7">
-        <v>-1.328109915194899</v>
+        <v>0.09923314526889135</v>
       </c>
       <c r="O7">
-        <v>-1.254153802146641</v>
+        <v>0.155704434554554</v>
       </c>
       <c r="P7">
-        <v>-0.2717627788550755</v>
+        <v>1.666867232835569</v>
       </c>
       <c r="Q7">
-        <v>3.136752930077993</v>
+        <v>1.826312229636728</v>
+      </c>
+      <c r="R7">
+        <v>0.004023861862499986</v>
+      </c>
+      <c r="S7">
+        <v>0.8046150925885575</v>
+      </c>
+      <c r="T7">
+        <v>-0.1561424434915838</v>
+      </c>
+      <c r="U7">
+        <v>0.2354666385924728</v>
+      </c>
+      <c r="V7">
+        <v>0.3119089384889202</v>
+      </c>
+      <c r="W7">
+        <v>-0.294135864100057</v>
+      </c>
+      <c r="X7">
+        <v>0.2057213915311563</v>
+      </c>
+      <c r="Y7">
+        <v>1.14712570189745</v>
+      </c>
+      <c r="Z7">
+        <v>0.9025232191834568</v>
+      </c>
+      <c r="AA7">
+        <v>2.596433400318039</v>
+      </c>
+      <c r="AB7">
+        <v>1.156531746609116</v>
+      </c>
+      <c r="AC7">
+        <v>1.772238737059793</v>
+      </c>
+      <c r="AE7">
+        <v>0.7848110287979381</v>
       </c>
     </row>
   </sheetData>

--- a/combined_dataframes.xlsx
+++ b/combined_dataframes.xlsx
@@ -12,14 +12,13 @@
     <sheet name="Standard Deviations" sheetId="3" r:id="rId3"/>
     <sheet name="Absorbance Sample" sheetId="4" r:id="rId4"/>
     <sheet name="Absorbance Material" sheetId="5" r:id="rId5"/>
-    <sheet name="Adjusted Absorbance Material" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="151">
   <si>
     <t>Wavelength</t>
   </si>
@@ -78,6 +77,42 @@
     <t>Material_18</t>
   </si>
   <si>
+    <t>Material_19</t>
+  </si>
+  <si>
+    <t>Material_20</t>
+  </si>
+  <si>
+    <t>Material_21</t>
+  </si>
+  <si>
+    <t>Material_22</t>
+  </si>
+  <si>
+    <t>Material_23</t>
+  </si>
+  <si>
+    <t>Material_24</t>
+  </si>
+  <si>
+    <t>Material_25</t>
+  </si>
+  <si>
+    <t>Material_26</t>
+  </si>
+  <si>
+    <t>Material_27</t>
+  </si>
+  <si>
+    <t>Material_28</t>
+  </si>
+  <si>
+    <t>Material_29</t>
+  </si>
+  <si>
+    <t>Material_30</t>
+  </si>
+  <si>
     <t>Sample_0</t>
   </si>
   <si>
@@ -240,6 +275,114 @@
     <t>Sample_53</t>
   </si>
   <si>
+    <t>Sample_54</t>
+  </si>
+  <si>
+    <t>Sample_55</t>
+  </si>
+  <si>
+    <t>Sample_56</t>
+  </si>
+  <si>
+    <t>Sample_57</t>
+  </si>
+  <si>
+    <t>Sample_58</t>
+  </si>
+  <si>
+    <t>Sample_59</t>
+  </si>
+  <si>
+    <t>Sample_60</t>
+  </si>
+  <si>
+    <t>Sample_61</t>
+  </si>
+  <si>
+    <t>Sample_62</t>
+  </si>
+  <si>
+    <t>Sample_63</t>
+  </si>
+  <si>
+    <t>Sample_64</t>
+  </si>
+  <si>
+    <t>Sample_65</t>
+  </si>
+  <si>
+    <t>Sample_66</t>
+  </si>
+  <si>
+    <t>Sample_67</t>
+  </si>
+  <si>
+    <t>Sample_68</t>
+  </si>
+  <si>
+    <t>Sample_69</t>
+  </si>
+  <si>
+    <t>Sample_70</t>
+  </si>
+  <si>
+    <t>Sample_71</t>
+  </si>
+  <si>
+    <t>Sample_72</t>
+  </si>
+  <si>
+    <t>Sample_73</t>
+  </si>
+  <si>
+    <t>Sample_74</t>
+  </si>
+  <si>
+    <t>Sample_75</t>
+  </si>
+  <si>
+    <t>Sample_76</t>
+  </si>
+  <si>
+    <t>Sample_77</t>
+  </si>
+  <si>
+    <t>Sample_78</t>
+  </si>
+  <si>
+    <t>Sample_79</t>
+  </si>
+  <si>
+    <t>Sample_80</t>
+  </si>
+  <si>
+    <t>Sample_81</t>
+  </si>
+  <si>
+    <t>Sample_82</t>
+  </si>
+  <si>
+    <t>Sample_83</t>
+  </si>
+  <si>
+    <t>Sample_84</t>
+  </si>
+  <si>
+    <t>Sample_85</t>
+  </si>
+  <si>
+    <t>Sample_86</t>
+  </si>
+  <si>
+    <t>Sample_87</t>
+  </si>
+  <si>
+    <t>Sample_88</t>
+  </si>
+  <si>
+    <t>Sample_89</t>
+  </si>
+  <si>
     <t>STDMaterial_1</t>
   </si>
   <si>
@@ -294,52 +437,40 @@
     <t>STDMaterial_18</t>
   </si>
   <si>
-    <t>Material_3_minus_12.8</t>
-  </si>
-  <si>
-    <t>Material_4_minus_12.8</t>
-  </si>
-  <si>
-    <t>Material_5_minus_6.4</t>
-  </si>
-  <si>
-    <t>Material_6_minus_6.4</t>
-  </si>
-  <si>
-    <t>Material_7_minus_3.2</t>
-  </si>
-  <si>
-    <t>Material_8_minus_3.2</t>
-  </si>
-  <si>
-    <t>Material_9_minus_1.6</t>
-  </si>
-  <si>
-    <t>Material_10_minus_1.6</t>
-  </si>
-  <si>
-    <t>Material_11_minus_0.8</t>
-  </si>
-  <si>
-    <t>Material_12_minus_0.8</t>
-  </si>
-  <si>
-    <t>Material_13_minus_0.4</t>
-  </si>
-  <si>
-    <t>Material_14_minus_0.4</t>
-  </si>
-  <si>
-    <t>Material_15_minus_0.2</t>
-  </si>
-  <si>
-    <t>Material_16_minus_0.2</t>
-  </si>
-  <si>
-    <t>Material_17_minus_0.1</t>
-  </si>
-  <si>
-    <t>Material_18_minus_0.1</t>
+    <t>STDMaterial_19</t>
+  </si>
+  <si>
+    <t>STDMaterial_20</t>
+  </si>
+  <si>
+    <t>STDMaterial_21</t>
+  </si>
+  <si>
+    <t>STDMaterial_22</t>
+  </si>
+  <si>
+    <t>STDMaterial_23</t>
+  </si>
+  <si>
+    <t>STDMaterial_24</t>
+  </si>
+  <si>
+    <t>STDMaterial_25</t>
+  </si>
+  <si>
+    <t>STDMaterial_26</t>
+  </si>
+  <si>
+    <t>STDMaterial_27</t>
+  </si>
+  <si>
+    <t>STDMaterial_28</t>
+  </si>
+  <si>
+    <t>STDMaterial_29</t>
+  </si>
+  <si>
+    <t>STDMaterial_30</t>
   </si>
 </sst>
 </file>
@@ -697,13 +828,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,300 +892,516 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>41886.28602333333</v>
+        <v>43433.34375</v>
       </c>
       <c r="C2">
-        <v>30123.27569</v>
+        <v>28975.77578</v>
       </c>
       <c r="D2">
-        <v>20.811775</v>
+        <v>34214.15997</v>
       </c>
       <c r="E2">
-        <v>18.441265</v>
+        <v>33077.63399666666</v>
       </c>
       <c r="F2">
-        <v>38.112315</v>
+        <v>30911.73595333333</v>
       </c>
       <c r="G2">
-        <v>50.4082</v>
+        <v>29478.87143</v>
       </c>
       <c r="H2">
-        <v>12.82031</v>
+        <v>29643.29361</v>
       </c>
       <c r="I2">
-        <v>34.89241666666667</v>
+        <v>32731.77124</v>
       </c>
       <c r="J2">
-        <v>102.29485</v>
+        <v>28222.52172333334</v>
       </c>
       <c r="K2">
-        <v>113.24899</v>
+        <v>20442.37643</v>
       </c>
       <c r="L2">
-        <v>4680.075023333334</v>
+        <v>14825.76945333333</v>
       </c>
       <c r="M2">
-        <v>3604.433183333333</v>
+        <v>20905.83863</v>
       </c>
       <c r="N2">
-        <v>12221.5875</v>
+        <v>16706.43163666666</v>
       </c>
       <c r="O2">
-        <v>11771.46911</v>
+        <v>16445.83924333333</v>
       </c>
       <c r="P2">
-        <v>20515.28316333333</v>
+        <v>14864.04356</v>
       </c>
       <c r="Q2">
-        <v>20102.13738666667</v>
+        <v>12540.98578333333</v>
       </c>
       <c r="R2">
-        <v>24659.36187</v>
+        <v>18042.65099333333</v>
       </c>
       <c r="S2">
-        <v>21672.70910666667</v>
+        <v>5610.627230000001</v>
+      </c>
+      <c r="T2">
+        <v>14599.76878666667</v>
+      </c>
+      <c r="U2">
+        <v>15516.49924</v>
+      </c>
+      <c r="V2">
+        <v>16379.54736333333</v>
+      </c>
+      <c r="W2">
+        <v>11919.31267</v>
+      </c>
+      <c r="X2">
+        <v>18822.40299</v>
+      </c>
+      <c r="Y2">
+        <v>16375.49935333333</v>
+      </c>
+      <c r="Z2">
+        <v>10595.7028</v>
+      </c>
+      <c r="AA2">
+        <v>12836.87493333333</v>
+      </c>
+      <c r="AB2">
+        <v>7528.142483333333</v>
+      </c>
+      <c r="AC2">
+        <v>9930.330516666667</v>
+      </c>
+      <c r="AD2">
+        <v>9571.788426666666</v>
+      </c>
+      <c r="AE2">
+        <v>7576.812963333334</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>36795.61794333334</v>
+        <v>38362.07926666667</v>
       </c>
       <c r="C3">
-        <v>26599.52937</v>
+        <v>26112.67030666667</v>
       </c>
       <c r="D3">
-        <v>34.514585</v>
+        <v>30903.16939666666</v>
       </c>
       <c r="E3">
-        <v>27.98452333333333</v>
+        <v>29438.37166</v>
       </c>
       <c r="F3">
-        <v>33.36978</v>
+        <v>27557.97229666666</v>
       </c>
       <c r="G3">
-        <v>23.70994666666667</v>
+        <v>26570.46515666667</v>
       </c>
       <c r="H3">
-        <v>8.07855</v>
+        <v>26522.57176333333</v>
       </c>
       <c r="I3">
-        <v>14.489295</v>
+        <v>29325.05677</v>
       </c>
       <c r="J3">
-        <v>200.01529</v>
+        <v>25180.71502333333</v>
       </c>
       <c r="K3">
-        <v>226.4408066666666</v>
+        <v>18378.32281</v>
       </c>
       <c r="L3">
-        <v>5869.553856666666</v>
+        <v>13556.83084333333</v>
       </c>
       <c r="M3">
-        <v>4908.467036666667</v>
+        <v>18833.40308333333</v>
       </c>
       <c r="N3">
-        <v>12434.50541</v>
+        <v>14885.90650666667</v>
       </c>
       <c r="O3">
-        <v>11854.02763666667</v>
+        <v>14514.78311</v>
       </c>
       <c r="P3">
-        <v>19356.84124333333</v>
+        <v>13140.18072</v>
       </c>
       <c r="Q3">
-        <v>19671.82022</v>
+        <v>11233.29073333333</v>
       </c>
       <c r="R3">
-        <v>22936.02401333333</v>
+        <v>16404.46769</v>
       </c>
       <c r="S3">
-        <v>20403.25568666667</v>
+        <v>5017.410956666667</v>
+      </c>
+      <c r="T3">
+        <v>13024.16935666667</v>
+      </c>
+      <c r="U3">
+        <v>14068.39875666667</v>
+      </c>
+      <c r="V3">
+        <v>14814.75334666667</v>
+      </c>
+      <c r="W3">
+        <v>10507.96587</v>
+      </c>
+      <c r="X3">
+        <v>16683.82774666667</v>
+      </c>
+      <c r="Y3">
+        <v>14585.43660333333</v>
+      </c>
+      <c r="Z3">
+        <v>9659.744336666667</v>
+      </c>
+      <c r="AA3">
+        <v>11777.63620666667</v>
+      </c>
+      <c r="AB3">
+        <v>6720.327596666667</v>
+      </c>
+      <c r="AC3">
+        <v>9353.680516666667</v>
+      </c>
+      <c r="AD3">
+        <v>8578.931003333333</v>
+      </c>
+      <c r="AE3">
+        <v>6656.715983333333</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>20554.8369</v>
+        <v>21706.68360333333</v>
       </c>
       <c r="C4">
-        <v>14848.4749</v>
+        <v>14737.19212333333</v>
       </c>
       <c r="D4">
-        <v>14.92804</v>
+        <v>17458.33446333333</v>
       </c>
       <c r="E4">
-        <v>5.619759999999999</v>
+        <v>16814.57033333333</v>
       </c>
       <c r="F4">
-        <v>8.25407</v>
+        <v>15819.78162333333</v>
       </c>
       <c r="G4">
-        <v>56.734655</v>
+        <v>15048.94931666667</v>
       </c>
       <c r="H4">
-        <v>43.38448333333333</v>
+        <v>15263.13656333333</v>
       </c>
       <c r="I4">
-        <v>36.29832333333334</v>
+        <v>16856.06599333333</v>
       </c>
       <c r="J4">
-        <v>115.6491033333333</v>
+        <v>14201.63396666667</v>
       </c>
       <c r="K4">
-        <v>134.3358933333333</v>
+        <v>9828.003259999999</v>
       </c>
       <c r="L4">
-        <v>3299.528983333334</v>
+        <v>7159.221776666666</v>
       </c>
       <c r="M4">
-        <v>2581.32409</v>
+        <v>10564.93140333333</v>
       </c>
       <c r="N4">
-        <v>7316.216723333334</v>
+        <v>7808.330046666667</v>
       </c>
       <c r="O4">
-        <v>6990.159266666667</v>
+        <v>7674.286106666666</v>
       </c>
       <c r="P4">
-        <v>11214.71510666666</v>
+        <v>6706.110453333334</v>
       </c>
       <c r="Q4">
-        <v>11253.09757333333</v>
+        <v>5501.871756666667</v>
       </c>
       <c r="R4">
-        <v>13030.57828333333</v>
+        <v>8595.685663333332</v>
       </c>
       <c r="S4">
-        <v>12165.85010333333</v>
+        <v>1832.033243333333</v>
+      </c>
+      <c r="T4">
+        <v>6934.632553333334</v>
+      </c>
+      <c r="U4">
+        <v>7476.562223333333</v>
+      </c>
+      <c r="V4">
+        <v>7949.967809999999</v>
+      </c>
+      <c r="W4">
+        <v>5355.517543333332</v>
+      </c>
+      <c r="X4">
+        <v>9251.928543333333</v>
+      </c>
+      <c r="Y4">
+        <v>7999.347166666666</v>
+      </c>
+      <c r="Z4">
+        <v>4665.39346</v>
+      </c>
+      <c r="AA4">
+        <v>5950.829566666667</v>
+      </c>
+      <c r="AB4">
+        <v>2933.377766666667</v>
+      </c>
+      <c r="AC4">
+        <v>4434.039376666667</v>
+      </c>
+      <c r="AD4">
+        <v>4011.018320000001</v>
+      </c>
+      <c r="AE4">
+        <v>2814.408893333333</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>9177.530586666668</v>
+        <v>10074.45583333333</v>
       </c>
       <c r="C5">
-        <v>5975.128903333333</v>
+        <v>5977.902653333334</v>
       </c>
       <c r="D5">
-        <v>41.33446333333333</v>
+        <v>6462.725023333333</v>
       </c>
       <c r="E5">
-        <v>45.843405</v>
+        <v>6033.15913</v>
       </c>
       <c r="F5">
-        <v>18.17754</v>
+        <v>5525.659656666667</v>
       </c>
       <c r="G5">
-        <v>10.18604</v>
+        <v>5182.24842</v>
       </c>
       <c r="H5">
-        <v>10.36183</v>
+        <v>5376.713206666666</v>
       </c>
       <c r="I5">
-        <v>35.56543</v>
+        <v>6150.547286666667</v>
       </c>
       <c r="J5">
-        <v>65.75201</v>
+        <v>4828.193353333333</v>
       </c>
       <c r="K5">
-        <v>61.565015</v>
+        <v>2680.3255</v>
       </c>
       <c r="L5">
-        <v>579.0114566666667</v>
+        <v>1485.074053333333</v>
       </c>
       <c r="M5">
-        <v>471.6415233333334</v>
+        <v>3169.998493333333</v>
       </c>
       <c r="N5">
-        <v>2070.12945</v>
+        <v>1786.215983333333</v>
       </c>
       <c r="O5">
-        <v>1819.580843333333</v>
+        <v>1706.38289</v>
       </c>
       <c r="P5">
-        <v>3664.984486666667</v>
+        <v>1423.561403333333</v>
       </c>
       <c r="Q5">
-        <v>3816.84904</v>
+        <v>1013.872416666667</v>
       </c>
       <c r="R5">
-        <v>4457.43869</v>
+        <v>2164.95566</v>
       </c>
       <c r="S5">
-        <v>4007.866093333334</v>
+        <v>174.2888466666667</v>
+      </c>
+      <c r="T5">
+        <v>1354.587656666667</v>
+      </c>
+      <c r="U5">
+        <v>1662.146496666667</v>
+      </c>
+      <c r="V5">
+        <v>1847.892193333333</v>
+      </c>
+      <c r="W5">
+        <v>909.8621499999999</v>
+      </c>
+      <c r="X5">
+        <v>2350.977193333334</v>
+      </c>
+      <c r="Y5">
+        <v>1832.386873333333</v>
+      </c>
+      <c r="Z5">
+        <v>755.0283033333334</v>
+      </c>
+      <c r="AA5">
+        <v>1156.2575</v>
+      </c>
+      <c r="AB5">
+        <v>338.2322466666666</v>
+      </c>
+      <c r="AC5">
+        <v>604.76702</v>
+      </c>
+      <c r="AD5">
+        <v>564.0433566666667</v>
+      </c>
+      <c r="AE5">
+        <v>355.6950233333334</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>1032.1978</v>
+        <v>1362.286126666667</v>
       </c>
       <c r="C6">
-        <v>473.6399866666666</v>
+        <v>480.6770933333333</v>
       </c>
       <c r="D6">
-        <v>34.95126</v>
+        <v>683.1771633333333</v>
       </c>
       <c r="E6">
-        <v>50.58386</v>
+        <v>583.2913733333334</v>
       </c>
       <c r="F6">
-        <v>16.50851</v>
+        <v>477.9774366666667</v>
       </c>
       <c r="G6">
-        <v>16.33288</v>
+        <v>423.13392</v>
       </c>
       <c r="H6">
-        <v>10.36155</v>
+        <v>448.1792566666666</v>
       </c>
       <c r="I6">
-        <v>17.38667</v>
+        <v>587.86979</v>
       </c>
       <c r="J6">
-        <v>37.146265</v>
+        <v>451.1105766666666</v>
       </c>
       <c r="K6">
-        <v>95.67583333333333</v>
+        <v>170.30563</v>
       </c>
       <c r="L6">
-        <v>43.67735666666667</v>
+        <v>100.3612833333333</v>
       </c>
       <c r="M6">
-        <v>64.46751</v>
+        <v>174.81667</v>
       </c>
       <c r="N6">
-        <v>121.4478733333333</v>
+        <v>85.01813666666668</v>
       </c>
       <c r="O6">
-        <v>102.8225566666667</v>
+        <v>87.65485333333334</v>
       </c>
       <c r="P6">
-        <v>227.02584</v>
+        <v>62.94156333333333</v>
       </c>
       <c r="Q6">
-        <v>223.2759233333333</v>
+        <v>72.66147666666667</v>
       </c>
       <c r="R6">
-        <v>333.41682</v>
+        <v>141.5403033333333</v>
       </c>
       <c r="S6">
-        <v>275.8496933333333</v>
+        <v>17.56232</v>
+      </c>
+      <c r="T6">
+        <v>94.76849999999999</v>
+      </c>
+      <c r="U6">
+        <v>54.10070333333334</v>
+      </c>
+      <c r="V6">
+        <v>64.28735666666667</v>
+      </c>
+      <c r="W6">
+        <v>29.067275</v>
+      </c>
+      <c r="X6">
+        <v>140.8981033333333</v>
+      </c>
+      <c r="Y6">
+        <v>131.7590133333333</v>
+      </c>
+      <c r="Z6">
+        <v>68.21060666666666</v>
+      </c>
+      <c r="AA6">
+        <v>88.82388666666667</v>
+      </c>
+      <c r="AB6">
+        <v>42.942805</v>
+      </c>
+      <c r="AC6">
+        <v>41.27710333333334</v>
+      </c>
+      <c r="AD6">
+        <v>26.63854</v>
+      </c>
+      <c r="AE6">
+        <v>111.6725633333333</v>
       </c>
     </row>
   </sheetData>
@@ -1064,904 +1411,1651 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC6"/>
+  <dimension ref="A1:CM6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:91">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:91">
       <c r="A2">
         <v>630.188</v>
       </c>
       <c r="B2">
-        <v>41905.55299</v>
+        <v>43440.6951</v>
       </c>
       <c r="C2">
-        <v>41946.92794</v>
+        <v>43328.37081</v>
       </c>
       <c r="D2">
-        <v>41806.37714</v>
+        <v>43530.96534</v>
       </c>
       <c r="E2">
-        <v>30393.86229</v>
+        <v>28755.46274</v>
       </c>
       <c r="F2">
-        <v>29988.32273</v>
+        <v>28921.84078</v>
       </c>
       <c r="G2">
-        <v>29987.64205</v>
+        <v>29250.02382</v>
       </c>
       <c r="H2">
-        <v>10.7128</v>
+        <v>34319.32464</v>
       </c>
       <c r="I2">
-        <v>30.91075</v>
+        <v>34024.12692</v>
+      </c>
+      <c r="J2">
+        <v>34299.02835</v>
       </c>
       <c r="K2">
-        <v>1.05369</v>
+        <v>33240.34796</v>
+      </c>
+      <c r="L2">
+        <v>32722.55416</v>
       </c>
       <c r="M2">
-        <v>35.82884</v>
+        <v>33269.99987</v>
+      </c>
+      <c r="N2">
+        <v>30975.45432</v>
       </c>
       <c r="O2">
-        <v>34.42366</v>
+        <v>30837.7483</v>
       </c>
       <c r="P2">
-        <v>41.80097</v>
+        <v>30922.00524</v>
       </c>
       <c r="Q2">
-        <v>50.4082</v>
+        <v>29315.01711</v>
+      </c>
+      <c r="R2">
+        <v>29357.21228</v>
+      </c>
+      <c r="S2">
+        <v>29764.3849</v>
       </c>
       <c r="T2">
-        <v>12.82031</v>
+        <v>29385.11579</v>
+      </c>
+      <c r="U2">
+        <v>29795.52439</v>
+      </c>
+      <c r="V2">
+        <v>29749.24065</v>
       </c>
       <c r="W2">
-        <v>49.00291</v>
+        <v>32470.44572</v>
       </c>
       <c r="X2">
-        <v>35.65319</v>
+        <v>33060.40418</v>
       </c>
       <c r="Y2">
-        <v>20.02115</v>
+        <v>32664.46382</v>
       </c>
       <c r="Z2">
-        <v>129.2961</v>
+        <v>28234.42827</v>
       </c>
       <c r="AA2">
-        <v>80.80005</v>
+        <v>28239.02082</v>
       </c>
       <c r="AB2">
-        <v>96.7884</v>
+        <v>28194.11608</v>
       </c>
       <c r="AC2">
-        <v>147.7487</v>
+        <v>20439.9494</v>
       </c>
       <c r="AD2">
-        <v>72.36716</v>
+        <v>20500.88127</v>
       </c>
       <c r="AE2">
-        <v>119.63111</v>
+        <v>20386.29862</v>
       </c>
       <c r="AF2">
-        <v>4829.60906</v>
+        <v>14771.92641</v>
       </c>
       <c r="AG2">
-        <v>4667.25919</v>
+        <v>14851.17349</v>
       </c>
       <c r="AH2">
-        <v>4543.35682</v>
+        <v>14854.20846</v>
       </c>
       <c r="AI2">
-        <v>3631.8677</v>
+        <v>20957.48179</v>
       </c>
       <c r="AJ2">
-        <v>3458.41838</v>
+        <v>20974.75443</v>
       </c>
       <c r="AK2">
-        <v>3723.01347</v>
+        <v>20785.27967</v>
       </c>
       <c r="AL2">
-        <v>12292.85259</v>
+        <v>16771.20755</v>
       </c>
       <c r="AM2">
-        <v>12218.66083</v>
+        <v>16643.17468</v>
       </c>
       <c r="AN2">
-        <v>12153.24908</v>
+        <v>16704.91268</v>
       </c>
       <c r="AO2">
-        <v>11583.29163</v>
+        <v>16216.62926</v>
       </c>
       <c r="AP2">
-        <v>11930.24861</v>
+        <v>16701.37028</v>
       </c>
       <c r="AQ2">
-        <v>11800.86709</v>
+        <v>16419.51819</v>
       </c>
       <c r="AR2">
-        <v>20460.76736</v>
+        <v>14760.79801</v>
       </c>
       <c r="AS2">
-        <v>20339.58929</v>
+        <v>14877.98238</v>
       </c>
       <c r="AT2">
-        <v>20745.49284</v>
+        <v>14953.35029</v>
       </c>
       <c r="AU2">
-        <v>19917.27543</v>
+        <v>12417.89265</v>
       </c>
       <c r="AV2">
-        <v>20233.65534</v>
+        <v>12554.5628</v>
       </c>
       <c r="AW2">
-        <v>20155.48139</v>
+        <v>12650.5019</v>
       </c>
       <c r="AX2">
-        <v>24687.38741</v>
+        <v>18084.74748</v>
       </c>
       <c r="AY2">
-        <v>24672.10055</v>
+        <v>18146.0449</v>
       </c>
       <c r="AZ2">
-        <v>24618.59765</v>
+        <v>17897.1606</v>
       </c>
       <c r="BA2">
-        <v>21113.79306</v>
+        <v>5536.67403</v>
       </c>
       <c r="BB2">
-        <v>21748.76692</v>
+        <v>5664.43798</v>
       </c>
       <c r="BC2">
-        <v>22155.56734</v>
+        <v>5630.76968</v>
+      </c>
+      <c r="BD2">
+        <v>14672.27573</v>
+      </c>
+      <c r="BE2">
+        <v>14449.86505</v>
+      </c>
+      <c r="BF2">
+        <v>14677.16558</v>
+      </c>
+      <c r="BG2">
+        <v>15322.76679</v>
+      </c>
+      <c r="BH2">
+        <v>15635.36951</v>
+      </c>
+      <c r="BI2">
+        <v>15591.36142</v>
+      </c>
+      <c r="BJ2">
+        <v>16290.4969</v>
+      </c>
+      <c r="BK2">
+        <v>16375.66694</v>
+      </c>
+      <c r="BL2">
+        <v>16472.47825</v>
+      </c>
+      <c r="BM2">
+        <v>11923.99172</v>
+      </c>
+      <c r="BN2">
+        <v>11941.74756</v>
+      </c>
+      <c r="BO2">
+        <v>11892.19873</v>
+      </c>
+      <c r="BP2">
+        <v>18786.58029</v>
+      </c>
+      <c r="BQ2">
+        <v>18877.1514</v>
+      </c>
+      <c r="BR2">
+        <v>18803.47728</v>
+      </c>
+      <c r="BS2">
+        <v>16375.16097</v>
+      </c>
+      <c r="BT2">
+        <v>16293.1953</v>
+      </c>
+      <c r="BU2">
+        <v>16458.14179</v>
+      </c>
+      <c r="BV2">
+        <v>10627.88266</v>
+      </c>
+      <c r="BW2">
+        <v>10554.24657</v>
+      </c>
+      <c r="BX2">
+        <v>10604.97917</v>
+      </c>
+      <c r="BY2">
+        <v>12704.71502</v>
+      </c>
+      <c r="BZ2">
+        <v>12899.07166</v>
+      </c>
+      <c r="CA2">
+        <v>12906.83812</v>
+      </c>
+      <c r="CB2">
+        <v>7547.54651</v>
+      </c>
+      <c r="CC2">
+        <v>7352.11469</v>
+      </c>
+      <c r="CD2">
+        <v>7684.76625</v>
+      </c>
+      <c r="CE2">
+        <v>9854.519899999999</v>
+      </c>
+      <c r="CF2">
+        <v>10127.70683</v>
+      </c>
+      <c r="CG2">
+        <v>9808.76482</v>
+      </c>
+      <c r="CH2">
+        <v>9593.664870000001</v>
+      </c>
+      <c r="CI2">
+        <v>9413.48725</v>
+      </c>
+      <c r="CJ2">
+        <v>9708.213159999999</v>
+      </c>
+      <c r="CK2">
+        <v>7589.63269</v>
+      </c>
+      <c r="CL2">
+        <v>7395.27426</v>
+      </c>
+      <c r="CM2">
+        <v>7745.53194</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:91">
       <c r="A3">
         <v>710.104</v>
       </c>
       <c r="B3">
-        <v>37627.27997</v>
+        <v>38208.06882</v>
       </c>
       <c r="C3">
-        <v>36323.02239</v>
+        <v>38519.30901</v>
       </c>
       <c r="D3">
-        <v>36436.55147</v>
+        <v>38358.85997</v>
       </c>
       <c r="E3">
-        <v>26458.42355</v>
+        <v>25961.90339</v>
       </c>
       <c r="F3">
-        <v>26722.44636</v>
+        <v>26134.2546</v>
       </c>
       <c r="G3">
-        <v>26617.7182</v>
+        <v>26241.85293</v>
       </c>
       <c r="H3">
-        <v>0.17561</v>
+        <v>30870.59971</v>
       </c>
       <c r="I3">
-        <v>68.85356</v>
+        <v>31035.54315</v>
+      </c>
+      <c r="J3">
+        <v>30803.36533</v>
       </c>
       <c r="K3">
-        <v>53.7458</v>
+        <v>29358.57342</v>
       </c>
       <c r="L3">
-        <v>2.80986</v>
+        <v>29507.11085</v>
       </c>
       <c r="M3">
-        <v>27.39791</v>
+        <v>29449.43071</v>
+      </c>
+      <c r="N3">
+        <v>27437.28218</v>
+      </c>
+      <c r="O3">
+        <v>27805.81467</v>
       </c>
       <c r="P3">
-        <v>33.36978</v>
+        <v>27430.82004</v>
       </c>
       <c r="Q3">
-        <v>41.97663</v>
+        <v>26347.58604</v>
       </c>
       <c r="R3">
-        <v>17.0354</v>
+        <v>26485.62367</v>
       </c>
       <c r="S3">
-        <v>12.11781</v>
+        <v>26878.18576</v>
+      </c>
+      <c r="T3">
+        <v>26444.1436</v>
       </c>
       <c r="U3">
-        <v>1.93177</v>
+        <v>26517.58416</v>
       </c>
       <c r="V3">
-        <v>14.22533</v>
+        <v>26605.98753</v>
       </c>
       <c r="W3">
-        <v>0.52684</v>
+        <v>29418.63428</v>
+      </c>
+      <c r="X3">
+        <v>29374.90716</v>
       </c>
       <c r="Y3">
-        <v>28.45175</v>
+        <v>29181.62887</v>
       </c>
       <c r="Z3">
-        <v>144.05805</v>
+        <v>25200.76325</v>
       </c>
       <c r="AA3">
-        <v>198.89714</v>
+        <v>25205.35064</v>
       </c>
       <c r="AB3">
-        <v>257.09068</v>
+        <v>25136.03118</v>
       </c>
       <c r="AC3">
-        <v>204.69824</v>
+        <v>18439.40739</v>
       </c>
       <c r="AD3">
-        <v>266.41005</v>
+        <v>18447.51524</v>
       </c>
       <c r="AE3">
-        <v>208.21413</v>
+        <v>18248.0458</v>
       </c>
       <c r="AF3">
-        <v>5866.31826</v>
+        <v>13428.04224</v>
       </c>
       <c r="AG3">
-        <v>5865.10487</v>
+        <v>13721.94406</v>
       </c>
       <c r="AH3">
-        <v>5877.23844</v>
+        <v>13520.50623</v>
       </c>
       <c r="AI3">
-        <v>4767.02198</v>
+        <v>18718.65715</v>
       </c>
       <c r="AJ3">
-        <v>5023.34223</v>
+        <v>18681.14926</v>
       </c>
       <c r="AK3">
-        <v>4935.0369</v>
+        <v>19100.40284</v>
       </c>
       <c r="AL3">
-        <v>12479.38942</v>
+        <v>14941.88497</v>
       </c>
       <c r="AM3">
-        <v>12429.55047</v>
+        <v>14767.37388</v>
       </c>
       <c r="AN3">
-        <v>12394.57634</v>
+        <v>14948.46067</v>
       </c>
       <c r="AO3">
-        <v>11879.68392</v>
+        <v>14512.93071</v>
       </c>
       <c r="AP3">
-        <v>11753.67232</v>
+        <v>14667.72311</v>
       </c>
       <c r="AQ3">
-        <v>11928.72667</v>
+        <v>14363.69551</v>
       </c>
       <c r="AR3">
-        <v>19285.49722</v>
+        <v>13084.77077</v>
       </c>
       <c r="AS3">
-        <v>19428.18697</v>
+        <v>13007.62637</v>
       </c>
       <c r="AT3">
-        <v>19356.83954</v>
+        <v>13328.14502</v>
       </c>
       <c r="AU3">
-        <v>19801.57694</v>
+        <v>11206.08554</v>
       </c>
       <c r="AV3">
-        <v>19831.6843</v>
+        <v>11154.08239</v>
       </c>
       <c r="AW3">
-        <v>19382.19942</v>
+        <v>11339.70427</v>
       </c>
       <c r="AX3">
-        <v>22788.94463</v>
+        <v>16215.78604</v>
       </c>
       <c r="AY3">
-        <v>23077.00179</v>
+        <v>16766.82155</v>
       </c>
       <c r="AZ3">
-        <v>22942.12562</v>
+        <v>16230.79548</v>
       </c>
       <c r="BA3">
-        <v>19903.23526</v>
+        <v>4975.27578</v>
       </c>
       <c r="BB3">
-        <v>20376.99042</v>
+        <v>4969.70207</v>
       </c>
       <c r="BC3">
-        <v>20929.54138</v>
+        <v>5107.25502</v>
+      </c>
+      <c r="BD3">
+        <v>13069.07238</v>
+      </c>
+      <c r="BE3">
+        <v>12996.31576</v>
+      </c>
+      <c r="BF3">
+        <v>13007.11993</v>
+      </c>
+      <c r="BG3">
+        <v>14043.94583</v>
+      </c>
+      <c r="BH3">
+        <v>13970.07189</v>
+      </c>
+      <c r="BI3">
+        <v>14191.17855</v>
+      </c>
+      <c r="BJ3">
+        <v>14732.47106</v>
+      </c>
+      <c r="BK3">
+        <v>14825.71337</v>
+      </c>
+      <c r="BL3">
+        <v>14886.07561</v>
+      </c>
+      <c r="BM3">
+        <v>10611.08692</v>
+      </c>
+      <c r="BN3">
+        <v>10421.18467</v>
+      </c>
+      <c r="BO3">
+        <v>10491.62602</v>
+      </c>
+      <c r="BP3">
+        <v>16621.07772</v>
+      </c>
+      <c r="BQ3">
+        <v>16741.85531</v>
+      </c>
+      <c r="BR3">
+        <v>16688.55021</v>
+      </c>
+      <c r="BS3">
+        <v>14693.68985</v>
+      </c>
+      <c r="BT3">
+        <v>14470.10017</v>
+      </c>
+      <c r="BU3">
+        <v>14592.51979</v>
+      </c>
+      <c r="BV3">
+        <v>9681.83563</v>
+      </c>
+      <c r="BW3">
+        <v>9513.97968</v>
+      </c>
+      <c r="BX3">
+        <v>9783.4177</v>
+      </c>
+      <c r="BY3">
+        <v>11769.74275</v>
+      </c>
+      <c r="BZ3">
+        <v>11753.33399</v>
+      </c>
+      <c r="CA3">
+        <v>11809.83188</v>
+      </c>
+      <c r="CB3">
+        <v>6638.31656</v>
+      </c>
+      <c r="CC3">
+        <v>6678.18671</v>
+      </c>
+      <c r="CD3">
+        <v>6844.47952</v>
+      </c>
+      <c r="CE3">
+        <v>9413.31689</v>
+      </c>
+      <c r="CF3">
+        <v>9312.9555</v>
+      </c>
+      <c r="CG3">
+        <v>9334.76916</v>
+      </c>
+      <c r="CH3">
+        <v>8670.62176</v>
+      </c>
+      <c r="CI3">
+        <v>8619.00837</v>
+      </c>
+      <c r="CJ3">
+        <v>8447.16288</v>
+      </c>
+      <c r="CK3">
+        <v>6632.96537</v>
+      </c>
+      <c r="CL3">
+        <v>6588.94169</v>
+      </c>
+      <c r="CM3">
+        <v>6748.24089</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:91">
       <c r="A4">
         <v>800.131</v>
       </c>
       <c r="B4">
-        <v>20785.61829</v>
+        <v>21674.54245</v>
       </c>
       <c r="C4">
-        <v>20344.66628</v>
+        <v>21697.24984</v>
       </c>
       <c r="D4">
-        <v>20534.22613</v>
+        <v>21748.25852</v>
       </c>
       <c r="E4">
-        <v>14993.14162</v>
+        <v>14749.50097</v>
       </c>
       <c r="F4">
-        <v>14817.95728</v>
+        <v>14768.72278</v>
       </c>
       <c r="G4">
-        <v>14734.3258</v>
+        <v>14693.35262</v>
       </c>
       <c r="H4">
-        <v>23.35822</v>
+        <v>17432.79363</v>
+      </c>
+      <c r="I4">
+        <v>17444.4387</v>
       </c>
       <c r="J4">
-        <v>6.49786</v>
+        <v>17497.77106</v>
+      </c>
+      <c r="K4">
+        <v>16905.49227</v>
       </c>
       <c r="L4">
-        <v>4.91728</v>
+        <v>16581.10146</v>
       </c>
       <c r="M4">
-        <v>6.32224</v>
+        <v>16957.11727</v>
       </c>
       <c r="N4">
-        <v>8.25407</v>
+        <v>15765.54145</v>
+      </c>
+      <c r="O4">
+        <v>15778.86238</v>
+      </c>
+      <c r="P4">
+        <v>15914.94104</v>
+      </c>
+      <c r="Q4">
+        <v>15010.67673</v>
       </c>
       <c r="R4">
-        <v>25.46587</v>
+        <v>15337.7728</v>
       </c>
       <c r="S4">
-        <v>88.00344</v>
+        <v>14798.39842</v>
       </c>
       <c r="T4">
-        <v>25.46587</v>
+        <v>15100.37532</v>
       </c>
       <c r="U4">
-        <v>16.68414</v>
+        <v>15294.60947</v>
       </c>
       <c r="V4">
-        <v>88.00344</v>
+        <v>15394.4249</v>
       </c>
       <c r="W4">
-        <v>11.06405</v>
+        <v>16718.07024</v>
       </c>
       <c r="X4">
-        <v>60.94819</v>
+        <v>16994.57178</v>
       </c>
       <c r="Y4">
-        <v>36.88273</v>
+        <v>16855.55596</v>
       </c>
       <c r="Z4">
-        <v>114.5352</v>
+        <v>14148.00497</v>
       </c>
       <c r="AA4">
-        <v>91.34168</v>
+        <v>14193.03365</v>
       </c>
       <c r="AB4">
-        <v>141.07043</v>
+        <v>14263.86328</v>
       </c>
       <c r="AC4">
-        <v>107.68229</v>
+        <v>9731.695530000001</v>
       </c>
       <c r="AD4">
-        <v>175.69428</v>
+        <v>9713.3182</v>
       </c>
       <c r="AE4">
-        <v>119.63111</v>
+        <v>10038.99605</v>
       </c>
       <c r="AF4">
-        <v>3219.00318</v>
+        <v>7073.32333</v>
       </c>
       <c r="AG4">
-        <v>3339.96741</v>
+        <v>7005.45721</v>
       </c>
       <c r="AH4">
-        <v>3339.61636</v>
+        <v>7398.88479</v>
       </c>
       <c r="AI4">
-        <v>2552.52991</v>
+        <v>10616.00697</v>
       </c>
       <c r="AJ4">
-        <v>2680.44637</v>
+        <v>10596.66566</v>
       </c>
       <c r="AK4">
-        <v>2510.99599</v>
+        <v>10482.12158</v>
       </c>
       <c r="AL4">
-        <v>7246.32466</v>
+        <v>7842.6505</v>
       </c>
       <c r="AM4">
-        <v>7399.91635</v>
+        <v>7726.82355</v>
       </c>
       <c r="AN4">
-        <v>7302.40916</v>
+        <v>7855.51609</v>
       </c>
       <c r="AO4">
-        <v>7118.95575</v>
+        <v>7616.08231</v>
       </c>
       <c r="AP4">
-        <v>6930.67306</v>
+        <v>7746.90497</v>
       </c>
       <c r="AQ4">
-        <v>6920.84899</v>
+        <v>7659.87104</v>
       </c>
       <c r="AR4">
-        <v>11267.90452</v>
+        <v>6964.79484</v>
       </c>
       <c r="AS4">
-        <v>11278.74303</v>
+        <v>6587.90571</v>
       </c>
       <c r="AT4">
-        <v>11097.49777</v>
+        <v>6565.63081</v>
       </c>
       <c r="AU4">
-        <v>11091.73719</v>
+        <v>5419.76884</v>
       </c>
       <c r="AV4">
-        <v>11343.42938</v>
+        <v>5514.44516</v>
       </c>
       <c r="AW4">
-        <v>11324.12615</v>
+        <v>5571.40127</v>
       </c>
       <c r="AX4">
-        <v>12972.00585</v>
+        <v>8478.97716</v>
       </c>
       <c r="AY4">
-        <v>12942.63039</v>
+        <v>8703.087729999999</v>
       </c>
       <c r="AZ4">
-        <v>13177.09861</v>
+        <v>8604.992099999999</v>
       </c>
       <c r="BA4">
-        <v>11985.54266</v>
+        <v>1892.2995</v>
       </c>
       <c r="BB4">
-        <v>12162.71482</v>
+        <v>1768.24129</v>
       </c>
       <c r="BC4">
-        <v>12349.29283</v>
+        <v>1835.55894</v>
+      </c>
+      <c r="BD4">
+        <v>6965.31179</v>
+      </c>
+      <c r="BE4">
+        <v>6876.54812</v>
+      </c>
+      <c r="BF4">
+        <v>6962.03775</v>
+      </c>
+      <c r="BG4">
+        <v>7466.09723</v>
+      </c>
+      <c r="BH4">
+        <v>7586.71271</v>
+      </c>
+      <c r="BI4">
+        <v>7376.87673</v>
+      </c>
+      <c r="BJ4">
+        <v>7936.29353</v>
+      </c>
+      <c r="BK4">
+        <v>7794.4402</v>
+      </c>
+      <c r="BL4">
+        <v>8119.1697</v>
+      </c>
+      <c r="BM4">
+        <v>5406.21486</v>
+      </c>
+      <c r="BN4">
+        <v>5293.05265</v>
+      </c>
+      <c r="BO4">
+        <v>5367.28512</v>
+      </c>
+      <c r="BP4">
+        <v>9290.799080000001</v>
+      </c>
+      <c r="BQ4">
+        <v>9169.41516</v>
+      </c>
+      <c r="BR4">
+        <v>9295.571389999999</v>
+      </c>
+      <c r="BS4">
+        <v>7824.80887</v>
+      </c>
+      <c r="BT4">
+        <v>8072.73741</v>
+      </c>
+      <c r="BU4">
+        <v>8100.49522</v>
+      </c>
+      <c r="BV4">
+        <v>4694.29788</v>
+      </c>
+      <c r="BW4">
+        <v>4698.13532</v>
+      </c>
+      <c r="BX4">
+        <v>4603.74718</v>
+      </c>
+      <c r="BY4">
+        <v>5960.07193</v>
+      </c>
+      <c r="BZ4">
+        <v>5914.15422</v>
+      </c>
+      <c r="CA4">
+        <v>5978.26255</v>
+      </c>
+      <c r="CB4">
+        <v>2881.46216</v>
+      </c>
+      <c r="CC4">
+        <v>2930.50979</v>
+      </c>
+      <c r="CD4">
+        <v>2988.16135</v>
+      </c>
+      <c r="CE4">
+        <v>4347.74781</v>
+      </c>
+      <c r="CF4">
+        <v>4464.96152</v>
+      </c>
+      <c r="CG4">
+        <v>4489.4088</v>
+      </c>
+      <c r="CH4">
+        <v>3867.54505</v>
+      </c>
+      <c r="CI4">
+        <v>4148.62709</v>
+      </c>
+      <c r="CJ4">
+        <v>4016.88282</v>
+      </c>
+      <c r="CK4">
+        <v>2823.26301</v>
+      </c>
+      <c r="CL4">
+        <v>2755.20409</v>
+      </c>
+      <c r="CM4">
+        <v>2864.75958</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:91">
       <c r="A5">
         <v>905.029</v>
       </c>
       <c r="B5">
-        <v>9223.12463</v>
+        <v>10020.46877</v>
       </c>
       <c r="C5">
-        <v>9243.41185</v>
+        <v>10053.44312</v>
       </c>
       <c r="D5">
-        <v>9066.05528</v>
+        <v>10149.45561</v>
       </c>
       <c r="E5">
-        <v>5981.72723</v>
+        <v>5947.59731</v>
       </c>
       <c r="F5">
-        <v>6063.64777</v>
+        <v>5911.20816</v>
       </c>
       <c r="G5">
-        <v>5880.01171</v>
+        <v>6074.90249</v>
       </c>
       <c r="H5">
-        <v>57.08346</v>
+        <v>6455.94406</v>
       </c>
       <c r="I5">
-        <v>3.51233</v>
+        <v>6374.54383</v>
       </c>
       <c r="J5">
-        <v>63.4076</v>
+        <v>6557.68718</v>
       </c>
       <c r="K5">
-        <v>15.80599</v>
+        <v>5944.30525</v>
+      </c>
+      <c r="L5">
+        <v>6070.57383</v>
       </c>
       <c r="M5">
-        <v>75.88082</v>
+        <v>6084.59831</v>
       </c>
       <c r="N5">
-        <v>4.03918</v>
+        <v>5419.07378</v>
       </c>
       <c r="O5">
-        <v>32.3159</v>
+        <v>5559.942</v>
+      </c>
+      <c r="P5">
+        <v>5597.96319</v>
       </c>
       <c r="Q5">
-        <v>16.68414</v>
+        <v>5105.86258</v>
+      </c>
+      <c r="R5">
+        <v>5194.95781</v>
       </c>
       <c r="S5">
-        <v>3.68794</v>
+        <v>5245.92487</v>
       </c>
       <c r="T5">
-        <v>0.17561</v>
+        <v>5292.35713</v>
+      </c>
+      <c r="U5">
+        <v>5475.88562</v>
       </c>
       <c r="V5">
-        <v>20.54805</v>
+        <v>5361.89687</v>
       </c>
       <c r="W5">
-        <v>40.5714</v>
+        <v>6194.50618</v>
+      </c>
+      <c r="X5">
+        <v>6152.10857</v>
       </c>
       <c r="Y5">
-        <v>30.55946</v>
+        <v>6105.02711</v>
       </c>
       <c r="Z5">
-        <v>53.39447</v>
+        <v>4950.5412</v>
       </c>
       <c r="AA5">
-        <v>38.63923</v>
+        <v>4735.63363</v>
       </c>
       <c r="AB5">
-        <v>105.22233</v>
+        <v>4798.40523</v>
       </c>
       <c r="AC5">
-        <v>33.89672</v>
+        <v>2741.83686</v>
       </c>
       <c r="AD5">
-        <v>89.23331</v>
+        <v>2619.39695</v>
+      </c>
+      <c r="AE5">
+        <v>2679.74269</v>
       </c>
       <c r="AF5">
-        <v>617.971</v>
+        <v>1485.19163</v>
       </c>
       <c r="AG5">
-        <v>492.11332</v>
+        <v>1436.89795</v>
       </c>
       <c r="AH5">
-        <v>626.95005</v>
+        <v>1533.13258</v>
       </c>
       <c r="AI5">
-        <v>506.19285</v>
+        <v>3095.70037</v>
       </c>
       <c r="AJ5">
-        <v>452.5182</v>
+        <v>3240.07498</v>
       </c>
       <c r="AK5">
-        <v>456.21352</v>
+        <v>3174.22013</v>
       </c>
       <c r="AL5">
-        <v>2087.33533</v>
+        <v>1760.1347</v>
       </c>
       <c r="AM5">
-        <v>2024.79597</v>
+        <v>1761.72078</v>
       </c>
       <c r="AN5">
-        <v>2098.25705</v>
+        <v>1836.79247</v>
       </c>
       <c r="AO5">
-        <v>1830.09616</v>
+        <v>1677.65598</v>
       </c>
       <c r="AP5">
-        <v>1863.75345</v>
+        <v>1737.9294</v>
       </c>
       <c r="AQ5">
-        <v>1764.89292</v>
+        <v>1703.56329</v>
       </c>
       <c r="AR5">
-        <v>3549.63081</v>
+        <v>1399.5321</v>
       </c>
       <c r="AS5">
-        <v>3750.17494</v>
+        <v>1418.39126</v>
       </c>
       <c r="AT5">
-        <v>3695.14771</v>
+        <v>1452.76085</v>
       </c>
       <c r="AU5">
-        <v>3935.13612</v>
+        <v>1003.88651</v>
       </c>
       <c r="AV5">
-        <v>3800.28372</v>
+        <v>968.8236000000001</v>
       </c>
       <c r="AW5">
-        <v>3715.12728</v>
+        <v>1068.90714</v>
       </c>
       <c r="AX5">
-        <v>4523.97912</v>
+        <v>2207.46276</v>
       </c>
       <c r="AY5">
-        <v>4355.26131</v>
+        <v>2180.51563</v>
       </c>
       <c r="AZ5">
-        <v>4493.07564</v>
+        <v>2106.88859</v>
       </c>
       <c r="BA5">
-        <v>3840.74805</v>
+        <v>199.24872</v>
       </c>
       <c r="BB5">
-        <v>4078.82856</v>
+        <v>161.98467</v>
       </c>
       <c r="BC5">
-        <v>4104.02167</v>
+        <v>161.63315</v>
+      </c>
+      <c r="BD5">
+        <v>1334.49497</v>
+      </c>
+      <c r="BE5">
+        <v>1370.62658</v>
+      </c>
+      <c r="BF5">
+        <v>1358.64142</v>
+      </c>
+      <c r="BG5">
+        <v>1676.06981</v>
+      </c>
+      <c r="BH5">
+        <v>1630.5988</v>
+      </c>
+      <c r="BI5">
+        <v>1679.77088</v>
+      </c>
+      <c r="BJ5">
+        <v>1885.95601</v>
+      </c>
+      <c r="BK5">
+        <v>1761.36832</v>
+      </c>
+      <c r="BL5">
+        <v>1896.35225</v>
+      </c>
+      <c r="BM5">
+        <v>939.40039</v>
+      </c>
+      <c r="BN5">
+        <v>862.76597</v>
+      </c>
+      <c r="BO5">
+        <v>927.42009</v>
+      </c>
+      <c r="BP5">
+        <v>2319.99109</v>
+      </c>
+      <c r="BQ5">
+        <v>2422.80999</v>
+      </c>
+      <c r="BR5">
+        <v>2310.1305</v>
+      </c>
+      <c r="BS5">
+        <v>1826.39554</v>
+      </c>
+      <c r="BT5">
+        <v>1816.87961</v>
+      </c>
+      <c r="BU5">
+        <v>1853.88547</v>
+      </c>
+      <c r="BV5">
+        <v>728.5514899999999</v>
+      </c>
+      <c r="BW5">
+        <v>738.76589</v>
+      </c>
+      <c r="BX5">
+        <v>797.76753</v>
+      </c>
+      <c r="BY5">
+        <v>1062.03478</v>
+      </c>
+      <c r="BZ5">
+        <v>1176.05198</v>
+      </c>
+      <c r="CA5">
+        <v>1230.68574</v>
+      </c>
+      <c r="CB5">
+        <v>294.72206</v>
+      </c>
+      <c r="CC5">
+        <v>280.47771</v>
+      </c>
+      <c r="CD5">
+        <v>439.49697</v>
+      </c>
+      <c r="CE5">
+        <v>615.68226</v>
+      </c>
+      <c r="CF5">
+        <v>596.49263</v>
+      </c>
+      <c r="CG5">
+        <v>602.12617</v>
+      </c>
+      <c r="CH5">
+        <v>557.06041</v>
+      </c>
+      <c r="CI5">
+        <v>546.14697</v>
+      </c>
+      <c r="CJ5">
+        <v>588.92269</v>
+      </c>
+      <c r="CK5">
+        <v>369.47435</v>
+      </c>
+      <c r="CL5">
+        <v>352.0595</v>
+      </c>
+      <c r="CM5">
+        <v>345.55122</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:91">
       <c r="A6">
         <v>940.061</v>
       </c>
       <c r="B6">
-        <v>970.7617</v>
+        <v>1411.3411</v>
       </c>
       <c r="C6">
-        <v>1063.6207</v>
+        <v>1470.91504</v>
       </c>
       <c r="D6">
-        <v>1062.211</v>
+        <v>1204.60224</v>
       </c>
       <c r="E6">
-        <v>435.274</v>
+        <v>436.5057</v>
       </c>
       <c r="F6">
-        <v>434.04231</v>
+        <v>536.81802</v>
       </c>
       <c r="G6">
-        <v>551.60365</v>
+        <v>468.70756</v>
       </c>
       <c r="H6">
-        <v>50.75953</v>
+        <v>674.84204</v>
+      </c>
+      <c r="I6">
+        <v>667.9748</v>
       </c>
       <c r="J6">
-        <v>19.14299</v>
+        <v>706.71465</v>
+      </c>
+      <c r="K6">
+        <v>602.12617</v>
+      </c>
+      <c r="L6">
+        <v>531.88963</v>
       </c>
       <c r="M6">
-        <v>50.58386</v>
+        <v>615.85832</v>
+      </c>
+      <c r="N6">
+        <v>485.42577</v>
+      </c>
+      <c r="O6">
+        <v>512.00084</v>
       </c>
       <c r="P6">
-        <v>16.50851</v>
+        <v>436.5057</v>
+      </c>
+      <c r="Q6">
+        <v>424.01305</v>
+      </c>
+      <c r="R6">
+        <v>400.08505</v>
       </c>
       <c r="S6">
-        <v>16.33288</v>
+        <v>445.30366</v>
+      </c>
+      <c r="T6">
+        <v>456.38949</v>
       </c>
       <c r="U6">
-        <v>10.36155</v>
+        <v>479.61829</v>
+      </c>
+      <c r="V6">
+        <v>408.52999</v>
       </c>
       <c r="W6">
-        <v>17.38667</v>
+        <v>560.75699</v>
+      </c>
+      <c r="X6">
+        <v>547.20309</v>
+      </c>
+      <c r="Y6">
+        <v>655.64929</v>
+      </c>
+      <c r="Z6">
+        <v>448.64696</v>
       </c>
       <c r="AA6">
-        <v>32.3159</v>
+        <v>461.84457</v>
       </c>
       <c r="AB6">
-        <v>41.97663</v>
+        <v>442.8402</v>
       </c>
       <c r="AC6">
-        <v>107.68229</v>
+        <v>144.58528</v>
       </c>
       <c r="AD6">
+        <v>205.753</v>
+      </c>
+      <c r="AE6">
+        <v>160.57861</v>
+      </c>
+      <c r="AF6">
+        <v>96.96411000000001</v>
+      </c>
+      <c r="AG6">
+        <v>90.99028</v>
+      </c>
+      <c r="AH6">
+        <v>113.12946</v>
+      </c>
+      <c r="AI6">
+        <v>196.78769</v>
+      </c>
+      <c r="AJ6">
+        <v>143.00359</v>
+      </c>
+      <c r="AK6">
+        <v>184.65873</v>
+      </c>
+      <c r="AL6">
+        <v>56.90779</v>
+      </c>
+      <c r="AM6">
+        <v>81.6785</v>
+      </c>
+      <c r="AN6">
+        <v>116.46812</v>
+      </c>
+      <c r="AO6">
+        <v>111.72373</v>
+      </c>
+      <c r="AP6">
+        <v>110.66943</v>
+      </c>
+      <c r="AQ6">
+        <v>40.5714</v>
+      </c>
+      <c r="AR6">
+        <v>106.45231</v>
+      </c>
+      <c r="AS6">
+        <v>43.03055</v>
+      </c>
+      <c r="AT6">
+        <v>39.34183</v>
+      </c>
+      <c r="AU6">
+        <v>53.57014</v>
+      </c>
+      <c r="AV6">
+        <v>107.15516</v>
+      </c>
+      <c r="AW6">
+        <v>57.25913</v>
+      </c>
+      <c r="AX6">
+        <v>155.13019</v>
+      </c>
+      <c r="AY6">
+        <v>159.87558</v>
+      </c>
+      <c r="AZ6">
+        <v>109.61514</v>
+      </c>
+      <c r="BA6">
+        <v>17.91356</v>
+      </c>
+      <c r="BB6">
+        <v>20.72369</v>
+      </c>
+      <c r="BC6">
+        <v>14.04971</v>
+      </c>
+      <c r="BD6">
+        <v>111.19658</v>
+      </c>
+      <c r="BF6">
+        <v>78.34041999999999</v>
+      </c>
+      <c r="BG6">
+        <v>2.63424</v>
+      </c>
+      <c r="BH6">
+        <v>88.00344</v>
+      </c>
+      <c r="BI6">
+        <v>71.66443</v>
+      </c>
+      <c r="BJ6">
+        <v>41.09836</v>
+      </c>
+      <c r="BK6">
+        <v>96.08559</v>
+      </c>
+      <c r="BL6">
+        <v>55.67812</v>
+      </c>
+      <c r="BM6">
+        <v>46.19237</v>
+      </c>
+      <c r="BN6">
+        <v>11.94218</v>
+      </c>
+      <c r="BP6">
+        <v>176.7489</v>
+      </c>
+      <c r="BQ6">
+        <v>157.06349</v>
+      </c>
+      <c r="BR6">
+        <v>88.88191999999999</v>
+      </c>
+      <c r="BS6">
+        <v>156.71198</v>
+      </c>
+      <c r="BT6">
+        <v>153.54842</v>
+      </c>
+      <c r="BU6">
         <v>85.01664</v>
       </c>
-      <c r="AE6">
-        <v>94.32857</v>
-      </c>
-      <c r="AF6">
-        <v>52.34049</v>
-      </c>
-      <c r="AG6">
-        <v>0.52684</v>
-      </c>
-      <c r="AH6">
-        <v>78.16473999999999</v>
-      </c>
-      <c r="AI6">
-        <v>16.68414</v>
-      </c>
-      <c r="AK6">
-        <v>112.25088</v>
-      </c>
-      <c r="AL6">
-        <v>117.52244</v>
-      </c>
-      <c r="AM6">
-        <v>99.42397</v>
-      </c>
-      <c r="AN6">
-        <v>147.39721</v>
-      </c>
-      <c r="AO6">
-        <v>124.55141</v>
-      </c>
-      <c r="AP6">
-        <v>67.44814</v>
-      </c>
-      <c r="AQ6">
-        <v>116.46812</v>
-      </c>
-      <c r="AR6">
-        <v>216.8283</v>
-      </c>
-      <c r="AS6">
-        <v>211.20268</v>
-      </c>
-      <c r="AT6">
-        <v>253.04654</v>
-      </c>
-      <c r="AU6">
-        <v>251.28824</v>
-      </c>
-      <c r="AV6">
-        <v>189.75633</v>
-      </c>
-      <c r="AW6">
-        <v>228.7832</v>
-      </c>
-      <c r="AX6">
-        <v>341.32972</v>
-      </c>
-      <c r="AY6">
-        <v>369.82618</v>
-      </c>
-      <c r="AZ6">
-        <v>289.09456</v>
-      </c>
-      <c r="BA6">
-        <v>283.11549</v>
-      </c>
-      <c r="BB6">
-        <v>315.47458</v>
-      </c>
-      <c r="BC6">
-        <v>228.95901</v>
+      <c r="BV6">
+        <v>44.61145</v>
+      </c>
+      <c r="BW6">
+        <v>96.96411000000001</v>
+      </c>
+      <c r="BX6">
+        <v>63.05626</v>
+      </c>
+      <c r="BY6">
+        <v>109.43943</v>
+      </c>
+      <c r="BZ6">
+        <v>77.63768</v>
+      </c>
+      <c r="CA6">
+        <v>79.39455</v>
+      </c>
+      <c r="CB6">
+        <v>37.40968</v>
+      </c>
+      <c r="CC6">
+        <v>48.47593</v>
+      </c>
+      <c r="CE6">
+        <v>14.22533</v>
+      </c>
+      <c r="CF6">
+        <v>89.9361</v>
+      </c>
+      <c r="CG6">
+        <v>19.66988</v>
+      </c>
+      <c r="CH6">
+        <v>-0</v>
+      </c>
+      <c r="CI6">
+        <v>18.61609</v>
+      </c>
+      <c r="CJ6">
+        <v>61.29953</v>
+      </c>
+      <c r="CK6">
+        <v>128.94464</v>
+      </c>
+      <c r="CL6">
+        <v>37.76098</v>
+      </c>
+      <c r="CM6">
+        <v>168.31207</v>
       </c>
     </row>
   </sheetData>
@@ -1971,337 +3065,580 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>138</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.001724963836062461</v>
+        <v>0.00233714805849179</v>
       </c>
       <c r="C2">
-        <v>0.007761891073783482</v>
+        <v>0.008673625763667359</v>
       </c>
       <c r="D2">
-        <v>0.7492961175287587</v>
+        <v>0.004825861774938609</v>
       </c>
       <c r="E2">
-        <v>2.493580149634246</v>
+        <v>0.009332374762356765</v>
       </c>
       <c r="F2">
-        <v>0.1373027607088225</v>
+        <v>0.002246462289292034</v>
+      </c>
+      <c r="G2">
+        <v>0.008398650089006187</v>
+      </c>
+      <c r="H2">
+        <v>0.00759888712863625</v>
       </c>
       <c r="I2">
-        <v>0.4537479264930682</v>
+        <v>0.009173105697722421</v>
       </c>
       <c r="J2">
-        <v>0.2371614956299856</v>
+        <v>0.0008756466634565041</v>
       </c>
       <c r="K2">
-        <v>0.3666706687878193</v>
+        <v>0.002804220995979702</v>
       </c>
       <c r="L2">
-        <v>0.03062204961686835</v>
+        <v>0.003149682250635894</v>
       </c>
       <c r="M2">
-        <v>0.03751444978560724</v>
+        <v>0.005018288007351245</v>
       </c>
       <c r="N2">
-        <v>0.005714158463767701</v>
+        <v>0.003832412519895512</v>
       </c>
       <c r="O2">
-        <v>0.01492339326305733</v>
+        <v>0.01478617431449668</v>
       </c>
       <c r="P2">
-        <v>0.01013837546677909</v>
+        <v>0.006532430016064978</v>
       </c>
       <c r="Q2">
-        <v>0.008212814642403124</v>
+        <v>0.009329001764789922</v>
       </c>
       <c r="R2">
-        <v>0.001465289159804688</v>
+        <v>0.007198375094912432</v>
       </c>
       <c r="S2">
-        <v>0.0242933467258729</v>
+        <v>0.01183216982503144</v>
+      </c>
+      <c r="T2">
+        <v>0.00891656122462566</v>
+      </c>
+      <c r="U2">
+        <v>0.01093760424045871</v>
+      </c>
+      <c r="V2">
+        <v>0.005558005575857195</v>
+      </c>
+      <c r="W2">
+        <v>0.002106731853517887</v>
+      </c>
+      <c r="X2">
+        <v>0.002557045376394259</v>
+      </c>
+      <c r="Y2">
+        <v>0.005036382107846933</v>
+      </c>
+      <c r="Z2">
+        <v>0.003558774771315515</v>
+      </c>
+      <c r="AA2">
+        <v>0.008944245416018499</v>
+      </c>
+      <c r="AB2">
+        <v>0.02225277780531417</v>
+      </c>
+      <c r="AC2">
+        <v>0.017288237320069</v>
+      </c>
+      <c r="AD2">
+        <v>0.01554967965013708</v>
+      </c>
+      <c r="AE2">
+        <v>0.02319407290169661</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01952907923740375</v>
+        <v>0.00405703336095319</v>
       </c>
       <c r="C3">
-        <v>0.005000690228146048</v>
+        <v>0.005411334836958254</v>
       </c>
       <c r="D3">
-        <v>4.222468049465279</v>
+        <v>0.003863022367750837</v>
       </c>
       <c r="E3">
-        <v>1.5464701506389</v>
+        <v>0.002544451886494933</v>
+      </c>
+      <c r="F3">
+        <v>0.007772132972718704</v>
       </c>
       <c r="G3">
-        <v>0.6419952810963966</v>
+        <v>0.01033855041487804</v>
       </c>
       <c r="H3">
-        <v>1.411800558539723</v>
+        <v>0.003054984979293746</v>
       </c>
       <c r="I3">
-        <v>2.820697070152297</v>
+        <v>0.004305471510181422</v>
       </c>
       <c r="J3">
-        <v>0.2902309780989877</v>
+        <v>0.001540156742507188</v>
       </c>
       <c r="K3">
-        <v>0.1474615416379214</v>
+        <v>0.006153797374249802</v>
       </c>
       <c r="L3">
-        <v>0.001138166409084474</v>
+        <v>0.01106472497743018</v>
       </c>
       <c r="M3">
-        <v>0.02663757977267676</v>
+        <v>0.01227599934416926</v>
       </c>
       <c r="N3">
-        <v>0.003426812157935884</v>
+        <v>0.006913261234675398</v>
       </c>
       <c r="O3">
-        <v>0.007629469904159279</v>
+        <v>0.01047304439058051</v>
       </c>
       <c r="P3">
-        <v>0.003685789063810974</v>
+        <v>0.01269600711760737</v>
       </c>
       <c r="Q3">
-        <v>0.01282015160987156</v>
+        <v>0.008510175777474848</v>
       </c>
       <c r="R3">
-        <v>0.006285148498897456</v>
+        <v>0.0190317516602642</v>
       </c>
       <c r="S3">
-        <v>0.0251569636654362</v>
+        <v>0.01544951655640026</v>
+      </c>
+      <c r="T3">
+        <v>0.003012048583209788</v>
+      </c>
+      <c r="U3">
+        <v>0.007991392853135139</v>
+      </c>
+      <c r="V3">
+        <v>0.005226508012186866</v>
+      </c>
+      <c r="W3">
+        <v>0.009125839251663952</v>
+      </c>
+      <c r="X3">
+        <v>0.003628675278629873</v>
+      </c>
+      <c r="Y3">
+        <v>0.00767931020397874</v>
+      </c>
+      <c r="Z3">
+        <v>0.01411092135236301</v>
+      </c>
+      <c r="AA3">
+        <v>0.002466608728545619</v>
+      </c>
+      <c r="AB3">
+        <v>0.01620801536693333</v>
+      </c>
+      <c r="AC3">
+        <v>0.005635912965064973</v>
+      </c>
+      <c r="AD3">
+        <v>0.01368068935027003</v>
+      </c>
+      <c r="AE3">
+        <v>0.01232818276627922</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0107537697827067</v>
+        <v>0.001738687603982723</v>
       </c>
       <c r="C4">
-        <v>0.008882406404589462</v>
+        <v>0.002658981093121824</v>
       </c>
       <c r="D4">
-        <v>0.9047262015756741</v>
+        <v>0.001983497008797332</v>
       </c>
       <c r="E4">
-        <v>0.1777086928942029</v>
+        <v>0.01216227225378875</v>
+      </c>
+      <c r="F4">
+        <v>0.005218708903471752</v>
       </c>
       <c r="G4">
-        <v>0.8768384162925928</v>
+        <v>0.0180239144070219</v>
       </c>
       <c r="H4">
-        <v>0.8642736113531588</v>
+        <v>0.00981162424655822</v>
       </c>
       <c r="I4">
-        <v>0.8768829408699463</v>
+        <v>0.008201903446820306</v>
       </c>
       <c r="J4">
-        <v>0.2173874418753982</v>
+        <v>0.00411082375253579</v>
       </c>
       <c r="K4">
-        <v>0.2576993286455241</v>
+        <v>0.01851900908702748</v>
       </c>
       <c r="L4">
-        <v>0.02126777453491441</v>
+        <v>0.02916435430684846</v>
       </c>
       <c r="M4">
-        <v>0.03397249450790905</v>
+        <v>0.006862073513844011</v>
       </c>
       <c r="N4">
-        <v>0.01060902024779602</v>
+        <v>0.009100545185040646</v>
       </c>
       <c r="O4">
-        <v>0.01590067164540986</v>
+        <v>0.00866586760726179</v>
       </c>
       <c r="P4">
-        <v>0.009088342074837686</v>
+        <v>0.03314053813663738</v>
       </c>
       <c r="Q4">
-        <v>0.01249211973890599</v>
+        <v>0.01394568846711459</v>
       </c>
       <c r="R4">
-        <v>0.009777124905127877</v>
+        <v>0.01308127510135098</v>
       </c>
       <c r="S4">
-        <v>0.01494967008100202</v>
+        <v>0.03396246059522267</v>
+      </c>
+      <c r="T4">
+        <v>0.007272924299239134</v>
+      </c>
+      <c r="U4">
+        <v>0.01407157410173446</v>
+      </c>
+      <c r="V4">
+        <v>0.02045453758518228</v>
+      </c>
+      <c r="W4">
+        <v>0.01075241479270021</v>
+      </c>
+      <c r="X4">
+        <v>0.007745266499903885</v>
+      </c>
+      <c r="Y4">
+        <v>0.01907772676072165</v>
+      </c>
+      <c r="Z4">
+        <v>0.01148876985504969</v>
+      </c>
+      <c r="AA4">
+        <v>0.005557919239709924</v>
+      </c>
+      <c r="AB4">
+        <v>0.01819572881218404</v>
+      </c>
+      <c r="AC4">
+        <v>0.01715398773527359</v>
+      </c>
+      <c r="AD4">
+        <v>0.03511618184905466</v>
+      </c>
+      <c r="AE4">
+        <v>0.01970107985058444</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01060824267020598</v>
+        <v>0.006642353995276631</v>
       </c>
       <c r="C5">
-        <v>0.01541048549459068</v>
+        <v>0.01433146331260613</v>
       </c>
       <c r="D5">
-        <v>1.64096015005667</v>
+        <v>0.01418826675644884</v>
       </c>
       <c r="E5">
-        <v>1.109291419042228</v>
+        <v>0.01285362823571629</v>
       </c>
       <c r="F5">
-        <v>1.47044104470758</v>
+        <v>0.01712618790155745</v>
       </c>
       <c r="G5">
-        <v>1.067300279922528</v>
+        <v>0.01370484285007868</v>
       </c>
       <c r="H5">
-        <v>3.367423297604404</v>
+        <v>0.01720018965131184</v>
       </c>
       <c r="I5">
-        <v>0.2003863478862582</v>
+        <v>0.007278923256218929</v>
       </c>
       <c r="J5">
-        <v>0.5112753114437442</v>
+        <v>0.02279390774303917</v>
       </c>
       <c r="K5">
-        <v>0.6844342124707929</v>
+        <v>0.02284201269860956</v>
       </c>
       <c r="L5">
-        <v>0.1358372905100923</v>
+        <v>0.03241537809647979</v>
       </c>
       <c r="M5">
-        <v>0.06249968861821361</v>
+        <v>0.02282835990312123</v>
       </c>
       <c r="N5">
-        <v>0.01924684005848419</v>
+        <v>0.0243568754628147</v>
       </c>
       <c r="O5">
-        <v>0.02774513187590493</v>
+        <v>0.01769934412725748</v>
       </c>
       <c r="P5">
-        <v>0.02844049743334633</v>
+        <v>0.01891108553960516</v>
       </c>
       <c r="Q5">
-        <v>0.02898129780539387</v>
+        <v>0.04977820620139134</v>
       </c>
       <c r="R5">
-        <v>0.02025685679291453</v>
+        <v>0.02417029427552382</v>
       </c>
       <c r="S5">
-        <v>0.03663053919915115</v>
+        <v>0.1201736775657169</v>
+      </c>
+      <c r="T5">
+        <v>0.01361616684899737</v>
+      </c>
+      <c r="U5">
+        <v>0.01655316675871172</v>
+      </c>
+      <c r="V5">
+        <v>0.04113723629479034</v>
+      </c>
+      <c r="W5">
+        <v>0.04587742586640245</v>
+      </c>
+      <c r="X5">
+        <v>0.02635236396466924</v>
+      </c>
+      <c r="Y5">
+        <v>0.01046442219361847</v>
+      </c>
+      <c r="Z5">
+        <v>0.04887880240036098</v>
+      </c>
+      <c r="AA5">
+        <v>0.07548002676150696</v>
+      </c>
+      <c r="AB5">
+        <v>0.246257433902783</v>
+      </c>
+      <c r="AC5">
+        <v>0.01626174327917472</v>
+      </c>
+      <c r="AD5">
+        <v>0.03909683709714341</v>
+      </c>
+      <c r="AE5">
+        <v>0.03454528265255882</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05236407850460666</v>
+        <v>0.1054286677252621</v>
       </c>
       <c r="C6">
-        <v>0.1375730616527762</v>
+        <v>0.1050915969096244</v>
       </c>
       <c r="D6">
-        <v>0.6895442232484918</v>
+        <v>0.03003497242791358</v>
+      </c>
+      <c r="E6">
+        <v>0.07892840473737266</v>
+      </c>
+      <c r="F6">
+        <v>0.08121246754770542</v>
+      </c>
+      <c r="G6">
+        <v>0.05360397592099856</v>
+      </c>
+      <c r="H6">
+        <v>0.08213126373863273</v>
+      </c>
+      <c r="I6">
+        <v>0.09809108947608187</v>
       </c>
       <c r="J6">
-        <v>0.1849463706449851</v>
+        <v>0.02150924299407247</v>
       </c>
       <c r="K6">
-        <v>0.11845439687007</v>
+        <v>0.1811677557973576</v>
       </c>
       <c r="L6">
-        <v>2.778038745182362</v>
+        <v>0.1119872002637778</v>
       </c>
       <c r="M6">
-        <v>1.347941958259772</v>
+        <v>0.1689787191780365</v>
       </c>
       <c r="N6">
-        <v>0.1976109045819472</v>
+        <v>0.3580976387029632</v>
       </c>
       <c r="O6">
-        <v>0.3364300133841509</v>
+        <v>0.5821182818285301</v>
       </c>
       <c r="P6">
-        <v>0.09765903269132591</v>
+        <v>0.5506542118303269</v>
       </c>
       <c r="Q6">
-        <v>0.1429844332320555</v>
+        <v>0.3824965812887978</v>
       </c>
       <c r="R6">
-        <v>0.125612213006786</v>
+        <v>0.2097473959256304</v>
       </c>
       <c r="S6">
-        <v>0.1630599946910611</v>
+        <v>0.1963545805685682</v>
+      </c>
+      <c r="T6">
+        <v>0.247654205699293</v>
+      </c>
+      <c r="U6">
+        <v>1.969186688149723</v>
+      </c>
+      <c r="V6">
+        <v>0.4303452499148218</v>
+      </c>
+      <c r="W6">
+        <v>0.9565301861483115</v>
+      </c>
+      <c r="X6">
+        <v>0.3675687158180411</v>
+      </c>
+      <c r="Y6">
+        <v>0.3473483945174591</v>
+      </c>
+      <c r="Z6">
+        <v>0.3889368208752909</v>
+      </c>
+      <c r="AA6">
+        <v>0.1920814431920334</v>
+      </c>
+      <c r="AB6">
+        <v>0.1832381604345226</v>
+      </c>
+      <c r="AC6">
+        <v>0.9845527148709898</v>
+      </c>
+      <c r="AD6">
+        <v>0.8426916180631988</v>
+      </c>
+      <c r="AE6">
+        <v>0.797171595095634</v>
       </c>
     </row>
   </sheetData>
@@ -2311,180 +3648,288 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC6"/>
+  <dimension ref="A1:CM6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:91">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:91">
       <c r="A2">
         <v>630.188</v>
       </c>
@@ -2492,145 +3937,274 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.0009868510245363523</v>
+        <v>0.002589041418522249</v>
       </c>
       <c r="D2">
-        <v>0.002369456689062963</v>
+        <v>-0.002075854869486451</v>
       </c>
       <c r="E2">
-        <v>0.321177658068397</v>
+        <v>0.412568919336989</v>
       </c>
       <c r="F2">
-        <v>0.334610284186732</v>
+        <v>0.4067996308532152</v>
       </c>
       <c r="G2">
-        <v>0.3346329826127608</v>
+        <v>0.3955162888423664</v>
       </c>
       <c r="H2">
-        <v>8.271734338524011</v>
+        <v>0.2356880807744121</v>
       </c>
       <c r="I2">
-        <v>7.212069606881336</v>
+        <v>0.2443267886264819</v>
+      </c>
+      <c r="J2">
+        <v>0.2362796510965636</v>
       </c>
       <c r="K2">
-        <v>10.5908753375122</v>
+        <v>0.2676322388357075</v>
+      </c>
+      <c r="L2">
+        <v>0.283332107066245</v>
       </c>
       <c r="M2">
-        <v>7.064420471035114</v>
+        <v>0.2667405907559134</v>
+      </c>
+      <c r="N2">
+        <v>0.3382015821588838</v>
       </c>
       <c r="O2">
-        <v>7.104429508065826</v>
+        <v>0.3426571431709355</v>
       </c>
       <c r="P2">
-        <v>6.910254081720142</v>
+        <v>0.3399286027398484</v>
       </c>
       <c r="Q2">
-        <v>6.72301976646716</v>
+        <v>0.3932967628026244</v>
+      </c>
+      <c r="R2">
+        <v>0.3918584272318383</v>
+      </c>
+      <c r="S2">
+        <v>0.3780841356978677</v>
       </c>
       <c r="T2">
-        <v>8.092142994555823</v>
+        <v>0.3909083963762188</v>
+      </c>
+      <c r="U2">
+        <v>0.3770384829019348</v>
+      </c>
+      <c r="V2">
+        <v>0.378593069582736</v>
       </c>
       <c r="W2">
-        <v>6.751293942620885</v>
+        <v>0.2910663637255985</v>
       </c>
       <c r="X2">
-        <v>7.069335002800199</v>
+        <v>0.2730603589103965</v>
       </c>
       <c r="Y2">
-        <v>7.646384411928474</v>
+        <v>0.285108923231825</v>
       </c>
       <c r="Z2">
-        <v>5.781068503813306</v>
+        <v>0.4308545829408482</v>
       </c>
       <c r="AA2">
-        <v>6.251196042384491</v>
+        <v>0.4306919383677213</v>
       </c>
       <c r="AB2">
-        <v>6.070646474332196</v>
+        <v>0.4322833703505624</v>
       </c>
       <c r="AC2">
-        <v>5.647660769122093</v>
+        <v>0.7539053870845956</v>
       </c>
       <c r="AD2">
-        <v>6.36142102139537</v>
+        <v>0.7509288028780153</v>
       </c>
       <c r="AE2">
-        <v>5.858760701974419</v>
+        <v>0.7565336379518978</v>
       </c>
       <c r="AF2">
-        <v>2.160652823311019</v>
+        <v>1.078668161623144</v>
       </c>
       <c r="AG2">
-        <v>2.194846345568148</v>
+        <v>1.073317791856688</v>
       </c>
       <c r="AH2">
-        <v>2.221752221235033</v>
+        <v>1.07311345379999</v>
       </c>
       <c r="AI2">
-        <v>2.445671313876951</v>
+        <v>0.7289009682507247</v>
       </c>
       <c r="AJ2">
-        <v>2.494606978787585</v>
+        <v>0.7280771323414591</v>
       </c>
       <c r="AK2">
-        <v>2.420884934807099</v>
+        <v>0.7371516488883233</v>
       </c>
       <c r="AL2">
-        <v>1.226400344504993</v>
+        <v>0.9517330970767729</v>
       </c>
       <c r="AM2">
-        <v>1.232453988382594</v>
+        <v>0.9593964736254652</v>
       </c>
       <c r="AN2">
-        <v>1.237821799711515</v>
+        <v>0.9556938282613083</v>
       </c>
       <c r="AO2">
-        <v>1.285854664692653</v>
+        <v>0.9853594635980008</v>
       </c>
       <c r="AP2">
-        <v>1.256341272787208</v>
+        <v>0.9559059081276927</v>
       </c>
       <c r="AQ2">
-        <v>1.267245336765769</v>
+        <v>0.9729259161596464</v>
       </c>
       <c r="AR2">
-        <v>0.7169090825445777</v>
+        <v>1.079421793449889</v>
       </c>
       <c r="AS2">
-        <v>0.7228491495566002</v>
+        <v>1.071514249409391</v>
       </c>
       <c r="AT2">
-        <v>0.7030893371885647</v>
+        <v>1.066461302483207</v>
       </c>
       <c r="AU2">
-        <v>0.7438308805416863</v>
+        <v>1.252258288682832</v>
       </c>
       <c r="AV2">
-        <v>0.7280710238081137</v>
+        <v>1.241312507655423</v>
       </c>
       <c r="AW2">
-        <v>0.7319420670612602</v>
+        <v>1.233699786603085</v>
       </c>
       <c r="AX2">
-        <v>0.5291258656977472</v>
+        <v>0.8763277745250194</v>
       </c>
       <c r="AY2">
-        <v>0.5297452748983102</v>
+        <v>0.872944051759981</v>
       </c>
       <c r="AZ2">
-        <v>0.5319161883958456</v>
+        <v>0.8867546023128762</v>
       </c>
       <c r="BA2">
-        <v>0.6854918213014732</v>
+        <v>2.060002712000931</v>
       </c>
       <c r="BB2">
-        <v>0.6558612851468613</v>
+        <v>2.037188996499632</v>
       </c>
       <c r="BC2">
-        <v>0.6373295356540289</v>
+        <v>2.043150533591728</v>
+      </c>
+      <c r="BD2">
+        <v>1.085436968602419</v>
+      </c>
+      <c r="BE2">
+        <v>1.100711601464389</v>
+      </c>
+      <c r="BF2">
+        <v>1.085103752716393</v>
+      </c>
+      <c r="BG2">
+        <v>1.042056929003171</v>
+      </c>
+      <c r="BH2">
+        <v>1.021861052733787</v>
+      </c>
+      <c r="BI2">
+        <v>1.024679671130585</v>
+      </c>
+      <c r="BJ2">
+        <v>0.980814751353835</v>
+      </c>
+      <c r="BK2">
+        <v>0.9756001670266634</v>
+      </c>
+      <c r="BL2">
+        <v>0.9697056734563642</v>
+      </c>
+      <c r="BM2">
+        <v>1.292844195461144</v>
+      </c>
+      <c r="BN2">
+        <v>1.291356217815218</v>
+      </c>
+      <c r="BO2">
+        <v>1.295514060648211</v>
+      </c>
+      <c r="BP2">
+        <v>0.8382538762914463</v>
+      </c>
+      <c r="BQ2">
+        <v>0.8334444067822254</v>
+      </c>
+      <c r="BR2">
+        <v>0.8373548624441502</v>
+      </c>
+      <c r="BS2">
+        <v>0.9756310651768678</v>
+      </c>
+      <c r="BT2">
+        <v>0.9806491224871243</v>
+      </c>
+      <c r="BU2">
+        <v>0.9705763804693707</v>
+      </c>
+      <c r="BV2">
+        <v>1.407915689689603</v>
+      </c>
+      <c r="BW2">
+        <v>1.414868379462219</v>
+      </c>
+      <c r="BX2">
+        <v>1.410073053032003</v>
+      </c>
+      <c r="BY2">
+        <v>1.229423490897473</v>
+      </c>
+      <c r="BZ2">
+        <v>1.214241332441891</v>
+      </c>
+      <c r="CA2">
+        <v>1.213639419135932</v>
+      </c>
+      <c r="CB2">
+        <v>1.750174131993606</v>
+      </c>
+      <c r="CC2">
+        <v>1.776408692110386</v>
+      </c>
+      <c r="CD2">
+        <v>1.732156716746479</v>
+      </c>
+      <c r="CE2">
+        <v>1.483466453848494</v>
+      </c>
+      <c r="CF2">
+        <v>1.456121758381004</v>
+      </c>
+      <c r="CG2">
+        <v>1.488120321524586</v>
+      </c>
+      <c r="CH2">
+        <v>1.510293705616116</v>
+      </c>
+      <c r="CI2">
+        <v>1.529253202134938</v>
+      </c>
+      <c r="CJ2">
+        <v>1.498424432106831</v>
+      </c>
+      <c r="CK2">
+        <v>1.744613480581755</v>
+      </c>
+      <c r="CL2">
+        <v>1.77055549418273</v>
+      </c>
+      <c r="CM2">
+        <v>1.724280523638376</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:91">
       <c r="A3">
         <v>710.104</v>
       </c>
@@ -2638,151 +4212,274 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03527755258783717</v>
+        <v>-0.008112929333526035</v>
       </c>
       <c r="D3">
-        <v>0.03215688636863803</v>
+        <v>-0.003938811372839628</v>
       </c>
       <c r="E3">
-        <v>0.3521547401396932</v>
+        <v>0.3864165097060224</v>
       </c>
       <c r="F3">
-        <v>0.3422254185756777</v>
+        <v>0.3797998283440658</v>
       </c>
       <c r="G3">
-        <v>0.3461522266550301</v>
+        <v>0.3756911426688292</v>
       </c>
       <c r="H3">
-        <v>12.27497424921892</v>
+        <v>0.2132424536848819</v>
       </c>
       <c r="I3">
-        <v>6.30350266697805</v>
+        <v>0.2079136180411972</v>
+      </c>
+      <c r="J3">
+        <v>0.2154227709902861</v>
       </c>
       <c r="K3">
-        <v>6.551219073004707</v>
+        <v>0.2634621056332196</v>
       </c>
       <c r="L3">
-        <v>9.502349937384105</v>
+        <v>0.2584154389003583</v>
       </c>
       <c r="M3">
-        <v>7.225017864312048</v>
+        <v>0.2603721397812782</v>
+      </c>
+      <c r="N3">
+        <v>0.3311439669280359</v>
+      </c>
+      <c r="O3">
+        <v>0.3178015593450924</v>
       </c>
       <c r="P3">
-        <v>7.02783389743097</v>
+        <v>0.3313795187247418</v>
       </c>
       <c r="Q3">
-        <v>6.79837156257643</v>
+        <v>0.3716700595563894</v>
       </c>
       <c r="R3">
-        <v>7.7001910655189</v>
+        <v>0.3664446361966791</v>
       </c>
       <c r="S3">
-        <v>8.04080832617964</v>
+        <v>0.351731699632478</v>
+      </c>
+      <c r="T3">
+        <v>0.3680119991620276</v>
       </c>
       <c r="U3">
-        <v>9.877047916339993</v>
+        <v>0.3652386528163484</v>
       </c>
       <c r="V3">
-        <v>7.880460419087207</v>
+        <v>0.3619104333916507</v>
       </c>
       <c r="W3">
-        <v>11.17634297927583</v>
+        <v>0.2614184263481861</v>
+      </c>
+      <c r="X3">
+        <v>0.2629059070132919</v>
       </c>
       <c r="Y3">
-        <v>7.187274927320402</v>
+        <v>0.2695073559722518</v>
       </c>
       <c r="Z3">
-        <v>5.565268254081594</v>
+        <v>0.4161724372048548</v>
       </c>
       <c r="AA3">
-        <v>5.242696790752963</v>
+        <v>0.4159904199986613</v>
       </c>
       <c r="AB3">
-        <v>4.986055734295956</v>
+        <v>0.4187443969975446</v>
       </c>
       <c r="AC3">
-        <v>5.213947702742479</v>
+        <v>0.7285566385516805</v>
       </c>
       <c r="AD3">
-        <v>4.950447934244662</v>
+        <v>0.728117032883737</v>
       </c>
       <c r="AE3">
-        <v>5.196917576111406</v>
+        <v>0.7389887241189503</v>
       </c>
       <c r="AF3">
-        <v>1.858502094329916</v>
+        <v>1.045701494183368</v>
       </c>
       <c r="AG3">
-        <v>1.858708955848912</v>
+        <v>1.024050411366802</v>
       </c>
       <c r="AH3">
-        <v>1.856642319914637</v>
+        <v>1.0388392060008</v>
       </c>
       <c r="AI3">
-        <v>2.066007531363974</v>
+        <v>0.7135259839256733</v>
       </c>
       <c r="AJ3">
-        <v>2.013633823405331</v>
+        <v>0.7155317644991781</v>
       </c>
       <c r="AK3">
-        <v>2.031369168381267</v>
+        <v>0.6933372930323357</v>
       </c>
       <c r="AL3">
-        <v>1.103650881377462</v>
+        <v>0.9388783778719503</v>
       </c>
       <c r="AM3">
-        <v>1.107652578497324</v>
+        <v>0.9506264391750234</v>
       </c>
       <c r="AN3">
-        <v>1.110470333450653</v>
+        <v>0.9384383896439599</v>
       </c>
       <c r="AO3">
-        <v>1.15289961092246</v>
+        <v>0.9680066938254001</v>
       </c>
       <c r="AP3">
-        <v>1.163563588809684</v>
+        <v>0.9573973460786102</v>
       </c>
       <c r="AQ3">
-        <v>1.148779821474097</v>
+        <v>0.9783428409570538</v>
       </c>
       <c r="AR3">
-        <v>0.6683759443818894</v>
+        <v>1.071597701665995</v>
       </c>
       <c r="AS3">
-        <v>0.6610043702662816</v>
+        <v>1.077510889662524</v>
       </c>
       <c r="AT3">
-        <v>0.6646834968210266</v>
+        <v>1.05316875274435</v>
       </c>
       <c r="AU3">
-        <v>0.6419677404789425</v>
+        <v>1.226589736437351</v>
       </c>
       <c r="AV3">
-        <v>0.6404484425534448</v>
+        <v>1.23124115443413</v>
       </c>
       <c r="AW3">
-        <v>0.6633742292551066</v>
+        <v>1.214736499485671</v>
       </c>
       <c r="AX3">
-        <v>0.5014537847257093</v>
+        <v>0.8570615042752546</v>
       </c>
       <c r="AY3">
-        <v>0.4888927903535583</v>
+        <v>0.8236446929925116</v>
       </c>
       <c r="AZ3">
-        <v>0.4947545510512887</v>
+        <v>0.8561363256975753</v>
       </c>
       <c r="BA3">
-        <v>0.6368470240465879</v>
+        <v>2.038565916721958</v>
       </c>
       <c r="BB3">
-        <v>0.6133229747616171</v>
+        <v>2.039686826324303</v>
       </c>
       <c r="BC3">
-        <v>0.5865676943124826</v>
+        <v>2.012384637160397</v>
+      </c>
+      <c r="BD3">
+        <v>1.072798167065687</v>
+      </c>
+      <c r="BE3">
+        <v>1.07838080474361</v>
+      </c>
+      <c r="BF3">
+        <v>1.077549824503112</v>
+      </c>
+      <c r="BG3">
+        <v>1.000855317826437</v>
+      </c>
+      <c r="BH3">
+        <v>1.006129399679151</v>
+      </c>
+      <c r="BI3">
+        <v>0.9904261762706161</v>
+      </c>
+      <c r="BJ3">
+        <v>0.9529927455984805</v>
+      </c>
+      <c r="BK3">
+        <v>0.9466836558429764</v>
+      </c>
+      <c r="BL3">
+        <v>0.9426204657680507</v>
+      </c>
+      <c r="BM3">
+        <v>1.281147328604691</v>
+      </c>
+      <c r="BN3">
+        <v>1.29920599716062</v>
+      </c>
+      <c r="BO3">
+        <v>1.292469301893048</v>
+      </c>
+      <c r="BP3">
+        <v>0.8323750868716677</v>
+      </c>
+      <c r="BQ3">
+        <v>0.8251348290981011</v>
+      </c>
+      <c r="BR3">
+        <v>0.8283238508491864</v>
+      </c>
+      <c r="BS3">
+        <v>0.9556285792413193</v>
+      </c>
+      <c r="BT3">
+        <v>0.970962255744071</v>
+      </c>
+      <c r="BU3">
+        <v>0.9625376646909747</v>
+      </c>
+      <c r="BV3">
+        <v>1.372795204452872</v>
+      </c>
+      <c r="BW3">
+        <v>1.390284456754047</v>
+      </c>
+      <c r="BX3">
+        <v>1.362357837883799</v>
+      </c>
+      <c r="BY3">
+        <v>1.177514654343265</v>
+      </c>
+      <c r="BZ3">
+        <v>1.178909774789694</v>
+      </c>
+      <c r="CA3">
+        <v>1.174114324247769</v>
+      </c>
+      <c r="CB3">
+        <v>1.750188317738316</v>
+      </c>
+      <c r="CC3">
+        <v>1.744200218861613</v>
+      </c>
+      <c r="CD3">
+        <v>1.719604301096534</v>
+      </c>
+      <c r="CE3">
+        <v>1.400921341819607</v>
+      </c>
+      <c r="CF3">
+        <v>1.411640223700816</v>
+      </c>
+      <c r="CG3">
+        <v>1.409300670715399</v>
+      </c>
+      <c r="CH3">
+        <v>1.483106216784684</v>
+      </c>
+      <c r="CI3">
+        <v>1.489076679186854</v>
+      </c>
+      <c r="CJ3">
+        <v>1.509216087816996</v>
+      </c>
+      <c r="CK3">
+        <v>1.750994749297562</v>
+      </c>
+      <c r="CL3">
+        <v>1.757653976667272</v>
+      </c>
+      <c r="CM3">
+        <v>1.73376485693083</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:91">
       <c r="A4">
         <v>800.131</v>
       </c>
@@ -2790,151 +4487,274 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02144254092336376</v>
+        <v>-0.001047104160368515</v>
       </c>
       <c r="D4">
-        <v>0.01216825791178978</v>
+        <v>-0.003395273412544651</v>
       </c>
       <c r="E4">
-        <v>0.3266684479855524</v>
+        <v>0.3849291631994318</v>
       </c>
       <c r="F4">
-        <v>0.3384215441849036</v>
+        <v>0.3836267940000014</v>
       </c>
       <c r="G4">
-        <v>0.3440814590572777</v>
+        <v>0.3887432240814364</v>
       </c>
       <c r="H4">
-        <v>6.791067641750565</v>
+        <v>0.2177852890731945</v>
+      </c>
+      <c r="I4">
+        <v>0.217117514157883</v>
       </c>
       <c r="J4">
-        <v>8.070543706253178</v>
+        <v>0.2140649080530786</v>
+      </c>
+      <c r="K4">
+        <v>0.2484998573476327</v>
       </c>
       <c r="L4">
-        <v>8.349261066076865</v>
+        <v>0.2678748323181131</v>
       </c>
       <c r="M4">
-        <v>8.097943022434288</v>
+        <v>0.2454507692414597</v>
       </c>
       <c r="N4">
-        <v>7.831310186146149</v>
+        <v>0.3183117753951195</v>
+      </c>
+      <c r="O4">
+        <v>0.3174671925737969</v>
+      </c>
+      <c r="P4">
+        <v>0.3088800568244789</v>
+      </c>
+      <c r="Q4">
+        <v>0.367376682965012</v>
       </c>
       <c r="R4">
-        <v>6.704677473884654</v>
+        <v>0.3458198165206343</v>
       </c>
       <c r="S4">
-        <v>5.464640693553923</v>
+        <v>0.3816194528210007</v>
       </c>
       <c r="T4">
-        <v>6.704677473884654</v>
+        <v>0.3614188137294327</v>
       </c>
       <c r="U4">
-        <v>7.127558030604622</v>
+        <v>0.3486379687744429</v>
       </c>
       <c r="V4">
-        <v>5.464640693553923</v>
+        <v>0.3421329884763619</v>
       </c>
       <c r="W4">
-        <v>7.538315484663701</v>
+        <v>0.2596482281429114</v>
       </c>
       <c r="X4">
-        <v>5.831992439163377</v>
+        <v>0.2432444268625153</v>
       </c>
       <c r="Y4">
-        <v>6.334273178367257</v>
+        <v>0.2514580798575609</v>
       </c>
       <c r="Z4">
-        <v>5.201134398847057</v>
+        <v>0.426564790240981</v>
       </c>
       <c r="AA4">
-        <v>5.427409397771441</v>
+        <v>0.4233871566691872</v>
       </c>
       <c r="AB4">
-        <v>4.992757328963292</v>
+        <v>0.4184091173248042</v>
       </c>
       <c r="AC4">
-        <v>5.26283146579071</v>
+        <v>0.8007502738887396</v>
       </c>
       <c r="AD4">
-        <v>4.773271159006398</v>
+        <v>0.8026404587687009</v>
       </c>
       <c r="AE4">
-        <v>5.15760367342838</v>
+        <v>0.7696612986267269</v>
       </c>
       <c r="AF4">
-        <v>1.865189578994434</v>
+        <v>1.119807982585684</v>
       </c>
       <c r="AG4">
-        <v>1.828300269739079</v>
+        <v>1.129448966118014</v>
       </c>
       <c r="AH4">
-        <v>1.82840538107907</v>
+        <v>1.074809128071481</v>
       </c>
       <c r="AI4">
-        <v>2.09717633028342</v>
+        <v>0.7137754592847217</v>
       </c>
       <c r="AJ4">
-        <v>2.048277982571045</v>
+        <v>0.7155990216143844</v>
       </c>
       <c r="AK4">
-        <v>2.113581835994198</v>
+        <v>0.7264673136263451</v>
       </c>
       <c r="AL4">
-        <v>1.053766922316019</v>
+        <v>1.016561561662777</v>
       </c>
       <c r="AM4">
-        <v>1.032792623102875</v>
+        <v>1.031440559691683</v>
       </c>
       <c r="AN4">
-        <v>1.046057003568155</v>
+        <v>1.014922441220685</v>
       </c>
       <c r="AO4">
-        <v>1.071500268853276</v>
+        <v>1.045876307929387</v>
       </c>
       <c r="AP4">
-        <v>1.098304388054219</v>
+        <v>1.028845007979903</v>
       </c>
       <c r="AQ4">
-        <v>1.099722870674653</v>
+        <v>1.040143264768912</v>
       </c>
       <c r="AR4">
-        <v>0.612302942770254</v>
+        <v>1.135270261923299</v>
       </c>
       <c r="AS4">
-        <v>0.6113415128449541</v>
+        <v>1.19090291304374</v>
       </c>
       <c r="AT4">
-        <v>0.6275416624151797</v>
+        <v>1.194289822907771</v>
       </c>
       <c r="AU4">
-        <v>0.6280608853753045</v>
+        <v>1.386085247775008</v>
       </c>
       <c r="AV4">
-        <v>0.6056226521514031</v>
+        <v>1.368767370847207</v>
       </c>
       <c r="AW4">
-        <v>0.6073258119509334</v>
+        <v>1.358491816064638</v>
       </c>
       <c r="AX4">
-        <v>0.4714676797787611</v>
+        <v>0.9385485882661977</v>
       </c>
       <c r="AY4">
-        <v>0.473734774891326</v>
+        <v>0.9124605386819501</v>
       </c>
       <c r="AZ4">
-        <v>0.4557809501659731</v>
+        <v>0.9237959012783622</v>
       </c>
       <c r="BA4">
-        <v>0.5505601740692386</v>
+        <v>2.438345656671438</v>
       </c>
       <c r="BB4">
-        <v>0.5358862093517571</v>
+        <v>2.506152981722794</v>
       </c>
       <c r="BC4">
-        <v>0.5206625184892706</v>
+        <v>2.468789378289976</v>
+      </c>
+      <c r="BD4">
+        <v>1.135196041385874</v>
+      </c>
+      <c r="BE4">
+        <v>1.148021613576467</v>
+      </c>
+      <c r="BF4">
+        <v>1.135666201203563</v>
+      </c>
+      <c r="BG4">
+        <v>1.06576600942519</v>
+      </c>
+      <c r="BH4">
+        <v>1.049740023318282</v>
+      </c>
+      <c r="BI4">
+        <v>1.077788071152737</v>
+      </c>
+      <c r="BJ4">
+        <v>1.004692056424813</v>
+      </c>
+      <c r="BK4">
+        <v>1.022727728205851</v>
+      </c>
+      <c r="BL4">
+        <v>0.9819105176198144</v>
+      </c>
+      <c r="BM4">
+        <v>1.388589221078019</v>
+      </c>
+      <c r="BN4">
+        <v>1.409743272944233</v>
+      </c>
+      <c r="BO4">
+        <v>1.395816196436284</v>
+      </c>
+      <c r="BP4">
+        <v>0.8471138486739235</v>
+      </c>
+      <c r="BQ4">
+        <v>0.860264906171496</v>
+      </c>
+      <c r="BR4">
+        <v>0.8466003207516669</v>
+      </c>
+      <c r="BS4">
+        <v>1.018839102301752</v>
+      </c>
+      <c r="BT4">
+        <v>0.9876457799283458</v>
+      </c>
+      <c r="BU4">
+        <v>0.9842132147894243</v>
+      </c>
+      <c r="BV4">
+        <v>1.529789857719374</v>
+      </c>
+      <c r="BW4">
+        <v>1.528972723302378</v>
+      </c>
+      <c r="BX4">
+        <v>1.549267836637725</v>
+      </c>
+      <c r="BY4">
+        <v>1.291055863074177</v>
+      </c>
+      <c r="BZ4">
+        <v>1.298789914675096</v>
+      </c>
+      <c r="CA4">
+        <v>1.288008430602208</v>
+      </c>
+      <c r="CB4">
+        <v>2.017840553111476</v>
+      </c>
+      <c r="CC4">
+        <v>2.000962015214949</v>
+      </c>
+      <c r="CD4">
+        <v>1.981480147727239</v>
+      </c>
+      <c r="CE4">
+        <v>1.606480446673681</v>
+      </c>
+      <c r="CF4">
+        <v>1.579877816720326</v>
+      </c>
+      <c r="CG4">
+        <v>1.574417390164316</v>
+      </c>
+      <c r="CH4">
+        <v>1.723518461121663</v>
+      </c>
+      <c r="CI4">
+        <v>1.65336095504826</v>
+      </c>
+      <c r="CJ4">
+        <v>1.685632228942043</v>
+      </c>
+      <c r="CK4">
+        <v>2.03824510109518</v>
+      </c>
+      <c r="CL4">
+        <v>2.062646893154644</v>
+      </c>
+      <c r="CM4">
+        <v>2.023653982455382</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:91">
       <c r="A5">
         <v>905.029</v>
       </c>
@@ -2942,148 +4762,274 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-0.002197188214864343</v>
+        <v>-0.003285296840879644</v>
       </c>
       <c r="D5">
-        <v>0.01717662711178382</v>
+        <v>-0.01279019157111576</v>
       </c>
       <c r="E5">
-        <v>0.4330045164129592</v>
+        <v>0.5216425534379868</v>
       </c>
       <c r="F5">
-        <v>0.4194023158881378</v>
+        <v>0.5277796410738242</v>
       </c>
       <c r="G5">
-        <v>0.4501551237138702</v>
+        <v>0.5004639399265552</v>
       </c>
       <c r="H5">
-        <v>5.084954748651293</v>
+        <v>0.4396286118733644</v>
       </c>
       <c r="I5">
-        <v>7.873189521189055</v>
+        <v>0.4523173455897417</v>
       </c>
       <c r="J5">
-        <v>4.979885428025235</v>
+        <v>0.423991901229242</v>
       </c>
       <c r="K5">
-        <v>6.369080173989713</v>
+        <v>0.5221962175918068</v>
+      </c>
+      <c r="L5">
+        <v>0.5011767419722272</v>
       </c>
       <c r="M5">
-        <v>4.800305204556098</v>
+        <v>0.4988691668820979</v>
       </c>
       <c r="N5">
-        <v>7.733427455026388</v>
+        <v>0.6147049664461198</v>
       </c>
       <c r="O5">
-        <v>5.653909786930866</v>
+        <v>0.5890422014421371</v>
+      </c>
+      <c r="P5">
+        <v>0.5822270624865999</v>
       </c>
       <c r="Q5">
-        <v>6.31501058852859</v>
+        <v>0.6742404729735969</v>
+      </c>
+      <c r="R5">
+        <v>0.6569413747477811</v>
       </c>
       <c r="S5">
-        <v>7.82440111951963</v>
+        <v>0.6471783180411359</v>
       </c>
       <c r="T5">
-        <v>10.86895880789553</v>
+        <v>0.6383661491369926</v>
+      </c>
+      <c r="U5">
+        <v>0.604275858296617</v>
       </c>
       <c r="V5">
-        <v>6.106703110172253</v>
+        <v>0.6253120718617049</v>
       </c>
       <c r="W5">
-        <v>5.426405771220866</v>
+        <v>0.480967078763169</v>
+      </c>
+      <c r="X5">
+        <v>0.4878349980285458</v>
       </c>
       <c r="Y5">
-        <v>5.709794862116025</v>
+        <v>0.4955173298202927</v>
       </c>
       <c r="Z5">
-        <v>5.151761973549949</v>
+        <v>0.7051329740580627</v>
       </c>
       <c r="AA5">
-        <v>5.475201074491629</v>
+        <v>0.7495143419365679</v>
       </c>
       <c r="AB5">
-        <v>4.473393615964602</v>
+        <v>0.7363462590368792</v>
       </c>
       <c r="AC5">
-        <v>5.606150901558078</v>
+        <v>1.296001795343143</v>
       </c>
       <c r="AD5">
-        <v>4.638214755729734</v>
+        <v>1.341685758471846</v>
+      </c>
+      <c r="AE5">
+        <v>1.318909099276176</v>
       </c>
       <c r="AF5">
-        <v>2.703027625310849</v>
+        <v>1.909086070295266</v>
       </c>
       <c r="AG5">
-        <v>2.930760140926376</v>
+        <v>1.942143289425977</v>
       </c>
       <c r="AH5">
-        <v>2.688602283713438</v>
+        <v>1.877316797827127</v>
       </c>
       <c r="AI5">
-        <v>2.902551432941729</v>
+        <v>1.174615706667282</v>
       </c>
       <c r="AJ5">
-        <v>3.014641172775545</v>
+        <v>1.129033406483767</v>
       </c>
       <c r="AK5">
-        <v>3.006508210565505</v>
+        <v>1.149567904168927</v>
       </c>
       <c r="AL5">
-        <v>1.485825586319976</v>
+        <v>1.739239537783156</v>
       </c>
       <c r="AM5">
-        <v>1.516244937192256</v>
+        <v>1.738338830689276</v>
       </c>
       <c r="AN5">
-        <v>1.480606853201056</v>
+        <v>1.696609050381741</v>
       </c>
       <c r="AO5">
-        <v>1.61734536519812</v>
+        <v>1.787232308847992</v>
       </c>
       <c r="AP5">
-        <v>1.599121438917284</v>
+        <v>1.751935473381325</v>
       </c>
       <c r="AQ5">
-        <v>1.653623857129413</v>
+        <v>1.771907767646352</v>
       </c>
       <c r="AR5">
-        <v>0.9548702762228773</v>
+        <v>1.968491911522084</v>
       </c>
       <c r="AS5">
-        <v>0.8999113875581437</v>
+        <v>1.955106564109197</v>
       </c>
       <c r="AT5">
-        <v>0.9146933478751004</v>
+        <v>1.931164097456308</v>
       </c>
       <c r="AU5">
-        <v>0.8517684037259662</v>
+        <v>2.300750900963869</v>
       </c>
       <c r="AV5">
-        <v>0.8866381500159414</v>
+        <v>2.336302605002467</v>
       </c>
       <c r="AW5">
-        <v>0.909300938432563</v>
+        <v>2.237993115955844</v>
       </c>
       <c r="AX5">
-        <v>0.7123219342604135</v>
+        <v>1.512786094404034</v>
       </c>
       <c r="AY5">
-        <v>0.7503292663184096</v>
+        <v>1.525068501639833</v>
       </c>
       <c r="AZ5">
-        <v>0.7191764120959206</v>
+        <v>1.559417620698677</v>
       </c>
       <c r="BA5">
-        <v>0.876046724803855</v>
+        <v>3.917831263418328</v>
       </c>
       <c r="BB5">
-        <v>0.8159040475761727</v>
+        <v>4.12488345585259</v>
       </c>
       <c r="BC5">
-        <v>0.8097464890500682</v>
+        <v>4.127055895789611</v>
+      </c>
+      <c r="BD5">
+        <v>2.016076957342152</v>
+      </c>
+      <c r="BE5">
+        <v>1.989361885047413</v>
+      </c>
+      <c r="BF5">
+        <v>1.998144633418901</v>
+      </c>
+      <c r="BG5">
+        <v>1.788178224058472</v>
+      </c>
+      <c r="BH5">
+        <v>1.815682568674565</v>
+      </c>
+      <c r="BI5">
+        <v>1.785972474833483</v>
+      </c>
+      <c r="BJ5">
+        <v>1.670195018552585</v>
+      </c>
+      <c r="BK5">
+        <v>1.738538916461263</v>
+      </c>
+      <c r="BL5">
+        <v>1.664697705553789</v>
+      </c>
+      <c r="BM5">
+        <v>2.367143368226258</v>
+      </c>
+      <c r="BN5">
+        <v>2.45224168459424</v>
+      </c>
+      <c r="BO5">
+        <v>2.37997852254199</v>
+      </c>
+      <c r="BP5">
+        <v>1.463066532841939</v>
+      </c>
+      <c r="BQ5">
+        <v>1.419701858551007</v>
+      </c>
+      <c r="BR5">
+        <v>1.467325861551044</v>
+      </c>
+      <c r="BS5">
+        <v>1.702285503727405</v>
+      </c>
+      <c r="BT5">
+        <v>1.707509348344056</v>
+      </c>
+      <c r="BU5">
+        <v>1.687346187301536</v>
+      </c>
+      <c r="BV5">
+        <v>2.621326854361716</v>
+      </c>
+      <c r="BW5">
+        <v>2.607404079182432</v>
+      </c>
+      <c r="BX5">
+        <v>2.530567917758031</v>
+      </c>
+      <c r="BY5">
+        <v>2.244443206182859</v>
+      </c>
+      <c r="BZ5">
+        <v>2.142466828815656</v>
+      </c>
+      <c r="CA5">
+        <v>2.09705835176828</v>
+      </c>
+      <c r="CB5">
+        <v>3.52635241425004</v>
+      </c>
+      <c r="CC5">
+        <v>3.575890900413099</v>
+      </c>
+      <c r="CD5">
+        <v>3.126754334074164</v>
+      </c>
+      <c r="CE5">
+        <v>2.789654138209083</v>
+      </c>
+      <c r="CF5">
+        <v>2.821318270922575</v>
+      </c>
+      <c r="CG5">
+        <v>2.811918148911059</v>
+      </c>
+      <c r="CH5">
+        <v>2.88971146691696</v>
+      </c>
+      <c r="CI5">
+        <v>2.90949704162991</v>
+      </c>
+      <c r="CJ5">
+        <v>2.834090238307686</v>
+      </c>
+      <c r="CK5">
+        <v>3.300303837131584</v>
+      </c>
+      <c r="CL5">
+        <v>3.348584961573325</v>
+      </c>
+      <c r="CM5">
+        <v>3.367244275843122</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:91">
       <c r="A6">
         <v>940.061</v>
       </c>
@@ -3091,124 +5037,259 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-0.09135310030747056</v>
+        <v>-0.04134429622337358</v>
       </c>
       <c r="D6">
-        <v>-0.09002684272401879</v>
+        <v>0.1583909659356139</v>
       </c>
       <c r="E6">
-        <v>0.8021053032240173</v>
+        <v>1.173494232468301</v>
       </c>
       <c r="F6">
-        <v>0.8049390032478694</v>
+        <v>0.966636511688353</v>
       </c>
       <c r="G6">
-        <v>0.5652512580647395</v>
+        <v>1.10231663156286</v>
       </c>
       <c r="H6">
-        <v>2.950981637531783</v>
+        <v>0.7378170174099659</v>
+      </c>
+      <c r="I6">
+        <v>0.7480452178077829</v>
       </c>
       <c r="J6">
-        <v>3.926144429905822</v>
+        <v>0.6916686884457616</v>
+      </c>
+      <c r="K6">
+        <v>0.8518286580153214</v>
+      </c>
+      <c r="L6">
+        <v>0.9758596606696142</v>
       </c>
       <c r="M6">
-        <v>2.954448467996935</v>
+        <v>0.8292787290024781</v>
+      </c>
+      <c r="N6">
+        <v>1.067269283963819</v>
+      </c>
+      <c r="O6">
+        <v>1.01396940041878</v>
       </c>
       <c r="P6">
-        <v>4.074205015550776</v>
+        <v>1.173494232468301</v>
+      </c>
+      <c r="Q6">
+        <v>1.202531433021739</v>
+      </c>
+      <c r="R6">
+        <v>1.260618516575451</v>
       </c>
       <c r="S6">
-        <v>4.084900767120548</v>
+        <v>1.15353923460998</v>
+      </c>
+      <c r="T6">
+        <v>1.128949076404745</v>
       </c>
       <c r="U6">
-        <v>4.539979181535936</v>
+        <v>1.079305107709117</v>
+      </c>
+      <c r="V6">
+        <v>1.239730339543948</v>
       </c>
       <c r="W6">
-        <v>4.022377200407783</v>
+        <v>0.9230080273112563</v>
+      </c>
+      <c r="X6">
+        <v>0.9474756528597202</v>
+      </c>
+      <c r="Y6">
+        <v>0.766669638999932</v>
+      </c>
+      <c r="Z6">
+        <v>1.146059368244037</v>
       </c>
       <c r="AA6">
-        <v>3.402521651905551</v>
+        <v>1.117067260176419</v>
       </c>
       <c r="AB6">
-        <v>3.140967986227732</v>
+        <v>1.159086683460392</v>
       </c>
       <c r="AC6">
-        <v>2.198895888689364</v>
+        <v>2.278426159602676</v>
       </c>
       <c r="AD6">
-        <v>2.435234019039055</v>
+        <v>1.925619245829117</v>
       </c>
       <c r="AE6">
-        <v>2.331296908075263</v>
+        <v>2.173512061484427</v>
       </c>
       <c r="AF6">
-        <v>2.920310762152936</v>
+        <v>2.677954756045448</v>
       </c>
       <c r="AG6">
-        <v>7.518939402927136</v>
+        <v>2.741542978456839</v>
       </c>
       <c r="AH6">
-        <v>2.519262370349024</v>
+        <v>2.523762839424648</v>
       </c>
       <c r="AI6">
-        <v>4.063622453503275</v>
+        <v>1.97017023423318</v>
+      </c>
+      <c r="AJ6">
+        <v>2.289425931242052</v>
       </c>
       <c r="AK6">
-        <v>2.157344654840557</v>
+        <v>2.033786247265713</v>
       </c>
       <c r="AL6">
-        <v>2.111451727002341</v>
+        <v>3.210863427466415</v>
       </c>
       <c r="AM6">
-        <v>2.278687789603264</v>
+        <v>2.849504856742836</v>
       </c>
       <c r="AN6">
-        <v>1.884949969586585</v>
+        <v>2.494678078593321</v>
       </c>
       <c r="AO6">
-        <v>2.053362458677017</v>
+        <v>2.536266538523274</v>
       </c>
       <c r="AP6">
-        <v>2.666722014784512</v>
+        <v>2.545748016265787</v>
       </c>
       <c r="AQ6">
-        <v>2.120463433587223</v>
+        <v>3.549232281201649</v>
       </c>
       <c r="AR6">
-        <v>1.498975224973961</v>
+        <v>2.584598574649109</v>
       </c>
       <c r="AS6">
-        <v>1.525262779930308</v>
+        <v>3.490385337532966</v>
       </c>
       <c r="AT6">
-        <v>1.344507596696353</v>
+        <v>3.580007336663536</v>
       </c>
       <c r="AU6">
-        <v>1.351480374278677</v>
+        <v>3.271303842789464</v>
       </c>
       <c r="AV6">
-        <v>1.632340245672732</v>
+        <v>2.578017788532309</v>
       </c>
       <c r="AW6">
-        <v>1.44530619083949</v>
+        <v>3.204708560380003</v>
       </c>
       <c r="AX6">
-        <v>1.045232090138032</v>
+        <v>2.208030966227235</v>
       </c>
       <c r="AY6">
-        <v>0.9650479096043314</v>
+        <v>2.17789977835527</v>
       </c>
       <c r="AZ6">
-        <v>1.211327189248919</v>
+        <v>2.555320162422165</v>
       </c>
       <c r="BA6">
-        <v>1.232226114806656</v>
+        <v>4.366737698125828</v>
       </c>
       <c r="BB6">
-        <v>1.124002912863534</v>
+        <v>4.221018175743499</v>
       </c>
       <c r="BC6">
-        <v>1.444538029176422</v>
+        <v>4.609693911084602</v>
+      </c>
+      <c r="BD6">
+        <v>2.5409960401341</v>
+      </c>
+      <c r="BF6">
+        <v>2.891231976612776</v>
+      </c>
+      <c r="BG6">
+        <v>6.283700950738558</v>
+      </c>
+      <c r="BH6">
+        <v>2.774919761458674</v>
+      </c>
+      <c r="BI6">
+        <v>2.980301136411735</v>
+      </c>
+      <c r="BJ6">
+        <v>3.536327448052285</v>
+      </c>
+      <c r="BK6">
+        <v>2.68705630931988</v>
+      </c>
+      <c r="BL6">
+        <v>3.232708414993623</v>
+      </c>
+      <c r="BM6">
+        <v>3.419481033148413</v>
+      </c>
+      <c r="BN6">
+        <v>4.772218995218616</v>
+      </c>
+      <c r="BP6">
+        <v>2.077565584804116</v>
+      </c>
+      <c r="BQ6">
+        <v>2.195645547574756</v>
+      </c>
+      <c r="BR6">
+        <v>2.764986918823674</v>
+      </c>
+      <c r="BS6">
+        <v>2.197886067823496</v>
+      </c>
+      <c r="BT6">
+        <v>2.218279709055931</v>
+      </c>
+      <c r="BU6">
+        <v>2.809448664045152</v>
+      </c>
+      <c r="BV6">
+        <v>3.454305113547122</v>
+      </c>
+      <c r="BW6">
+        <v>2.677954756045448</v>
+      </c>
+      <c r="BX6">
+        <v>3.10826832231884</v>
+      </c>
+      <c r="BY6">
+        <v>2.556924420554598</v>
+      </c>
+      <c r="BZ6">
+        <v>2.900242789731972</v>
+      </c>
+      <c r="CA6">
+        <v>2.877865939983159</v>
+      </c>
+      <c r="CB6">
+        <v>3.630366171621075</v>
+      </c>
+      <c r="CC6">
+        <v>3.371228279990276</v>
+      </c>
+      <c r="CE6">
+        <v>4.597271487744606</v>
+      </c>
+      <c r="CF6">
+        <v>2.753196247921044</v>
+      </c>
+      <c r="CG6">
+        <v>4.273207134360488</v>
+      </c>
+      <c r="CI6">
+        <v>4.328269405542714</v>
+      </c>
+      <c r="CJ6">
+        <v>3.13652349037961</v>
+      </c>
+      <c r="CK6">
+        <v>2.392912501117141</v>
+      </c>
+      <c r="CL6">
+        <v>3.621019371751594</v>
+      </c>
+      <c r="CM6">
+        <v>2.126475850285018</v>
       </c>
     </row>
   </sheetData>
@@ -3218,13 +5299,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3282,8 +5363,44 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>630.188</v>
       </c>
@@ -3291,58 +5408,94 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3296603191407701</v>
+        <v>0.4047672723108078</v>
       </c>
       <c r="D2">
-        <v>7.607194817490235</v>
+        <v>0.2385878427032466</v>
       </c>
       <c r="E2">
-        <v>7.728122933146121</v>
+        <v>0.2723700913762375</v>
       </c>
       <c r="F2">
-        <v>7.002176291537233</v>
+        <v>0.3400915191825271</v>
       </c>
       <c r="G2">
-        <v>6.722559889533247</v>
+        <v>0.3875536512699306</v>
       </c>
       <c r="H2">
-        <v>8.091683117621908</v>
+        <v>0.381991520594009</v>
       </c>
       <c r="I2">
-        <v>7.090444231679342</v>
+        <v>0.282881231532491</v>
       </c>
       <c r="J2">
-        <v>6.014854420229931</v>
+        <v>0.4311071334237175</v>
       </c>
       <c r="K2">
-        <v>5.913124903788237</v>
+        <v>0.753617413017786</v>
       </c>
       <c r="L2">
-        <v>2.191644330379332</v>
+        <v>1.074860589339826</v>
       </c>
       <c r="M2">
-        <v>2.452793943130414</v>
+        <v>0.7311989550497923</v>
       </c>
       <c r="N2">
-        <v>1.231754615517668</v>
+        <v>0.9554336620697298</v>
       </c>
       <c r="O2">
-        <v>1.269279739142317</v>
+        <v>0.9711549236114883</v>
       </c>
       <c r="P2">
-        <v>0.7137883422623288</v>
+        <v>1.072282322656125</v>
       </c>
       <c r="Q2">
-        <v>0.734132323750488</v>
+        <v>1.242225292067626</v>
       </c>
       <c r="R2">
-        <v>0.5298018505347537</v>
+        <v>0.8784889806055977</v>
       </c>
       <c r="S2">
-        <v>0.6589046466138117</v>
+        <v>2.046564916304907</v>
+      </c>
+      <c r="T2">
+        <v>1.090221743234609</v>
+      </c>
+      <c r="U2">
+        <v>1.02932351041522</v>
+      </c>
+      <c r="V2">
+        <v>0.975193990746842</v>
+      </c>
+      <c r="W2">
+        <v>1.29306743723188</v>
+      </c>
+      <c r="X2">
+        <v>0.8361796265030672</v>
+      </c>
+      <c r="Y2">
+        <v>0.9754411593774122</v>
+      </c>
+      <c r="Z2">
+        <v>1.410778912597479</v>
+      </c>
+      <c r="AA2">
+        <v>1.218905551909416</v>
+      </c>
+      <c r="AB2">
+        <v>1.752579106073314</v>
+      </c>
+      <c r="AC2">
+        <v>1.475633673131379</v>
+      </c>
+      <c r="AD2">
+        <v>1.512407368848989</v>
+      </c>
+      <c r="AE2">
+        <v>1.746134777440952</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>710.104</v>
       </c>
@@ -3350,58 +5503,94 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3244852376837802</v>
+        <v>0.384648803680752</v>
       </c>
       <c r="D3">
-        <v>6.971752051114541</v>
+        <v>0.2162107044630055</v>
       </c>
       <c r="E3">
-        <v>7.181482420175956</v>
+        <v>0.2647704707091909</v>
       </c>
       <c r="F3">
-        <v>7.005483339446334</v>
+        <v>0.3307775832807495</v>
       </c>
       <c r="G3">
-        <v>7.347239388767625</v>
+        <v>0.3672691861224653</v>
       </c>
       <c r="H3">
-        <v>8.423921638456504</v>
+        <v>0.3690733174776239</v>
       </c>
       <c r="I3">
-        <v>7.839723938535279</v>
+        <v>0.2686271221496865</v>
       </c>
       <c r="J3">
-        <v>5.214740225814023</v>
+        <v>0.4209910278865142</v>
       </c>
       <c r="K3">
-        <v>5.090650467891878</v>
+        <v>0.7358975906304022</v>
       </c>
       <c r="L3">
-        <v>1.835600133481228</v>
+        <v>1.04017891099975</v>
       </c>
       <c r="M3">
-        <v>2.014417079891322</v>
+        <v>0.7114373995609792</v>
       </c>
       <c r="N3">
-        <v>1.084903458018339</v>
+        <v>0.9466545592818473</v>
       </c>
       <c r="O3">
-        <v>1.132711065673662</v>
+        <v>0.9719017976865801</v>
       </c>
       <c r="P3">
-        <v>0.6423328508399366</v>
+        <v>1.071394686191685</v>
       </c>
       <c r="Q3">
-        <v>0.6261915944632312</v>
+        <v>1.228187696180081</v>
       </c>
       <c r="R3">
-        <v>0.4726699849059673</v>
+        <v>0.8495157347257496</v>
       </c>
       <c r="S3">
-        <v>0.5896842798574651</v>
+        <v>2.034155397601074</v>
+      </c>
+      <c r="T3">
+        <v>1.080262639973023</v>
+      </c>
+      <c r="U3">
+        <v>1.003138393424597</v>
+      </c>
+      <c r="V3">
+        <v>0.9514459205831844</v>
+      </c>
+      <c r="W3">
+        <v>1.294935828761734</v>
+      </c>
+      <c r="X3">
+        <v>0.8326296007593876</v>
+      </c>
+      <c r="Y3">
+        <v>0.9670459146134588</v>
+      </c>
+      <c r="Z3">
+        <v>1.379102270887614</v>
+      </c>
+      <c r="AA3">
+        <v>1.180866956063304</v>
+      </c>
+      <c r="AB3">
+        <v>1.741932549727422</v>
+      </c>
+      <c r="AC3">
+        <v>1.411299548586636</v>
+      </c>
+      <c r="AD3">
+        <v>1.497760138526639</v>
+      </c>
+      <c r="AE3">
+        <v>1.75144318523314</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>800.131</v>
       </c>
@@ -3409,58 +5598,94 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3251991258713444</v>
+        <v>0.38724583833077</v>
       </c>
       <c r="D4">
-        <v>7.227610240861648</v>
+        <v>0.2178030589779867</v>
       </c>
       <c r="E4">
-        <v>8.204562606124053</v>
+        <v>0.2553744209939736</v>
       </c>
       <c r="F4">
-        <v>7.820145152460407</v>
+        <v>0.3163590548682878</v>
       </c>
       <c r="G4">
-        <v>5.892466341169427</v>
+        <v>0.3663120373659277</v>
       </c>
       <c r="H4">
-        <v>6.160749714194783</v>
+        <v>0.3521796670393236</v>
       </c>
       <c r="I4">
-        <v>6.339080013451767</v>
+        <v>0.2529096216593006</v>
       </c>
       <c r="J4">
-        <v>5.180290929122628</v>
+        <v>0.4242631872152043</v>
       </c>
       <c r="K4">
-        <v>5.030508234322499</v>
+        <v>0.7923844269135043</v>
       </c>
       <c r="L4">
-        <v>1.829316559547337</v>
+        <v>1.109218928622073</v>
       </c>
       <c r="M4">
-        <v>2.074793805046334</v>
+        <v>0.7200800550529837</v>
       </c>
       <c r="N4">
-        <v>1.033002932219159</v>
+        <v>1.022429094739249</v>
       </c>
       <c r="O4">
-        <v>1.078592944592312</v>
+        <v>1.039744939548679</v>
       </c>
       <c r="P4">
-        <v>0.6058695207428427</v>
+        <v>1.17460109454717</v>
       </c>
       <c r="Q4">
-        <v>0.6024528549060915</v>
+        <v>1.372531859540859</v>
       </c>
       <c r="R4">
-        <v>0.4557975144415266</v>
+        <v>0.9263598029495326</v>
       </c>
       <c r="S4">
-        <v>0.524463430635795</v>
+        <v>2.472193801266102</v>
+      </c>
+      <c r="T4">
+        <v>1.141092145293396</v>
+      </c>
+      <c r="U4">
+        <v>1.065847122748905</v>
+      </c>
+      <c r="V4">
+        <v>1.004452333676275</v>
+      </c>
+      <c r="W4">
+        <v>1.39949286730041</v>
+      </c>
+      <c r="X4">
+        <v>0.8527881923134725</v>
+      </c>
+      <c r="Y4">
+        <v>0.9982602790943456</v>
+      </c>
+      <c r="Z4">
+        <v>1.53744803955544</v>
+      </c>
+      <c r="AA4">
+        <v>1.294089580469466</v>
+      </c>
+      <c r="AB4">
+        <v>2.001465632849115</v>
+      </c>
+      <c r="AC4">
+        <v>1.588309221503571</v>
+      </c>
+      <c r="AD4">
+        <v>1.688575059060687</v>
+      </c>
+      <c r="AE4">
+        <v>2.04286795834219</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>905.029</v>
       </c>
@@ -3468,58 +5693,94 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4291524978073202</v>
+        <v>0.5219333152180983</v>
       </c>
       <c r="D5">
-        <v>5.40281683288105</v>
+        <v>0.4439520357077444</v>
       </c>
       <c r="E5">
-        <v>5.299282098401393</v>
+        <v>0.5127323190880904</v>
       </c>
       <c r="F5">
-        <v>6.22432668209168</v>
+        <v>0.6006004596456398</v>
       </c>
       <c r="G5">
-        <v>6.803495292740686</v>
+        <v>0.664764074783687</v>
       </c>
       <c r="H5">
-        <v>6.786384585995152</v>
+        <v>0.6279258354420605</v>
       </c>
       <c r="I5">
-        <v>5.553139349503119</v>
+        <v>0.4934620272332758</v>
       </c>
       <c r="J5">
-        <v>4.938623207221142</v>
+        <v>0.7355307440316878</v>
       </c>
       <c r="K5">
-        <v>5.004419677264226</v>
+        <v>1.324064852422693</v>
       </c>
       <c r="L5">
-        <v>2.763191183787661</v>
+        <v>1.914538456218399</v>
       </c>
       <c r="M5">
-        <v>2.968294235586116</v>
+        <v>1.156271982194344</v>
       </c>
       <c r="N5">
-        <v>1.489147027617968</v>
+        <v>1.72990368833389</v>
       </c>
       <c r="O5">
-        <v>1.618152000468391</v>
+        <v>1.775627233626854</v>
       </c>
       <c r="P5">
-        <v>0.9179340666752709</v>
+        <v>1.956841332524372</v>
       </c>
       <c r="Q5">
-        <v>0.8773329455751595</v>
+        <v>2.296226019369235</v>
       </c>
       <c r="R5">
-        <v>0.7221838528578617</v>
+        <v>1.537603213919038</v>
       </c>
       <c r="S5">
-        <v>0.8284992157943516</v>
+        <v>4.05704441258831</v>
+      </c>
+      <c r="T5">
+        <v>2.006505999198132</v>
+      </c>
+      <c r="U5">
+        <v>1.801893257440064</v>
+      </c>
+      <c r="V5">
+        <v>1.695957460217261</v>
+      </c>
+      <c r="W5">
+        <v>2.404465269256762</v>
+      </c>
+      <c r="X5">
+        <v>1.455172026119895</v>
+      </c>
+      <c r="Y5">
+        <v>1.704383675436407</v>
+      </c>
+      <c r="Z5">
+        <v>2.591003137371295</v>
+      </c>
+      <c r="AA5">
+        <v>2.164814598484304</v>
+      </c>
+      <c r="AB5">
+        <v>3.394025593936869</v>
+      </c>
+      <c r="AC5">
+        <v>2.812915080821182</v>
+      </c>
+      <c r="AD5">
+        <v>2.882627251710488</v>
+      </c>
+      <c r="AE5">
+        <v>3.343684686110934</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>940.061</v>
       </c>
@@ -3527,386 +5788,91 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.7789980830304857</v>
+        <v>1.041723821926472</v>
       </c>
       <c r="D6">
-        <v>3.385491074810341</v>
+        <v>0.6901653270809502</v>
       </c>
       <c r="E6">
-        <v>3.015813041263556</v>
+        <v>0.8482326987286104</v>
       </c>
       <c r="F6">
-        <v>4.135569588817398</v>
+        <v>1.04735601521119</v>
       </c>
       <c r="G6">
-        <v>4.14626534038717</v>
+        <v>1.169230818277198</v>
       </c>
       <c r="H6">
-        <v>4.601343754802558</v>
+        <v>1.111726264088476</v>
       </c>
       <c r="I6">
-        <v>4.083741773674405</v>
+        <v>0.8404140651645967</v>
       </c>
       <c r="J6">
-        <v>3.324582366591025</v>
+        <v>1.105207052432507</v>
       </c>
       <c r="K6">
-        <v>2.378479853025953</v>
+        <v>2.079324896532999</v>
       </c>
       <c r="L6">
-        <v>3.162615780609991</v>
+        <v>2.608143034246778</v>
       </c>
       <c r="M6">
-        <v>2.773284218380979</v>
+        <v>2.053181718155202</v>
       </c>
       <c r="N6">
-        <v>2.139960449682975</v>
+        <v>2.774054936683648</v>
       </c>
       <c r="O6">
-        <v>2.306440842563572</v>
+        <v>2.743512561384337</v>
       </c>
       <c r="P6">
-        <v>1.514381750740383</v>
+        <v>3.074712813164008</v>
       </c>
       <c r="Q6">
-        <v>1.531037263372565</v>
+        <v>2.931108193410343</v>
       </c>
       <c r="R6">
-        <v>1.130052175388308</v>
+        <v>2.26433503722431</v>
       </c>
       <c r="S6">
-        <v>1.319589466339948</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2">
-        <v>630.188</v>
-      </c>
-      <c r="B2">
-        <v>-0.06046405782794295</v>
-      </c>
-      <c r="C2">
-        <v>0.06046405782794295</v>
-      </c>
-      <c r="D2">
-        <v>0.1398082010019932</v>
-      </c>
-      <c r="E2">
-        <v>-0.1398082010019932</v>
-      </c>
-      <c r="F2">
-        <v>0.5006194429712831</v>
-      </c>
-      <c r="G2">
-        <v>-0.5006194429712831</v>
-      </c>
-      <c r="H2">
-        <v>0.0508647582208468</v>
-      </c>
-      <c r="I2">
-        <v>-0.0508647582208468</v>
-      </c>
-      <c r="J2">
-        <v>-0.1305748063755403</v>
-      </c>
-      <c r="K2">
-        <v>0.1305748063755408</v>
-      </c>
-      <c r="L2">
-        <v>-0.01876256181232439</v>
-      </c>
-      <c r="M2">
-        <v>0.01876256181232461</v>
-      </c>
-      <c r="N2">
-        <v>-0.0101719907440796</v>
-      </c>
-      <c r="O2">
-        <v>0.0101719907440796</v>
-      </c>
-      <c r="P2">
-        <v>-0.06455139803952892</v>
-      </c>
-      <c r="Q2">
-        <v>0.06455139803952903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3">
-        <v>710.104</v>
-      </c>
-      <c r="B3">
-        <v>-0.1048651845307083</v>
-      </c>
-      <c r="C3">
-        <v>0.1048651845307074</v>
-      </c>
-      <c r="D3">
-        <v>-0.1708780246606452</v>
-      </c>
-      <c r="E3">
-        <v>0.1708780246606461</v>
-      </c>
-      <c r="F3">
-        <v>0.2920988499606114</v>
-      </c>
-      <c r="G3">
-        <v>-0.2920988499606132</v>
-      </c>
-      <c r="H3">
-        <v>0.06204487896107125</v>
-      </c>
-      <c r="I3">
-        <v>-0.06204487896107302</v>
-      </c>
-      <c r="J3">
-        <v>-0.08940847320504708</v>
-      </c>
-      <c r="K3">
-        <v>0.08940847320504686</v>
-      </c>
-      <c r="L3">
-        <v>-0.02390380382766111</v>
-      </c>
-      <c r="M3">
-        <v>0.02390380382766133</v>
-      </c>
-      <c r="N3">
-        <v>0.008070628188352691</v>
-      </c>
-      <c r="O3">
-        <v>-0.008070628188352691</v>
-      </c>
-      <c r="P3">
-        <v>-0.05850714747574881</v>
-      </c>
-      <c r="Q3">
-        <v>0.05850714747574892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4">
-        <v>800.131</v>
-      </c>
-      <c r="B4">
-        <v>-0.4884761826312021</v>
-      </c>
-      <c r="C4">
-        <v>0.488476182631203</v>
-      </c>
-      <c r="D4">
-        <v>0.9638394056454906</v>
-      </c>
-      <c r="E4">
-        <v>-0.9638394056454898</v>
-      </c>
-      <c r="F4">
-        <v>-0.08916514962849131</v>
-      </c>
-      <c r="G4">
-        <v>0.0891651496284922</v>
-      </c>
-      <c r="H4">
-        <v>0.07489134740006431</v>
-      </c>
-      <c r="I4">
-        <v>-0.07489134740006431</v>
-      </c>
-      <c r="J4">
-        <v>-0.1227386227494984</v>
-      </c>
-      <c r="K4">
-        <v>0.1227386227494982</v>
-      </c>
-      <c r="L4">
-        <v>-0.02279500618657604</v>
-      </c>
-      <c r="M4">
-        <v>0.02279500618657671</v>
-      </c>
-      <c r="N4">
-        <v>0.001708332918375688</v>
-      </c>
-      <c r="O4">
-        <v>-0.001708332918375577</v>
-      </c>
-      <c r="P4">
-        <v>-0.03433295809713421</v>
-      </c>
-      <c r="Q4">
-        <v>0.03433295809713421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <v>905.029</v>
-      </c>
-      <c r="B5">
-        <v>0.05176736723982867</v>
-      </c>
-      <c r="C5">
-        <v>-0.05176736723982867</v>
-      </c>
-      <c r="D5">
-        <v>-0.2895843053245022</v>
-      </c>
-      <c r="E5">
-        <v>0.2895843053245031</v>
-      </c>
-      <c r="F5">
-        <v>0.6166226182460166</v>
-      </c>
-      <c r="G5">
-        <v>-0.6166226182460166</v>
-      </c>
-      <c r="H5">
-        <v>-0.0328982350215421</v>
-      </c>
-      <c r="I5">
-        <v>0.03289823502154121</v>
-      </c>
-      <c r="J5">
-        <v>-0.1025515258992273</v>
-      </c>
-      <c r="K5">
-        <v>0.1025515258992269</v>
-      </c>
-      <c r="L5">
-        <v>-0.06450248642521128</v>
-      </c>
-      <c r="M5">
-        <v>0.06450248642521128</v>
-      </c>
-      <c r="N5">
-        <v>0.02030056055005569</v>
-      </c>
-      <c r="O5">
-        <v>-0.02030056055005569</v>
-      </c>
-      <c r="P5">
-        <v>-0.05315768146824495</v>
-      </c>
-      <c r="Q5">
-        <v>0.05315768146824495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <v>940.061</v>
-      </c>
-      <c r="B6">
-        <v>0.1848390167733922</v>
-      </c>
-      <c r="C6">
-        <v>-0.1848390167733922</v>
-      </c>
-      <c r="D6">
-        <v>-0.005347875784885936</v>
-      </c>
-      <c r="E6">
-        <v>0.005347875784885936</v>
-      </c>
-      <c r="F6">
-        <v>0.258800990564076</v>
-      </c>
-      <c r="G6">
-        <v>-0.2588009905640769</v>
-      </c>
-      <c r="H6">
-        <v>0.473051256782536</v>
-      </c>
-      <c r="I6">
-        <v>-0.473051256782536</v>
-      </c>
-      <c r="J6">
-        <v>0.1946657811145065</v>
-      </c>
-      <c r="K6">
-        <v>-0.1946657811145056</v>
-      </c>
-      <c r="L6">
-        <v>-0.08324019644029823</v>
-      </c>
-      <c r="M6">
-        <v>0.08324019644029867</v>
-      </c>
-      <c r="N6">
-        <v>-0.008327756316091284</v>
-      </c>
-      <c r="O6">
-        <v>0.008327756316090618</v>
-      </c>
-      <c r="P6">
-        <v>-0.09476864547581987</v>
-      </c>
-      <c r="Q6">
-        <v>0.09476864547582009</v>
+        <v>4.351163845031178</v>
+      </c>
+      <c r="T6">
+        <v>2.665482467399063</v>
+      </c>
+      <c r="U6">
+        <v>3.226072356578228</v>
+      </c>
+      <c r="V6">
+        <v>3.053556561431448</v>
+      </c>
+      <c r="W6">
+        <v>3.847306572035399</v>
+      </c>
+      <c r="X6">
+        <v>2.268882585231777</v>
+      </c>
+      <c r="Y6">
+        <v>2.335944945483632</v>
+      </c>
+      <c r="Z6">
+        <v>2.994319467233675</v>
+      </c>
+      <c r="AA6">
+        <v>2.730263935142579</v>
+      </c>
+      <c r="AB6">
+        <v>3.457050428937666</v>
+      </c>
+      <c r="AC6">
+        <v>3.496611595439736</v>
+      </c>
+      <c r="AD6">
+        <v>3.934560503596755</v>
+      </c>
+      <c r="AE6">
+        <v>2.50134849522938</v>
       </c>
     </row>
   </sheetData>
